--- a/Laser Tracker Worksheet.xlsx
+++ b/Laser Tracker Worksheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jgiquality-my.sharepoint.com/personal/jhall_jgiquality_com/Documents/Desktop/LaserTrackerRepo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jgiquality.sharepoint.com/sites/JGI/Shared Documents/Kelly Kabler's OneDrive/Shared with Everyone/Dimensional Lab South/Peyton/Tools/Laser Trackers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="8_{342C9216-79AE-486D-9263-02FF70392A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5D4B1B5-C2E0-470F-8164-3C10AD994A3A}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{237D9A3D-F1B7-4C95-A32B-051CFACDC72F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB8DFB77-CF1E-4636-9C4F-447D42A2253E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="807" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2415" yWindow="1980" windowWidth="21600" windowHeight="11295" tabRatio="807" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="The details" sheetId="14" r:id="rId1"/>
@@ -37,7 +37,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="50" r:id="rId13"/>
+    <pivotCache cacheId="43" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="411">
   <si>
     <t>Test Position</t>
   </si>
@@ -430,6 +430,9 @@
     <t>Inspector:</t>
   </si>
   <si>
+    <t>JV</t>
+  </si>
+  <si>
     <t>Date Calibrated:</t>
   </si>
   <si>
@@ -457,6 +460,9 @@
     <t xml:space="preserve">Calibration Procedure(s):  </t>
   </si>
   <si>
+    <t xml:space="preserve">                            This item was tested using traceable reference lengths throughout its working volume</t>
+  </si>
+  <si>
     <t>Test Type</t>
   </si>
   <si>
@@ -523,9 +529,6 @@
     <t>TN</t>
   </si>
   <si>
-    <t>LTRB1</t>
-  </si>
-  <si>
     <t>LTRB2</t>
   </si>
   <si>
@@ -1267,19 +1270,25 @@
     <t>56561-045702</t>
   </si>
   <si>
-    <t>56561-047973-01</t>
-  </si>
-  <si>
-    <t>GALAXY TOOL CORPORATION</t>
-  </si>
-  <si>
-    <t>1111 INDUSTRIAL ROAD WINFIELD, KS , 67156</t>
-  </si>
-  <si>
-    <t>GTC-82080</t>
-  </si>
-  <si>
-    <t>ML</t>
+    <t>Hexagon SA</t>
+  </si>
+  <si>
+    <t>To backsight find the two face check button under check/cal inside the instrument docking bar, I belive this apears when you first connect to the device. It was open when we took control.</t>
+  </si>
+  <si>
+    <t>56561-039285</t>
+  </si>
+  <si>
+    <t>PE, ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vector Tooling Technologies </t>
+  </si>
+  <si>
+    <t>22245 C Street Winfield, KS 67156</t>
+  </si>
+  <si>
+    <t>IRLS1</t>
   </si>
 </sst>
 </file>
@@ -2837,64 +2846,8 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2904,6 +2857,62 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3236,7 +3245,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="22" fmlaLink="$B$6" fmlaRange="'tracker specs'!$C$7:$C$25" noThreeD="1" sel="7" val="3"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="22" fmlaLink="$B$6" fmlaRange="'tracker specs'!$C$7:$C$25" noThreeD="1" sel="10" val="6"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3309,8 +3318,8 @@
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1085850</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3538,7 +3547,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Imagy" spid="_x0000_s5926"/>
+                  <a14:cameraTool cellRange="Imagy" spid="_x0000_s5893"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5183,7 +5192,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5B96806F-6E78-4F15-A9C6-6121FC4A380B}" name="PivotTable1" cacheId="50" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5B96806F-6E78-4F15-A9C6-6121FC4A380B}" name="PivotTable1" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="M8:M49" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -5751,7 +5760,7 @@
   <dimension ref="A2:R32"/>
   <sheetViews>
     <sheetView topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5767,10 +5776,10 @@
     <row r="2" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="220"/>
       <c r="C2" s="241" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D2" s="237" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E2" s="231"/>
       <c r="F2" s="231"/>
@@ -5784,10 +5793,10 @@
     <row r="3" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="220"/>
       <c r="C3" s="241" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D3" s="238" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="E3" s="235"/>
       <c r="F3" s="235"/>
@@ -5801,10 +5810,10 @@
     <row r="4" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="220"/>
       <c r="C4" s="241" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D4" s="238" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E4" s="235"/>
       <c r="F4" s="235"/>
@@ -5818,11 +5827,11 @@
     <row r="5" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="220"/>
       <c r="C5" s="241" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D5" s="265"/>
       <c r="E5" s="231" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F5" s="231"/>
       <c r="G5" s="231"/>
@@ -5834,7 +5843,7 @@
     </row>
     <row r="6" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="248">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6" s="241" t="s">
         <v>31</v>
@@ -5852,10 +5861,10 @@
     <row r="7" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B7" s="220"/>
       <c r="C7" s="241" t="s">
-        <v>146</v>
-      </c>
-      <c r="D7" s="239" t="s">
-        <v>406</v>
+        <v>148</v>
+      </c>
+      <c r="D7" s="239">
+        <v>752474</v>
       </c>
       <c r="E7" s="231"/>
       <c r="F7" s="231"/>
@@ -5869,10 +5878,10 @@
     <row r="8" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B8" s="220"/>
       <c r="C8" s="241" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D8" s="239">
-        <v>951078</v>
+        <v>752474</v>
       </c>
       <c r="E8" s="231"/>
       <c r="F8" s="231"/>
@@ -5886,7 +5895,7 @@
     <row r="9" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9" s="220"/>
       <c r="C9" s="241" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D9" s="240">
         <f ca="1">TODAY()</f>
@@ -5904,20 +5913,20 @@
     <row r="10" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B10" s="220"/>
       <c r="C10" s="241" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D10" s="240">
         <f ca="1">DATE(YEAR(D9)+F10,MONTH(D9),DAY(D9))</f>
         <v>46050</v>
       </c>
       <c r="E10" s="231" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F10" s="298">
         <v>1</v>
       </c>
       <c r="G10" s="231" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H10" s="231"/>
       <c r="I10" s="231"/>
@@ -5928,7 +5937,7 @@
     <row r="11" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B11" s="220"/>
       <c r="C11" s="241" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D11" s="239" t="s">
         <v>407</v>
@@ -5945,14 +5954,13 @@
     <row r="12" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B12" s="220"/>
       <c r="C12" s="241" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D12" s="239">
-        <f>AVERAGE('Datasheet, JGI Method'!H7:H24)</f>
-        <v>73</v>
+        <v>69.3</v>
       </c>
       <c r="E12" s="231" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F12" s="231"/>
       <c r="G12" s="231"/>
@@ -5965,11 +5973,13 @@
     <row r="13" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="220"/>
       <c r="C13" s="241" t="s">
-        <v>235</v>
-      </c>
-      <c r="D13" s="239"/>
+        <v>236</v>
+      </c>
+      <c r="D13" s="239">
+        <v>35</v>
+      </c>
       <c r="E13" s="231" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F13" s="231"/>
       <c r="G13" s="231"/>
@@ -5982,10 +5992,10 @@
     <row r="14" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B14" s="220"/>
       <c r="C14" s="241" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D14" s="239" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E14" s="231"/>
       <c r="F14" s="231"/>
@@ -5999,10 +6009,10 @@
     <row r="15" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B15" s="220"/>
       <c r="C15" s="241" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D15" s="239" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E15" s="231"/>
       <c r="F15" s="231"/>
@@ -6019,14 +6029,14 @@
     <row r="16" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B16" s="220"/>
       <c r="C16" s="241" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D16" s="239">
         <v>0</v>
       </c>
       <c r="E16" s="231"/>
       <c r="F16" s="229" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G16" s="233">
         <f>IF(OR(D16&lt;&gt;"",D16&lt;&gt;0),D16+2,2)</f>
@@ -6044,10 +6054,10 @@
     <row r="17" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B17" s="220"/>
       <c r="C17" s="241" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D17" s="239" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E17" s="231"/>
       <c r="F17" s="231"/>
@@ -6062,10 +6072,10 @@
     <row r="18" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B18" s="220"/>
       <c r="C18" s="241" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D18" s="304" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E18" s="305"/>
       <c r="F18" s="305"/>
@@ -6117,7 +6127,7 @@
         <v>62</v>
       </c>
       <c r="D22" s="239" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E22" s="231"/>
       <c r="F22" s="231"/>
@@ -6131,15 +6141,15 @@
     <row r="23" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C23" s="229"/>
       <c r="D23" s="230" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E23" s="231"/>
       <c r="F23" s="231" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G23" s="231"/>
       <c r="H23" s="231" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I23" s="231"/>
       <c r="J23" s="231"/>
@@ -6148,13 +6158,13 @@
     </row>
     <row r="24" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C24" s="241" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D24" s="239">
         <v>600</v>
       </c>
       <c r="E24" s="231" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F24" s="231">
         <v>600</v>
@@ -6168,7 +6178,7 @@
     </row>
     <row r="25" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C25" s="241" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D25" s="240">
         <v>45078</v>
@@ -6186,7 +6196,7 @@
     </row>
     <row r="26" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C26" s="241" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D26" s="240">
         <v>45444</v>
@@ -6204,14 +6214,14 @@
     </row>
     <row r="27" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C27" s="241" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D27" s="239" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E27" s="231"/>
       <c r="F27" s="231" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G27" s="231"/>
       <c r="H27" s="231"/>
@@ -6222,7 +6232,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C28" s="232" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D28" s="233">
         <v>0.7</v>
@@ -6238,7 +6248,7 @@
       <c r="A29" s="241"/>
       <c r="B29" s="241"/>
       <c r="C29" s="241" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D29" s="227">
         <v>90.540859999999995</v>
@@ -6300,8 +6310,8 @@
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>1085850</xdr:colOff>
-                    <xdr:row>6</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>228600</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6370,7 +6380,7 @@
   <sheetData>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D4" t="s">
         <v>65</v>
@@ -6378,12 +6388,12 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B6">
         <v>-5.0000000000000001E-3</v>
@@ -6394,7 +6404,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B7">
         <v>-5.3E-3</v>
@@ -6405,7 +6415,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B8">
         <v>-4.7000000000000002E-3</v>
@@ -6416,7 +6426,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B9">
         <v>-6.6E-3</v>
@@ -6427,7 +6437,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B10">
         <v>-5.4000000000000003E-3</v>
@@ -6438,7 +6448,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B11">
         <v>-4.4999999999999997E-3</v>
@@ -6449,7 +6459,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B12">
         <v>-5.7000000000000002E-3</v>
@@ -6510,7 +6520,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6521,10 +6531,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -6532,7 +6542,7 @@
         <v>42909</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6540,7 +6550,7 @@
         <v>43344</v>
       </c>
       <c r="B3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6548,7 +6558,7 @@
         <v>43385</v>
       </c>
       <c r="B4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6556,7 +6566,7 @@
         <v>43405</v>
       </c>
       <c r="B5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -6572,8 +6582,8 @@
   </sheetPr>
   <dimension ref="A1:AG182"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6616,17 +6626,17 @@
       <c r="O1" s="244"/>
       <c r="P1" s="246"/>
       <c r="Q1" s="285" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="R1" s="285" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="S1" s="285" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="T1" s="243"/>
       <c r="U1" s="244" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="V1" s="244"/>
       <c r="W1" s="244"/>
@@ -6637,7 +6647,7 @@
     </row>
     <row r="2" spans="2:28" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C2" s="34" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D2" s="33"/>
       <c r="E2" s="33"/>
@@ -6645,7 +6655,7 @@
       <c r="G2" s="247"/>
       <c r="H2" s="247">
         <f>'The details'!B6</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I2" s="247"/>
       <c r="J2" s="244"/>
@@ -6656,7 +6666,7 @@
       <c r="O2" s="292"/>
       <c r="P2" s="246"/>
       <c r="Q2" s="285" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="R2" s="285">
         <v>90.548159999999996</v>
@@ -6686,7 +6696,7 @@
         <v>2299.7458930824537</v>
       </c>
       <c r="J3" s="294" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K3" s="244"/>
       <c r="L3" s="244"/>
@@ -6695,7 +6705,7 @@
       <c r="O3" s="247"/>
       <c r="P3" s="246"/>
       <c r="Q3" s="285" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="R3" s="285">
         <v>67.914940000000001</v>
@@ -6713,10 +6723,10 @@
         <v>1</v>
       </c>
       <c r="W3" s="244" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="X3" s="244" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Y3" s="249"/>
       <c r="Z3" s="249"/>
@@ -6750,7 +6760,7 @@
       </c>
       <c r="P4" s="246"/>
       <c r="Q4" s="285" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="R4" s="285">
         <v>45.273850000000003</v>
@@ -6800,7 +6810,7 @@
       <c r="O5" s="244"/>
       <c r="P5" s="246"/>
       <c r="Q5" s="285" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="R5" s="285">
         <v>22.63721</v>
@@ -6840,13 +6850,13 @@
         <v>29</v>
       </c>
       <c r="H6" s="56" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I6" s="37" t="s">
         <v>31</v>
       </c>
       <c r="J6" s="38" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K6" s="37" t="s">
         <v>32</v>
@@ -6873,13 +6883,13 @@
         <v>73</v>
       </c>
       <c r="U6" s="30" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="V6" s="30" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="W6" s="30" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X6" s="30"/>
     </row>
@@ -7817,7 +7827,7 @@
         <v>-90.54117689300999</v>
       </c>
       <c r="I19" s="17">
-        <f>VLOOKUP($H$2,'tracker specs'!$A$7:$M$25,13,FALSE)</f>
+        <f>VLOOKUP($H$2,'tracker specs'!$A$7:$L$25,10,FALSE)</f>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="J19" s="38">
@@ -7876,7 +7886,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D20" s="30" t="str">
         <f t="shared" si="2"/>
@@ -8261,7 +8271,7 @@
         <v>19</v>
       </c>
       <c r="C25" s="288" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D25" s="288" t="str">
         <f t="shared" si="2"/>
@@ -8271,7 +8281,7 @@
         <v>6</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H25" s="55">
         <f>MAX(L25,M25,N25)</f>
@@ -8331,7 +8341,7 @@
         <v>20</v>
       </c>
       <c r="C26" s="289" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D26" s="289" t="str">
         <f t="shared" si="2"/>
@@ -8341,7 +8351,7 @@
         <v>6</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H26" s="55">
         <f t="shared" ref="H26:H32" si="14">MAX(L26,M26,N26)</f>
@@ -8401,7 +8411,7 @@
         <v>21</v>
       </c>
       <c r="C27" s="288" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D27" s="288" t="str">
         <f t="shared" si="2"/>
@@ -8411,7 +8421,7 @@
         <v>6</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H27" s="55">
         <f t="shared" si="14"/>
@@ -8471,7 +8481,7 @@
         <v>22</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D28" s="30" t="str">
         <f t="shared" si="2"/>
@@ -8481,7 +8491,7 @@
         <v>111</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H28" s="55">
         <f t="shared" si="14"/>
@@ -8541,7 +8551,7 @@
         <v>23</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D29" s="30" t="str">
         <f t="shared" si="2"/>
@@ -8551,7 +8561,7 @@
         <v>112</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H29" s="55">
         <f t="shared" si="14"/>
@@ -8611,7 +8621,7 @@
         <v>24</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D30" s="30" t="str">
         <f t="shared" si="2"/>
@@ -8621,7 +8631,7 @@
         <v>9</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H30" s="55">
         <f t="shared" si="14"/>
@@ -8681,7 +8691,7 @@
         <v>25</v>
       </c>
       <c r="C31" s="287" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D31" s="287" t="str">
         <f t="shared" si="2"/>
@@ -8691,7 +8701,7 @@
         <v>9</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H31" s="55">
         <f t="shared" si="14"/>
@@ -8751,7 +8761,7 @@
         <v>26</v>
       </c>
       <c r="C32" s="290" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D32" s="290" t="str">
         <f t="shared" si="2"/>
@@ -8761,7 +8771,7 @@
         <v>6</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H32" s="55">
         <f t="shared" si="14"/>
@@ -8818,7 +8828,7 @@
     </row>
     <row r="33" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="316" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C33" s="316"/>
       <c r="D33" s="316"/>
@@ -8942,10 +8952,10 @@
         <v>1</v>
       </c>
       <c r="AA34" s="244" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AB34" s="244" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -9120,7 +9130,7 @@
         <v>2.7m / 9ft</v>
       </c>
       <c r="E37" s="222" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G37" s="9">
         <f>R37+P37</f>
@@ -9252,14 +9262,14 @@
       <c r="C58" s="314"/>
       <c r="G58" s="30"/>
       <c r="H58" s="208" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I58" s="210">
         <f>AVERAGE(J62,J64,J66,J68,J70,J72,J74,J76,)</f>
         <v>0</v>
       </c>
       <c r="J58" s="217" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K58" s="218" t="str">
         <f>IF(K62&lt;&gt;"",AVERAGE(K62,K64,K66,K68,K70,K72,K74,K76,),"")</f>
@@ -9292,14 +9302,14 @@
       </c>
       <c r="G59" s="41"/>
       <c r="H59" s="209" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I59" s="210">
         <f>MAX(J62,J64,J66,J68,J70,J72,J74,J76)</f>
         <v>0</v>
       </c>
       <c r="J59" s="217" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K59" s="218" t="str">
         <f>IF(K62&lt;&gt;"",MAX(K62,K64,K66,K68,K70,K72,K74,K76),"")</f>
@@ -9409,10 +9419,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J61" s="278" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K61" s="16" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L61" s="10"/>
       <c r="M61" s="10"/>
@@ -9652,7 +9662,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J66" s="279">
-        <f>I27</f>
+        <f>H27</f>
         <v>0</v>
       </c>
       <c r="K66" s="61"/>
@@ -9748,7 +9758,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J68" s="279">
-        <f>I28</f>
+        <f>H28</f>
         <v>0</v>
       </c>
       <c r="L68" s="10"/>
@@ -10159,7 +10169,7 @@
     </row>
     <row r="77" spans="1:33" s="154" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B77" s="315" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C77" s="315"/>
       <c r="D77" s="155"/>
@@ -10304,7 +10314,7 @@
         <v>1</v>
       </c>
       <c r="C80" s="155" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D80" s="155" t="s">
         <v>47</v>
@@ -10394,7 +10404,7 @@
         <v>2</v>
       </c>
       <c r="C81" s="155" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D81" s="155" t="s">
         <v>50</v>
@@ -12371,8 +12381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AD304"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="B15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12393,13 +12403,13 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>60</v>
       </c>
       <c r="C1" s="259" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>85</v>
@@ -12414,11 +12424,11 @@
         <v>103</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M1" s="4" t="str">
         <f>'The details'!$D$2</f>
-        <v>56561-047973-01</v>
+        <v>56561-039285</v>
       </c>
       <c r="U1" s="192" t="str">
         <f>CONCATENATE("Page 3 of ",'The details'!$G$16)</f>
@@ -12427,7 +12437,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B2" s="242" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C2" s="260"/>
       <c r="D2" s="5" t="str">
@@ -12440,7 +12450,7 @@
     </row>
     <row r="3" spans="1:21" ht="27" x14ac:dyDescent="0.35">
       <c r="B3" s="258" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C3" s="260">
         <v>5.0000000000000001E-4</v>
@@ -12458,10 +12468,10 @@
     </row>
     <row r="4" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="B4" s="258" t="s">
+        <v>282</v>
+      </c>
+      <c r="C4" s="260" t="s">
         <v>281</v>
-      </c>
-      <c r="C4" s="260" t="s">
-        <v>284</v>
       </c>
       <c r="D4" s="5" t="str">
         <f t="shared" si="0"/>
@@ -12483,7 +12493,7 @@
       <c r="F5" s="253"/>
       <c r="G5" s="253"/>
       <c r="P5" s="194" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -12504,7 +12514,9 @@
         <f t="shared" si="1"/>
         <v>D1</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="28">
+        <v>1.5000100000000001</v>
+      </c>
       <c r="D7" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Rotated 90° on beam axis</v>
@@ -12513,7 +12525,7 @@
       <c r="F7" s="253"/>
       <c r="G7" s="253"/>
       <c r="P7" s="195" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -12521,7 +12533,9 @@
         <f t="shared" si="1"/>
         <v>D2</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="28">
+        <v>1.5</v>
+      </c>
       <c r="D8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Rotated 180° on beam axis</v>
@@ -12535,7 +12549,9 @@
         <f t="shared" si="1"/>
         <v>D3</v>
       </c>
-      <c r="B9" s="28"/>
+      <c r="B9" s="28">
+        <v>1.4999899999999999</v>
+      </c>
       <c r="D9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Rotated 270° on beam axis</v>
@@ -12555,7 +12571,7 @@
       <c r="P9" s="196"/>
       <c r="Q9" s="196"/>
       <c r="R9" s="197" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="S9" s="255">
         <f ca="1">'The details'!$D$9</f>
@@ -12569,9 +12585,11 @@
         <f t="shared" si="1"/>
         <v>D4</v>
       </c>
-      <c r="B10" s="28"/>
+      <c r="B10" s="28">
+        <v>1.4999899999999999</v>
+      </c>
       <c r="H10" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I10" s="266" t="str">
         <f>Q36</f>
@@ -12590,11 +12608,11 @@
       <c r="P10" s="302"/>
       <c r="Q10" s="302"/>
       <c r="R10" s="300" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="S10" s="302" t="str">
         <f>'The details'!$D$11</f>
-        <v>ML</v>
+        <v>PE, ML</v>
       </c>
       <c r="T10" s="198"/>
       <c r="U10" s="196"/>
@@ -12604,9 +12622,11 @@
         <f t="shared" si="1"/>
         <v>D5</v>
       </c>
-      <c r="B11" s="28"/>
+      <c r="B11" s="28">
+        <v>1.4999899999999999</v>
+      </c>
       <c r="D11" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E11" s="252">
         <f>MAX(E2:E9)</f>
@@ -12625,7 +12645,7 @@
         <v>87</v>
       </c>
       <c r="M11" s="196" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q11" s="200" t="s">
         <v>101</v>
@@ -12646,10 +12666,10 @@
       </c>
       <c r="C12" s="259">
         <f>IF(C4="No",MAX(B7:B11)-MIN(B7:B11),"")</f>
-        <v>0</v>
+        <v>2.0000000000131024E-5</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E12" s="252">
         <f>MIN(E2:E9)</f>
@@ -12689,7 +12709,7 @@
     </row>
     <row r="13" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="D13" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E13" s="252">
         <f>(E11-E12)/2</f>
@@ -12792,7 +12812,7 @@
     </row>
     <row r="16" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K16" s="196"/>
       <c r="L16" s="200">
@@ -12853,7 +12873,7 @@
         <v>60</v>
       </c>
       <c r="C18" s="259" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>85</v>
@@ -12896,7 +12916,7 @@
     </row>
     <row r="19" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="B19" s="242" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C19" s="262"/>
       <c r="D19" s="5" t="str">
@@ -12935,7 +12955,7 @@
     </row>
     <row r="20" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="B20" s="258" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C20" s="260">
         <v>5.0000000000000001E-4</v>
@@ -12965,10 +12985,10 @@
     </row>
     <row r="21" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="B21" s="258" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C21" s="260" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D21" s="5" t="str">
         <f t="shared" si="4"/>
@@ -12979,7 +12999,7 @@
       <c r="G21" s="253"/>
       <c r="K21" s="196"/>
       <c r="P21" s="197" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q21" s="206">
         <f>MIN(Q12:Q19)</f>
@@ -13006,7 +13026,7 @@
       <c r="G22" s="253"/>
       <c r="K22" s="196"/>
       <c r="P22" s="197" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q22" s="206">
         <f>MAX(Q12:Q19)</f>
@@ -13033,7 +13053,7 @@
       <c r="G23" s="253"/>
       <c r="K23" s="196"/>
       <c r="P23" s="197" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q23" s="206">
         <f>(Q22-Q21)/2</f>
@@ -13115,7 +13135,7 @@
       <c r="O26" s="196"/>
       <c r="Q26" s="206">
         <f>IF(P33="","",B7)</f>
-        <v>0</v>
+        <v>1.5000100000000001</v>
       </c>
       <c r="T26" s="196"/>
       <c r="U26" s="196"/>
@@ -13127,7 +13147,7 @@
       </c>
       <c r="B27" s="28"/>
       <c r="H27" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I27" s="266" t="str">
         <f>Q74</f>
@@ -13145,7 +13165,7 @@
       <c r="P27" s="196"/>
       <c r="Q27" s="206">
         <f>IF(P33="","",B8)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="T27" s="196"/>
       <c r="U27" s="196"/>
@@ -13157,7 +13177,7 @@
       </c>
       <c r="B28" s="28"/>
       <c r="D28" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E28" s="252">
         <f>MAX(E19:E26)</f>
@@ -13184,7 +13204,7 @@
       <c r="P28" s="196"/>
       <c r="Q28" s="206">
         <f>IF(P33="","",B9)</f>
-        <v>0</v>
+        <v>1.4999899999999999</v>
       </c>
       <c r="R28" s="204"/>
       <c r="S28" s="204"/>
@@ -13201,7 +13221,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E29" s="252">
         <f>MIN(E19:E26)</f>
@@ -13226,7 +13246,7 @@
       </c>
       <c r="Q29" s="206">
         <f>IF(P33="","",B10)</f>
-        <v>0</v>
+        <v>1.4999899999999999</v>
       </c>
       <c r="R29" s="205"/>
       <c r="S29" s="205"/>
@@ -13235,7 +13255,7 @@
     </row>
     <row r="30" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="D30" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E30" s="252">
         <f>(E28-E29)/2</f>
@@ -13261,7 +13281,7 @@
       <c r="O30" s="197"/>
       <c r="Q30" s="206">
         <f>IF(P33="","",B11)</f>
-        <v>0</v>
+        <v>1.4999899999999999</v>
       </c>
       <c r="R30" s="203"/>
       <c r="S30" s="203"/>
@@ -13294,7 +13314,7 @@
     </row>
     <row r="33" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K33" s="196"/>
       <c r="L33" s="196"/>
@@ -13304,14 +13324,14 @@
       </c>
       <c r="Q33" s="256">
         <f>IF(P33&lt;&gt;"",MAX(Q26:Q30)-MIN(Q26:Q30),"")</f>
-        <v>0</v>
+        <v>2.0000000000131024E-5</v>
       </c>
       <c r="U33" s="196"/>
     </row>
     <row r="34" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="K34" s="196"/>
       <c r="P34" s="197" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q34" s="256">
         <f>HLOOKUP(MAX(Q20:S20),Q20:S23,4,FALSE)</f>
@@ -13325,7 +13345,7 @@
         <v>60</v>
       </c>
       <c r="C35" s="259" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>85</v>
@@ -13343,7 +13363,7 @@
       <c r="L35" s="196"/>
       <c r="M35" s="196"/>
       <c r="P35" s="197" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q35" s="257">
         <f>C3</f>
@@ -13356,7 +13376,7 @@
     </row>
     <row r="36" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="B36" s="242" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C36" s="262"/>
       <c r="D36" s="5" t="str">
@@ -13370,7 +13390,7 @@
       <c r="L36" s="196"/>
       <c r="M36" s="196"/>
       <c r="P36" s="197" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q36" s="203" t="str">
         <f>IF(Q34&lt;=Q35,"Pass","Fail")</f>
@@ -13383,7 +13403,7 @@
     </row>
     <row r="37" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="B37" s="258" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C37" s="260">
         <v>2E-3</v>
@@ -13408,10 +13428,10 @@
     </row>
     <row r="38" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="B38" s="258" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C38" s="260" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D38" s="5" t="str">
         <f t="shared" si="6"/>
@@ -13422,7 +13442,7 @@
       <c r="G38" s="253"/>
       <c r="K38" s="196"/>
       <c r="L38" s="317" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M38" s="317"/>
       <c r="N38" s="317"/>
@@ -13443,11 +13463,11 @@
       <c r="F39" s="253"/>
       <c r="G39" s="253"/>
       <c r="L39" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M39" s="4" t="str">
         <f>'The details'!$D$2</f>
-        <v>56561-047973-01</v>
+        <v>56561-039285</v>
       </c>
       <c r="U39" s="192" t="str">
         <f>CONCATENATE("Page 4 of ",'The details'!$G$16)</f>
@@ -13516,7 +13536,7 @@
       <c r="F43" s="253"/>
       <c r="G43" s="253"/>
       <c r="P43" s="194" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
@@ -13526,7 +13546,7 @@
       </c>
       <c r="B44" s="28"/>
       <c r="H44" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I44" s="266" t="str">
         <f>Q112</f>
@@ -13543,7 +13563,7 @@
         <v/>
       </c>
       <c r="D45" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E45" s="252">
         <f>MAX(E36:E43)</f>
@@ -13558,12 +13578,12 @@
         <v>0</v>
       </c>
       <c r="P45" s="195" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D46" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E46" s="252">
         <f>MIN(E36:E43)</f>
@@ -13580,7 +13600,7 @@
     </row>
     <row r="47" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="D47" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E47" s="252">
         <f>(E45-E46)/2</f>
@@ -13606,7 +13626,7 @@
       <c r="P47" s="196"/>
       <c r="Q47" s="196"/>
       <c r="R47" s="197" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="S47" s="255">
         <f ca="1">'The details'!$D$9</f>
@@ -13629,11 +13649,11 @@
       <c r="P48" s="302"/>
       <c r="Q48" s="302"/>
       <c r="R48" s="300" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="S48" s="302" t="str">
         <f>'The details'!$D$11</f>
-        <v>ML</v>
+        <v>PE, ML</v>
       </c>
       <c r="T48" s="198"/>
       <c r="U48" s="196"/>
@@ -13654,7 +13674,7 @@
         <v>87</v>
       </c>
       <c r="M49" s="196" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q49" s="200" t="s">
         <v>101</v>
@@ -13670,7 +13690,7 @@
     </row>
     <row r="50" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L50" s="200">
         <v>1</v>
@@ -13726,7 +13746,7 @@
         <v>60</v>
       </c>
       <c r="C52" s="259" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>85</v>
@@ -13767,7 +13787,7 @@
     </row>
     <row r="53" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="B53" s="242" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C53" s="262"/>
       <c r="D53" s="5" t="str">
@@ -13805,7 +13825,7 @@
     </row>
     <row r="54" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="B54" s="258" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C54" s="260"/>
       <c r="D54" s="5" t="str">
@@ -13843,10 +13863,10 @@
     </row>
     <row r="55" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="B55" s="258" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C55" s="260" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D55" s="5" t="str">
         <f t="shared" si="12"/>
@@ -13997,17 +14017,17 @@
         <v>Rotated 180° on beam axis</v>
       </c>
       <c r="E59" s="253" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F59" s="253" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G59" s="253" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K59" s="196"/>
       <c r="P59" s="197" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q59" s="206">
         <f>MIN(Q50:Q57)</f>
@@ -14035,17 +14055,17 @@
         <v>Rotated 270° on beam axis</v>
       </c>
       <c r="E60" s="253" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F60" s="253" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G60" s="253" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K60" s="196"/>
       <c r="P60" s="197" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q60" s="206">
         <f>MAX(Q50:Q57)</f>
@@ -14069,7 +14089,7 @@
       </c>
       <c r="B61" s="28"/>
       <c r="H61" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I61" s="266" t="str">
         <f>Q150</f>
@@ -14077,7 +14097,7 @@
       </c>
       <c r="K61" s="196"/>
       <c r="P61" s="197" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q61" s="206">
         <f>(Q60-Q59)/2</f>
@@ -14104,7 +14124,7 @@
         <v>0</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E62" s="252">
         <f>MAX(E53:E60)</f>
@@ -14124,7 +14144,7 @@
     </row>
     <row r="63" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="D63" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E63" s="252">
         <f>MIN(E53:E60)</f>
@@ -14149,7 +14169,7 @@
     </row>
     <row r="64" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="D64" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E64" s="252">
         <f>(E62-E63)/2</f>
@@ -14232,7 +14252,7 @@
     </row>
     <row r="67" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K67" s="196"/>
       <c r="L67" s="200">
@@ -14276,7 +14296,7 @@
         <v>60</v>
       </c>
       <c r="C69" s="259" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>85</v>
@@ -14315,7 +14335,7 @@
     </row>
     <row r="71" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="B71" s="258" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C71" s="260"/>
       <c r="D71" s="5" t="str">
@@ -14339,10 +14359,10 @@
     </row>
     <row r="72" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="B72" s="258" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C72" s="260" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D72" s="5" t="str">
         <f t="shared" si="14"/>
@@ -14353,7 +14373,7 @@
       <c r="G72" s="253"/>
       <c r="K72" s="196"/>
       <c r="P72" s="197" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q72" s="256">
         <f>HLOOKUP(MAX(Q58:S58),Q58:S61,4,FALSE)</f>
@@ -14374,7 +14394,7 @@
       <c r="L73" s="196"/>
       <c r="M73" s="196"/>
       <c r="P73" s="197" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q73" s="257">
         <f>C20</f>
@@ -14402,7 +14422,7 @@
       <c r="L74" s="196"/>
       <c r="M74" s="196"/>
       <c r="P74" s="197" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q74" s="203" t="str">
         <f>IF(Q72&lt;=Q73,"Pass","Fail")</f>
@@ -14448,17 +14468,17 @@
         <v>Rotated 180° on beam axis</v>
       </c>
       <c r="E76" s="253" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F76" s="253" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G76" s="253" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K76" s="196"/>
       <c r="L76" s="317" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M76" s="317"/>
       <c r="N76" s="317"/>
@@ -14481,20 +14501,20 @@
         <v>Rotated 270° on beam axis</v>
       </c>
       <c r="E77" s="253" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F77" s="253" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G77" s="253" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M77" s="4" t="str">
         <f>'The details'!$D$2</f>
-        <v>56561-047973-01</v>
+        <v>56561-039285</v>
       </c>
       <c r="U77" s="192" t="str">
         <f>CONCATENATE("Page 5 of ",'The details'!$G$16)</f>
@@ -14508,7 +14528,7 @@
       </c>
       <c r="B78" s="28"/>
       <c r="H78" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I78" s="266" t="str">
         <f>Q188</f>
@@ -14525,7 +14545,7 @@
         <v>0</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E79" s="252">
         <f>MAX(E70:E77)</f>
@@ -14545,7 +14565,7 @@
     </row>
     <row r="80" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="D80" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E80" s="252">
         <f>MIN(E70:E77)</f>
@@ -14565,7 +14585,7 @@
     </row>
     <row r="81" spans="1:30" ht="18" x14ac:dyDescent="0.25">
       <c r="D81" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E81" s="252">
         <f>(E79-E80)/2</f>
@@ -14580,7 +14600,7 @@
         <v>0</v>
       </c>
       <c r="P81" s="194" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="83" spans="1:30" ht="25.5" x14ac:dyDescent="0.35">
@@ -14595,12 +14615,12 @@
       <c r="I83" s="216"/>
       <c r="J83" s="216"/>
       <c r="P83" s="195" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="84" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="85" spans="1:30" ht="18" x14ac:dyDescent="0.25">
@@ -14616,7 +14636,7 @@
       <c r="P85" s="196"/>
       <c r="Q85" s="196"/>
       <c r="R85" s="197" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="S85" s="255">
         <f ca="1">'The details'!$D$9</f>
@@ -14630,7 +14650,7 @@
         <v>60</v>
       </c>
       <c r="C86" s="259" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>85</v>
@@ -14657,11 +14677,11 @@
       <c r="P86" s="302"/>
       <c r="Q86" s="302"/>
       <c r="R86" s="300" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="S86" s="302" t="str">
         <f>'The details'!$D$11</f>
-        <v>ML</v>
+        <v>PE, ML</v>
       </c>
       <c r="T86" s="198"/>
       <c r="U86" s="196"/>
@@ -14681,7 +14701,7 @@
         <v>87</v>
       </c>
       <c r="M87" s="196" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q87" s="200" t="s">
         <v>101</v>
@@ -14697,7 +14717,7 @@
     </row>
     <row r="88" spans="1:30" ht="18" x14ac:dyDescent="0.25">
       <c r="B88" s="258" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C88" s="260"/>
       <c r="D88" s="5" t="str">
@@ -14733,10 +14753,10 @@
     </row>
     <row r="89" spans="1:30" ht="18" x14ac:dyDescent="0.25">
       <c r="B89" s="258" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C89" s="260" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D89" s="5" t="str">
         <f t="shared" si="16"/>
@@ -14802,10 +14822,10 @@
       </c>
       <c r="U90" s="196"/>
       <c r="AC90" t="s">
+        <v>284</v>
+      </c>
+      <c r="AD90" t="s">
         <v>283</v>
-      </c>
-      <c r="AD90" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="91" spans="1:30" ht="18" x14ac:dyDescent="0.25">
@@ -14847,10 +14867,10 @@
       <c r="T91" s="196"/>
       <c r="U91" s="196"/>
       <c r="AC91" s="196" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AD91" s="196" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="92" spans="1:30" ht="18" x14ac:dyDescent="0.25">
@@ -14892,10 +14912,10 @@
       <c r="T92" s="196"/>
       <c r="U92" s="196"/>
       <c r="AC92" s="196" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AD92" s="196" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="93" spans="1:30" ht="18" x14ac:dyDescent="0.25">
@@ -14909,13 +14929,13 @@
         <v>Rotated 180° on beam axis</v>
       </c>
       <c r="E93" s="253" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F93" s="253" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G93" s="253" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K93" s="196"/>
       <c r="L93" s="200" t="str">
@@ -14944,10 +14964,10 @@
       <c r="T93" s="196"/>
       <c r="U93" s="196"/>
       <c r="AC93" s="196" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AD93" s="196" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="94" spans="1:30" ht="18" x14ac:dyDescent="0.25">
@@ -14961,13 +14981,13 @@
         <v>Rotated 270° on beam axis</v>
       </c>
       <c r="E94" s="253" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F94" s="253" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G94" s="253" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K94" s="196"/>
       <c r="L94" s="200" t="str">
@@ -14996,10 +15016,10 @@
       <c r="T94" s="196"/>
       <c r="U94" s="196"/>
       <c r="AC94" s="196" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AD94" s="196" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="95" spans="1:30" ht="18" x14ac:dyDescent="0.25">
@@ -15009,7 +15029,7 @@
       </c>
       <c r="B95" s="28"/>
       <c r="H95" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I95" s="266" t="str">
         <f>Q226</f>
@@ -15042,10 +15062,10 @@
       <c r="T95" s="196"/>
       <c r="U95" s="196"/>
       <c r="AC95" s="196" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AD95" s="196" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="96" spans="1:30" ht="18" x14ac:dyDescent="0.25">
@@ -15058,7 +15078,7 @@
         <v>0</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E96" s="252">
         <f>MAX(E87:E94)</f>
@@ -15088,15 +15108,15 @@
       <c r="T96" s="196"/>
       <c r="U96" s="196"/>
       <c r="AC96" s="196" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AD96" s="196" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="97" spans="1:30" ht="18" x14ac:dyDescent="0.25">
       <c r="D97" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E97" s="252">
         <f>MIN(E87:E94)</f>
@@ -15112,7 +15132,7 @@
       </c>
       <c r="K97" s="196"/>
       <c r="P97" s="197" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q97" s="206">
         <f>MIN(Q88:Q95)</f>
@@ -15129,15 +15149,15 @@
       <c r="T97" s="196"/>
       <c r="U97" s="196"/>
       <c r="AC97" s="196" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AD97" s="196" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="98" spans="1:30" ht="18" x14ac:dyDescent="0.25">
       <c r="D98" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E98" s="252">
         <f>(E96-E97)/2</f>
@@ -15153,7 +15173,7 @@
       </c>
       <c r="K98" s="196"/>
       <c r="P98" s="197" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q98" s="206">
         <f>MAX(Q88:Q95)</f>
@@ -15170,16 +15190,16 @@
       <c r="T98" s="196"/>
       <c r="U98" s="196"/>
       <c r="AC98" s="196" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AD98" s="196" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="99" spans="1:30" ht="18" x14ac:dyDescent="0.25">
       <c r="K99" s="196"/>
       <c r="P99" s="197" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q99" s="206">
         <f>(Q98-Q97)/2</f>
@@ -15288,7 +15308,7 @@
       <c r="T103" s="196"/>
       <c r="U103" s="196"/>
       <c r="AD103" s="196" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="104" spans="1:30" ht="18" x14ac:dyDescent="0.25">
@@ -15322,7 +15342,7 @@
       <c r="T104" s="196"/>
       <c r="U104" s="196"/>
       <c r="AD104" s="196" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="105" spans="1:30" ht="18" x14ac:dyDescent="0.25">
@@ -15354,7 +15374,7 @@
       <c r="T105" s="196"/>
       <c r="U105" s="196"/>
       <c r="AD105" s="196" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="106" spans="1:30" ht="18" x14ac:dyDescent="0.25">
@@ -15386,7 +15406,7 @@
       <c r="S106" s="203"/>
       <c r="U106" s="196"/>
       <c r="AD106" s="196" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="107" spans="1:30" ht="18" x14ac:dyDescent="0.25">
@@ -15407,7 +15427,7 @@
       <c r="T107" s="202"/>
       <c r="U107" s="196"/>
       <c r="AD107" s="196" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="108" spans="1:30" ht="18" x14ac:dyDescent="0.25">
@@ -15427,7 +15447,7 @@
       <c r="T108" s="202"/>
       <c r="U108" s="196"/>
       <c r="AD108" s="196" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="109" spans="1:30" ht="18" x14ac:dyDescent="0.25">
@@ -15453,7 +15473,7 @@
       </c>
       <c r="U109" s="196"/>
       <c r="AD109" s="196" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="110" spans="1:30" ht="18" x14ac:dyDescent="0.25">
@@ -15469,7 +15489,7 @@
       <c r="J110" s="196"/>
       <c r="K110" s="196"/>
       <c r="P110" s="197" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q110" s="256">
         <f>HLOOKUP(MAX(Q96:S96),Q96:S99,4,FALSE)</f>
@@ -15493,7 +15513,7 @@
       <c r="L111" s="196"/>
       <c r="M111" s="196"/>
       <c r="P111" s="197" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q111" s="257">
         <f>C37</f>
@@ -15519,7 +15539,7 @@
       <c r="L112" s="196"/>
       <c r="M112" s="196"/>
       <c r="P112" s="197" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q112" s="203" t="str">
         <f>IF(Q110&lt;=Q111,"Pass","Fail")</f>
@@ -15565,7 +15585,7 @@
       <c r="J114" s="196"/>
       <c r="K114" s="196"/>
       <c r="L114" s="317" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M114" s="317"/>
       <c r="N114" s="317"/>
@@ -15589,11 +15609,11 @@
       <c r="I115" s="196"/>
       <c r="J115" s="196"/>
       <c r="L115" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M115" s="4" t="str">
         <f>'The details'!$D$2</f>
-        <v>56561-047973-01</v>
+        <v>56561-039285</v>
       </c>
       <c r="U115" s="192" t="str">
         <f>CONCATENATE("Page 6 of ",'The details'!$G$16)</f>
@@ -15654,7 +15674,7 @@
       <c r="I119" s="196"/>
       <c r="J119" s="196"/>
       <c r="P119" s="194" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="120" spans="1:21" ht="18" x14ac:dyDescent="0.25">
@@ -15681,7 +15701,7 @@
       <c r="I121" s="196"/>
       <c r="J121" s="196"/>
       <c r="P121" s="195" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="122" spans="1:21" ht="18" x14ac:dyDescent="0.25">
@@ -15719,7 +15739,7 @@
       <c r="P123" s="196"/>
       <c r="Q123" s="196"/>
       <c r="R123" s="197" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="S123" s="255">
         <f ca="1">'The details'!$D$9</f>
@@ -15752,11 +15772,11 @@
       <c r="P124" s="302"/>
       <c r="Q124" s="302"/>
       <c r="R124" s="300" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="S124" s="302" t="str">
         <f>'The details'!$D$11</f>
-        <v>ML</v>
+        <v>PE, ML</v>
       </c>
       <c r="T124" s="198"/>
       <c r="U124" s="196"/>
@@ -15777,7 +15797,7 @@
         <v>87</v>
       </c>
       <c r="M125" s="196" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q125" s="200" t="s">
         <v>101</v>
@@ -16125,7 +16145,7 @@
       <c r="J135" s="196"/>
       <c r="K135" s="196"/>
       <c r="P135" s="197" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q135" s="206">
         <f>MIN(Q126:Q133)</f>
@@ -16145,7 +16165,7 @@
     <row r="136" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="K136" s="196"/>
       <c r="P136" s="197" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q136" s="206">
         <f>MAX(Q126:Q133)</f>
@@ -16165,7 +16185,7 @@
     <row r="137" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="K137" s="196"/>
       <c r="P137" s="197" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q137" s="206">
         <f>(Q136-Q135)/2</f>
@@ -16324,7 +16344,7 @@
     <row r="148" spans="11:21" ht="18" x14ac:dyDescent="0.25">
       <c r="K148" s="196"/>
       <c r="P148" s="197" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q148" s="256">
         <f>HLOOKUP(MAX(Q134:S134),Q134:S137,4,FALSE)</f>
@@ -16338,7 +16358,7 @@
       <c r="L149" s="196"/>
       <c r="M149" s="196"/>
       <c r="P149" s="197" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q149" s="257">
         <f>C54</f>
@@ -16354,7 +16374,7 @@
       <c r="L150" s="196"/>
       <c r="M150" s="196"/>
       <c r="P150" s="197" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q150" s="203" t="str">
         <f>IF(Q148&lt;=Q149,"Pass","Fail")</f>
@@ -16380,7 +16400,7 @@
     <row r="152" spans="11:21" ht="18" x14ac:dyDescent="0.25">
       <c r="K152" s="196"/>
       <c r="L152" s="317" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M152" s="317"/>
       <c r="N152" s="317"/>
@@ -16394,11 +16414,11 @@
     </row>
     <row r="153" spans="11:21" x14ac:dyDescent="0.25">
       <c r="L153" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M153" s="4" t="str">
         <f>'The details'!$D$2</f>
-        <v>56561-047973-01</v>
+        <v>56561-039285</v>
       </c>
       <c r="U153" s="192" t="str">
         <f>CONCATENATE("Page 7 of ",'The details'!$G$16)</f>
@@ -16417,12 +16437,12 @@
     </row>
     <row r="157" spans="11:21" ht="18" x14ac:dyDescent="0.25">
       <c r="P157" s="194" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="159" spans="11:21" ht="25.5" x14ac:dyDescent="0.35">
       <c r="P159" s="195" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="161" spans="11:21" ht="18" x14ac:dyDescent="0.25">
@@ -16438,7 +16458,7 @@
       <c r="P161" s="196"/>
       <c r="Q161" s="196"/>
       <c r="R161" s="197" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="S161" s="255">
         <f ca="1">'The details'!$D$9</f>
@@ -16461,11 +16481,11 @@
       <c r="P162" s="302"/>
       <c r="Q162" s="302"/>
       <c r="R162" s="300" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="S162" s="302" t="str">
         <f>'The details'!$D$11</f>
-        <v>ML</v>
+        <v>PE, ML</v>
       </c>
       <c r="T162" s="198"/>
       <c r="U162" s="196"/>
@@ -16476,7 +16496,7 @@
         <v>87</v>
       </c>
       <c r="M163" s="196" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q163" s="200" t="s">
         <v>101</v>
@@ -16724,7 +16744,7 @@
     <row r="173" spans="11:21" ht="18" x14ac:dyDescent="0.25">
       <c r="K173" s="196"/>
       <c r="P173" s="197" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q173" s="206">
         <f>MIN(Q164:Q171)</f>
@@ -16744,7 +16764,7 @@
     <row r="174" spans="11:21" ht="18" x14ac:dyDescent="0.25">
       <c r="K174" s="196"/>
       <c r="P174" s="197" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q174" s="206">
         <f>MAX(Q164:Q171)</f>
@@ -16764,7 +16784,7 @@
     <row r="175" spans="11:21" ht="18" x14ac:dyDescent="0.25">
       <c r="K175" s="196"/>
       <c r="P175" s="197" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q175" s="206">
         <f>(Q174-Q173)/2</f>
@@ -16923,7 +16943,7 @@
     <row r="186" spans="11:21" ht="18" x14ac:dyDescent="0.25">
       <c r="K186" s="196"/>
       <c r="P186" s="197" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q186" s="256">
         <f>HLOOKUP(MAX(Q172:S172),Q172:S175,4,FALSE)</f>
@@ -16937,7 +16957,7 @@
       <c r="L187" s="196"/>
       <c r="M187" s="196"/>
       <c r="P187" s="197" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q187" s="257">
         <f>C71</f>
@@ -16953,7 +16973,7 @@
       <c r="L188" s="196"/>
       <c r="M188" s="196"/>
       <c r="P188" s="197" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q188" s="203" t="str">
         <f>IF(Q186&lt;=Q187,"Pass","Fail")</f>
@@ -16979,7 +16999,7 @@
     <row r="190" spans="11:21" ht="18" x14ac:dyDescent="0.25">
       <c r="K190" s="196"/>
       <c r="L190" s="317" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M190" s="317"/>
       <c r="N190" s="317"/>
@@ -16993,11 +17013,11 @@
     </row>
     <row r="191" spans="11:21" x14ac:dyDescent="0.25">
       <c r="L191" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M191" s="4" t="str">
         <f>'The details'!$D$2</f>
-        <v>56561-047973-01</v>
+        <v>56561-039285</v>
       </c>
       <c r="U191" s="192" t="str">
         <f>CONCATENATE("Page 8 of ",'The details'!$G$16)</f>
@@ -17016,12 +17036,12 @@
     </row>
     <row r="195" spans="11:21" ht="18" x14ac:dyDescent="0.25">
       <c r="P195" s="194" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="197" spans="11:21" ht="25.5" x14ac:dyDescent="0.35">
       <c r="P197" s="195" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="199" spans="11:21" ht="18" x14ac:dyDescent="0.25">
@@ -17037,7 +17057,7 @@
       <c r="P199" s="196"/>
       <c r="Q199" s="196"/>
       <c r="R199" s="197" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="S199" s="255">
         <f ca="1">'The details'!$D$9</f>
@@ -17060,11 +17080,11 @@
       <c r="P200" s="302"/>
       <c r="Q200" s="302"/>
       <c r="R200" s="300" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="S200" s="302" t="str">
         <f>'The details'!$D$11</f>
-        <v>ML</v>
+        <v>PE, ML</v>
       </c>
       <c r="T200" s="198"/>
       <c r="U200" s="196"/>
@@ -17075,7 +17095,7 @@
         <v>87</v>
       </c>
       <c r="M201" s="196" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q201" s="200" t="s">
         <v>101</v>
@@ -17323,7 +17343,7 @@
     <row r="211" spans="11:21" ht="18" x14ac:dyDescent="0.25">
       <c r="K211" s="196"/>
       <c r="P211" s="197" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q211" s="206">
         <f>MIN(Q202:Q209)</f>
@@ -17343,7 +17363,7 @@
     <row r="212" spans="11:21" ht="18" x14ac:dyDescent="0.25">
       <c r="K212" s="196"/>
       <c r="P212" s="197" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q212" s="206">
         <f>MAX(Q202:Q209)</f>
@@ -17363,7 +17383,7 @@
     <row r="213" spans="11:21" ht="18" x14ac:dyDescent="0.25">
       <c r="K213" s="196"/>
       <c r="P213" s="197" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q213" s="206">
         <f>(Q212-Q211)/2</f>
@@ -17522,7 +17542,7 @@
     <row r="224" spans="11:21" ht="18" x14ac:dyDescent="0.25">
       <c r="K224" s="196"/>
       <c r="P224" s="197" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q224" s="256">
         <f>HLOOKUP(MAX(Q210:S210),Q210:S213,4,FALSE)</f>
@@ -17536,7 +17556,7 @@
       <c r="L225" s="196"/>
       <c r="M225" s="196"/>
       <c r="P225" s="197" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q225" s="257">
         <f>C88</f>
@@ -17552,7 +17572,7 @@
       <c r="L226" s="196"/>
       <c r="M226" s="196"/>
       <c r="P226" s="197" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q226" s="203" t="str">
         <f>IF(Q224&lt;=Q225,"Pass","Fail")</f>
@@ -17578,7 +17598,7 @@
     <row r="228" spans="11:21" ht="18" x14ac:dyDescent="0.25">
       <c r="K228" s="196"/>
       <c r="L228" s="317" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M228" s="317"/>
       <c r="N228" s="317"/>
@@ -17592,11 +17612,11 @@
     </row>
     <row r="229" spans="11:21" x14ac:dyDescent="0.25">
       <c r="L229" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M229" s="4" t="str">
         <f>'The details'!$D$2</f>
-        <v>56561-047973-01</v>
+        <v>56561-039285</v>
       </c>
       <c r="U229" s="192" t="str">
         <f>CONCATENATE("Page 3 of ",'The details'!$G$16)</f>
@@ -17615,12 +17635,12 @@
     </row>
     <row r="233" spans="11:21" ht="18" x14ac:dyDescent="0.25">
       <c r="P233" s="194" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="235" spans="11:21" ht="25.5" x14ac:dyDescent="0.35">
       <c r="P235" s="195" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="237" spans="11:21" ht="18" x14ac:dyDescent="0.25">
@@ -17636,7 +17656,7 @@
       <c r="P237" s="196"/>
       <c r="Q237" s="196"/>
       <c r="R237" s="197" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="S237" s="255">
         <f ca="1">'The details'!$D$9</f>
@@ -17659,11 +17679,11 @@
       <c r="P238" s="302"/>
       <c r="Q238" s="302"/>
       <c r="R238" s="300" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="S238" s="302" t="str">
         <f>'The details'!$D$11</f>
-        <v>ML</v>
+        <v>PE, ML</v>
       </c>
       <c r="T238" s="198"/>
       <c r="U238" s="196"/>
@@ -17674,7 +17694,7 @@
         <v>87</v>
       </c>
       <c r="M239" s="196" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q239" s="200" t="s">
         <v>101</v>
@@ -17922,7 +17942,7 @@
     <row r="249" spans="11:21" ht="18" x14ac:dyDescent="0.25">
       <c r="K249" s="196"/>
       <c r="P249" s="197" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q249" s="206">
         <f>MIN(Q240:Q247)</f>
@@ -17942,7 +17962,7 @@
     <row r="250" spans="11:21" ht="18" x14ac:dyDescent="0.25">
       <c r="K250" s="196"/>
       <c r="P250" s="197" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q250" s="206">
         <f>MAX(Q240:Q247)</f>
@@ -17962,7 +17982,7 @@
     <row r="251" spans="11:21" ht="18" x14ac:dyDescent="0.25">
       <c r="K251" s="196"/>
       <c r="P251" s="197" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q251" s="206">
         <f>(Q250-Q249)/2</f>
@@ -18121,7 +18141,7 @@
     <row r="262" spans="11:21" ht="18" x14ac:dyDescent="0.25">
       <c r="K262" s="196"/>
       <c r="P262" s="197" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q262" s="256">
         <f>HLOOKUP(MAX(Q248:S248),Q248:S251,4,FALSE)</f>
@@ -18135,7 +18155,7 @@
       <c r="L263" s="196"/>
       <c r="M263" s="196"/>
       <c r="P263" s="197" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q263" s="257">
         <f>C231</f>
@@ -18151,7 +18171,7 @@
       <c r="L264" s="196"/>
       <c r="M264" s="196"/>
       <c r="P264" s="197" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q264" s="203" t="str">
         <f>IF(Q262&lt;=Q263,"Pass","Fail")</f>
@@ -18177,7 +18197,7 @@
     <row r="266" spans="11:21" ht="18" x14ac:dyDescent="0.25">
       <c r="K266" s="196"/>
       <c r="L266" s="317" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M266" s="317"/>
       <c r="N266" s="317"/>
@@ -18191,11 +18211,11 @@
     </row>
     <row r="267" spans="11:21" x14ac:dyDescent="0.25">
       <c r="L267" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M267" s="4" t="str">
         <f>'The details'!$D$2</f>
-        <v>56561-047973-01</v>
+        <v>56561-039285</v>
       </c>
       <c r="U267" s="192" t="str">
         <f>CONCATENATE("Page 3 of ",'The details'!$G$16)</f>
@@ -18214,12 +18234,12 @@
     </row>
     <row r="271" spans="11:21" ht="18" x14ac:dyDescent="0.25">
       <c r="P271" s="194" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="273" spans="11:21" ht="25.5" x14ac:dyDescent="0.35">
       <c r="P273" s="195" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="275" spans="11:21" ht="18" x14ac:dyDescent="0.25">
@@ -18235,7 +18255,7 @@
       <c r="P275" s="196"/>
       <c r="Q275" s="196"/>
       <c r="R275" s="197" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="S275" s="255">
         <f ca="1">'The details'!$D$9</f>
@@ -18258,11 +18278,11 @@
       <c r="P276" s="302"/>
       <c r="Q276" s="302"/>
       <c r="R276" s="300" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="S276" s="302" t="str">
         <f>'The details'!$D$11</f>
-        <v>ML</v>
+        <v>PE, ML</v>
       </c>
       <c r="T276" s="198"/>
       <c r="U276" s="196"/>
@@ -18273,7 +18293,7 @@
         <v>87</v>
       </c>
       <c r="M277" s="196" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q277" s="200" t="s">
         <v>101</v>
@@ -18521,7 +18541,7 @@
     <row r="287" spans="11:21" ht="18" x14ac:dyDescent="0.25">
       <c r="K287" s="196"/>
       <c r="P287" s="197" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q287" s="206">
         <f>MIN(Q278:Q285)</f>
@@ -18541,7 +18561,7 @@
     <row r="288" spans="11:21" ht="18" x14ac:dyDescent="0.25">
       <c r="K288" s="196"/>
       <c r="P288" s="197" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q288" s="206">
         <f>MAX(Q278:Q285)</f>
@@ -18561,7 +18581,7 @@
     <row r="289" spans="11:21" ht="18" x14ac:dyDescent="0.25">
       <c r="K289" s="196"/>
       <c r="P289" s="197" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q289" s="206">
         <f>(Q288-Q287)/2</f>
@@ -18720,7 +18740,7 @@
     <row r="300" spans="11:21" ht="18" x14ac:dyDescent="0.25">
       <c r="K300" s="196"/>
       <c r="P300" s="197" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q300" s="256">
         <f>HLOOKUP(MAX(Q286:S286),Q286:S289,4,FALSE)</f>
@@ -18734,7 +18754,7 @@
       <c r="L301" s="196"/>
       <c r="M301" s="196"/>
       <c r="P301" s="197" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q301" s="257">
         <f>C269</f>
@@ -18750,7 +18770,7 @@
       <c r="L302" s="196"/>
       <c r="M302" s="196"/>
       <c r="P302" s="197" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q302" s="203" t="str">
         <f>IF(Q300&lt;=Q301,"Pass","Fail")</f>
@@ -18776,7 +18796,7 @@
     <row r="304" spans="11:21" ht="18" x14ac:dyDescent="0.25">
       <c r="K304" s="196"/>
       <c r="L304" s="317" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M304" s="317"/>
       <c r="N304" s="317"/>
@@ -18816,8 +18836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:CX102"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="M43" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14:M14"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="V53" sqref="V53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18839,21 +18859,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:102" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A2" s="335" t="s">
+      <c r="A2" s="319" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="335"/>
-      <c r="C2" s="335"/>
-      <c r="D2" s="335"/>
-      <c r="E2" s="335"/>
-      <c r="F2" s="335"/>
-      <c r="G2" s="335"/>
-      <c r="H2" s="335"/>
-      <c r="I2" s="335"/>
-      <c r="J2" s="335"/>
-      <c r="K2" s="335"/>
-      <c r="L2" s="335"/>
-      <c r="M2" s="335"/>
+      <c r="B2" s="319"/>
+      <c r="C2" s="319"/>
+      <c r="D2" s="319"/>
+      <c r="E2" s="319"/>
+      <c r="F2" s="319"/>
+      <c r="G2" s="319"/>
+      <c r="H2" s="319"/>
+      <c r="I2" s="319"/>
+      <c r="J2" s="319"/>
+      <c r="K2" s="319"/>
+      <c r="L2" s="319"/>
+      <c r="M2" s="319"/>
       <c r="S2" s="64"/>
       <c r="T2" s="64"/>
       <c r="U2" s="64"/>
@@ -18940,21 +18960,21 @@
       <c r="CX2"/>
     </row>
     <row r="3" spans="1:102" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="336" t="s">
+      <c r="A3" s="320" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="336"/>
-      <c r="C3" s="336"/>
-      <c r="D3" s="336"/>
-      <c r="E3" s="336"/>
-      <c r="F3" s="336"/>
-      <c r="G3" s="336"/>
-      <c r="H3" s="336"/>
-      <c r="I3" s="336"/>
-      <c r="J3" s="336"/>
-      <c r="K3" s="336"/>
-      <c r="L3" s="336"/>
-      <c r="M3" s="336"/>
+      <c r="B3" s="320"/>
+      <c r="C3" s="320"/>
+      <c r="D3" s="320"/>
+      <c r="E3" s="320"/>
+      <c r="F3" s="320"/>
+      <c r="G3" s="320"/>
+      <c r="H3" s="320"/>
+      <c r="I3" s="320"/>
+      <c r="J3" s="320"/>
+      <c r="K3" s="320"/>
+      <c r="L3" s="320"/>
+      <c r="M3" s="320"/>
       <c r="S3" s="64"/>
       <c r="T3" s="64"/>
       <c r="U3" s="64"/>
@@ -19041,21 +19061,21 @@
       <c r="CX3"/>
     </row>
     <row r="4" spans="1:102" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="336" t="s">
+      <c r="A4" s="320" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="336"/>
-      <c r="C4" s="336"/>
-      <c r="D4" s="336"/>
-      <c r="E4" s="336"/>
-      <c r="F4" s="336"/>
-      <c r="G4" s="336"/>
-      <c r="H4" s="336"/>
-      <c r="I4" s="336"/>
-      <c r="J4" s="336"/>
-      <c r="K4" s="336"/>
-      <c r="L4" s="336"/>
-      <c r="M4" s="336"/>
+      <c r="B4" s="320"/>
+      <c r="C4" s="320"/>
+      <c r="D4" s="320"/>
+      <c r="E4" s="320"/>
+      <c r="F4" s="320"/>
+      <c r="G4" s="320"/>
+      <c r="H4" s="320"/>
+      <c r="I4" s="320"/>
+      <c r="J4" s="320"/>
+      <c r="K4" s="320"/>
+      <c r="L4" s="320"/>
+      <c r="M4" s="320"/>
       <c r="S4" s="64"/>
       <c r="T4" s="64"/>
       <c r="U4" s="64"/>
@@ -19327,22 +19347,22 @@
       <c r="CX6"/>
     </row>
     <row r="7" spans="1:102" ht="45.75" x14ac:dyDescent="0.65">
-      <c r="A7" s="337" t="str">
+      <c r="A7" s="321" t="str">
         <f>IF(R16=TRUE,"Certificate of Inspection","Certificate of Calibration")</f>
         <v>Certificate of Calibration</v>
       </c>
-      <c r="B7" s="337"/>
-      <c r="C7" s="337"/>
-      <c r="D7" s="337"/>
-      <c r="E7" s="337"/>
-      <c r="F7" s="337"/>
-      <c r="G7" s="337"/>
-      <c r="H7" s="337"/>
-      <c r="I7" s="337"/>
-      <c r="J7" s="337"/>
-      <c r="K7" s="337"/>
-      <c r="L7" s="337"/>
-      <c r="M7" s="337"/>
+      <c r="B7" s="321"/>
+      <c r="C7" s="321"/>
+      <c r="D7" s="321"/>
+      <c r="E7" s="321"/>
+      <c r="F7" s="321"/>
+      <c r="G7" s="321"/>
+      <c r="H7" s="321"/>
+      <c r="I7" s="321"/>
+      <c r="J7" s="321"/>
+      <c r="K7" s="321"/>
+      <c r="L7" s="321"/>
+      <c r="M7" s="321"/>
       <c r="O7" s="65"/>
       <c r="S7" s="64"/>
       <c r="T7" s="64"/>
@@ -19531,11 +19551,11 @@
     </row>
     <row r="9" spans="1:102" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9" s="68" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C9" s="75" t="str">
         <f>'The details'!D2</f>
-        <v>56561-047973-01</v>
+        <v>56561-039285</v>
       </c>
       <c r="M9" s="70" t="str">
         <f>CONCATENATE("Page 1 of ",'The details'!G16)</f>
@@ -19630,17 +19650,17 @@
       <c r="B10" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="332" t="str">
+      <c r="C10" s="318" t="str">
         <f>'The details'!D3</f>
-        <v>GALAXY TOOL CORPORATION</v>
-      </c>
-      <c r="D10" s="332"/>
-      <c r="E10" s="332"/>
-      <c r="F10" s="332"/>
-      <c r="G10" s="332"/>
-      <c r="H10" s="332"/>
-      <c r="I10" s="332"/>
-      <c r="J10" s="332"/>
+        <v xml:space="preserve">Vector Tooling Technologies </v>
+      </c>
+      <c r="D10" s="318"/>
+      <c r="E10" s="318"/>
+      <c r="F10" s="318"/>
+      <c r="G10" s="318"/>
+      <c r="H10" s="318"/>
+      <c r="I10" s="318"/>
+      <c r="J10" s="318"/>
       <c r="K10" s="69"/>
       <c r="M10" s="214" t="s">
         <v>118</v>
@@ -19734,17 +19754,17 @@
       <c r="B11" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="332" t="str">
+      <c r="C11" s="318" t="str">
         <f>'The details'!D4</f>
-        <v>1111 INDUSTRIAL ROAD WINFIELD, KS , 67156</v>
-      </c>
-      <c r="D11" s="332"/>
-      <c r="E11" s="332"/>
-      <c r="F11" s="332"/>
-      <c r="G11" s="332"/>
-      <c r="H11" s="332"/>
-      <c r="I11" s="332"/>
-      <c r="J11" s="332"/>
+        <v>22245 C Street Winfield, KS 67156</v>
+      </c>
+      <c r="D11" s="318"/>
+      <c r="E11" s="318"/>
+      <c r="F11" s="318"/>
+      <c r="G11" s="318"/>
+      <c r="H11" s="318"/>
+      <c r="I11" s="318"/>
+      <c r="J11" s="318"/>
       <c r="K11" s="69"/>
       <c r="M11" s="214" t="s">
         <v>120</v>
@@ -19946,9 +19966,8 @@
       <c r="K13" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="L13" s="75" t="str">
-        <f>'The details'!D11</f>
-        <v>ML</v>
+      <c r="L13" s="75" t="s">
+        <v>124</v>
       </c>
       <c r="M13" s="69"/>
       <c r="P13" s="76"/>
@@ -20041,24 +20060,24 @@
     </row>
     <row r="14" spans="1:102" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B14" s="68" t="s">
-        <v>146</v>
-      </c>
-      <c r="C14" s="75" t="str">
+        <v>148</v>
+      </c>
+      <c r="C14" s="75">
         <f>'The details'!D7</f>
-        <v>GTC-82080</v>
+        <v>752474</v>
       </c>
       <c r="E14" s="79"/>
       <c r="H14" s="69"/>
       <c r="I14" s="69"/>
       <c r="J14" s="69"/>
       <c r="K14" s="68" t="s">
-        <v>124</v>
-      </c>
-      <c r="L14" s="330">
+        <v>125</v>
+      </c>
+      <c r="L14" s="322">
         <f ca="1">'The details'!D9</f>
         <v>45685</v>
       </c>
-      <c r="M14" s="331"/>
+      <c r="M14" s="323"/>
       <c r="P14" s="76"/>
       <c r="Q14" s="72"/>
       <c r="R14" s="76"/>
@@ -20149,24 +20168,24 @@
     </row>
     <row r="15" spans="1:102" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B15" s="68" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C15" s="75" t="str">
         <f>(IF('The details'!D5&lt;&gt;"",'The details'!D5,VLOOKUP('JGI Method Testing'!H2,'tracker specs'!A7:C25,3,FALSE)))</f>
-        <v>Leica AT960 MR</v>
+        <v>Leica AT930</v>
       </c>
       <c r="E15" s="79"/>
       <c r="H15" s="69"/>
       <c r="I15" s="69"/>
       <c r="J15" s="69"/>
       <c r="K15" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="L15" s="330">
+        <v>127</v>
+      </c>
+      <c r="L15" s="322">
         <f ca="1">IF('The details'!D10="",L14+366,'The details'!D10)</f>
         <v>46050</v>
       </c>
-      <c r="M15" s="331"/>
+      <c r="M15" s="323"/>
       <c r="P15" s="76"/>
       <c r="Q15" s="72"/>
       <c r="R15" s="76"/>
@@ -20261,18 +20280,18 @@
       </c>
       <c r="C16" s="75">
         <f>'The details'!D8</f>
-        <v>951078</v>
+        <v>752474</v>
       </c>
       <c r="E16" s="79"/>
       <c r="H16" s="69"/>
       <c r="I16" s="69"/>
       <c r="J16" s="69"/>
       <c r="K16" s="68" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L16" s="271">
         <f>'The details'!D12</f>
-        <v>73</v>
+        <v>69.3</v>
       </c>
       <c r="M16" s="69"/>
       <c r="P16" s="76"/>
@@ -20368,7 +20387,7 @@
     </row>
     <row r="17" spans="1:102" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B17" s="68" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C17" s="75" t="str">
         <f>'The details'!D14</f>
@@ -20382,11 +20401,11 @@
       <c r="I17" s="69"/>
       <c r="J17" s="69"/>
       <c r="K17" s="68" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L17" s="272">
         <f>'The details'!D13</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="M17" s="69"/>
       <c r="R17" s="80" t="b">
@@ -20480,7 +20499,7 @@
     </row>
     <row r="18" spans="1:102" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="185" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B18" s="185"/>
       <c r="C18" s="186"/>
@@ -20526,19 +20545,19 @@
       <c r="A19" s="69"/>
       <c r="B19" s="69"/>
       <c r="C19" s="68" t="s">
-        <v>131</v>
-      </c>
-      <c r="D19" s="332" t="s">
-        <v>206</v>
-      </c>
-      <c r="E19" s="332"/>
-      <c r="F19" s="332"/>
-      <c r="G19" s="332"/>
-      <c r="H19" s="332"/>
-      <c r="I19" s="332"/>
-      <c r="J19" s="332"/>
-      <c r="K19" s="332"/>
-      <c r="L19" s="332"/>
+        <v>132</v>
+      </c>
+      <c r="D19" s="318" t="s">
+        <v>207</v>
+      </c>
+      <c r="E19" s="318"/>
+      <c r="F19" s="318"/>
+      <c r="G19" s="318"/>
+      <c r="H19" s="318"/>
+      <c r="I19" s="318"/>
+      <c r="J19" s="318"/>
+      <c r="K19" s="318"/>
+      <c r="L19" s="318"/>
       <c r="Q19" s="85"/>
       <c r="R19" s="72"/>
       <c r="S19" s="64"/>
@@ -20572,19 +20591,19 @@
       <c r="A20" s="69"/>
       <c r="B20" s="69"/>
       <c r="C20" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="D20" s="332" t="s">
-        <v>144</v>
-      </c>
-      <c r="E20" s="332"/>
-      <c r="F20" s="332"/>
-      <c r="G20" s="332"/>
-      <c r="H20" s="332"/>
-      <c r="I20" s="332"/>
-      <c r="J20" s="332"/>
-      <c r="K20" s="332"/>
-      <c r="L20" s="332"/>
+        <v>133</v>
+      </c>
+      <c r="D20" s="318" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" s="318"/>
+      <c r="F20" s="318"/>
+      <c r="G20" s="318"/>
+      <c r="H20" s="318"/>
+      <c r="I20" s="318"/>
+      <c r="J20" s="318"/>
+      <c r="K20" s="318"/>
+      <c r="L20" s="318"/>
       <c r="O20" s="86"/>
       <c r="R20" s="72"/>
       <c r="S20" s="64"/>
@@ -20616,7 +20635,7 @@
     </row>
     <row r="21" spans="1:102" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="185" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B21" s="185"/>
       <c r="C21" s="186"/>
@@ -20751,18 +20770,18 @@
       <c r="CX22" s="86"/>
     </row>
     <row r="23" spans="1:102" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B23" s="333" t="s">
-        <v>157</v>
-      </c>
-      <c r="C23" s="333"/>
-      <c r="D23" s="333"/>
-      <c r="E23" s="333"/>
-      <c r="F23" s="333"/>
-      <c r="G23" s="333"/>
-      <c r="H23" s="333"/>
-      <c r="I23" s="333"/>
-      <c r="J23" s="333"/>
-      <c r="K23" s="333"/>
+      <c r="B23" s="325" t="s">
+        <v>158</v>
+      </c>
+      <c r="C23" s="325"/>
+      <c r="D23" s="325"/>
+      <c r="E23" s="325"/>
+      <c r="F23" s="325"/>
+      <c r="G23" s="325"/>
+      <c r="H23" s="325"/>
+      <c r="I23" s="325"/>
+      <c r="J23" s="325"/>
+      <c r="K23" s="325"/>
       <c r="N23" s="86"/>
       <c r="O23" s="86"/>
       <c r="P23" s="86"/>
@@ -20854,29 +20873,29 @@
       <c r="CX23" s="86"/>
     </row>
     <row r="24" spans="1:102" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="333"/>
-      <c r="C24" s="333"/>
-      <c r="D24" s="333"/>
-      <c r="E24" s="333"/>
-      <c r="F24" s="333"/>
-      <c r="G24" s="333"/>
-      <c r="H24" s="333"/>
-      <c r="I24" s="333"/>
-      <c r="J24" s="333"/>
-      <c r="K24" s="333"/>
+      <c r="B24" s="325"/>
+      <c r="C24" s="325"/>
+      <c r="D24" s="325"/>
+      <c r="E24" s="325"/>
+      <c r="F24" s="325"/>
+      <c r="G24" s="325"/>
+      <c r="H24" s="325"/>
+      <c r="I24" s="325"/>
+      <c r="J24" s="325"/>
+      <c r="K24" s="325"/>
     </row>
     <row r="25" spans="1:102" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="189"/>
-      <c r="B25" s="333"/>
-      <c r="C25" s="333"/>
-      <c r="D25" s="333"/>
-      <c r="E25" s="333"/>
-      <c r="F25" s="333"/>
-      <c r="G25" s="333"/>
-      <c r="H25" s="333"/>
-      <c r="I25" s="333"/>
-      <c r="J25" s="333"/>
-      <c r="K25" s="333"/>
+      <c r="B25" s="325"/>
+      <c r="C25" s="325"/>
+      <c r="D25" s="325"/>
+      <c r="E25" s="325"/>
+      <c r="F25" s="325"/>
+      <c r="G25" s="325"/>
+      <c r="H25" s="325"/>
+      <c r="I25" s="325"/>
+      <c r="J25" s="325"/>
+      <c r="K25" s="325"/>
       <c r="L25" s="190"/>
       <c r="M25" s="191"/>
       <c r="R25" s="72"/>
@@ -20908,16 +20927,16 @@
       <c r="AR25" s="64"/>
     </row>
     <row r="26" spans="1:102" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="333"/>
-      <c r="C26" s="333"/>
-      <c r="D26" s="333"/>
-      <c r="E26" s="333"/>
-      <c r="F26" s="333"/>
-      <c r="G26" s="333"/>
-      <c r="H26" s="333"/>
-      <c r="I26" s="333"/>
-      <c r="J26" s="333"/>
-      <c r="K26" s="333"/>
+      <c r="B26" s="325"/>
+      <c r="C26" s="325"/>
+      <c r="D26" s="325"/>
+      <c r="E26" s="325"/>
+      <c r="F26" s="325"/>
+      <c r="G26" s="325"/>
+      <c r="H26" s="325"/>
+      <c r="I26" s="325"/>
+      <c r="J26" s="325"/>
+      <c r="K26" s="325"/>
       <c r="R26" s="76"/>
       <c r="S26" s="64"/>
       <c r="T26" s="64"/>
@@ -20947,23 +20966,25 @@
       <c r="AR26" s="64"/>
     </row>
     <row r="27" spans="1:102" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="93"/>
-      <c r="B27" s="334" t="s">
-        <v>133</v>
-      </c>
-      <c r="C27" s="334"/>
-      <c r="D27" s="334" t="s">
-        <v>275</v>
-      </c>
-      <c r="E27" s="334"/>
-      <c r="F27" s="334"/>
-      <c r="G27" s="334"/>
-      <c r="H27" s="334"/>
-      <c r="I27" s="334" t="s">
+      <c r="A27" s="93" t="s">
         <v>134</v>
       </c>
-      <c r="J27" s="334"/>
-      <c r="K27" s="334"/>
+      <c r="B27" s="328" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="328"/>
+      <c r="D27" s="328" t="s">
+        <v>276</v>
+      </c>
+      <c r="E27" s="328"/>
+      <c r="F27" s="328"/>
+      <c r="G27" s="328"/>
+      <c r="H27" s="328"/>
+      <c r="I27" s="328" t="s">
+        <v>136</v>
+      </c>
+      <c r="J27" s="328"/>
+      <c r="K27" s="328"/>
       <c r="L27" s="93"/>
       <c r="M27" s="93"/>
       <c r="O27" s="94"/>
@@ -20997,11 +21018,11 @@
     </row>
     <row r="28" spans="1:102" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="328" t="str">
+      <c r="B28" s="326" t="str">
         <f>IF(OR(E34&lt;&gt;"",E35&lt;&gt;"",E36&lt;&gt;""),"Final Readings","")</f>
         <v/>
       </c>
-      <c r="C28" s="328"/>
+      <c r="C28" s="326"/>
       <c r="D28" s="93"/>
       <c r="E28" s="93"/>
       <c r="F28" s="93"/>
@@ -21044,26 +21065,26 @@
     </row>
     <row r="29" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="324" t="s">
-        <v>211</v>
-      </c>
-      <c r="C29" s="324"/>
+      <c r="B29" s="327" t="s">
+        <v>212</v>
+      </c>
+      <c r="C29" s="327"/>
       <c r="D29" s="93"/>
-      <c r="E29" s="327">
+      <c r="E29" s="330">
         <f>'JGI Method Testing'!X4</f>
         <v>-90.54117689300999</v>
       </c>
-      <c r="F29" s="327"/>
-      <c r="G29" s="327"/>
+      <c r="F29" s="330"/>
+      <c r="G29" s="330"/>
       <c r="H29" s="146"/>
-      <c r="I29" s="327">
+      <c r="I29" s="330">
         <f>'JGI Method Testing'!W4</f>
         <v>-90.541176893010004</v>
       </c>
-      <c r="J29" s="329"/>
-      <c r="K29" s="329"/>
-      <c r="L29" s="319"/>
-      <c r="M29" s="319"/>
+      <c r="J29" s="331"/>
+      <c r="K29" s="331"/>
+      <c r="L29" s="324"/>
+      <c r="M29" s="324"/>
       <c r="P29" s="94"/>
       <c r="Q29" s="94"/>
       <c r="R29" s="111"/>
@@ -21096,28 +21117,28 @@
     </row>
     <row r="30" spans="1:102" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="324" t="s">
-        <v>190</v>
-      </c>
-      <c r="C30" s="324"/>
+      <c r="B30" s="327" t="s">
+        <v>191</v>
+      </c>
+      <c r="C30" s="327"/>
       <c r="D30" s="147"/>
-      <c r="E30" s="327">
+      <c r="E30" s="330">
         <f>'JGI Method Testing'!I59</f>
         <v>0</v>
       </c>
-      <c r="F30" s="327"/>
-      <c r="G30" s="327"/>
+      <c r="F30" s="330"/>
+      <c r="G30" s="330"/>
       <c r="H30" s="146"/>
-      <c r="I30" s="327">
+      <c r="I30" s="330">
         <f>AVERAGE('Datasheet, JGI Method'!G28:G35)</f>
         <v>0</v>
       </c>
-      <c r="J30" s="329"/>
-      <c r="K30" s="329"/>
-      <c r="O30" s="320"/>
-      <c r="P30" s="320"/>
-      <c r="Q30" s="320"/>
-      <c r="R30" s="320"/>
+      <c r="J30" s="331"/>
+      <c r="K30" s="331"/>
+      <c r="O30" s="329"/>
+      <c r="P30" s="329"/>
+      <c r="Q30" s="329"/>
+      <c r="R30" s="329"/>
       <c r="S30" s="113"/>
       <c r="T30" s="99" t="b">
         <v>0</v>
@@ -21152,24 +21173,24 @@
     </row>
     <row r="31" spans="1:102" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="324" t="s">
-        <v>191</v>
-      </c>
-      <c r="C31" s="324"/>
+      <c r="B31" s="327" t="s">
+        <v>192</v>
+      </c>
+      <c r="C31" s="327"/>
       <c r="D31" s="147"/>
-      <c r="E31" s="327">
+      <c r="E31" s="330">
         <f>'JGI Method Testing'!H24</f>
         <v>-90.54117689300999</v>
       </c>
-      <c r="F31" s="327"/>
-      <c r="G31" s="327"/>
+      <c r="F31" s="330"/>
+      <c r="G31" s="330"/>
       <c r="H31" s="146"/>
-      <c r="I31" s="327">
+      <c r="I31" s="330">
         <f>E31</f>
         <v>-90.54117689300999</v>
       </c>
-      <c r="J31" s="329"/>
-      <c r="K31" s="329"/>
+      <c r="J31" s="331"/>
+      <c r="K31" s="331"/>
       <c r="O31" s="211"/>
       <c r="P31" s="211"/>
       <c r="Q31" s="211"/>
@@ -21205,8 +21226,8 @@
       <c r="A32" s="1"/>
       <c r="D32" s="125"/>
       <c r="H32" s="125"/>
-      <c r="L32" s="319"/>
-      <c r="M32" s="319"/>
+      <c r="L32" s="324"/>
+      <c r="M32" s="324"/>
       <c r="O32" s="114"/>
       <c r="P32" s="114"/>
       <c r="Q32" s="114"/>
@@ -21245,19 +21266,19 @@
     </row>
     <row r="33" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="328" t="str">
+      <c r="B33" s="326" t="str">
         <f>IF(OR(E34&lt;&gt;"",E35&lt;&gt;"",E36&lt;&gt;""),"Preliminary Readings","")</f>
         <v/>
       </c>
-      <c r="C33" s="328"/>
+      <c r="C33" s="326"/>
       <c r="F33" s="152"/>
       <c r="J33" s="152"/>
-      <c r="L33" s="319"/>
-      <c r="M33" s="319"/>
-      <c r="O33" s="320"/>
-      <c r="P33" s="320"/>
-      <c r="Q33" s="320"/>
-      <c r="R33" s="320"/>
+      <c r="L33" s="324"/>
+      <c r="M33" s="324"/>
+      <c r="O33" s="329"/>
+      <c r="P33" s="329"/>
+      <c r="Q33" s="329"/>
+      <c r="R33" s="329"/>
       <c r="S33" s="113"/>
       <c r="T33" s="80" t="b">
         <v>0</v>
@@ -21292,26 +21313,26 @@
     </row>
     <row r="34" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A34"/>
-      <c r="B34" s="324" t="str">
+      <c r="B34" s="327" t="str">
         <f>IF(E34&lt;&gt;"",B29,"")</f>
         <v/>
       </c>
-      <c r="C34" s="324"/>
+      <c r="C34" s="327"/>
       <c r="D34" s="125"/>
-      <c r="E34" s="327" t="str">
+      <c r="E34" s="330" t="str">
         <f>'JGI Method Testing'!AB35</f>
         <v/>
       </c>
-      <c r="F34" s="327"/>
-      <c r="G34" s="327"/>
-      <c r="I34" s="327" t="str">
+      <c r="F34" s="330"/>
+      <c r="G34" s="330"/>
+      <c r="I34" s="330" t="str">
         <f>'JGI Method Testing'!AA35</f>
         <v/>
       </c>
-      <c r="J34" s="327"/>
-      <c r="K34" s="327"/>
-      <c r="L34" s="319"/>
-      <c r="M34" s="319"/>
+      <c r="J34" s="330"/>
+      <c r="K34" s="330"/>
+      <c r="L34" s="324"/>
+      <c r="M34" s="324"/>
       <c r="O34" s="115"/>
       <c r="P34" s="115"/>
       <c r="Q34" s="115"/>
@@ -21350,30 +21371,30 @@
     </row>
     <row r="35" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="324" t="str">
+      <c r="B35" s="327" t="str">
         <f>IF(E35&lt;&gt;"",B30,"")</f>
         <v/>
       </c>
-      <c r="C35" s="324"/>
+      <c r="C35" s="327"/>
       <c r="D35" s="125"/>
-      <c r="E35" s="327" t="str">
+      <c r="E35" s="330" t="str">
         <f>'JGI Method Testing'!K59</f>
         <v/>
       </c>
-      <c r="F35" s="327"/>
-      <c r="G35" s="327"/>
-      <c r="I35" s="327" t="str">
+      <c r="F35" s="330"/>
+      <c r="G35" s="330"/>
+      <c r="I35" s="330" t="str">
         <f>'JGI Method Testing'!K58</f>
         <v/>
       </c>
-      <c r="J35" s="327"/>
-      <c r="K35" s="327"/>
-      <c r="L35" s="319"/>
-      <c r="M35" s="319"/>
-      <c r="O35" s="320"/>
-      <c r="P35" s="320"/>
-      <c r="Q35" s="320"/>
-      <c r="R35" s="320"/>
+      <c r="J35" s="330"/>
+      <c r="K35" s="330"/>
+      <c r="L35" s="324"/>
+      <c r="M35" s="324"/>
+      <c r="O35" s="329"/>
+      <c r="P35" s="329"/>
+      <c r="Q35" s="329"/>
+      <c r="R35" s="329"/>
       <c r="S35" s="113"/>
       <c r="T35" s="80" t="b">
         <v>0</v>
@@ -21466,20 +21487,20 @@
     </row>
     <row r="36" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="324" t="str">
+      <c r="B36" s="327" t="str">
         <f>IF(E36&lt;&gt;"",B31,"")</f>
         <v/>
       </c>
-      <c r="C36" s="324"/>
+      <c r="C36" s="327"/>
       <c r="D36" s="125"/>
-      <c r="E36" s="327"/>
-      <c r="F36" s="327"/>
-      <c r="G36" s="327"/>
-      <c r="I36" s="327"/>
-      <c r="J36" s="327"/>
-      <c r="K36" s="327"/>
-      <c r="L36" s="321"/>
-      <c r="M36" s="321"/>
+      <c r="E36" s="330"/>
+      <c r="F36" s="330"/>
+      <c r="G36" s="330"/>
+      <c r="I36" s="330"/>
+      <c r="J36" s="330"/>
+      <c r="K36" s="330"/>
+      <c r="L36" s="334"/>
+      <c r="M36" s="334"/>
       <c r="O36" s="114"/>
       <c r="P36" s="115"/>
       <c r="Q36" s="115"/>
@@ -21571,25 +21592,25 @@
     </row>
     <row r="37" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="319" t="str">
+      <c r="B37" s="324" t="str">
         <f>CONCATENATE("Uncertainty @ k=2: ",'The details'!D24," µin")</f>
         <v>Uncertainty @ k=2: 600 µin</v>
       </c>
-      <c r="C37" s="319"/>
-      <c r="D37" s="319"/>
-      <c r="E37" s="319"/>
-      <c r="F37" s="319"/>
-      <c r="G37" s="319"/>
-      <c r="H37" s="319"/>
-      <c r="I37" s="319"/>
-      <c r="J37" s="319"/>
-      <c r="K37" s="319"/>
+      <c r="C37" s="324"/>
+      <c r="D37" s="324"/>
+      <c r="E37" s="324"/>
+      <c r="F37" s="324"/>
+      <c r="G37" s="324"/>
+      <c r="H37" s="324"/>
+      <c r="I37" s="324"/>
+      <c r="J37" s="324"/>
+      <c r="K37" s="324"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
-      <c r="O37" s="320"/>
-      <c r="P37" s="320"/>
-      <c r="Q37" s="320"/>
-      <c r="R37" s="320"/>
+      <c r="O37" s="329"/>
+      <c r="P37" s="329"/>
+      <c r="Q37" s="329"/>
+      <c r="R37" s="329"/>
       <c r="S37" s="113"/>
       <c r="T37" s="64"/>
       <c r="U37" s="97"/>
@@ -21677,18 +21698,18 @@
     </row>
     <row r="38" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="319" t="s">
-        <v>145</v>
-      </c>
-      <c r="C38" s="319"/>
-      <c r="D38" s="319"/>
-      <c r="E38" s="319"/>
-      <c r="F38" s="319"/>
-      <c r="G38" s="319"/>
-      <c r="H38" s="319"/>
-      <c r="I38" s="319"/>
-      <c r="J38" s="319"/>
-      <c r="K38" s="319"/>
+      <c r="B38" s="324" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" s="324"/>
+      <c r="D38" s="324"/>
+      <c r="E38" s="324"/>
+      <c r="F38" s="324"/>
+      <c r="G38" s="324"/>
+      <c r="H38" s="324"/>
+      <c r="I38" s="324"/>
+      <c r="J38" s="324"/>
+      <c r="K38" s="324"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="O38" s="114"/>
@@ -21697,7 +21718,7 @@
       <c r="R38" s="115"/>
       <c r="S38" s="113"/>
       <c r="T38" s="64" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="U38" s="64"/>
       <c r="V38" s="64"/>
@@ -21791,13 +21812,13 @@
       <c r="F39" s="148"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
-      <c r="O39" s="320"/>
-      <c r="P39" s="320"/>
-      <c r="Q39" s="320"/>
-      <c r="R39" s="320"/>
+      <c r="O39" s="329"/>
+      <c r="P39" s="329"/>
+      <c r="Q39" s="329"/>
+      <c r="R39" s="329"/>
       <c r="S39" s="113"/>
       <c r="T39" s="64" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="U39" s="64"/>
       <c r="V39" s="64"/>
@@ -21883,22 +21904,22 @@
       <c r="CX39"/>
     </row>
     <row r="40" spans="1:102" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="325" t="str">
+      <c r="A40" s="332" t="str">
         <f>IF(R17=TRUE,U46,U47)</f>
         <v>The reported expanded uncertainty of measurement is stated as the standard uncertainty of measurement multiplied by the coverage factor k such that the coverage probability corresponds to approximately 95%. This estimate was performed in accordance with guidelines set forth in ANSI/NCSL Z540-2. The acceptance or rejection of the item(s) is based on the actual test values shown, without adjustment for measurement uncertainty. All testing performed using standards traceable to NIST or to intrinsic standards. This document shall not be reproduced except in full, without the written permission of Johnson Gage and Inspection. Tolerance source key: C = Customer; S = Specification; M = Manufacturer; R = JGI Recommended.</v>
       </c>
-      <c r="B40" s="325"/>
-      <c r="C40" s="325"/>
-      <c r="D40" s="325"/>
-      <c r="E40" s="325"/>
-      <c r="F40" s="325"/>
-      <c r="G40" s="325"/>
-      <c r="H40" s="325"/>
-      <c r="I40" s="325"/>
-      <c r="J40" s="325"/>
-      <c r="K40" s="325"/>
-      <c r="L40" s="325"/>
-      <c r="M40" s="325"/>
+      <c r="B40" s="332"/>
+      <c r="C40" s="332"/>
+      <c r="D40" s="332"/>
+      <c r="E40" s="332"/>
+      <c r="F40" s="332"/>
+      <c r="G40" s="332"/>
+      <c r="H40" s="332"/>
+      <c r="I40" s="332"/>
+      <c r="J40" s="332"/>
+      <c r="K40" s="332"/>
+      <c r="L40" s="332"/>
+      <c r="M40" s="332"/>
       <c r="Q40" s="102"/>
       <c r="S40" s="113"/>
       <c r="T40" s="64"/>
@@ -21986,19 +22007,19 @@
       <c r="CX40"/>
     </row>
     <row r="41" spans="1:102" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="325"/>
-      <c r="B41" s="325"/>
-      <c r="C41" s="325"/>
-      <c r="D41" s="325"/>
-      <c r="E41" s="325"/>
-      <c r="F41" s="325"/>
-      <c r="G41" s="325"/>
-      <c r="H41" s="325"/>
-      <c r="I41" s="325"/>
-      <c r="J41" s="325"/>
-      <c r="K41" s="325"/>
-      <c r="L41" s="325"/>
-      <c r="M41" s="325"/>
+      <c r="A41" s="332"/>
+      <c r="B41" s="332"/>
+      <c r="C41" s="332"/>
+      <c r="D41" s="332"/>
+      <c r="E41" s="332"/>
+      <c r="F41" s="332"/>
+      <c r="G41" s="332"/>
+      <c r="H41" s="332"/>
+      <c r="I41" s="332"/>
+      <c r="J41" s="332"/>
+      <c r="K41" s="332"/>
+      <c r="L41" s="332"/>
+      <c r="M41" s="332"/>
       <c r="Q41" s="102"/>
       <c r="S41" s="64"/>
       <c r="T41" s="64"/>
@@ -22086,19 +22107,19 @@
       <c r="CX41"/>
     </row>
     <row r="42" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="A42" s="325"/>
-      <c r="B42" s="325"/>
-      <c r="C42" s="325"/>
-      <c r="D42" s="325"/>
-      <c r="E42" s="325"/>
-      <c r="F42" s="325"/>
-      <c r="G42" s="325"/>
-      <c r="H42" s="325"/>
-      <c r="I42" s="325"/>
-      <c r="J42" s="325"/>
-      <c r="K42" s="325"/>
-      <c r="L42" s="325"/>
-      <c r="M42" s="325"/>
+      <c r="A42" s="332"/>
+      <c r="B42" s="332"/>
+      <c r="C42" s="332"/>
+      <c r="D42" s="332"/>
+      <c r="E42" s="332"/>
+      <c r="F42" s="332"/>
+      <c r="G42" s="332"/>
+      <c r="H42" s="332"/>
+      <c r="I42" s="332"/>
+      <c r="J42" s="332"/>
+      <c r="K42" s="332"/>
+      <c r="L42" s="332"/>
+      <c r="M42" s="332"/>
       <c r="Q42" s="102"/>
       <c r="S42" s="64"/>
       <c r="T42" s="64"/>
@@ -22186,19 +22207,19 @@
       <c r="CX42"/>
     </row>
     <row r="43" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="A43" s="325"/>
-      <c r="B43" s="325"/>
-      <c r="C43" s="325"/>
-      <c r="D43" s="325"/>
-      <c r="E43" s="325"/>
-      <c r="F43" s="325"/>
-      <c r="G43" s="325"/>
-      <c r="H43" s="325"/>
-      <c r="I43" s="325"/>
-      <c r="J43" s="325"/>
-      <c r="K43" s="325"/>
-      <c r="L43" s="325"/>
-      <c r="M43" s="325"/>
+      <c r="A43" s="332"/>
+      <c r="B43" s="332"/>
+      <c r="C43" s="332"/>
+      <c r="D43" s="332"/>
+      <c r="E43" s="332"/>
+      <c r="F43" s="332"/>
+      <c r="G43" s="332"/>
+      <c r="H43" s="332"/>
+      <c r="I43" s="332"/>
+      <c r="J43" s="332"/>
+      <c r="K43" s="332"/>
+      <c r="L43" s="332"/>
+      <c r="M43" s="332"/>
       <c r="Q43" s="102"/>
       <c r="S43" s="64"/>
       <c r="T43" s="64"/>
@@ -22287,7 +22308,7 @@
     </row>
     <row r="44" spans="1:102" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="185" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B44" s="185"/>
       <c r="C44" s="186"/>
@@ -22389,23 +22410,23 @@
     </row>
     <row r="45" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A45" s="151" t="s">
-        <v>256</v>
-      </c>
-      <c r="B45" s="326" t="str">
+        <v>257</v>
+      </c>
+      <c r="B45" s="333" t="str">
         <f>'The details'!D18</f>
         <v>This item was found in tolerance. No adjustments were performed.</v>
       </c>
-      <c r="C45" s="326"/>
-      <c r="D45" s="326"/>
-      <c r="E45" s="326"/>
-      <c r="F45" s="326"/>
-      <c r="G45" s="326"/>
-      <c r="H45" s="326"/>
-      <c r="I45" s="326"/>
-      <c r="J45" s="326"/>
-      <c r="K45" s="326"/>
-      <c r="L45" s="326"/>
-      <c r="M45" s="326"/>
+      <c r="C45" s="333"/>
+      <c r="D45" s="333"/>
+      <c r="E45" s="333"/>
+      <c r="F45" s="333"/>
+      <c r="G45" s="333"/>
+      <c r="H45" s="333"/>
+      <c r="I45" s="333"/>
+      <c r="J45" s="333"/>
+      <c r="K45" s="333"/>
+      <c r="L45" s="333"/>
+      <c r="M45" s="333"/>
       <c r="Q45" s="102"/>
       <c r="S45" s="64"/>
       <c r="T45" s="64"/>
@@ -22494,22 +22515,22 @@
     </row>
     <row r="46" spans="1:102" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="212"/>
-      <c r="B46" s="326"/>
-      <c r="C46" s="326"/>
-      <c r="D46" s="326"/>
-      <c r="E46" s="326"/>
-      <c r="F46" s="326"/>
-      <c r="G46" s="326"/>
-      <c r="H46" s="326"/>
-      <c r="I46" s="326"/>
-      <c r="J46" s="326"/>
-      <c r="K46" s="326"/>
-      <c r="L46" s="326"/>
-      <c r="M46" s="326"/>
+      <c r="B46" s="333"/>
+      <c r="C46" s="333"/>
+      <c r="D46" s="333"/>
+      <c r="E46" s="333"/>
+      <c r="F46" s="333"/>
+      <c r="G46" s="333"/>
+      <c r="H46" s="333"/>
+      <c r="I46" s="333"/>
+      <c r="J46" s="333"/>
+      <c r="K46" s="333"/>
+      <c r="L46" s="333"/>
+      <c r="M46" s="333"/>
       <c r="Q46" s="102"/>
       <c r="R46" s="102"/>
       <c r="S46" s="64" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="T46" s="64"/>
       <c r="U46" s="64" t="str">
@@ -22599,26 +22620,26 @@
       <c r="CX46"/>
     </row>
     <row r="47" spans="1:102" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="326"/>
-      <c r="C47" s="326"/>
-      <c r="D47" s="326"/>
-      <c r="E47" s="326"/>
-      <c r="F47" s="326"/>
-      <c r="G47" s="326"/>
-      <c r="H47" s="326"/>
-      <c r="I47" s="326"/>
-      <c r="J47" s="326"/>
-      <c r="K47" s="326"/>
-      <c r="L47" s="326"/>
-      <c r="M47" s="326"/>
+      <c r="B47" s="333"/>
+      <c r="C47" s="333"/>
+      <c r="D47" s="333"/>
+      <c r="E47" s="333"/>
+      <c r="F47" s="333"/>
+      <c r="G47" s="333"/>
+      <c r="H47" s="333"/>
+      <c r="I47" s="333"/>
+      <c r="J47" s="333"/>
+      <c r="K47" s="333"/>
+      <c r="L47" s="333"/>
+      <c r="M47" s="333"/>
       <c r="Q47" s="102"/>
       <c r="R47" s="102"/>
       <c r="S47" s="64" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="T47" s="64"/>
       <c r="U47" s="64" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="V47" s="64"/>
       <c r="W47" s="118"/>
@@ -22704,7 +22725,7 @@
     </row>
     <row r="48" spans="1:102" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="221" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B48" s="213" t="str">
         <f>'The details'!D17</f>
@@ -22818,19 +22839,19 @@
       <c r="CX48"/>
     </row>
     <row r="49" spans="1:102" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="322"/>
-      <c r="B49" s="322"/>
-      <c r="C49" s="322"/>
-      <c r="D49" s="322"/>
-      <c r="E49" s="322"/>
-      <c r="F49" s="322"/>
-      <c r="G49" s="322"/>
-      <c r="H49" s="322"/>
-      <c r="I49" s="322"/>
-      <c r="J49" s="322"/>
-      <c r="K49" s="322"/>
-      <c r="L49" s="322"/>
-      <c r="M49" s="322"/>
+      <c r="A49" s="336"/>
+      <c r="B49" s="336"/>
+      <c r="C49" s="336"/>
+      <c r="D49" s="336"/>
+      <c r="E49" s="336"/>
+      <c r="F49" s="336"/>
+      <c r="G49" s="336"/>
+      <c r="H49" s="336"/>
+      <c r="I49" s="336"/>
+      <c r="J49" s="336"/>
+      <c r="K49" s="336"/>
+      <c r="L49" s="336"/>
+      <c r="M49" s="336"/>
       <c r="Q49" s="102"/>
       <c r="R49" s="102"/>
       <c r="T49" s="64"/>
@@ -22918,42 +22939,42 @@
       <c r="CX49"/>
     </row>
     <row r="50" spans="1:102" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="323" t="s">
-        <v>142</v>
-      </c>
-      <c r="B50" s="323"/>
-      <c r="C50" s="323"/>
-      <c r="D50" s="323"/>
-      <c r="E50" s="323"/>
-      <c r="F50" s="323"/>
-      <c r="G50" s="323"/>
-      <c r="H50" s="323"/>
-      <c r="I50" s="323"/>
-      <c r="J50" s="323"/>
-      <c r="K50" s="323"/>
-      <c r="L50" s="323"/>
-      <c r="M50" s="323"/>
+      <c r="A50" s="337" t="s">
+        <v>144</v>
+      </c>
+      <c r="B50" s="337"/>
+      <c r="C50" s="337"/>
+      <c r="D50" s="337"/>
+      <c r="E50" s="337"/>
+      <c r="F50" s="337"/>
+      <c r="G50" s="337"/>
+      <c r="H50" s="337"/>
+      <c r="I50" s="337"/>
+      <c r="J50" s="337"/>
+      <c r="K50" s="337"/>
+      <c r="L50" s="337"/>
+      <c r="M50" s="337"/>
       <c r="N50" s="103"/>
       <c r="P50" s="72" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q50" s="119" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R50" s="102"/>
       <c r="T50" s="119" t="s">
         <v>60</v>
       </c>
       <c r="U50" s="119" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="V50" s="119" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="W50" s="118"/>
       <c r="X50" s="64"/>
       <c r="Y50" s="116" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z50" s="64"/>
       <c r="AA50" s="64"/>
@@ -23035,25 +23056,25 @@
     </row>
     <row r="51" spans="1:102" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="104"/>
-      <c r="B51" s="318" t="str">
+      <c r="B51" s="335" t="str">
         <f>IFERROR(VLOOKUP(1,$S$51:$Y$67,7,FALSE),"")</f>
-        <v>Standard: Reference Length Bar, Serial No.: LTRB1 Certified: 06/01/2023 Due:06/01/2024 Traceability: 56561-045702</v>
-      </c>
-      <c r="C51" s="318"/>
-      <c r="D51" s="318"/>
-      <c r="E51" s="318"/>
-      <c r="F51" s="318"/>
-      <c r="G51" s="318"/>
-      <c r="H51" s="318"/>
-      <c r="I51" s="318"/>
-      <c r="J51" s="318"/>
-      <c r="K51" s="318"/>
-      <c r="L51" s="318"/>
+        <v>Standard: Reference Length Bar, Serial No.: IRLS1 Certified: 06/01/2023 Due:06/01/2024 Traceability: 56561-045702</v>
+      </c>
+      <c r="C51" s="335"/>
+      <c r="D51" s="335"/>
+      <c r="E51" s="335"/>
+      <c r="F51" s="335"/>
+      <c r="G51" s="335"/>
+      <c r="H51" s="335"/>
+      <c r="I51" s="335"/>
+      <c r="J51" s="335"/>
+      <c r="K51" s="335"/>
+      <c r="L51" s="335"/>
       <c r="M51" s="104"/>
       <c r="N51" s="121"/>
       <c r="O51" s="122" t="str">
         <f>CONCATENATE(T51," SN: ",U51)</f>
-        <v>Reference Length Bar SN: LTRB1</v>
+        <v>Reference Length Bar SN: IRLS1</v>
       </c>
       <c r="P51" s="117">
         <f>'The details'!D25</f>
@@ -23068,10 +23089,10 @@
         <v>1</v>
       </c>
       <c r="T51" s="119" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="U51" s="119" t="s">
-        <v>155</v>
+        <v>410</v>
       </c>
       <c r="V51" s="119" t="str">
         <f>'The details'!D27</f>
@@ -23083,7 +23104,7 @@
       <c r="X51" s="64"/>
       <c r="Y51" s="116" t="str">
         <f>CONCATENATE("Standard: ",T51,", Serial No.: ",U51," Certified: ",AD51," Due:",AE51," Traceability: ",V51)</f>
-        <v>Standard: Reference Length Bar, Serial No.: LTRB1 Certified: 06/01/2023 Due:06/01/2024 Traceability: 56561-045702</v>
+        <v>Standard: Reference Length Bar, Serial No.: IRLS1 Certified: 06/01/2023 Due:06/01/2024 Traceability: 56561-045702</v>
       </c>
       <c r="Z51" s="64"/>
       <c r="AA51" s="64"/>
@@ -23113,20 +23134,20 @@
     </row>
     <row r="52" spans="1:102" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="104"/>
-      <c r="B52" s="318" t="str">
+      <c r="B52" s="335" t="str">
         <f>IFERROR(VLOOKUP(2,$S$51:$Y$67,7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="C52" s="318"/>
-      <c r="D52" s="318"/>
-      <c r="E52" s="318"/>
-      <c r="F52" s="318"/>
-      <c r="G52" s="318"/>
-      <c r="H52" s="318"/>
-      <c r="I52" s="318"/>
-      <c r="J52" s="318"/>
-      <c r="K52" s="318"/>
-      <c r="L52" s="318"/>
+      <c r="C52" s="335"/>
+      <c r="D52" s="335"/>
+      <c r="E52" s="335"/>
+      <c r="F52" s="335"/>
+      <c r="G52" s="335"/>
+      <c r="H52" s="335"/>
+      <c r="I52" s="335"/>
+      <c r="J52" s="335"/>
+      <c r="K52" s="335"/>
+      <c r="L52" s="335"/>
       <c r="M52" s="104"/>
       <c r="N52" s="121"/>
       <c r="O52" s="122" t="str">
@@ -23144,10 +23165,10 @@
         <v/>
       </c>
       <c r="T52" s="119" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="U52" s="119" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="V52" s="119">
         <v>209919</v>
@@ -23188,20 +23209,20 @@
     </row>
     <row r="53" spans="1:102" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="104"/>
-      <c r="B53" s="318" t="str">
+      <c r="B53" s="335" t="str">
         <f>IFERROR(VLOOKUP(3,$S$51:$Y$67,7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="C53" s="318"/>
-      <c r="D53" s="318"/>
-      <c r="E53" s="318"/>
-      <c r="F53" s="318"/>
-      <c r="G53" s="318"/>
-      <c r="H53" s="318"/>
-      <c r="I53" s="318"/>
-      <c r="J53" s="318"/>
-      <c r="K53" s="318"/>
-      <c r="L53" s="318"/>
+      <c r="C53" s="335"/>
+      <c r="D53" s="335"/>
+      <c r="E53" s="335"/>
+      <c r="F53" s="335"/>
+      <c r="G53" s="335"/>
+      <c r="H53" s="335"/>
+      <c r="I53" s="335"/>
+      <c r="J53" s="335"/>
+      <c r="K53" s="335"/>
+      <c r="L53" s="335"/>
       <c r="M53" s="104"/>
       <c r="N53" s="121"/>
       <c r="O53" s="122" t="str">
@@ -23253,20 +23274,20 @@
     </row>
     <row r="54" spans="1:102" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="104"/>
-      <c r="B54" s="318" t="str">
+      <c r="B54" s="335" t="str">
         <f>IFERROR(VLOOKUP(4,$S$51:$Y$67,7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="C54" s="318"/>
-      <c r="D54" s="318"/>
-      <c r="E54" s="318"/>
-      <c r="F54" s="318"/>
-      <c r="G54" s="318"/>
-      <c r="H54" s="318"/>
-      <c r="I54" s="318"/>
-      <c r="J54" s="318"/>
-      <c r="K54" s="318"/>
-      <c r="L54" s="318"/>
+      <c r="C54" s="335"/>
+      <c r="D54" s="335"/>
+      <c r="E54" s="335"/>
+      <c r="F54" s="335"/>
+      <c r="G54" s="335"/>
+      <c r="H54" s="335"/>
+      <c r="I54" s="335"/>
+      <c r="J54" s="335"/>
+      <c r="K54" s="335"/>
+      <c r="L54" s="335"/>
       <c r="M54" s="104"/>
       <c r="N54" s="121"/>
       <c r="O54" s="122" t="str">
@@ -23318,20 +23339,20 @@
     </row>
     <row r="55" spans="1:102" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="104"/>
-      <c r="B55" s="318" t="str">
+      <c r="B55" s="335" t="str">
         <f>IFERROR(VLOOKUP(5,$S$51:$Y$67,7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="C55" s="318"/>
-      <c r="D55" s="318"/>
-      <c r="E55" s="318"/>
-      <c r="F55" s="318"/>
-      <c r="G55" s="318"/>
-      <c r="H55" s="318"/>
-      <c r="I55" s="318"/>
-      <c r="J55" s="318"/>
-      <c r="K55" s="318"/>
-      <c r="L55" s="318"/>
+      <c r="C55" s="335"/>
+      <c r="D55" s="335"/>
+      <c r="E55" s="335"/>
+      <c r="F55" s="335"/>
+      <c r="G55" s="335"/>
+      <c r="H55" s="335"/>
+      <c r="I55" s="335"/>
+      <c r="J55" s="335"/>
+      <c r="K55" s="335"/>
+      <c r="L55" s="335"/>
       <c r="M55" s="104"/>
       <c r="N55" s="121"/>
       <c r="O55" s="122" t="str">
@@ -23382,20 +23403,20 @@
       <c r="AR55" s="64"/>
     </row>
     <row r="56" spans="1:102" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="318" t="str">
+      <c r="B56" s="335" t="str">
         <f>IFERROR(VLOOKUP(6,$S$51:$Y$67,7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="C56" s="318"/>
-      <c r="D56" s="318"/>
-      <c r="E56" s="318"/>
-      <c r="F56" s="318"/>
-      <c r="G56" s="318"/>
-      <c r="H56" s="318"/>
-      <c r="I56" s="318"/>
-      <c r="J56" s="318"/>
-      <c r="K56" s="318"/>
-      <c r="L56" s="318"/>
+      <c r="C56" s="335"/>
+      <c r="D56" s="335"/>
+      <c r="E56" s="335"/>
+      <c r="F56" s="335"/>
+      <c r="G56" s="335"/>
+      <c r="H56" s="335"/>
+      <c r="I56" s="335"/>
+      <c r="J56" s="335"/>
+      <c r="K56" s="335"/>
+      <c r="L56" s="335"/>
       <c r="N56" s="121"/>
       <c r="O56" s="122" t="str">
         <f t="shared" si="0"/>
@@ -23445,20 +23466,20 @@
       <c r="AR56" s="64"/>
     </row>
     <row r="57" spans="1:102" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="318" t="str">
+      <c r="B57" s="335" t="str">
         <f>IFERROR(VLOOKUP(7,$S$51:$Y$67,7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="C57" s="318"/>
-      <c r="D57" s="318"/>
-      <c r="E57" s="318"/>
-      <c r="F57" s="318"/>
-      <c r="G57" s="318"/>
-      <c r="H57" s="318"/>
-      <c r="I57" s="318"/>
-      <c r="J57" s="318"/>
-      <c r="K57" s="318"/>
-      <c r="L57" s="318"/>
+      <c r="C57" s="335"/>
+      <c r="D57" s="335"/>
+      <c r="E57" s="335"/>
+      <c r="F57" s="335"/>
+      <c r="G57" s="335"/>
+      <c r="H57" s="335"/>
+      <c r="I57" s="335"/>
+      <c r="J57" s="335"/>
+      <c r="K57" s="335"/>
+      <c r="L57" s="335"/>
       <c r="N57" s="121"/>
       <c r="O57" s="122" t="str">
         <f t="shared" si="0"/>
@@ -23508,20 +23529,20 @@
       <c r="AR57" s="64"/>
     </row>
     <row r="58" spans="1:102" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="318" t="str">
+      <c r="B58" s="335" t="str">
         <f>IFERROR(VLOOKUP(8,$S$51:$Y$67,7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="C58" s="318"/>
-      <c r="D58" s="318"/>
-      <c r="E58" s="318"/>
-      <c r="F58" s="318"/>
-      <c r="G58" s="318"/>
-      <c r="H58" s="318"/>
-      <c r="I58" s="318"/>
-      <c r="J58" s="318"/>
-      <c r="K58" s="318"/>
-      <c r="L58" s="318"/>
+      <c r="C58" s="335"/>
+      <c r="D58" s="335"/>
+      <c r="E58" s="335"/>
+      <c r="F58" s="335"/>
+      <c r="G58" s="335"/>
+      <c r="H58" s="335"/>
+      <c r="I58" s="335"/>
+      <c r="J58" s="335"/>
+      <c r="K58" s="335"/>
+      <c r="L58" s="335"/>
       <c r="N58" s="121"/>
       <c r="O58" s="122" t="str">
         <f t="shared" si="0"/>
@@ -23571,20 +23592,20 @@
       <c r="AR58" s="64"/>
     </row>
     <row r="59" spans="1:102" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="318" t="str">
+      <c r="B59" s="335" t="str">
         <f>IFERROR(VLOOKUP(9,$S$51:$Y$67,7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="C59" s="318"/>
-      <c r="D59" s="318"/>
-      <c r="E59" s="318"/>
-      <c r="F59" s="318"/>
-      <c r="G59" s="318"/>
-      <c r="H59" s="318"/>
-      <c r="I59" s="318"/>
-      <c r="J59" s="318"/>
-      <c r="K59" s="318"/>
-      <c r="L59" s="318"/>
+      <c r="C59" s="335"/>
+      <c r="D59" s="335"/>
+      <c r="E59" s="335"/>
+      <c r="F59" s="335"/>
+      <c r="G59" s="335"/>
+      <c r="H59" s="335"/>
+      <c r="I59" s="335"/>
+      <c r="J59" s="335"/>
+      <c r="K59" s="335"/>
+      <c r="L59" s="335"/>
       <c r="N59" s="121"/>
       <c r="O59" s="122" t="str">
         <f t="shared" si="0"/>
@@ -23634,20 +23655,20 @@
       <c r="AR59" s="64"/>
     </row>
     <row r="60" spans="1:102" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="318" t="str">
+      <c r="B60" s="335" t="str">
         <f>IFERROR(VLOOKUP(10,$S$51:$Y$67,7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="C60" s="318"/>
-      <c r="D60" s="318"/>
-      <c r="E60" s="318"/>
-      <c r="F60" s="318"/>
-      <c r="G60" s="318"/>
-      <c r="H60" s="318"/>
-      <c r="I60" s="318"/>
-      <c r="J60" s="318"/>
-      <c r="K60" s="318"/>
-      <c r="L60" s="318"/>
+      <c r="C60" s="335"/>
+      <c r="D60" s="335"/>
+      <c r="E60" s="335"/>
+      <c r="F60" s="335"/>
+      <c r="G60" s="335"/>
+      <c r="H60" s="335"/>
+      <c r="I60" s="335"/>
+      <c r="J60" s="335"/>
+      <c r="K60" s="335"/>
+      <c r="L60" s="335"/>
       <c r="N60" s="121"/>
       <c r="O60" s="122" t="str">
         <f t="shared" si="0"/>
@@ -23697,21 +23718,21 @@
       <c r="AR60" s="64"/>
     </row>
     <row r="61" spans="1:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="321" t="s">
-        <v>137</v>
-      </c>
-      <c r="B61" s="321"/>
-      <c r="C61" s="321"/>
-      <c r="D61" s="321"/>
-      <c r="E61" s="321"/>
-      <c r="F61" s="321"/>
-      <c r="G61" s="321"/>
-      <c r="H61" s="321"/>
-      <c r="I61" s="321"/>
-      <c r="J61" s="321"/>
-      <c r="K61" s="321"/>
-      <c r="L61" s="321"/>
-      <c r="M61" s="321"/>
+      <c r="A61" s="334" t="s">
+        <v>139</v>
+      </c>
+      <c r="B61" s="334"/>
+      <c r="C61" s="334"/>
+      <c r="D61" s="334"/>
+      <c r="E61" s="334"/>
+      <c r="F61" s="334"/>
+      <c r="G61" s="334"/>
+      <c r="H61" s="334"/>
+      <c r="I61" s="334"/>
+      <c r="J61" s="334"/>
+      <c r="K61" s="334"/>
+      <c r="L61" s="334"/>
+      <c r="M61" s="334"/>
       <c r="N61" s="121"/>
       <c r="O61" s="122" t="str">
         <f t="shared" si="0"/>
@@ -23769,7 +23790,7 @@
       <c r="F62" s="105"/>
       <c r="G62" s="105"/>
       <c r="H62" s="105" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="J62" s="105"/>
       <c r="K62" s="105"/>
@@ -24140,36 +24161,22 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A3:M3"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="A7:M7"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="D20:L20"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="B23:K26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="D19:L19"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="B60:L60"/>
+    <mergeCell ref="B37:K37"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="B38:K38"/>
+    <mergeCell ref="A61:M61"/>
+    <mergeCell ref="B54:L54"/>
+    <mergeCell ref="B55:L55"/>
+    <mergeCell ref="B56:L56"/>
+    <mergeCell ref="B57:L57"/>
+    <mergeCell ref="B58:L58"/>
+    <mergeCell ref="B59:L59"/>
+    <mergeCell ref="A49:M49"/>
+    <mergeCell ref="A50:M50"/>
+    <mergeCell ref="B51:L51"/>
+    <mergeCell ref="B52:L52"/>
+    <mergeCell ref="B53:L53"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="O39:R39"/>
@@ -24186,22 +24193,36 @@
     <mergeCell ref="I35:K35"/>
     <mergeCell ref="I36:K36"/>
     <mergeCell ref="L35:M35"/>
-    <mergeCell ref="B60:L60"/>
-    <mergeCell ref="B37:K37"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="B38:K38"/>
-    <mergeCell ref="A61:M61"/>
-    <mergeCell ref="B54:L54"/>
-    <mergeCell ref="B55:L55"/>
-    <mergeCell ref="B56:L56"/>
-    <mergeCell ref="B57:L57"/>
-    <mergeCell ref="B58:L58"/>
-    <mergeCell ref="B59:L59"/>
-    <mergeCell ref="A49:M49"/>
-    <mergeCell ref="A50:M50"/>
-    <mergeCell ref="B51:L51"/>
-    <mergeCell ref="B52:L52"/>
-    <mergeCell ref="B53:L53"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="B23:K26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="A7:M7"/>
+    <mergeCell ref="C10:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="69" orientation="portrait" r:id="rId1"/>
@@ -24493,7 +24514,7 @@
   </sheetPr>
   <dimension ref="A1:AD181"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
@@ -24518,11 +24539,11 @@
   <sheetData>
     <row r="1" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="32" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C1" s="54" t="str">
         <f>'The details'!D2</f>
-        <v>56561-047973-01</v>
+        <v>56561-039285</v>
       </c>
       <c r="K1" s="32" t="str">
         <f>CONCATENATE("Page 2 of ",'The details'!G16)</f>
@@ -24547,7 +24568,7 @@
       </c>
       <c r="H3" s="54">
         <f>'The details'!D8</f>
-        <v>951078</v>
+        <v>752474</v>
       </c>
       <c r="I3" s="27"/>
       <c r="N3" s="295" t="e">
@@ -25406,7 +25427,7 @@
       </c>
       <c r="F26" s="46"/>
       <c r="G26" s="274" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H26" s="274"/>
       <c r="I26" s="182"/>
@@ -25441,7 +25462,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D28" s="30" t="str">
         <f>'JGI Method Testing'!D25</f>
@@ -25472,7 +25493,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D29" s="30" t="str">
         <f>'JGI Method Testing'!D26</f>
@@ -25517,7 +25538,7 @@
         <v>3</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D30" s="30" t="str">
         <f>'JGI Method Testing'!D27</f>
@@ -25544,7 +25565,7 @@
         <v>4</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D31" s="30" t="str">
         <f>'JGI Method Testing'!D28</f>
@@ -25571,7 +25592,7 @@
         <v>5</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D32" s="30" t="str">
         <f>'JGI Method Testing'!D29</f>
@@ -25598,7 +25619,7 @@
         <v>6</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D33" s="30" t="str">
         <f>'JGI Method Testing'!D30</f>
@@ -25624,7 +25645,7 @@
         <v>7</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D34" s="30" t="str">
         <f>'JGI Method Testing'!D31</f>
@@ -25650,7 +25671,7 @@
         <v>8</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D35" s="30" t="str">
         <f>'JGI Method Testing'!D32</f>
@@ -25964,43 +25985,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="124" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="124" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" s="124" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="124" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L4" s="270"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="124" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F5">
         <f>LARGE(A:A,1)</f>
@@ -26017,7 +26038,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G6" s="270">
         <f>G5/F5</f>
@@ -26031,34 +26052,34 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B8" s="124" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F8" t="s">
+        <v>289</v>
+      </c>
+      <c r="G8" t="s">
         <v>290</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="F8" t="s">
-        <v>288</v>
-      </c>
-      <c r="G8" t="s">
-        <v>289</v>
-      </c>
       <c r="H8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M8" s="267" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -26069,25 +26090,25 @@
         <v>42796</v>
       </c>
       <c r="C9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E9" s="1">
         <v>3654</v>
       </c>
       <c r="F9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H9">
         <v>70.599999999999994</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -26098,19 +26119,19 @@
         <v>42829</v>
       </c>
       <c r="C10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E10" s="1">
         <v>4403</v>
       </c>
       <c r="F10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H10">
         <v>71.3</v>
@@ -26127,25 +26148,25 @@
         <v>42849</v>
       </c>
       <c r="C11" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F11" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G11" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H11">
         <v>76.3</v>
       </c>
       <c r="M11" s="269" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -26156,19 +26177,19 @@
         <v>42857</v>
       </c>
       <c r="C12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H12">
         <v>76.3</v>
@@ -26185,25 +26206,25 @@
         <v>42905</v>
       </c>
       <c r="C13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E13" s="1">
         <v>750064</v>
       </c>
       <c r="F13" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H13">
         <v>71</v>
       </c>
       <c r="M13" s="269" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -26214,25 +26235,25 @@
         <v>42948</v>
       </c>
       <c r="C14" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E14" s="1">
         <v>60066</v>
       </c>
       <c r="F14" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G14" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H14">
         <v>71.599999999999994</v>
       </c>
       <c r="I14" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M14" s="268">
         <v>750419</v>
@@ -26246,25 +26267,25 @@
         <v>42955</v>
       </c>
       <c r="C15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F15" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H15">
         <v>68.400000000000006</v>
       </c>
       <c r="M15" s="269" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -26275,25 +26296,25 @@
         <v>43020</v>
       </c>
       <c r="C16" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E16" s="1">
         <v>750787</v>
       </c>
       <c r="F16" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H16">
         <v>68</v>
       </c>
       <c r="M16" s="268" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -26304,25 +26325,25 @@
         <v>43032</v>
       </c>
       <c r="C17" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F17" t="s">
+        <v>281</v>
+      </c>
+      <c r="G17" t="s">
         <v>166</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="F17" t="s">
-        <v>280</v>
-      </c>
-      <c r="G17" t="s">
-        <v>165</v>
       </c>
       <c r="H17">
         <v>68</v>
       </c>
       <c r="M17" s="269" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -26333,25 +26354,25 @@
         <v>43038</v>
       </c>
       <c r="C18" s="277" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D18" s="189" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E18" s="189">
         <v>70215</v>
       </c>
       <c r="F18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G18" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H18">
         <v>77</v>
       </c>
       <c r="M18" s="268" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -26362,28 +26383,28 @@
         <v>43040</v>
       </c>
       <c r="C19" s="277" t="s">
+        <v>167</v>
+      </c>
+      <c r="D19" s="189" t="s">
+        <v>304</v>
+      </c>
+      <c r="E19" s="189" t="s">
+        <v>313</v>
+      </c>
+      <c r="F19" t="s">
+        <v>255</v>
+      </c>
+      <c r="G19" t="s">
         <v>166</v>
-      </c>
-      <c r="D19" s="189" t="s">
-        <v>303</v>
-      </c>
-      <c r="E19" s="189" t="s">
-        <v>312</v>
-      </c>
-      <c r="F19" t="s">
-        <v>254</v>
-      </c>
-      <c r="G19" t="s">
-        <v>165</v>
       </c>
       <c r="H19">
         <v>65</v>
       </c>
       <c r="I19" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M19" s="269" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -26394,25 +26415,25 @@
         <v>43047</v>
       </c>
       <c r="C20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E20" s="1">
         <v>4176</v>
       </c>
       <c r="F20" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H20">
         <v>70</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -26423,19 +26444,19 @@
         <v>43064</v>
       </c>
       <c r="C21" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G21" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H21">
         <v>68.5</v>
@@ -26452,28 +26473,28 @@
         <v>43076</v>
       </c>
       <c r="C22" s="277" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D22" s="189" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E22" s="189">
         <v>750419</v>
       </c>
       <c r="F22" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G22" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H22">
         <v>69</v>
       </c>
       <c r="I22" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M22" s="269" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -26484,19 +26505,19 @@
         <v>43164</v>
       </c>
       <c r="C23" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E23" s="1">
         <v>3654</v>
       </c>
       <c r="F23" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H23">
         <v>66</v>
@@ -26513,25 +26534,25 @@
         <v>43193</v>
       </c>
       <c r="C24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E24" s="1">
         <v>4403</v>
       </c>
       <c r="F24" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H24">
         <v>66.7</v>
       </c>
       <c r="M24" s="269" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -26542,19 +26563,19 @@
         <v>43223</v>
       </c>
       <c r="C25" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E25" s="1">
         <v>751074</v>
       </c>
       <c r="F25" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G25" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H25">
         <v>72.5</v>
@@ -26571,25 +26592,25 @@
         <v>43223</v>
       </c>
       <c r="C26" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E26" s="1">
         <v>751078</v>
       </c>
       <c r="F26" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H26">
         <v>68.7</v>
       </c>
       <c r="M26" s="269" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -26600,19 +26621,19 @@
         <v>43237</v>
       </c>
       <c r="C27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F27" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G27" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H27">
         <v>69.8</v>
@@ -26629,28 +26650,28 @@
         <v>43322</v>
       </c>
       <c r="C28" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F28" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H28">
         <v>70.400000000000006</v>
       </c>
       <c r="I28" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M28" s="269" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -26661,19 +26682,19 @@
         <v>43333</v>
       </c>
       <c r="C29" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E29" s="1">
         <v>750245</v>
       </c>
       <c r="F29" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G29" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H29">
         <v>70.3</v>
@@ -26690,25 +26711,25 @@
         <v>43348</v>
       </c>
       <c r="C30" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E30" s="1">
         <v>751189</v>
       </c>
       <c r="F30" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G30" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H30">
         <v>74.8</v>
       </c>
       <c r="M30" s="269" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -26719,19 +26740,19 @@
         <v>43384</v>
       </c>
       <c r="C31" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E31" s="1">
         <v>750787</v>
       </c>
       <c r="F31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G31" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H31">
         <v>69</v>
@@ -26748,25 +26769,25 @@
         <v>43396</v>
       </c>
       <c r="C32" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E32" s="1">
         <v>4176</v>
       </c>
       <c r="F32" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G32" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H32">
         <v>68.900000000000006</v>
       </c>
       <c r="M32" s="269" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -26777,19 +26798,19 @@
         <v>43396</v>
       </c>
       <c r="C33" t="s">
+        <v>167</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F33" t="s">
+        <v>281</v>
+      </c>
+      <c r="G33" t="s">
         <v>166</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="F33" t="s">
-        <v>280</v>
-      </c>
-      <c r="G33" t="s">
-        <v>165</v>
       </c>
       <c r="H33">
         <v>71.2</v>
@@ -26806,25 +26827,25 @@
         <v>43412</v>
       </c>
       <c r="C34" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F34" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G34" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H34">
         <v>66.2</v>
       </c>
       <c r="M34" s="269" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -26835,10 +26856,10 @@
         <v>43419</v>
       </c>
       <c r="C35" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E35" s="1">
         <v>60066</v>
@@ -26855,25 +26876,25 @@
         <v>43483</v>
       </c>
       <c r="C36" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E36" s="1">
         <v>3268</v>
       </c>
       <c r="F36" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G36" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H36">
         <v>60.2</v>
       </c>
       <c r="M36" s="269" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -26884,19 +26905,19 @@
         <v>43535</v>
       </c>
       <c r="C37" t="s">
+        <v>356</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="E37" s="1">
         <v>2077</v>
       </c>
       <c r="F37" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G37" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H37">
         <v>68.5</v>
@@ -26913,25 +26934,25 @@
         <v>43556</v>
       </c>
       <c r="C38" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E38" s="1">
         <v>4403</v>
       </c>
       <c r="F38" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G38" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I38" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M38" s="269" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -26942,25 +26963,25 @@
         <v>43556</v>
       </c>
       <c r="C39" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E39" s="1">
         <v>751074</v>
       </c>
       <c r="F39" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G39" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I39" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M39" s="268" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -26971,22 +26992,22 @@
         <v>43571</v>
       </c>
       <c r="C40" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E40" s="1">
         <v>750937</v>
       </c>
       <c r="F40" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G40" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M40" s="269" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -26997,22 +27018,22 @@
         <v>43587</v>
       </c>
       <c r="C41" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E41" s="1">
         <v>3212</v>
       </c>
       <c r="F41" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G41" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M41" s="268" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -27023,22 +27044,22 @@
         <v>43595</v>
       </c>
       <c r="C42" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E42" s="1">
         <v>3900</v>
       </c>
       <c r="F42" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G42" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M42" s="269" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -27049,22 +27070,22 @@
         <v>43641</v>
       </c>
       <c r="C43" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E43" s="1">
         <v>70457</v>
       </c>
       <c r="F43" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G43" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M43" s="268" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -27075,22 +27096,22 @@
         <v>43641</v>
       </c>
       <c r="C44" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E44" s="1">
         <v>70459</v>
       </c>
       <c r="F44" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G44" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M44" s="269" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -27101,22 +27122,22 @@
         <v>43641</v>
       </c>
       <c r="C45" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E45" s="1">
         <v>3676</v>
       </c>
       <c r="F45" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G45" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M45" s="268" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -27127,22 +27148,22 @@
         <v>43644</v>
       </c>
       <c r="C46" t="s">
+        <v>167</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F46" t="s">
+        <v>255</v>
+      </c>
+      <c r="G46" t="s">
         <v>166</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="F46" t="s">
-        <v>254</v>
-      </c>
-      <c r="G46" t="s">
-        <v>165</v>
-      </c>
       <c r="M46" s="269" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -27153,22 +27174,22 @@
         <v>43670</v>
       </c>
       <c r="C47" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F47" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G47" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M47" s="268" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -27179,22 +27200,22 @@
         <v>43697</v>
       </c>
       <c r="C48" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E48" s="1">
         <v>750245</v>
       </c>
       <c r="F48" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G48" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M48" s="269" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -27205,22 +27226,22 @@
         <v>43699</v>
       </c>
       <c r="C49" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F49" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G49" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -27231,19 +27252,19 @@
         <v>43711</v>
       </c>
       <c r="C50" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E50" s="1">
         <v>751189</v>
       </c>
       <c r="F50" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G50" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -27254,19 +27275,19 @@
         <v>43740</v>
       </c>
       <c r="C51" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E51" s="1">
         <v>2028</v>
       </c>
       <c r="F51" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G51" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -27277,19 +27298,19 @@
         <v>43748</v>
       </c>
       <c r="C52" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E52" s="1">
         <v>750787</v>
       </c>
       <c r="F52" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G52" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -27300,22 +27321,22 @@
         <v>43763</v>
       </c>
       <c r="C53" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E53" s="1">
         <v>4176</v>
       </c>
       <c r="F53" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G53" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I53" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -27326,22 +27347,22 @@
         <v>43763</v>
       </c>
       <c r="C54" t="s">
+        <v>167</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F54" t="s">
+        <v>281</v>
+      </c>
+      <c r="G54" t="s">
         <v>166</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="F54" t="s">
-        <v>280</v>
-      </c>
-      <c r="G54" t="s">
-        <v>165</v>
-      </c>
       <c r="I54" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -27352,19 +27373,19 @@
         <v>43775</v>
       </c>
       <c r="C55" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F55" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G55" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -27375,19 +27396,19 @@
         <v>43804</v>
       </c>
       <c r="C56" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E56" s="1">
         <v>750419</v>
       </c>
       <c r="F56" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G56" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -27398,19 +27419,19 @@
         <v>43836</v>
       </c>
       <c r="C57" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E57" s="1">
         <v>3268</v>
       </c>
       <c r="F57" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G57" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -27421,19 +27442,19 @@
         <v>43900</v>
       </c>
       <c r="C58" t="s">
+        <v>356</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="E58" s="1">
         <v>2077</v>
       </c>
       <c r="F58" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G58" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -27536,50 +27557,60 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75539638-67AC-4AD5-BCD1-B737B0FF4500}">
-  <dimension ref="A5:B14"/>
+  <dimension ref="A5:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>333</v>
+        <v>334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -27591,8 +27622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27613,7 +27644,7 @@
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="142"/>
       <c r="C2" s="143" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D2" s="143"/>
       <c r="E2" s="143"/>
@@ -27627,11 +27658,11 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E3" s="129" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H3" s="130"/>
       <c r="I3" s="126" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J3" s="127"/>
       <c r="K3" s="127"/>
@@ -27648,10 +27679,10 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E5" s="136">
         <f>(I5*12)/39.3703</f>
@@ -27687,7 +27718,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E6" s="134"/>
       <c r="F6" s="1"/>
@@ -27704,10 +27735,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E7" s="134">
         <v>4.3999999999999997E-2</v>
@@ -27748,10 +27779,10 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E8" s="134">
         <v>3.2000000000000001E-2</v>
@@ -27791,10 +27822,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" t="s">
         <v>193</v>
-      </c>
-      <c r="C9" t="s">
-        <v>192</v>
       </c>
       <c r="E9" s="134">
         <v>4.3999999999999997E-2</v>
@@ -27835,10 +27866,10 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E10" s="134">
         <v>2.8000000000000001E-2</v>
@@ -27879,10 +27910,10 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E11" s="134">
         <v>3.5000000000000003E-2</v>
@@ -27923,13 +27954,13 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E12" s="137">
         <f>((0.000005*2.3)+(0.0000035*E5)+0.000015+(0.00001*E5))*1000</f>
@@ -27974,10 +28005,10 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E13" s="134">
         <v>3.5999999999999997E-2</v>
@@ -28018,10 +28049,10 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E14" s="134">
         <v>0.06</v>
@@ -28063,13 +28094,13 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D15" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E15" s="134">
         <v>0.06</v>
@@ -28111,10 +28142,10 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E16" s="134">
         <f>E13</f>
@@ -28155,10 +28186,10 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C17" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E17" s="129">
         <v>4.5999999999999999E-2</v>
@@ -28348,10 +28379,10 @@
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C25" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E25" s="140"/>
       <c r="F25" s="8"/>
@@ -28380,27 +28411,27 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -33808,6 +33839,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MediaLengthInSeconds xmlns="a7c4c7f9-987c-475d-a26a-521e5d0f4dc5" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a7c4c7f9-987c-475d-a26a-521e5d0f4dc5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="1ed8a9e0-df63-4c43-b0d4-c670c11769ef" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D7106659C9D26643AA540CBD094E0397" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5018c6155e8e4379c85041cfa1560781">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a7c4c7f9-987c-475d-a26a-521e5d0f4dc5" xmlns:ns3="1ed8a9e0-df63-4c43-b0d4-c670c11769ef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e78bda9f13f2b71844c90a831e5f907d" ns2:_="" ns3:_="">
     <xsd:import namespace="a7c4c7f9-987c-475d-a26a-521e5d0f4dc5"/>
@@ -34036,18 +34079,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MediaLengthInSeconds xmlns="a7c4c7f9-987c-475d-a26a-521e5d0f4dc5" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a7c4c7f9-987c-475d-a26a-521e5d0f4dc5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="1ed8a9e0-df63-4c43-b0d4-c670c11769ef" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -34058,7 +34089,26 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F7526FD-8353-4080-9F0C-B340E5385CE5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B058CC22-A791-4160-9C2A-F01FD789E611}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="4fd1c5a0-0bca-454a-ac0e-f779ca36a15f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="1462b954-4d06-444c-82fd-c148835216c0"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="a7c4c7f9-987c-475d-a26a-521e5d0f4dc5"/>
+    <ds:schemaRef ds:uri="1ed8a9e0-df63-4c43-b0d4-c670c11769ef"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{560C1487-0A5A-40F8-A284-99DC8D4B666E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -34076,19 +34126,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B0AB2FE-88F0-4E92-98AD-62F2E6F190DE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a7c4c7f9-987c-475d-a26a-521e5d0f4dc5"/>
-    <ds:schemaRef ds:uri="1ed8a9e0-df63-4c43-b0d4-c670c11769ef"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB22CDDA-23C2-498B-9BE1-786ED8B274B3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97ACAA01-E60F-4C30-B544-74C78C6E783A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>

--- a/Laser Tracker Worksheet.xlsx
+++ b/Laser Tracker Worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jgiquality.sharepoint.com/sites/JGI/Shared Documents/Kelly Kabler's OneDrive/Shared with Everyone/Dimensional Lab South/Peyton/Tools/Laser Trackers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{237D9A3D-F1B7-4C95-A32B-051CFACDC72F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB8DFB77-CF1E-4636-9C4F-447D42A2253E}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="13_ncr:1_{30D28459-21F0-487E-A5D6-5EEC9C8EC323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FBE2B73-A72E-4063-9527-C61669BBB483}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2415" yWindow="1980" windowWidth="21600" windowHeight="11295" tabRatio="807" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="807" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="The details" sheetId="14" r:id="rId1"/>
@@ -37,7 +37,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="43" r:id="rId13"/>
+    <pivotCache cacheId="44" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="406">
   <si>
     <t>Test Position</t>
   </si>
@@ -430,9 +430,6 @@
     <t>Inspector:</t>
   </si>
   <si>
-    <t>JV</t>
-  </si>
-  <si>
     <t>Date Calibrated:</t>
   </si>
   <si>
@@ -460,9 +457,6 @@
     <t xml:space="preserve">Calibration Procedure(s):  </t>
   </si>
   <si>
-    <t xml:space="preserve">                            This item was tested using traceable reference lengths throughout its working volume</t>
-  </si>
-  <si>
     <t>Test Type</t>
   </si>
   <si>
@@ -1276,16 +1270,7 @@
     <t>To backsight find the two face check button under check/cal inside the instrument docking bar, I belive this apears when you first connect to the device. It was open when we took control.</t>
   </si>
   <si>
-    <t>56561-039285</t>
-  </si>
-  <si>
     <t>PE, ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vector Tooling Technologies </t>
-  </si>
-  <si>
-    <t>22245 C Street Winfield, KS 67156</t>
   </si>
   <si>
     <t>IRLS1</t>
@@ -2846,8 +2831,64 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2857,62 +2898,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3547,7 +3532,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Imagy" spid="_x0000_s5893"/>
+                  <a14:cameraTool cellRange="Imagy" spid="_x0000_s5917"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4628,7 +4613,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>95251</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>163321</xdr:rowOff>
+      <xdr:rowOff>169036</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5192,7 +5177,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5B96806F-6E78-4F15-A9C6-6121FC4A380B}" name="PivotTable1" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5B96806F-6E78-4F15-A9C6-6121FC4A380B}" name="PivotTable1" cacheId="44" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="M8:M49" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -5759,8 +5744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81DCD86A-31B9-4E78-A320-BC2D0F7A2926}">
   <dimension ref="A2:R32"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5776,11 +5761,9 @@
     <row r="2" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="220"/>
       <c r="C2" s="241" t="s">
-        <v>230</v>
-      </c>
-      <c r="D2" s="237" t="s">
-        <v>406</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="D2" s="237"/>
       <c r="E2" s="231"/>
       <c r="F2" s="231"/>
       <c r="G2" s="231"/>
@@ -5793,11 +5776,9 @@
     <row r="3" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="220"/>
       <c r="C3" s="241" t="s">
-        <v>246</v>
-      </c>
-      <c r="D3" s="238" t="s">
-        <v>408</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="D3" s="238"/>
       <c r="E3" s="235"/>
       <c r="F3" s="235"/>
       <c r="G3" s="235"/>
@@ -5810,11 +5791,9 @@
     <row r="4" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="220"/>
       <c r="C4" s="241" t="s">
-        <v>247</v>
-      </c>
-      <c r="D4" s="238" t="s">
-        <v>409</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="D4" s="238"/>
       <c r="E4" s="235"/>
       <c r="F4" s="235"/>
       <c r="G4" s="235"/>
@@ -5827,11 +5806,11 @@
     <row r="5" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="220"/>
       <c r="C5" s="241" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D5" s="265"/>
       <c r="E5" s="231" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F5" s="231"/>
       <c r="G5" s="231"/>
@@ -5861,11 +5840,9 @@
     <row r="7" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B7" s="220"/>
       <c r="C7" s="241" t="s">
-        <v>148</v>
-      </c>
-      <c r="D7" s="239">
-        <v>752474</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="D7" s="239"/>
       <c r="E7" s="231"/>
       <c r="F7" s="231"/>
       <c r="G7" s="231"/>
@@ -5878,11 +5855,9 @@
     <row r="8" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B8" s="220"/>
       <c r="C8" s="241" t="s">
-        <v>231</v>
-      </c>
-      <c r="D8" s="239">
-        <v>752474</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="D8" s="239"/>
       <c r="E8" s="231"/>
       <c r="F8" s="231"/>
       <c r="G8" s="231"/>
@@ -5895,7 +5870,7 @@
     <row r="9" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9" s="220"/>
       <c r="C9" s="241" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D9" s="240">
         <f ca="1">TODAY()</f>
@@ -5913,20 +5888,20 @@
     <row r="10" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B10" s="220"/>
       <c r="C10" s="241" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D10" s="240">
         <f ca="1">DATE(YEAR(D9)+F10,MONTH(D9),DAY(D9))</f>
         <v>46050</v>
       </c>
       <c r="E10" s="231" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F10" s="298">
         <v>1</v>
       </c>
       <c r="G10" s="231" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H10" s="231"/>
       <c r="I10" s="231"/>
@@ -5937,10 +5912,10 @@
     <row r="11" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B11" s="220"/>
       <c r="C11" s="241" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D11" s="239" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E11" s="231"/>
       <c r="F11" s="231"/>
@@ -5954,13 +5929,13 @@
     <row r="12" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B12" s="220"/>
       <c r="C12" s="241" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D12" s="239">
         <v>69.3</v>
       </c>
       <c r="E12" s="231" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F12" s="231"/>
       <c r="G12" s="231"/>
@@ -5973,13 +5948,13 @@
     <row r="13" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="220"/>
       <c r="C13" s="241" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D13" s="239">
         <v>35</v>
       </c>
       <c r="E13" s="231" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F13" s="231"/>
       <c r="G13" s="231"/>
@@ -5992,10 +5967,10 @@
     <row r="14" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B14" s="220"/>
       <c r="C14" s="241" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D14" s="239" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E14" s="231"/>
       <c r="F14" s="231"/>
@@ -6009,10 +5984,10 @@
     <row r="15" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B15" s="220"/>
       <c r="C15" s="241" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D15" s="239" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E15" s="231"/>
       <c r="F15" s="231"/>
@@ -6029,14 +6004,14 @@
     <row r="16" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B16" s="220"/>
       <c r="C16" s="241" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D16" s="239">
         <v>0</v>
       </c>
       <c r="E16" s="231"/>
       <c r="F16" s="229" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G16" s="233">
         <f>IF(OR(D16&lt;&gt;"",D16&lt;&gt;0),D16+2,2)</f>
@@ -6054,10 +6029,10 @@
     <row r="17" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B17" s="220"/>
       <c r="C17" s="241" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D17" s="239" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E17" s="231"/>
       <c r="F17" s="231"/>
@@ -6072,10 +6047,10 @@
     <row r="18" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B18" s="220"/>
       <c r="C18" s="241" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D18" s="304" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E18" s="305"/>
       <c r="F18" s="305"/>
@@ -6127,7 +6102,7 @@
         <v>62</v>
       </c>
       <c r="D22" s="239" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E22" s="231"/>
       <c r="F22" s="231"/>
@@ -6141,15 +6116,15 @@
     <row r="23" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C23" s="229"/>
       <c r="D23" s="230" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E23" s="231"/>
       <c r="F23" s="231" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G23" s="231"/>
       <c r="H23" s="231" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I23" s="231"/>
       <c r="J23" s="231"/>
@@ -6158,13 +6133,13 @@
     </row>
     <row r="24" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C24" s="241" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D24" s="239">
         <v>600</v>
       </c>
       <c r="E24" s="231" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F24" s="231">
         <v>600</v>
@@ -6178,7 +6153,7 @@
     </row>
     <row r="25" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C25" s="241" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D25" s="240">
         <v>45078</v>
@@ -6196,7 +6171,7 @@
     </row>
     <row r="26" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C26" s="241" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D26" s="240">
         <v>45444</v>
@@ -6214,14 +6189,14 @@
     </row>
     <row r="27" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C27" s="241" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D27" s="239" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E27" s="231"/>
       <c r="F27" s="231" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G27" s="231"/>
       <c r="H27" s="231"/>
@@ -6232,7 +6207,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C28" s="232" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D28" s="233">
         <v>0.7</v>
@@ -6248,7 +6223,7 @@
       <c r="A29" s="241"/>
       <c r="B29" s="241"/>
       <c r="C29" s="241" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D29" s="227">
         <v>90.540859999999995</v>
@@ -6380,7 +6355,7 @@
   <sheetData>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D4" t="s">
         <v>65</v>
@@ -6388,12 +6363,12 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B6">
         <v>-5.0000000000000001E-3</v>
@@ -6404,7 +6379,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B7">
         <v>-5.3E-3</v>
@@ -6415,7 +6390,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B8">
         <v>-4.7000000000000002E-3</v>
@@ -6426,7 +6401,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B9">
         <v>-6.6E-3</v>
@@ -6437,7 +6412,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B10">
         <v>-5.4000000000000003E-3</v>
@@ -6448,7 +6423,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B11">
         <v>-4.4999999999999997E-3</v>
@@ -6459,7 +6434,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B12">
         <v>-5.7000000000000002E-3</v>
@@ -6519,7 +6494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -6531,10 +6506,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -6542,7 +6517,7 @@
         <v>42909</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6550,7 +6525,7 @@
         <v>43344</v>
       </c>
       <c r="B3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6558,7 +6533,7 @@
         <v>43385</v>
       </c>
       <c r="B4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6566,7 +6541,7 @@
         <v>43405</v>
       </c>
       <c r="B5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -6582,8 +6557,8 @@
   </sheetPr>
   <dimension ref="A1:AG182"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6626,17 +6601,17 @@
       <c r="O1" s="244"/>
       <c r="P1" s="246"/>
       <c r="Q1" s="285" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="R1" s="285" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="S1" s="285" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="T1" s="243"/>
       <c r="U1" s="244" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="V1" s="244"/>
       <c r="W1" s="244"/>
@@ -6647,7 +6622,7 @@
     </row>
     <row r="2" spans="2:28" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C2" s="34" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D2" s="33"/>
       <c r="E2" s="33"/>
@@ -6666,7 +6641,7 @@
       <c r="O2" s="292"/>
       <c r="P2" s="246"/>
       <c r="Q2" s="285" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="R2" s="285">
         <v>90.548159999999996</v>
@@ -6696,7 +6671,7 @@
         <v>2299.7458930824537</v>
       </c>
       <c r="J3" s="294" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K3" s="244"/>
       <c r="L3" s="244"/>
@@ -6705,7 +6680,7 @@
       <c r="O3" s="247"/>
       <c r="P3" s="246"/>
       <c r="Q3" s="285" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="R3" s="285">
         <v>67.914940000000001</v>
@@ -6723,10 +6698,10 @@
         <v>1</v>
       </c>
       <c r="W3" s="244" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="X3" s="244" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="Y3" s="249"/>
       <c r="Z3" s="249"/>
@@ -6760,7 +6735,7 @@
       </c>
       <c r="P4" s="246"/>
       <c r="Q4" s="285" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="R4" s="285">
         <v>45.273850000000003</v>
@@ -6810,7 +6785,7 @@
       <c r="O5" s="244"/>
       <c r="P5" s="246"/>
       <c r="Q5" s="285" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="R5" s="285">
         <v>22.63721</v>
@@ -6850,13 +6825,13 @@
         <v>29</v>
       </c>
       <c r="H6" s="56" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I6" s="37" t="s">
         <v>31</v>
       </c>
       <c r="J6" s="38" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K6" s="37" t="s">
         <v>32</v>
@@ -6883,13 +6858,13 @@
         <v>73</v>
       </c>
       <c r="U6" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="V6" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="W6" s="30" t="s">
         <v>162</v>
-      </c>
-      <c r="V6" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="W6" s="30" t="s">
-        <v>164</v>
       </c>
       <c r="X6" s="30"/>
     </row>
@@ -7886,7 +7861,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D20" s="30" t="str">
         <f t="shared" si="2"/>
@@ -8271,7 +8246,7 @@
         <v>19</v>
       </c>
       <c r="C25" s="288" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D25" s="288" t="str">
         <f t="shared" si="2"/>
@@ -8281,7 +8256,7 @@
         <v>6</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H25" s="55">
         <f>MAX(L25,M25,N25)</f>
@@ -8341,7 +8316,7 @@
         <v>20</v>
       </c>
       <c r="C26" s="289" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D26" s="289" t="str">
         <f t="shared" si="2"/>
@@ -8351,7 +8326,7 @@
         <v>6</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H26" s="55">
         <f t="shared" ref="H26:H32" si="14">MAX(L26,M26,N26)</f>
@@ -8411,7 +8386,7 @@
         <v>21</v>
       </c>
       <c r="C27" s="288" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D27" s="288" t="str">
         <f t="shared" si="2"/>
@@ -8421,7 +8396,7 @@
         <v>6</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H27" s="55">
         <f t="shared" si="14"/>
@@ -8481,7 +8456,7 @@
         <v>22</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D28" s="30" t="str">
         <f t="shared" si="2"/>
@@ -8491,7 +8466,7 @@
         <v>111</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H28" s="55">
         <f t="shared" si="14"/>
@@ -8551,7 +8526,7 @@
         <v>23</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D29" s="30" t="str">
         <f t="shared" si="2"/>
@@ -8561,7 +8536,7 @@
         <v>112</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H29" s="55">
         <f t="shared" si="14"/>
@@ -8621,7 +8596,7 @@
         <v>24</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D30" s="30" t="str">
         <f t="shared" si="2"/>
@@ -8631,7 +8606,7 @@
         <v>9</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H30" s="55">
         <f t="shared" si="14"/>
@@ -8691,7 +8666,7 @@
         <v>25</v>
       </c>
       <c r="C31" s="287" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D31" s="287" t="str">
         <f t="shared" si="2"/>
@@ -8701,7 +8676,7 @@
         <v>9</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H31" s="55">
         <f t="shared" si="14"/>
@@ -8761,7 +8736,7 @@
         <v>26</v>
       </c>
       <c r="C32" s="290" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D32" s="290" t="str">
         <f t="shared" si="2"/>
@@ -8771,7 +8746,7 @@
         <v>6</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H32" s="55">
         <f t="shared" si="14"/>
@@ -8828,7 +8803,7 @@
     </row>
     <row r="33" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="316" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C33" s="316"/>
       <c r="D33" s="316"/>
@@ -8952,10 +8927,10 @@
         <v>1</v>
       </c>
       <c r="AA34" s="244" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AB34" s="244" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -9130,7 +9105,7 @@
         <v>2.7m / 9ft</v>
       </c>
       <c r="E37" s="222" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G37" s="9">
         <f>R37+P37</f>
@@ -9262,14 +9237,14 @@
       <c r="C58" s="314"/>
       <c r="G58" s="30"/>
       <c r="H58" s="208" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I58" s="210">
         <f>AVERAGE(J62,J64,J66,J68,J70,J72,J74,J76,)</f>
         <v>0</v>
       </c>
       <c r="J58" s="217" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K58" s="218" t="str">
         <f>IF(K62&lt;&gt;"",AVERAGE(K62,K64,K66,K68,K70,K72,K74,K76,),"")</f>
@@ -9302,14 +9277,14 @@
       </c>
       <c r="G59" s="41"/>
       <c r="H59" s="209" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I59" s="210">
         <f>MAX(J62,J64,J66,J68,J70,J72,J74,J76)</f>
         <v>0</v>
       </c>
       <c r="J59" s="217" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K59" s="218" t="str">
         <f>IF(K62&lt;&gt;"",MAX(K62,K64,K66,K68,K70,K72,K74,K76),"")</f>
@@ -9419,10 +9394,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J61" s="278" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K61" s="16" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L61" s="10"/>
       <c r="M61" s="10"/>
@@ -10169,7 +10144,7 @@
     </row>
     <row r="77" spans="1:33" s="154" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B77" s="315" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C77" s="315"/>
       <c r="D77" s="155"/>
@@ -10314,7 +10289,7 @@
         <v>1</v>
       </c>
       <c r="C80" s="155" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D80" s="155" t="s">
         <v>47</v>
@@ -10404,7 +10379,7 @@
         <v>2</v>
       </c>
       <c r="C81" s="155" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D81" s="155" t="s">
         <v>50</v>
@@ -12381,8 +12356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AD304"/>
   <sheetViews>
-    <sheetView topLeftCell="B15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12403,13 +12378,13 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>60</v>
       </c>
       <c r="C1" s="259" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>85</v>
@@ -12424,11 +12399,11 @@
         <v>103</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="M1" s="4" t="str">
+        <v>251</v>
+      </c>
+      <c r="M1" s="4">
         <f>'The details'!$D$2</f>
-        <v>56561-039285</v>
+        <v>0</v>
       </c>
       <c r="U1" s="192" t="str">
         <f>CONCATENATE("Page 3 of ",'The details'!$G$16)</f>
@@ -12437,20 +12412,26 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B2" s="242" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C2" s="260"/>
       <c r="D2" s="5" t="str">
         <f>IF($C$4="Yes",AC91,AD91)</f>
         <v>Centered, Radial</v>
       </c>
-      <c r="E2" s="253"/>
-      <c r="F2" s="253"/>
-      <c r="G2" s="253"/>
+      <c r="E2" s="253">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="F2" s="253">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="G2" s="253">
+        <v>1.5100000000000001E-3</v>
+      </c>
     </row>
     <row r="3" spans="1:21" ht="27" x14ac:dyDescent="0.35">
       <c r="B3" s="258" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C3" s="260">
         <v>5.0000000000000001E-4</v>
@@ -12459,27 +12440,39 @@
         <f t="shared" ref="D3:D9" si="0">IF($C$4="Yes",AC92,AD92)</f>
         <v>Mirror rotated upward</v>
       </c>
-      <c r="E3" s="253"/>
-      <c r="F3" s="253"/>
-      <c r="G3" s="253"/>
+      <c r="E3" s="253">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F3" s="253">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="G3" s="253">
+        <v>1.81E-3</v>
+      </c>
       <c r="P3" s="193" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="B4" s="258" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C4" s="260" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D4" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Mirror rotated downard</v>
       </c>
-      <c r="E4" s="253"/>
-      <c r="F4" s="253"/>
-      <c r="G4" s="253"/>
+      <c r="E4" s="253">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F4" s="253">
+        <v>4.2999999999999999E-4</v>
+      </c>
+      <c r="G4" s="253">
+        <v>1.1999999999999999E-3</v>
+      </c>
       <c r="P4" s="194" t="s">
         <v>115</v>
       </c>
@@ -12489,11 +12482,17 @@
         <f t="shared" si="0"/>
         <v>Rotated CW Horizontally</v>
       </c>
-      <c r="E5" s="253"/>
-      <c r="F5" s="253"/>
-      <c r="G5" s="253"/>
+      <c r="E5" s="253">
+        <v>2.3000000000000001E-4</v>
+      </c>
+      <c r="F5" s="253">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="G5" s="253">
+        <v>1.7799999999999999E-3</v>
+      </c>
       <c r="P5" s="194" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -12505,9 +12504,15 @@
         <f t="shared" si="0"/>
         <v>Rotated CCW Horizontally</v>
       </c>
-      <c r="E6" s="253"/>
-      <c r="F6" s="253"/>
-      <c r="G6" s="253"/>
+      <c r="E6" s="253">
+        <v>3.6000000000000002E-4</v>
+      </c>
+      <c r="F6" s="253">
+        <v>8.4000000000000003E-4</v>
+      </c>
+      <c r="G6" s="253">
+        <v>1.0200000000000001E-3</v>
+      </c>
     </row>
     <row r="7" spans="1:21" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="str">
@@ -12521,11 +12526,17 @@
         <f t="shared" si="0"/>
         <v>Rotated 90° on beam axis</v>
       </c>
-      <c r="E7" s="253"/>
-      <c r="F7" s="253"/>
-      <c r="G7" s="253"/>
+      <c r="E7" s="253">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="F7" s="253">
+        <v>3.2000000000000003E-4</v>
+      </c>
+      <c r="G7" s="253">
+        <v>1.31E-3</v>
+      </c>
       <c r="P7" s="195" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -12540,9 +12551,15 @@
         <f t="shared" si="0"/>
         <v>Rotated 180° on beam axis</v>
       </c>
-      <c r="E8" s="253"/>
-      <c r="F8" s="253"/>
-      <c r="G8" s="253"/>
+      <c r="E8" s="253">
+        <v>1E-4</v>
+      </c>
+      <c r="F8" s="253">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="G8" s="253">
+        <v>1.64E-3</v>
+      </c>
     </row>
     <row r="9" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="str">
@@ -12556,9 +12573,15 @@
         <f t="shared" si="0"/>
         <v>Rotated 270° on beam axis</v>
       </c>
-      <c r="E9" s="253"/>
-      <c r="F9" s="253"/>
-      <c r="G9" s="253"/>
+      <c r="E9" s="253">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F9" s="253">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="G9" s="253">
+        <v>1.16E-3</v>
+      </c>
       <c r="K9" s="196"/>
       <c r="M9" s="197" t="s">
         <v>121</v>
@@ -12571,7 +12594,7 @@
       <c r="P9" s="196"/>
       <c r="Q9" s="196"/>
       <c r="R9" s="197" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="S9" s="255">
         <f ca="1">'The details'!$D$9</f>
@@ -12589,7 +12612,7 @@
         <v>1.4999899999999999</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I10" s="266" t="str">
         <f>Q36</f>
@@ -12608,7 +12631,7 @@
       <c r="P10" s="302"/>
       <c r="Q10" s="302"/>
       <c r="R10" s="300" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="S10" s="302" t="str">
         <f>'The details'!$D$11</f>
@@ -12626,26 +12649,26 @@
         <v>1.4999899999999999</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E11" s="252">
         <f>MAX(E2:E9)</f>
-        <v>0</v>
+        <v>3.6000000000000002E-4</v>
       </c>
       <c r="F11" s="252">
         <f>MAX(F2:F9)</f>
-        <v>0</v>
+        <v>1.2199999999999999E-3</v>
       </c>
       <c r="G11" s="252">
         <f>MAX(G2:G9)</f>
-        <v>0</v>
+        <v>1.81E-3</v>
       </c>
       <c r="K11" s="196"/>
       <c r="L11" s="200" t="s">
         <v>87</v>
       </c>
       <c r="M11" s="196" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="Q11" s="200" t="s">
         <v>101</v>
@@ -12669,19 +12692,19 @@
         <v>2.0000000000131024E-5</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E12" s="252">
         <f>MIN(E2:E9)</f>
-        <v>0</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="F12" s="252">
         <f>MIN(F2:F9)</f>
-        <v>0</v>
+        <v>3.2000000000000003E-4</v>
       </c>
       <c r="G12" s="252">
         <f>MIN(G2:G9)</f>
-        <v>0</v>
+        <v>1.0200000000000001E-3</v>
       </c>
       <c r="L12" s="200">
         <v>1</v>
@@ -12693,35 +12716,35 @@
       <c r="N12" s="196"/>
       <c r="O12" s="196"/>
       <c r="P12" s="196"/>
-      <c r="Q12" s="206" t="str">
+      <c r="Q12" s="206">
         <f t="shared" ref="Q12:S19" si="2">IF(E2&lt;&gt;"",E2,"")</f>
-        <v/>
-      </c>
-      <c r="R12" s="206" t="str">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="R12" s="206">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="S12" s="206" t="str">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="S12" s="206">
         <f t="shared" si="2"/>
-        <v/>
+        <v>1.5100000000000001E-3</v>
       </c>
       <c r="T12" s="199"/>
     </row>
     <row r="13" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="D13" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E13" s="252">
         <f>(E11-E12)/2</f>
-        <v>0</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="F13" s="252">
         <f>(F11-F12)/2</f>
-        <v>0</v>
+        <v>4.4999999999999999E-4</v>
       </c>
       <c r="G13" s="252">
         <f>(G11-G12)/2</f>
-        <v>0</v>
+        <v>3.9499999999999995E-4</v>
       </c>
       <c r="L13" s="200">
         <v>2</v>
@@ -12733,17 +12756,17 @@
       <c r="N13" s="196"/>
       <c r="O13" s="196"/>
       <c r="P13" s="201"/>
-      <c r="Q13" s="206" t="str">
+      <c r="Q13" s="206">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="R13" s="206" t="str">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="R13" s="206">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="S13" s="206" t="str">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="S13" s="206">
         <f t="shared" si="2"/>
-        <v/>
+        <v>1.81E-3</v>
       </c>
       <c r="T13" s="199"/>
     </row>
@@ -12759,17 +12782,17 @@
       <c r="N14" s="196"/>
       <c r="O14" s="196"/>
       <c r="P14" s="201"/>
-      <c r="Q14" s="206" t="str">
+      <c r="Q14" s="206">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="R14" s="206" t="str">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="R14" s="206">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="S14" s="206" t="str">
+        <v>4.2999999999999999E-4</v>
+      </c>
+      <c r="S14" s="206">
         <f t="shared" si="2"/>
-        <v/>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="U14" s="196"/>
     </row>
@@ -12795,24 +12818,24 @@
       <c r="N15" s="196"/>
       <c r="O15" s="196"/>
       <c r="P15" s="201"/>
-      <c r="Q15" s="206" t="str">
+      <c r="Q15" s="206">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="R15" s="206" t="str">
+        <v>2.3000000000000001E-4</v>
+      </c>
+      <c r="R15" s="206">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="S15" s="206" t="str">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="S15" s="206">
         <f t="shared" si="2"/>
-        <v/>
+        <v>1.7799999999999999E-3</v>
       </c>
       <c r="T15" s="196"/>
       <c r="U15" s="196"/>
     </row>
     <row r="16" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K16" s="196"/>
       <c r="L16" s="200">
@@ -12825,17 +12848,17 @@
       <c r="N16" s="196"/>
       <c r="O16" s="196"/>
       <c r="P16" s="201"/>
-      <c r="Q16" s="206" t="str">
+      <c r="Q16" s="206">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="R16" s="206" t="str">
+        <v>3.6000000000000002E-4</v>
+      </c>
+      <c r="R16" s="206">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="S16" s="206" t="str">
+        <v>8.4000000000000003E-4</v>
+      </c>
+      <c r="S16" s="206">
         <f t="shared" si="2"/>
-        <v/>
+        <v>1.0200000000000001E-3</v>
       </c>
       <c r="T16" s="196"/>
       <c r="U16" s="196"/>
@@ -12853,17 +12876,17 @@
       <c r="N17" s="196"/>
       <c r="O17" s="196"/>
       <c r="P17" s="201"/>
-      <c r="Q17" s="206" t="str">
+      <c r="Q17" s="206">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="R17" s="206" t="str">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="R17" s="206">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="S17" s="206" t="str">
+        <v>3.2000000000000003E-4</v>
+      </c>
+      <c r="S17" s="206">
         <f t="shared" si="2"/>
-        <v/>
+        <v>1.31E-3</v>
       </c>
       <c r="T17" s="196"/>
       <c r="U17" s="196"/>
@@ -12873,7 +12896,7 @@
         <v>60</v>
       </c>
       <c r="C18" s="259" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>85</v>
@@ -12899,33 +12922,39 @@
       <c r="N18" s="196"/>
       <c r="O18" s="196"/>
       <c r="P18" s="201"/>
-      <c r="Q18" s="206" t="str">
+      <c r="Q18" s="206">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="R18" s="206" t="str">
+        <v>1E-4</v>
+      </c>
+      <c r="R18" s="206">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="S18" s="206" t="str">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="S18" s="206">
         <f t="shared" si="2"/>
-        <v/>
+        <v>1.64E-3</v>
       </c>
       <c r="T18" s="196"/>
       <c r="U18" s="196"/>
     </row>
     <row r="19" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="B19" s="242" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C19" s="262"/>
       <c r="D19" s="5" t="str">
         <f>IF($C$21="Yes",AC91,AD91)</f>
         <v>Centered, Radial</v>
       </c>
-      <c r="E19" s="253"/>
-      <c r="F19" s="253"/>
-      <c r="G19" s="253"/>
+      <c r="E19" s="253">
+        <v>1E-4</v>
+      </c>
+      <c r="F19" s="253">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G19" s="253">
+        <v>5.0499999999999998E-3</v>
+      </c>
       <c r="K19" s="196"/>
       <c r="L19" s="200">
         <f>IF(M19=" ","",L18+1)</f>
@@ -12938,24 +12967,24 @@
       <c r="N19" s="196"/>
       <c r="O19" s="196"/>
       <c r="P19" s="201"/>
-      <c r="Q19" s="206" t="str">
+      <c r="Q19" s="206">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="R19" s="206" t="str">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="R19" s="206">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="S19" s="206" t="str">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="S19" s="206">
         <f t="shared" si="2"/>
-        <v/>
+        <v>1.16E-3</v>
       </c>
       <c r="T19" s="196"/>
       <c r="U19" s="196"/>
     </row>
     <row r="20" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="B20" s="258" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C20" s="260">
         <v>5.0000000000000001E-4</v>
@@ -12964,54 +12993,66 @@
         <f t="shared" ref="D20:D26" si="4">IF($C$21="Yes",AC92,AD92)</f>
         <v>Mirror rotated upward</v>
       </c>
-      <c r="E20" s="253"/>
-      <c r="F20" s="253"/>
-      <c r="G20" s="253"/>
+      <c r="E20" s="253">
+        <v>1E-4</v>
+      </c>
+      <c r="F20" s="253">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="G20" s="253">
+        <v>5.1000000000000004E-3</v>
+      </c>
       <c r="K20" s="196"/>
       <c r="Q20" s="207">
         <f>ABS(Q23)</f>
-        <v>0</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="R20" s="207">
         <f>ABS(R23)</f>
-        <v>0</v>
+        <v>4.4999999999999999E-4</v>
       </c>
       <c r="S20" s="207">
         <f>ABS(S23)</f>
-        <v>0</v>
+        <v>3.9499999999999995E-4</v>
       </c>
       <c r="T20" s="196"/>
       <c r="U20" s="196"/>
     </row>
     <row r="21" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="B21" s="258" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C21" s="260" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D21" s="5" t="str">
         <f t="shared" si="4"/>
         <v>Mirror rotated downard</v>
       </c>
-      <c r="E21" s="253"/>
-      <c r="F21" s="253"/>
-      <c r="G21" s="253"/>
+      <c r="E21" s="253">
+        <v>1.1E-4</v>
+      </c>
+      <c r="F21" s="253">
+        <v>6.0499999999999998E-3</v>
+      </c>
+      <c r="G21" s="253">
+        <v>5.2500000000000003E-3</v>
+      </c>
       <c r="K21" s="196"/>
       <c r="P21" s="197" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q21" s="206">
         <f>MIN(Q12:Q19)</f>
-        <v>0</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="R21" s="206">
         <f>MIN(R12:R19)</f>
-        <v>0</v>
+        <v>3.2000000000000003E-4</v>
       </c>
       <c r="S21" s="206">
         <f>MIN(S12:S19)</f>
-        <v>0</v>
+        <v>1.0200000000000001E-3</v>
       </c>
       <c r="T21" s="196"/>
       <c r="U21" s="196"/>
@@ -13021,24 +13062,30 @@
         <f t="shared" si="4"/>
         <v>Rotated CW Horizontally</v>
       </c>
-      <c r="E22" s="253"/>
-      <c r="F22" s="253"/>
-      <c r="G22" s="253"/>
+      <c r="E22" s="253">
+        <v>1.2E-4</v>
+      </c>
+      <c r="F22" s="253">
+        <v>6.2199999999999998E-3</v>
+      </c>
+      <c r="G22" s="253">
+        <v>5.2500000000000003E-3</v>
+      </c>
       <c r="K22" s="196"/>
       <c r="P22" s="197" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Q22" s="206">
         <f>MAX(Q12:Q19)</f>
-        <v>0</v>
+        <v>3.6000000000000002E-4</v>
       </c>
       <c r="R22" s="206">
         <f>MAX(R12:R19)</f>
-        <v>0</v>
+        <v>1.2199999999999999E-3</v>
       </c>
       <c r="S22" s="206">
         <f>MAX(S12:S19)</f>
-        <v>0</v>
+        <v>1.81E-3</v>
       </c>
       <c r="T22" s="196"/>
       <c r="U22" s="196"/>
@@ -13048,24 +13095,30 @@
         <f t="shared" si="4"/>
         <v>Rotated CCW Horizontally</v>
       </c>
-      <c r="E23" s="253"/>
-      <c r="F23" s="253"/>
-      <c r="G23" s="253"/>
+      <c r="E23" s="253">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F23" s="253">
+        <v>6.1500000000000001E-3</v>
+      </c>
+      <c r="G23" s="253">
+        <v>5.0899999999999999E-3</v>
+      </c>
       <c r="K23" s="196"/>
       <c r="P23" s="197" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="Q23" s="206">
         <f>(Q22-Q21)/2</f>
-        <v>0</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="R23" s="206">
         <f>(R22-R21)/2</f>
-        <v>0</v>
+        <v>4.4999999999999999E-4</v>
       </c>
       <c r="S23" s="206">
         <f>(S22-S21)/2</f>
-        <v>0</v>
+        <v>3.9499999999999995E-4</v>
       </c>
       <c r="T23" s="196"/>
       <c r="U23" s="196"/>
@@ -13080,9 +13133,15 @@
         <f t="shared" si="4"/>
         <v>Rotated 90° on beam axis</v>
       </c>
-      <c r="E24" s="253"/>
-      <c r="F24" s="253"/>
-      <c r="G24" s="253"/>
+      <c r="E24" s="253">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="F24" s="253">
+        <v>6.2399999999999999E-3</v>
+      </c>
+      <c r="G24" s="253">
+        <v>5.1000000000000004E-3</v>
+      </c>
       <c r="K24" s="196"/>
       <c r="T24" s="196"/>
       <c r="U24" s="196"/>
@@ -13097,9 +13156,15 @@
         <f t="shared" si="4"/>
         <v>Rotated 180° on beam axis</v>
       </c>
-      <c r="E25" s="253"/>
-      <c r="F25" s="253"/>
-      <c r="G25" s="253"/>
+      <c r="E25" s="253">
+        <v>2.2000000000000001E-4</v>
+      </c>
+      <c r="F25" s="253">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="G25" s="253">
+        <v>5.1500000000000001E-3</v>
+      </c>
       <c r="K25" s="196"/>
       <c r="L25" s="200"/>
       <c r="M25" s="196" t="str">
@@ -13119,9 +13184,13 @@
         <f t="shared" si="4"/>
         <v>Rotated 270° on beam axis</v>
       </c>
-      <c r="E26" s="253"/>
+      <c r="E26" s="253">
+        <v>1E-4</v>
+      </c>
       <c r="F26" s="253"/>
-      <c r="G26" s="253"/>
+      <c r="G26" s="253">
+        <v>5.1999999999999998E-3</v>
+      </c>
       <c r="K26" s="196"/>
       <c r="L26" s="200">
         <f>IF(M26="","",1)</f>
@@ -13147,7 +13216,7 @@
       </c>
       <c r="B27" s="28"/>
       <c r="H27" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I27" s="266" t="str">
         <f>Q74</f>
@@ -13177,19 +13246,19 @@
       </c>
       <c r="B28" s="28"/>
       <c r="D28" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E28" s="252">
         <f>MAX(E19:E26)</f>
-        <v>0</v>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="F28" s="252">
         <f>MAX(F19:F26)</f>
-        <v>0</v>
+        <v>6.2399999999999999E-3</v>
       </c>
       <c r="G28" s="252">
         <f>MAX(G19:G26)</f>
-        <v>0</v>
+        <v>5.2500000000000003E-3</v>
       </c>
       <c r="K28" s="196"/>
       <c r="L28" s="200">
@@ -13221,19 +13290,19 @@
         <v>0</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E29" s="252">
         <f>MIN(E19:E26)</f>
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="F29" s="252">
         <f>MIN(F19:F26)</f>
-        <v>0</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="G29" s="252">
         <f>MIN(G19:G26)</f>
-        <v>0</v>
+        <v>5.0499999999999998E-3</v>
       </c>
       <c r="K29" s="196"/>
       <c r="L29" s="200">
@@ -13255,19 +13324,19 @@
     </row>
     <row r="30" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="D30" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E30" s="252">
         <f>(E28-E29)/2</f>
-        <v>0</v>
+        <v>7.5000000000000007E-5</v>
       </c>
       <c r="F30" s="252">
         <f>(F28-F29)/2</f>
-        <v>0</v>
+        <v>1.1999999999999988E-4</v>
       </c>
       <c r="G30" s="252">
         <f>(G28-G29)/2</f>
-        <v>0</v>
+        <v>1.0000000000000026E-4</v>
       </c>
       <c r="K30" s="196"/>
       <c r="L30" s="200">
@@ -13314,7 +13383,7 @@
     </row>
     <row r="33" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K33" s="196"/>
       <c r="L33" s="196"/>
@@ -13331,11 +13400,11 @@
     <row r="34" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="K34" s="196"/>
       <c r="P34" s="197" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="Q34" s="256">
         <f>HLOOKUP(MAX(Q20:S20),Q20:S23,4,FALSE)</f>
-        <v>0</v>
+        <v>4.4999999999999999E-4</v>
       </c>
       <c r="T34" s="196"/>
       <c r="U34" s="196"/>
@@ -13345,7 +13414,7 @@
         <v>60</v>
       </c>
       <c r="C35" s="259" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>85</v>
@@ -13363,7 +13432,7 @@
       <c r="L35" s="196"/>
       <c r="M35" s="196"/>
       <c r="P35" s="197" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q35" s="257">
         <f>C3</f>
@@ -13376,7 +13445,7 @@
     </row>
     <row r="36" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="B36" s="242" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C36" s="262"/>
       <c r="D36" s="5" t="str">
@@ -13390,7 +13459,7 @@
       <c r="L36" s="196"/>
       <c r="M36" s="196"/>
       <c r="P36" s="197" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="Q36" s="203" t="str">
         <f>IF(Q34&lt;=Q35,"Pass","Fail")</f>
@@ -13403,7 +13472,7 @@
     </row>
     <row r="37" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="B37" s="258" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C37" s="260">
         <v>2E-3</v>
@@ -13428,10 +13497,10 @@
     </row>
     <row r="38" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="B38" s="258" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C38" s="260" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D38" s="5" t="str">
         <f t="shared" si="6"/>
@@ -13442,7 +13511,7 @@
       <c r="G38" s="253"/>
       <c r="K38" s="196"/>
       <c r="L38" s="317" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M38" s="317"/>
       <c r="N38" s="317"/>
@@ -13463,11 +13532,11 @@
       <c r="F39" s="253"/>
       <c r="G39" s="253"/>
       <c r="L39" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="M39" s="4" t="str">
+        <v>251</v>
+      </c>
+      <c r="M39" s="4">
         <f>'The details'!$D$2</f>
-        <v>56561-039285</v>
+        <v>0</v>
       </c>
       <c r="U39" s="192" t="str">
         <f>CONCATENATE("Page 4 of ",'The details'!$G$16)</f>
@@ -13536,7 +13605,7 @@
       <c r="F43" s="253"/>
       <c r="G43" s="253"/>
       <c r="P43" s="194" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
@@ -13546,7 +13615,7 @@
       </c>
       <c r="B44" s="28"/>
       <c r="H44" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I44" s="266" t="str">
         <f>Q112</f>
@@ -13563,7 +13632,7 @@
         <v/>
       </c>
       <c r="D45" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E45" s="252">
         <f>MAX(E36:E43)</f>
@@ -13578,12 +13647,12 @@
         <v>0</v>
       </c>
       <c r="P45" s="195" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D46" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E46" s="252">
         <f>MIN(E36:E43)</f>
@@ -13600,7 +13669,7 @@
     </row>
     <row r="47" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="D47" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E47" s="252">
         <f>(E45-E46)/2</f>
@@ -13626,7 +13695,7 @@
       <c r="P47" s="196"/>
       <c r="Q47" s="196"/>
       <c r="R47" s="197" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="S47" s="255">
         <f ca="1">'The details'!$D$9</f>
@@ -13649,7 +13718,7 @@
       <c r="P48" s="302"/>
       <c r="Q48" s="302"/>
       <c r="R48" s="300" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="S48" s="302" t="str">
         <f>'The details'!$D$11</f>
@@ -13674,7 +13743,7 @@
         <v>87</v>
       </c>
       <c r="M49" s="196" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="Q49" s="200" t="s">
         <v>101</v>
@@ -13690,7 +13759,7 @@
     </row>
     <row r="50" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L50" s="200">
         <v>1</v>
@@ -13702,17 +13771,17 @@
       <c r="N50" s="196"/>
       <c r="O50" s="196"/>
       <c r="P50" s="196"/>
-      <c r="Q50" s="206" t="str">
+      <c r="Q50" s="206">
         <f>IF(E19&lt;&gt;"",E19,"")</f>
-        <v/>
-      </c>
-      <c r="R50" s="206" t="str">
+        <v>1E-4</v>
+      </c>
+      <c r="R50" s="206">
         <f>IF(F19&lt;&gt;"",F19,"")</f>
-        <v/>
-      </c>
-      <c r="S50" s="206" t="str">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="S50" s="206">
         <f>IF(G19&lt;&gt;"",G19,"")</f>
-        <v/>
+        <v>5.0499999999999998E-3</v>
       </c>
       <c r="T50" s="199"/>
     </row>
@@ -13727,17 +13796,17 @@
       <c r="N51" s="196"/>
       <c r="O51" s="196"/>
       <c r="P51" s="201"/>
-      <c r="Q51" s="206" t="str">
+      <c r="Q51" s="206">
         <f t="shared" ref="Q51:Q57" si="9">IF(E20&lt;&gt;"",E20,"")</f>
-        <v/>
-      </c>
-      <c r="R51" s="206" t="str">
+        <v>1E-4</v>
+      </c>
+      <c r="R51" s="206">
         <f t="shared" ref="R51:R57" si="10">IF(F20&lt;&gt;"",F20,"")</f>
-        <v/>
-      </c>
-      <c r="S51" s="206" t="str">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="S51" s="206">
         <f t="shared" ref="S51:S57" si="11">IF(G20&lt;&gt;"",G20,"")</f>
-        <v/>
+        <v>5.1000000000000004E-3</v>
       </c>
       <c r="T51" s="199"/>
     </row>
@@ -13746,7 +13815,7 @@
         <v>60</v>
       </c>
       <c r="C52" s="259" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>85</v>
@@ -13771,23 +13840,23 @@
       <c r="N52" s="196"/>
       <c r="O52" s="196"/>
       <c r="P52" s="201"/>
-      <c r="Q52" s="206" t="str">
+      <c r="Q52" s="206">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="R52" s="206" t="str">
+        <v>1.1E-4</v>
+      </c>
+      <c r="R52" s="206">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="S52" s="206" t="str">
+        <v>6.0499999999999998E-3</v>
+      </c>
+      <c r="S52" s="206">
         <f t="shared" si="11"/>
-        <v/>
+        <v>5.2500000000000003E-3</v>
       </c>
       <c r="U52" s="196"/>
     </row>
     <row r="53" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="B53" s="242" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C53" s="262"/>
       <c r="D53" s="5" t="str">
@@ -13808,24 +13877,24 @@
       <c r="N53" s="196"/>
       <c r="O53" s="196"/>
       <c r="P53" s="201"/>
-      <c r="Q53" s="206" t="str">
+      <c r="Q53" s="206">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="R53" s="206" t="str">
+        <v>1.2E-4</v>
+      </c>
+      <c r="R53" s="206">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="S53" s="206" t="str">
+        <v>6.2199999999999998E-3</v>
+      </c>
+      <c r="S53" s="206">
         <f t="shared" si="11"/>
-        <v/>
+        <v>5.2500000000000003E-3</v>
       </c>
       <c r="T53" s="196"/>
       <c r="U53" s="196"/>
     </row>
     <row r="54" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="B54" s="258" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C54" s="260"/>
       <c r="D54" s="5" t="str">
@@ -13846,27 +13915,27 @@
       <c r="N54" s="196"/>
       <c r="O54" s="196"/>
       <c r="P54" s="201"/>
-      <c r="Q54" s="206" t="str">
+      <c r="Q54" s="206">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="R54" s="206" t="str">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="R54" s="206">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="S54" s="206" t="str">
+        <v>6.1500000000000001E-3</v>
+      </c>
+      <c r="S54" s="206">
         <f t="shared" si="11"/>
-        <v/>
+        <v>5.0899999999999999E-3</v>
       </c>
       <c r="T54" s="196"/>
       <c r="U54" s="196"/>
     </row>
     <row r="55" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="B55" s="258" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C55" s="260" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D55" s="5" t="str">
         <f t="shared" si="12"/>
@@ -13887,17 +13956,17 @@
       <c r="N55" s="196"/>
       <c r="O55" s="196"/>
       <c r="P55" s="201"/>
-      <c r="Q55" s="206" t="str">
+      <c r="Q55" s="206">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="R55" s="206" t="str">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="R55" s="206">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="S55" s="206" t="str">
+        <v>6.2399999999999999E-3</v>
+      </c>
+      <c r="S55" s="206">
         <f t="shared" si="11"/>
-        <v/>
+        <v>5.1000000000000004E-3</v>
       </c>
       <c r="T55" s="196"/>
       <c r="U55" s="196"/>
@@ -13922,17 +13991,17 @@
       <c r="N56" s="196"/>
       <c r="O56" s="196"/>
       <c r="P56" s="201"/>
-      <c r="Q56" s="206" t="str">
+      <c r="Q56" s="206">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="R56" s="206" t="str">
+        <v>2.2000000000000001E-4</v>
+      </c>
+      <c r="R56" s="206">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="S56" s="206" t="str">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="S56" s="206">
         <f t="shared" si="11"/>
-        <v/>
+        <v>5.1500000000000001E-3</v>
       </c>
       <c r="T56" s="196"/>
       <c r="U56" s="196"/>
@@ -13962,17 +14031,17 @@
       <c r="N57" s="196"/>
       <c r="O57" s="196"/>
       <c r="P57" s="201"/>
-      <c r="Q57" s="206" t="str">
+      <c r="Q57" s="206">
         <f t="shared" si="9"/>
-        <v/>
+        <v>1E-4</v>
       </c>
       <c r="R57" s="206" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="S57" s="206" t="str">
+      <c r="S57" s="206">
         <f t="shared" si="11"/>
-        <v/>
+        <v>5.1999999999999998E-3</v>
       </c>
       <c r="T57" s="196"/>
       <c r="U57" s="196"/>
@@ -13993,15 +14062,15 @@
       <c r="K58" s="196"/>
       <c r="Q58" s="207">
         <f>ABS(Q61)</f>
-        <v>0</v>
+        <v>7.5000000000000007E-5</v>
       </c>
       <c r="R58" s="207">
         <f>ABS(R61)</f>
-        <v>0</v>
+        <v>1.1999999999999988E-4</v>
       </c>
       <c r="S58" s="207">
         <f>ABS(S61)</f>
-        <v>0</v>
+        <v>1.0000000000000026E-4</v>
       </c>
       <c r="T58" s="196"/>
       <c r="U58" s="196"/>
@@ -14017,29 +14086,29 @@
         <v>Rotated 180° on beam axis</v>
       </c>
       <c r="E59" s="253" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F59" s="253" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G59" s="253" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K59" s="196"/>
       <c r="P59" s="197" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q59" s="206">
         <f>MIN(Q50:Q57)</f>
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="R59" s="206">
         <f>MIN(R50:R57)</f>
-        <v>0</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="S59" s="206">
         <f>MIN(S50:S57)</f>
-        <v>0</v>
+        <v>5.0499999999999998E-3</v>
       </c>
       <c r="T59" s="196"/>
       <c r="U59" s="196"/>
@@ -14055,29 +14124,29 @@
         <v>Rotated 270° on beam axis</v>
       </c>
       <c r="E60" s="253" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F60" s="253" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G60" s="253" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K60" s="196"/>
       <c r="P60" s="197" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Q60" s="206">
         <f>MAX(Q50:Q57)</f>
-        <v>0</v>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="R60" s="206">
         <f>MAX(R50:R57)</f>
-        <v>0</v>
+        <v>6.2399999999999999E-3</v>
       </c>
       <c r="S60" s="206">
         <f>MAX(S50:S57)</f>
-        <v>0</v>
+        <v>5.2500000000000003E-3</v>
       </c>
       <c r="T60" s="196"/>
       <c r="U60" s="196"/>
@@ -14089,7 +14158,7 @@
       </c>
       <c r="B61" s="28"/>
       <c r="H61" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I61" s="266" t="str">
         <f>Q150</f>
@@ -14097,19 +14166,19 @@
       </c>
       <c r="K61" s="196"/>
       <c r="P61" s="197" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="Q61" s="206">
         <f>(Q60-Q59)/2</f>
-        <v>0</v>
+        <v>7.5000000000000007E-5</v>
       </c>
       <c r="R61" s="206">
         <f>(R60-R59)/2</f>
-        <v>0</v>
+        <v>1.1999999999999988E-4</v>
       </c>
       <c r="S61" s="206">
         <f>(S60-S59)/2</f>
-        <v>0</v>
+        <v>1.0000000000000026E-4</v>
       </c>
       <c r="T61" s="196"/>
       <c r="U61" s="196"/>
@@ -14124,7 +14193,7 @@
         <v>0</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E62" s="252">
         <f>MAX(E53:E60)</f>
@@ -14144,7 +14213,7 @@
     </row>
     <row r="63" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="D63" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E63" s="252">
         <f>MIN(E53:E60)</f>
@@ -14169,7 +14238,7 @@
     </row>
     <row r="64" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="D64" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E64" s="252">
         <f>(E62-E63)/2</f>
@@ -14252,7 +14321,7 @@
     </row>
     <row r="67" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K67" s="196"/>
       <c r="L67" s="200">
@@ -14296,7 +14365,7 @@
         <v>60</v>
       </c>
       <c r="C69" s="259" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>85</v>
@@ -14335,7 +14404,7 @@
     </row>
     <row r="71" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="B71" s="258" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C71" s="260"/>
       <c r="D71" s="5" t="str">
@@ -14359,10 +14428,10 @@
     </row>
     <row r="72" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="B72" s="258" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C72" s="260" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D72" s="5" t="str">
         <f t="shared" si="14"/>
@@ -14373,11 +14442,11 @@
       <c r="G72" s="253"/>
       <c r="K72" s="196"/>
       <c r="P72" s="197" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="Q72" s="256">
         <f>HLOOKUP(MAX(Q58:S58),Q58:S61,4,FALSE)</f>
-        <v>0</v>
+        <v>1.1999999999999988E-4</v>
       </c>
       <c r="T72" s="196"/>
       <c r="U72" s="196"/>
@@ -14394,7 +14463,7 @@
       <c r="L73" s="196"/>
       <c r="M73" s="196"/>
       <c r="P73" s="197" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q73" s="257">
         <f>C20</f>
@@ -14422,7 +14491,7 @@
       <c r="L74" s="196"/>
       <c r="M74" s="196"/>
       <c r="P74" s="197" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="Q74" s="203" t="str">
         <f>IF(Q72&lt;=Q73,"Pass","Fail")</f>
@@ -14468,17 +14537,17 @@
         <v>Rotated 180° on beam axis</v>
       </c>
       <c r="E76" s="253" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F76" s="253" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G76" s="253" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K76" s="196"/>
       <c r="L76" s="317" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M76" s="317"/>
       <c r="N76" s="317"/>
@@ -14501,20 +14570,20 @@
         <v>Rotated 270° on beam axis</v>
       </c>
       <c r="E77" s="253" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F77" s="253" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G77" s="253" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="M77" s="4" t="str">
+        <v>251</v>
+      </c>
+      <c r="M77" s="4">
         <f>'The details'!$D$2</f>
-        <v>56561-039285</v>
+        <v>0</v>
       </c>
       <c r="U77" s="192" t="str">
         <f>CONCATENATE("Page 5 of ",'The details'!$G$16)</f>
@@ -14528,7 +14597,7 @@
       </c>
       <c r="B78" s="28"/>
       <c r="H78" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I78" s="266" t="str">
         <f>Q188</f>
@@ -14545,7 +14614,7 @@
         <v>0</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E79" s="252">
         <f>MAX(E70:E77)</f>
@@ -14565,7 +14634,7 @@
     </row>
     <row r="80" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="D80" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E80" s="252">
         <f>MIN(E70:E77)</f>
@@ -14585,7 +14654,7 @@
     </row>
     <row r="81" spans="1:30" ht="18" x14ac:dyDescent="0.25">
       <c r="D81" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E81" s="252">
         <f>(E79-E80)/2</f>
@@ -14600,7 +14669,7 @@
         <v>0</v>
       </c>
       <c r="P81" s="194" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="83" spans="1:30" ht="25.5" x14ac:dyDescent="0.35">
@@ -14615,12 +14684,12 @@
       <c r="I83" s="216"/>
       <c r="J83" s="216"/>
       <c r="P83" s="195" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="84" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="85" spans="1:30" ht="18" x14ac:dyDescent="0.25">
@@ -14636,7 +14705,7 @@
       <c r="P85" s="196"/>
       <c r="Q85" s="196"/>
       <c r="R85" s="197" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="S85" s="255">
         <f ca="1">'The details'!$D$9</f>
@@ -14650,7 +14719,7 @@
         <v>60</v>
       </c>
       <c r="C86" s="259" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>85</v>
@@ -14677,7 +14746,7 @@
       <c r="P86" s="302"/>
       <c r="Q86" s="302"/>
       <c r="R86" s="300" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="S86" s="302" t="str">
         <f>'The details'!$D$11</f>
@@ -14701,7 +14770,7 @@
         <v>87</v>
       </c>
       <c r="M87" s="196" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="Q87" s="200" t="s">
         <v>101</v>
@@ -14717,7 +14786,7 @@
     </row>
     <row r="88" spans="1:30" ht="18" x14ac:dyDescent="0.25">
       <c r="B88" s="258" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C88" s="260"/>
       <c r="D88" s="5" t="str">
@@ -14738,25 +14807,25 @@
       <c r="O88" s="196"/>
       <c r="P88" s="196"/>
       <c r="Q88" s="206" t="str">
-        <f t="shared" ref="Q88" si="17">IF(E78&lt;&gt;"",E78,"")</f>
+        <f t="shared" ref="Q88:S95" si="17">IF(E36&lt;&gt;"",E36,"")</f>
         <v/>
       </c>
       <c r="R88" s="206" t="str">
-        <f t="shared" ref="R88" si="18">IF(F78&lt;&gt;"",F78,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S88" s="206" t="str">
-        <f t="shared" ref="S88" si="19">IF(G78&lt;&gt;"",G78,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="T88" s="199"/>
     </row>
     <row r="89" spans="1:30" ht="18" x14ac:dyDescent="0.25">
       <c r="B89" s="258" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C89" s="260" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D89" s="5" t="str">
         <f t="shared" si="16"/>
@@ -14769,22 +14838,22 @@
         <v>2</v>
       </c>
       <c r="M89" s="196" t="str">
-        <f t="shared" ref="M89:M95" si="20">IF($C$38="Yes",AC92,AD92)</f>
+        <f t="shared" ref="M89:M95" si="18">IF($C$38="Yes",AC92,AD92)</f>
         <v>Rotated Back</v>
       </c>
       <c r="N89" s="196"/>
       <c r="O89" s="196"/>
       <c r="P89" s="201"/>
       <c r="Q89" s="206" t="str">
-        <f>IF(E36&lt;&gt;"",E36,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="R89" s="206" t="str">
-        <f t="shared" ref="R89:S89" si="21">IF(F36&lt;&gt;"",F36,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S89" s="206" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="T89" s="199"/>
@@ -14802,35 +14871,35 @@
         <v>3</v>
       </c>
       <c r="M90" s="196" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>Rotated Forward</v>
       </c>
       <c r="N90" s="196"/>
       <c r="O90" s="196"/>
       <c r="P90" s="201"/>
       <c r="Q90" s="206" t="str">
-        <f t="shared" ref="Q90:Q95" si="22">IF(E37&lt;&gt;"",E37,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="R90" s="206" t="str">
-        <f t="shared" ref="R90:R95" si="23">IF(F37&lt;&gt;"",F37,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S90" s="206" t="str">
-        <f t="shared" ref="S90:S95" si="24">IF(G37&lt;&gt;"",G37,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U90" s="196"/>
       <c r="AC90" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AD90" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="91" spans="1:30" ht="18" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="str">
-        <f t="shared" ref="A91:A96" si="25">IF($C$89="No",AD104,"")</f>
+        <f t="shared" ref="A91:A96" si="19">IF($C$89="No",AD104,"")</f>
         <v>D1</v>
       </c>
       <c r="B91" s="28"/>
@@ -14846,36 +14915,36 @@
         <v>4</v>
       </c>
       <c r="M91" s="196" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>Rotated Left</v>
       </c>
       <c r="N91" s="196"/>
       <c r="O91" s="196"/>
       <c r="P91" s="201"/>
       <c r="Q91" s="206" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="R91" s="206" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S91" s="206" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="T91" s="196"/>
       <c r="U91" s="196"/>
       <c r="AC91" s="196" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AD91" s="196" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="92" spans="1:30" ht="18" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>D2</v>
       </c>
       <c r="B92" s="28"/>
@@ -14891,36 +14960,36 @@
         <v>5</v>
       </c>
       <c r="M92" s="196" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>Rotated Right</v>
       </c>
       <c r="N92" s="196"/>
       <c r="O92" s="196"/>
       <c r="P92" s="201"/>
       <c r="Q92" s="206" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="R92" s="206" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S92" s="206" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="T92" s="196"/>
       <c r="U92" s="196"/>
       <c r="AC92" s="196" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AD92" s="196" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="93" spans="1:30" ht="18" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>D3</v>
       </c>
       <c r="B93" s="28"/>
@@ -14929,13 +14998,13 @@
         <v>Rotated 180° on beam axis</v>
       </c>
       <c r="E93" s="253" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F93" s="253" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G93" s="253" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K93" s="196"/>
       <c r="L93" s="200" t="str">
@@ -14943,36 +15012,36 @@
         <v/>
       </c>
       <c r="M93" s="196" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N93" s="196"/>
       <c r="O93" s="196"/>
       <c r="P93" s="201"/>
       <c r="Q93" s="206" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="R93" s="206" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S93" s="206" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="T93" s="196"/>
       <c r="U93" s="196"/>
       <c r="AC93" s="196" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AD93" s="196" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="94" spans="1:30" ht="18" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>D4</v>
       </c>
       <c r="B94" s="28"/>
@@ -14981,13 +15050,13 @@
         <v>Rotated 270° on beam axis</v>
       </c>
       <c r="E94" s="253" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F94" s="253" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G94" s="253" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K94" s="196"/>
       <c r="L94" s="200" t="str">
@@ -14995,41 +15064,41 @@
         <v/>
       </c>
       <c r="M94" s="196" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N94" s="196"/>
       <c r="O94" s="196"/>
       <c r="P94" s="201"/>
       <c r="Q94" s="206" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="R94" s="206" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S94" s="206" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="T94" s="196"/>
       <c r="U94" s="196"/>
       <c r="AC94" s="196" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AD94" s="196" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="95" spans="1:30" ht="18" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>D5</v>
       </c>
       <c r="B95" s="28"/>
       <c r="H95" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I95" s="266" t="str">
         <f>Q226</f>
@@ -15041,36 +15110,36 @@
         <v/>
       </c>
       <c r="M95" s="196" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N95" s="196"/>
       <c r="O95" s="196"/>
       <c r="P95" s="201"/>
       <c r="Q95" s="206" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="R95" s="206" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S95" s="206" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="T95" s="196"/>
       <c r="U95" s="196"/>
       <c r="AC95" s="196" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AD95" s="196" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="96" spans="1:30" ht="18" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>Variation in Diameter:</v>
       </c>
       <c r="C96" s="259">
@@ -15078,7 +15147,7 @@
         <v>0</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E96" s="252">
         <f>MAX(E87:E94)</f>
@@ -15108,15 +15177,15 @@
       <c r="T96" s="196"/>
       <c r="U96" s="196"/>
       <c r="AC96" s="196" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AD96" s="196" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="97" spans="1:30" ht="18" x14ac:dyDescent="0.25">
       <c r="D97" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E97" s="252">
         <f>MIN(E87:E94)</f>
@@ -15132,7 +15201,7 @@
       </c>
       <c r="K97" s="196"/>
       <c r="P97" s="197" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q97" s="206">
         <f>MIN(Q88:Q95)</f>
@@ -15149,15 +15218,15 @@
       <c r="T97" s="196"/>
       <c r="U97" s="196"/>
       <c r="AC97" s="196" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AD97" s="196" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="98" spans="1:30" ht="18" x14ac:dyDescent="0.25">
       <c r="D98" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E98" s="252">
         <f>(E96-E97)/2</f>
@@ -15173,7 +15242,7 @@
       </c>
       <c r="K98" s="196"/>
       <c r="P98" s="197" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Q98" s="206">
         <f>MAX(Q88:Q95)</f>
@@ -15190,16 +15259,16 @@
       <c r="T98" s="196"/>
       <c r="U98" s="196"/>
       <c r="AC98" s="196" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AD98" s="196" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="99" spans="1:30" ht="18" x14ac:dyDescent="0.25">
       <c r="K99" s="196"/>
       <c r="P99" s="197" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="Q99" s="206">
         <f>(Q98-Q97)/2</f>
@@ -15308,7 +15377,7 @@
       <c r="T103" s="196"/>
       <c r="U103" s="196"/>
       <c r="AD103" s="196" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="104" spans="1:30" ht="18" x14ac:dyDescent="0.25">
@@ -15342,7 +15411,7 @@
       <c r="T104" s="196"/>
       <c r="U104" s="196"/>
       <c r="AD104" s="196" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="105" spans="1:30" ht="18" x14ac:dyDescent="0.25">
@@ -15374,7 +15443,7 @@
       <c r="T105" s="196"/>
       <c r="U105" s="196"/>
       <c r="AD105" s="196" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="106" spans="1:30" ht="18" x14ac:dyDescent="0.25">
@@ -15406,7 +15475,7 @@
       <c r="S106" s="203"/>
       <c r="U106" s="196"/>
       <c r="AD106" s="196" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="107" spans="1:30" ht="18" x14ac:dyDescent="0.25">
@@ -15427,7 +15496,7 @@
       <c r="T107" s="202"/>
       <c r="U107" s="196"/>
       <c r="AD107" s="196" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="108" spans="1:30" ht="18" x14ac:dyDescent="0.25">
@@ -15447,7 +15516,7 @@
       <c r="T108" s="202"/>
       <c r="U108" s="196"/>
       <c r="AD108" s="196" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="109" spans="1:30" ht="18" x14ac:dyDescent="0.25">
@@ -15473,7 +15542,7 @@
       </c>
       <c r="U109" s="196"/>
       <c r="AD109" s="196" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="110" spans="1:30" ht="18" x14ac:dyDescent="0.25">
@@ -15489,7 +15558,7 @@
       <c r="J110" s="196"/>
       <c r="K110" s="196"/>
       <c r="P110" s="197" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="Q110" s="256">
         <f>HLOOKUP(MAX(Q96:S96),Q96:S99,4,FALSE)</f>
@@ -15513,7 +15582,7 @@
       <c r="L111" s="196"/>
       <c r="M111" s="196"/>
       <c r="P111" s="197" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q111" s="257">
         <f>C37</f>
@@ -15539,7 +15608,7 @@
       <c r="L112" s="196"/>
       <c r="M112" s="196"/>
       <c r="P112" s="197" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="Q112" s="203" t="str">
         <f>IF(Q110&lt;=Q111,"Pass","Fail")</f>
@@ -15585,7 +15654,7 @@
       <c r="J114" s="196"/>
       <c r="K114" s="196"/>
       <c r="L114" s="317" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M114" s="317"/>
       <c r="N114" s="317"/>
@@ -15609,11 +15678,11 @@
       <c r="I115" s="196"/>
       <c r="J115" s="196"/>
       <c r="L115" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="M115" s="4" t="str">
+        <v>251</v>
+      </c>
+      <c r="M115" s="4">
         <f>'The details'!$D$2</f>
-        <v>56561-039285</v>
+        <v>0</v>
       </c>
       <c r="U115" s="192" t="str">
         <f>CONCATENATE("Page 6 of ",'The details'!$G$16)</f>
@@ -15674,7 +15743,7 @@
       <c r="I119" s="196"/>
       <c r="J119" s="196"/>
       <c r="P119" s="194" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="120" spans="1:21" ht="18" x14ac:dyDescent="0.25">
@@ -15701,7 +15770,7 @@
       <c r="I121" s="196"/>
       <c r="J121" s="196"/>
       <c r="P121" s="195" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="122" spans="1:21" ht="18" x14ac:dyDescent="0.25">
@@ -15739,7 +15808,7 @@
       <c r="P123" s="196"/>
       <c r="Q123" s="196"/>
       <c r="R123" s="197" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="S123" s="255">
         <f ca="1">'The details'!$D$9</f>
@@ -15772,7 +15841,7 @@
       <c r="P124" s="302"/>
       <c r="Q124" s="302"/>
       <c r="R124" s="300" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="S124" s="302" t="str">
         <f>'The details'!$D$11</f>
@@ -15797,7 +15866,7 @@
         <v>87</v>
       </c>
       <c r="M125" s="196" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="Q125" s="200" t="s">
         <v>101</v>
@@ -15837,11 +15906,11 @@
         <v/>
       </c>
       <c r="R126" s="206" t="str">
-        <f t="shared" ref="R126:S126" si="26">IF(F53&lt;&gt;"",F53,"")</f>
+        <f t="shared" ref="R126:S126" si="20">IF(F53&lt;&gt;"",F53,"")</f>
         <v/>
       </c>
       <c r="S126" s="206" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="T126" s="199"/>
@@ -15861,22 +15930,22 @@
         <v>2</v>
       </c>
       <c r="M127" s="196" t="str">
-        <f t="shared" ref="M127:M133" si="27">IF($C$55="Yes",AC92,AD92)</f>
+        <f t="shared" ref="M127:M133" si="21">IF($C$55="Yes",AC92,AD92)</f>
         <v>Mirror rotated upward</v>
       </c>
       <c r="N127" s="196"/>
       <c r="O127" s="196"/>
       <c r="P127" s="201"/>
       <c r="Q127" s="206" t="str">
-        <f t="shared" ref="Q127:Q133" si="28">IF(E54&lt;&gt;"",E54,"")</f>
+        <f t="shared" ref="Q127:Q133" si="22">IF(E54&lt;&gt;"",E54,"")</f>
         <v/>
       </c>
       <c r="R127" s="206" t="str">
-        <f t="shared" ref="R127:R133" si="29">IF(F54&lt;&gt;"",F54,"")</f>
+        <f t="shared" ref="R127:R133" si="23">IF(F54&lt;&gt;"",F54,"")</f>
         <v/>
       </c>
       <c r="S127" s="206" t="str">
-        <f t="shared" ref="S127:S133" si="30">IF(G54&lt;&gt;"",G54,"")</f>
+        <f t="shared" ref="S127:S133" si="24">IF(G54&lt;&gt;"",G54,"")</f>
         <v/>
       </c>
       <c r="T127" s="199"/>
@@ -15897,22 +15966,22 @@
         <v>3</v>
       </c>
       <c r="M128" s="196" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>Mirror rotated downard</v>
       </c>
       <c r="N128" s="196"/>
       <c r="O128" s="196"/>
       <c r="P128" s="201"/>
       <c r="Q128" s="206" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="R128" s="206" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="S128" s="206" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U128" s="196"/>
@@ -15933,22 +16002,22 @@
         <v>4</v>
       </c>
       <c r="M129" s="196" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>Rotated CW Horizontally</v>
       </c>
       <c r="N129" s="196"/>
       <c r="O129" s="196"/>
       <c r="P129" s="201"/>
       <c r="Q129" s="206" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="R129" s="206" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="S129" s="206" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="T129" s="196"/>
@@ -15970,22 +16039,22 @@
         <v>5</v>
       </c>
       <c r="M130" s="196" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>Rotated CCW Horizontally</v>
       </c>
       <c r="N130" s="196"/>
       <c r="O130" s="196"/>
       <c r="P130" s="201"/>
       <c r="Q130" s="206" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="R130" s="206" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="S130" s="206" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="T130" s="196"/>
@@ -16008,22 +16077,22 @@
         <v>6</v>
       </c>
       <c r="M131" s="196" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>Rotated 90° on beam axis</v>
       </c>
       <c r="N131" s="196"/>
       <c r="O131" s="196"/>
       <c r="P131" s="201"/>
       <c r="Q131" s="206" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="R131" s="206" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="S131" s="206" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="T131" s="196"/>
@@ -16046,22 +16115,22 @@
         <v>7</v>
       </c>
       <c r="M132" s="196" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>Rotated 180° on beam axis</v>
       </c>
       <c r="N132" s="196"/>
       <c r="O132" s="196"/>
       <c r="P132" s="201"/>
       <c r="Q132" s="206" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R132" s="206" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S132" s="206" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T132" s="196"/>
@@ -16084,22 +16153,22 @@
         <v>8</v>
       </c>
       <c r="M133" s="196" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>Rotated 270° on beam axis</v>
       </c>
       <c r="N133" s="196"/>
       <c r="O133" s="196"/>
       <c r="P133" s="201"/>
       <c r="Q133" s="206" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R133" s="206" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S133" s="206" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T133" s="196"/>
@@ -16145,7 +16214,7 @@
       <c r="J135" s="196"/>
       <c r="K135" s="196"/>
       <c r="P135" s="197" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q135" s="206">
         <f>MIN(Q126:Q133)</f>
@@ -16165,7 +16234,7 @@
     <row r="136" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="K136" s="196"/>
       <c r="P136" s="197" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Q136" s="206">
         <f>MAX(Q126:Q133)</f>
@@ -16185,7 +16254,7 @@
     <row r="137" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="K137" s="196"/>
       <c r="P137" s="197" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="Q137" s="206">
         <f>(Q136-Q135)/2</f>
@@ -16344,7 +16413,7 @@
     <row r="148" spans="11:21" ht="18" x14ac:dyDescent="0.25">
       <c r="K148" s="196"/>
       <c r="P148" s="197" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="Q148" s="256">
         <f>HLOOKUP(MAX(Q134:S134),Q134:S137,4,FALSE)</f>
@@ -16358,7 +16427,7 @@
       <c r="L149" s="196"/>
       <c r="M149" s="196"/>
       <c r="P149" s="197" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q149" s="257">
         <f>C54</f>
@@ -16374,7 +16443,7 @@
       <c r="L150" s="196"/>
       <c r="M150" s="196"/>
       <c r="P150" s="197" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="Q150" s="203" t="str">
         <f>IF(Q148&lt;=Q149,"Pass","Fail")</f>
@@ -16400,7 +16469,7 @@
     <row r="152" spans="11:21" ht="18" x14ac:dyDescent="0.25">
       <c r="K152" s="196"/>
       <c r="L152" s="317" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M152" s="317"/>
       <c r="N152" s="317"/>
@@ -16414,11 +16483,11 @@
     </row>
     <row r="153" spans="11:21" x14ac:dyDescent="0.25">
       <c r="L153" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="M153" s="4" t="str">
+        <v>251</v>
+      </c>
+      <c r="M153" s="4">
         <f>'The details'!$D$2</f>
-        <v>56561-039285</v>
+        <v>0</v>
       </c>
       <c r="U153" s="192" t="str">
         <f>CONCATENATE("Page 7 of ",'The details'!$G$16)</f>
@@ -16437,12 +16506,12 @@
     </row>
     <row r="157" spans="11:21" ht="18" x14ac:dyDescent="0.25">
       <c r="P157" s="194" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="159" spans="11:21" ht="25.5" x14ac:dyDescent="0.35">
       <c r="P159" s="195" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="161" spans="11:21" ht="18" x14ac:dyDescent="0.25">
@@ -16458,7 +16527,7 @@
       <c r="P161" s="196"/>
       <c r="Q161" s="196"/>
       <c r="R161" s="197" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="S161" s="255">
         <f ca="1">'The details'!$D$9</f>
@@ -16481,7 +16550,7 @@
       <c r="P162" s="302"/>
       <c r="Q162" s="302"/>
       <c r="R162" s="300" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="S162" s="302" t="str">
         <f>'The details'!$D$11</f>
@@ -16496,7 +16565,7 @@
         <v>87</v>
       </c>
       <c r="M163" s="196" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="Q163" s="200" t="s">
         <v>101</v>
@@ -16526,11 +16595,11 @@
         <v/>
       </c>
       <c r="R164" s="206" t="str">
-        <f t="shared" ref="R164:S164" si="31">IF(F70&lt;&gt;"",F70,"")</f>
+        <f t="shared" ref="R164:S164" si="25">IF(F70&lt;&gt;"",F70,"")</f>
         <v/>
       </c>
       <c r="S164" s="206" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="T164" s="199"/>
@@ -16540,22 +16609,22 @@
         <v>2</v>
       </c>
       <c r="M165" s="196" t="str">
-        <f t="shared" ref="M165:M171" si="32">IF($C$72="Yes",AC92,AD92)</f>
+        <f t="shared" ref="M165:M171" si="26">IF($C$72="Yes",AC92,AD92)</f>
         <v>Mirror rotated upward</v>
       </c>
       <c r="N165" s="196"/>
       <c r="O165" s="196"/>
       <c r="P165" s="201"/>
       <c r="Q165" s="206" t="str">
-        <f t="shared" ref="Q165:Q171" si="33">IF(E71&lt;&gt;"",E71,"")</f>
+        <f t="shared" ref="Q165:Q171" si="27">IF(E71&lt;&gt;"",E71,"")</f>
         <v/>
       </c>
       <c r="R165" s="206" t="str">
-        <f t="shared" ref="R165:R171" si="34">IF(F71&lt;&gt;"",F71,"")</f>
+        <f t="shared" ref="R165:R171" si="28">IF(F71&lt;&gt;"",F71,"")</f>
         <v/>
       </c>
       <c r="S165" s="206" t="str">
-        <f t="shared" ref="S165:S171" si="35">IF(G71&lt;&gt;"",G71,"")</f>
+        <f t="shared" ref="S165:S171" si="29">IF(G71&lt;&gt;"",G71,"")</f>
         <v/>
       </c>
       <c r="T165" s="199"/>
@@ -16566,22 +16635,22 @@
         <v>3</v>
       </c>
       <c r="M166" s="196" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>Mirror rotated downard</v>
       </c>
       <c r="N166" s="196"/>
       <c r="O166" s="196"/>
       <c r="P166" s="201"/>
       <c r="Q166" s="206" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="R166" s="206" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="S166" s="206" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="U166" s="196"/>
@@ -16592,22 +16661,22 @@
         <v>4</v>
       </c>
       <c r="M167" s="196" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>Rotated CW Horizontally</v>
       </c>
       <c r="N167" s="196"/>
       <c r="O167" s="196"/>
       <c r="P167" s="201"/>
       <c r="Q167" s="206" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="R167" s="206" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="S167" s="206" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="T167" s="196"/>
@@ -16619,22 +16688,22 @@
         <v>5</v>
       </c>
       <c r="M168" s="196" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>Rotated CCW Horizontally</v>
       </c>
       <c r="N168" s="196"/>
       <c r="O168" s="196"/>
       <c r="P168" s="201"/>
       <c r="Q168" s="206" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="R168" s="206" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="S168" s="206" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="T168" s="196"/>
@@ -16647,22 +16716,22 @@
         <v>6</v>
       </c>
       <c r="M169" s="196" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>Rotated 90° on beam axis</v>
       </c>
       <c r="N169" s="196"/>
       <c r="O169" s="196"/>
       <c r="P169" s="201"/>
       <c r="Q169" s="206" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="R169" s="206" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="S169" s="206" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="T169" s="196"/>
@@ -16675,22 +16744,22 @@
         <v>7</v>
       </c>
       <c r="M170" s="196" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>Rotated 180° on beam axis</v>
       </c>
       <c r="N170" s="196"/>
       <c r="O170" s="196"/>
       <c r="P170" s="201"/>
       <c r="Q170" s="206" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R170" s="206" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S170" s="206" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="29"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T170" s="196"/>
@@ -16703,22 +16772,22 @@
         <v>8</v>
       </c>
       <c r="M171" s="196" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>Rotated 270° on beam axis</v>
       </c>
       <c r="N171" s="196"/>
       <c r="O171" s="196"/>
       <c r="P171" s="201"/>
       <c r="Q171" s="206" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R171" s="206" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S171" s="206" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="29"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T171" s="196"/>
@@ -16744,7 +16813,7 @@
     <row r="173" spans="11:21" ht="18" x14ac:dyDescent="0.25">
       <c r="K173" s="196"/>
       <c r="P173" s="197" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q173" s="206">
         <f>MIN(Q164:Q171)</f>
@@ -16764,7 +16833,7 @@
     <row r="174" spans="11:21" ht="18" x14ac:dyDescent="0.25">
       <c r="K174" s="196"/>
       <c r="P174" s="197" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Q174" s="206">
         <f>MAX(Q164:Q171)</f>
@@ -16784,7 +16853,7 @@
     <row r="175" spans="11:21" ht="18" x14ac:dyDescent="0.25">
       <c r="K175" s="196"/>
       <c r="P175" s="197" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="Q175" s="206">
         <f>(Q174-Q173)/2</f>
@@ -16943,7 +17012,7 @@
     <row r="186" spans="11:21" ht="18" x14ac:dyDescent="0.25">
       <c r="K186" s="196"/>
       <c r="P186" s="197" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="Q186" s="256">
         <f>HLOOKUP(MAX(Q172:S172),Q172:S175,4,FALSE)</f>
@@ -16957,7 +17026,7 @@
       <c r="L187" s="196"/>
       <c r="M187" s="196"/>
       <c r="P187" s="197" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q187" s="257">
         <f>C71</f>
@@ -16973,7 +17042,7 @@
       <c r="L188" s="196"/>
       <c r="M188" s="196"/>
       <c r="P188" s="197" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="Q188" s="203" t="str">
         <f>IF(Q186&lt;=Q187,"Pass","Fail")</f>
@@ -16999,7 +17068,7 @@
     <row r="190" spans="11:21" ht="18" x14ac:dyDescent="0.25">
       <c r="K190" s="196"/>
       <c r="L190" s="317" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M190" s="317"/>
       <c r="N190" s="317"/>
@@ -17013,11 +17082,11 @@
     </row>
     <row r="191" spans="11:21" x14ac:dyDescent="0.25">
       <c r="L191" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="M191" s="4" t="str">
+        <v>251</v>
+      </c>
+      <c r="M191" s="4">
         <f>'The details'!$D$2</f>
-        <v>56561-039285</v>
+        <v>0</v>
       </c>
       <c r="U191" s="192" t="str">
         <f>CONCATENATE("Page 8 of ",'The details'!$G$16)</f>
@@ -17036,12 +17105,12 @@
     </row>
     <row r="195" spans="11:21" ht="18" x14ac:dyDescent="0.25">
       <c r="P195" s="194" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="197" spans="11:21" ht="25.5" x14ac:dyDescent="0.35">
       <c r="P197" s="195" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="199" spans="11:21" ht="18" x14ac:dyDescent="0.25">
@@ -17057,7 +17126,7 @@
       <c r="P199" s="196"/>
       <c r="Q199" s="196"/>
       <c r="R199" s="197" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="S199" s="255">
         <f ca="1">'The details'!$D$9</f>
@@ -17080,7 +17149,7 @@
       <c r="P200" s="302"/>
       <c r="Q200" s="302"/>
       <c r="R200" s="300" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="S200" s="302" t="str">
         <f>'The details'!$D$11</f>
@@ -17095,7 +17164,7 @@
         <v>87</v>
       </c>
       <c r="M201" s="196" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="Q201" s="200" t="s">
         <v>101</v>
@@ -17125,11 +17194,11 @@
         <v/>
       </c>
       <c r="R202" s="206" t="str">
-        <f t="shared" ref="R202:S202" si="36">IF(F87&lt;&gt;"",F87,"")</f>
+        <f t="shared" ref="R202:S202" si="30">IF(F87&lt;&gt;"",F87,"")</f>
         <v/>
       </c>
       <c r="S202" s="206" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="T202" s="199"/>
@@ -17139,22 +17208,22 @@
         <v>2</v>
       </c>
       <c r="M203" s="196" t="str">
-        <f t="shared" ref="M203:M209" si="37">IF($C$89="Yes",AC92,AD92)</f>
+        <f t="shared" ref="M203:M209" si="31">IF($C$89="Yes",AC92,AD92)</f>
         <v>Mirror rotated upward</v>
       </c>
       <c r="N203" s="196"/>
       <c r="O203" s="196"/>
       <c r="P203" s="201"/>
       <c r="Q203" s="206" t="str">
-        <f t="shared" ref="Q203:Q209" si="38">IF(E88&lt;&gt;"",E88,"")</f>
+        <f t="shared" ref="Q203:Q209" si="32">IF(E88&lt;&gt;"",E88,"")</f>
         <v/>
       </c>
       <c r="R203" s="206" t="str">
-        <f t="shared" ref="R203:R209" si="39">IF(F88&lt;&gt;"",F88,"")</f>
+        <f t="shared" ref="R203:R209" si="33">IF(F88&lt;&gt;"",F88,"")</f>
         <v/>
       </c>
       <c r="S203" s="206" t="str">
-        <f t="shared" ref="S203:S209" si="40">IF(G88&lt;&gt;"",G88,"")</f>
+        <f t="shared" ref="S203:S209" si="34">IF(G88&lt;&gt;"",G88,"")</f>
         <v/>
       </c>
       <c r="T203" s="199"/>
@@ -17165,22 +17234,22 @@
         <v>3</v>
       </c>
       <c r="M204" s="196" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="31"/>
         <v>Mirror rotated downard</v>
       </c>
       <c r="N204" s="196"/>
       <c r="O204" s="196"/>
       <c r="P204" s="201"/>
       <c r="Q204" s="206" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="R204" s="206" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="S204" s="206" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U204" s="196"/>
@@ -17191,22 +17260,22 @@
         <v>4</v>
       </c>
       <c r="M205" s="196" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="31"/>
         <v>Rotated CW Horizontally</v>
       </c>
       <c r="N205" s="196"/>
       <c r="O205" s="196"/>
       <c r="P205" s="201"/>
       <c r="Q205" s="206" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="R205" s="206" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="S205" s="206" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="T205" s="196"/>
@@ -17218,22 +17287,22 @@
         <v>5</v>
       </c>
       <c r="M206" s="196" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="31"/>
         <v>Rotated CCW Horizontally</v>
       </c>
       <c r="N206" s="196"/>
       <c r="O206" s="196"/>
       <c r="P206" s="201"/>
       <c r="Q206" s="206" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="R206" s="206" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="S206" s="206" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="T206" s="196"/>
@@ -17246,22 +17315,22 @@
         <v>6</v>
       </c>
       <c r="M207" s="196" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="31"/>
         <v>Rotated 90° on beam axis</v>
       </c>
       <c r="N207" s="196"/>
       <c r="O207" s="196"/>
       <c r="P207" s="201"/>
       <c r="Q207" s="206" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="R207" s="206" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="S207" s="206" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="T207" s="196"/>
@@ -17274,22 +17343,22 @@
         <v>7</v>
       </c>
       <c r="M208" s="196" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="31"/>
         <v>Rotated 180° on beam axis</v>
       </c>
       <c r="N208" s="196"/>
       <c r="O208" s="196"/>
       <c r="P208" s="201"/>
       <c r="Q208" s="206" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R208" s="206" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="33"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S208" s="206" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="34"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T208" s="196"/>
@@ -17302,22 +17371,22 @@
         <v>8</v>
       </c>
       <c r="M209" s="196" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="31"/>
         <v>Rotated 270° on beam axis</v>
       </c>
       <c r="N209" s="196"/>
       <c r="O209" s="196"/>
       <c r="P209" s="201"/>
       <c r="Q209" s="206" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R209" s="206" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="33"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S209" s="206" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="34"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T209" s="196"/>
@@ -17343,7 +17412,7 @@
     <row r="211" spans="11:21" ht="18" x14ac:dyDescent="0.25">
       <c r="K211" s="196"/>
       <c r="P211" s="197" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q211" s="206">
         <f>MIN(Q202:Q209)</f>
@@ -17363,7 +17432,7 @@
     <row r="212" spans="11:21" ht="18" x14ac:dyDescent="0.25">
       <c r="K212" s="196"/>
       <c r="P212" s="197" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Q212" s="206">
         <f>MAX(Q202:Q209)</f>
@@ -17383,7 +17452,7 @@
     <row r="213" spans="11:21" ht="18" x14ac:dyDescent="0.25">
       <c r="K213" s="196"/>
       <c r="P213" s="197" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="Q213" s="206">
         <f>(Q212-Q211)/2</f>
@@ -17542,7 +17611,7 @@
     <row r="224" spans="11:21" ht="18" x14ac:dyDescent="0.25">
       <c r="K224" s="196"/>
       <c r="P224" s="197" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="Q224" s="256">
         <f>HLOOKUP(MAX(Q210:S210),Q210:S213,4,FALSE)</f>
@@ -17556,7 +17625,7 @@
       <c r="L225" s="196"/>
       <c r="M225" s="196"/>
       <c r="P225" s="197" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q225" s="257">
         <f>C88</f>
@@ -17572,7 +17641,7 @@
       <c r="L226" s="196"/>
       <c r="M226" s="196"/>
       <c r="P226" s="197" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="Q226" s="203" t="str">
         <f>IF(Q224&lt;=Q225,"Pass","Fail")</f>
@@ -17598,7 +17667,7 @@
     <row r="228" spans="11:21" ht="18" x14ac:dyDescent="0.25">
       <c r="K228" s="196"/>
       <c r="L228" s="317" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M228" s="317"/>
       <c r="N228" s="317"/>
@@ -17612,11 +17681,11 @@
     </row>
     <row r="229" spans="11:21" x14ac:dyDescent="0.25">
       <c r="L229" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="M229" s="4" t="str">
+        <v>251</v>
+      </c>
+      <c r="M229" s="4">
         <f>'The details'!$D$2</f>
-        <v>56561-039285</v>
+        <v>0</v>
       </c>
       <c r="U229" s="192" t="str">
         <f>CONCATENATE("Page 3 of ",'The details'!$G$16)</f>
@@ -17635,12 +17704,12 @@
     </row>
     <row r="233" spans="11:21" ht="18" x14ac:dyDescent="0.25">
       <c r="P233" s="194" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="235" spans="11:21" ht="25.5" x14ac:dyDescent="0.35">
       <c r="P235" s="195" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="237" spans="11:21" ht="18" x14ac:dyDescent="0.25">
@@ -17656,7 +17725,7 @@
       <c r="P237" s="196"/>
       <c r="Q237" s="196"/>
       <c r="R237" s="197" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="S237" s="255">
         <f ca="1">'The details'!$D$9</f>
@@ -17679,7 +17748,7 @@
       <c r="P238" s="302"/>
       <c r="Q238" s="302"/>
       <c r="R238" s="300" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="S238" s="302" t="str">
         <f>'The details'!$D$11</f>
@@ -17694,7 +17763,7 @@
         <v>87</v>
       </c>
       <c r="M239" s="196" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="Q239" s="200" t="s">
         <v>101</v>
@@ -17720,15 +17789,15 @@
       <c r="O240" s="196"/>
       <c r="P240" s="196"/>
       <c r="Q240" s="206" t="str">
-        <f t="shared" ref="Q240:Q247" si="41">IF(E230&lt;&gt;"",E230,"")</f>
+        <f t="shared" ref="Q240:Q247" si="35">IF(E230&lt;&gt;"",E230,"")</f>
         <v/>
       </c>
       <c r="R240" s="206" t="str">
-        <f t="shared" ref="R240:R247" si="42">IF(F230&lt;&gt;"",F230,"")</f>
+        <f t="shared" ref="R240:R247" si="36">IF(F230&lt;&gt;"",F230,"")</f>
         <v/>
       </c>
       <c r="S240" s="206" t="str">
-        <f t="shared" ref="S240:S247" si="43">IF(G230&lt;&gt;"",G230,"")</f>
+        <f t="shared" ref="S240:S247" si="37">IF(G230&lt;&gt;"",G230,"")</f>
         <v/>
       </c>
       <c r="T240" s="199"/>
@@ -17738,22 +17807,22 @@
         <v>2</v>
       </c>
       <c r="M241" s="196">
-        <f t="shared" ref="M241:M247" si="44">IF($C$4="Yes",AC320,AD320)</f>
+        <f t="shared" ref="M241:M247" si="38">IF($C$4="Yes",AC320,AD320)</f>
         <v>0</v>
       </c>
       <c r="N241" s="196"/>
       <c r="O241" s="196"/>
       <c r="P241" s="201"/>
       <c r="Q241" s="206" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="R241" s="206" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="S241" s="206" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="T241" s="199"/>
@@ -17764,22 +17833,22 @@
         <v>3</v>
       </c>
       <c r="M242" s="196">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="N242" s="196"/>
       <c r="O242" s="196"/>
       <c r="P242" s="201"/>
       <c r="Q242" s="206" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="R242" s="206" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="S242" s="206" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U242" s="196"/>
@@ -17790,22 +17859,22 @@
         <v>4</v>
       </c>
       <c r="M243" s="196">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="N243" s="196"/>
       <c r="O243" s="196"/>
       <c r="P243" s="201"/>
       <c r="Q243" s="206" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="R243" s="206" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="S243" s="206" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="T243" s="196"/>
@@ -17817,22 +17886,22 @@
         <v>5</v>
       </c>
       <c r="M244" s="196">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="N244" s="196"/>
       <c r="O244" s="196"/>
       <c r="P244" s="201"/>
       <c r="Q244" s="206" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="R244" s="206" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="S244" s="206" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="T244" s="196"/>
@@ -17845,22 +17914,22 @@
         <v>6</v>
       </c>
       <c r="M245" s="196">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="N245" s="196"/>
       <c r="O245" s="196"/>
       <c r="P245" s="201"/>
       <c r="Q245" s="206" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="R245" s="206" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="S245" s="206" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="T245" s="196"/>
@@ -17873,22 +17942,22 @@
         <v>7</v>
       </c>
       <c r="M246" s="196">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="N246" s="196"/>
       <c r="O246" s="196"/>
       <c r="P246" s="201"/>
       <c r="Q246" s="206" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="R246" s="206" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="S246" s="206" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="T246" s="196"/>
@@ -17901,22 +17970,22 @@
         <v>8</v>
       </c>
       <c r="M247" s="196">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="N247" s="196"/>
       <c r="O247" s="196"/>
       <c r="P247" s="201"/>
       <c r="Q247" s="206" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="R247" s="206" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="S247" s="206" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="T247" s="196"/>
@@ -17942,7 +18011,7 @@
     <row r="249" spans="11:21" ht="18" x14ac:dyDescent="0.25">
       <c r="K249" s="196"/>
       <c r="P249" s="197" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q249" s="206">
         <f>MIN(Q240:Q247)</f>
@@ -17962,7 +18031,7 @@
     <row r="250" spans="11:21" ht="18" x14ac:dyDescent="0.25">
       <c r="K250" s="196"/>
       <c r="P250" s="197" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Q250" s="206">
         <f>MAX(Q240:Q247)</f>
@@ -17982,7 +18051,7 @@
     <row r="251" spans="11:21" ht="18" x14ac:dyDescent="0.25">
       <c r="K251" s="196"/>
       <c r="P251" s="197" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="Q251" s="206">
         <f>(Q250-Q249)/2</f>
@@ -18008,7 +18077,7 @@
       <c r="K253" s="196"/>
       <c r="L253" s="200"/>
       <c r="M253" s="196">
-        <f t="shared" ref="M253:M258" si="45">IF($C$4="Yes","",AD331)</f>
+        <f t="shared" ref="M253:M258" si="39">IF($C$4="Yes","",AD331)</f>
         <v>0</v>
       </c>
       <c r="T253" s="196"/>
@@ -18021,7 +18090,7 @@
         <v>1</v>
       </c>
       <c r="M254" s="196">
-        <f t="shared" si="45"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N254" s="196"/>
@@ -18040,7 +18109,7 @@
         <v>2</v>
       </c>
       <c r="M255" s="196">
-        <f t="shared" si="45"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="P255" s="196"/>
@@ -18058,7 +18127,7 @@
         <v>3</v>
       </c>
       <c r="M256" s="196">
-        <f t="shared" si="45"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N256" s="196"/>
@@ -18079,7 +18148,7 @@
         <v>4</v>
       </c>
       <c r="M257" s="196">
-        <f t="shared" si="45"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Q257" s="206">
@@ -18098,7 +18167,7 @@
         <v>5</v>
       </c>
       <c r="M258" s="196">
-        <f t="shared" si="45"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="O258" s="197"/>
@@ -18141,7 +18210,7 @@
     <row r="262" spans="11:21" ht="18" x14ac:dyDescent="0.25">
       <c r="K262" s="196"/>
       <c r="P262" s="197" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="Q262" s="256">
         <f>HLOOKUP(MAX(Q248:S248),Q248:S251,4,FALSE)</f>
@@ -18155,7 +18224,7 @@
       <c r="L263" s="196"/>
       <c r="M263" s="196"/>
       <c r="P263" s="197" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q263" s="257">
         <f>C231</f>
@@ -18171,7 +18240,7 @@
       <c r="L264" s="196"/>
       <c r="M264" s="196"/>
       <c r="P264" s="197" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="Q264" s="203" t="str">
         <f>IF(Q262&lt;=Q263,"Pass","Fail")</f>
@@ -18197,7 +18266,7 @@
     <row r="266" spans="11:21" ht="18" x14ac:dyDescent="0.25">
       <c r="K266" s="196"/>
       <c r="L266" s="317" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M266" s="317"/>
       <c r="N266" s="317"/>
@@ -18211,11 +18280,11 @@
     </row>
     <row r="267" spans="11:21" x14ac:dyDescent="0.25">
       <c r="L267" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="M267" s="4" t="str">
+        <v>251</v>
+      </c>
+      <c r="M267" s="4">
         <f>'The details'!$D$2</f>
-        <v>56561-039285</v>
+        <v>0</v>
       </c>
       <c r="U267" s="192" t="str">
         <f>CONCATENATE("Page 3 of ",'The details'!$G$16)</f>
@@ -18234,12 +18303,12 @@
     </row>
     <row r="271" spans="11:21" ht="18" x14ac:dyDescent="0.25">
       <c r="P271" s="194" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="273" spans="11:21" ht="25.5" x14ac:dyDescent="0.35">
       <c r="P273" s="195" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="275" spans="11:21" ht="18" x14ac:dyDescent="0.25">
@@ -18255,7 +18324,7 @@
       <c r="P275" s="196"/>
       <c r="Q275" s="196"/>
       <c r="R275" s="197" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="S275" s="255">
         <f ca="1">'The details'!$D$9</f>
@@ -18278,7 +18347,7 @@
       <c r="P276" s="302"/>
       <c r="Q276" s="302"/>
       <c r="R276" s="300" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="S276" s="302" t="str">
         <f>'The details'!$D$11</f>
@@ -18293,7 +18362,7 @@
         <v>87</v>
       </c>
       <c r="M277" s="196" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="Q277" s="200" t="s">
         <v>101</v>
@@ -18319,15 +18388,15 @@
       <c r="O278" s="196"/>
       <c r="P278" s="196"/>
       <c r="Q278" s="206" t="str">
-        <f t="shared" ref="Q278:Q285" si="46">IF(E268&lt;&gt;"",E268,"")</f>
+        <f t="shared" ref="Q278:Q285" si="40">IF(E268&lt;&gt;"",E268,"")</f>
         <v/>
       </c>
       <c r="R278" s="206" t="str">
-        <f t="shared" ref="R278:R285" si="47">IF(F268&lt;&gt;"",F268,"")</f>
+        <f t="shared" ref="R278:R285" si="41">IF(F268&lt;&gt;"",F268,"")</f>
         <v/>
       </c>
       <c r="S278" s="206" t="str">
-        <f t="shared" ref="S278:S285" si="48">IF(G268&lt;&gt;"",G268,"")</f>
+        <f t="shared" ref="S278:S285" si="42">IF(G268&lt;&gt;"",G268,"")</f>
         <v/>
       </c>
       <c r="T278" s="199"/>
@@ -18337,22 +18406,22 @@
         <v>2</v>
       </c>
       <c r="M279" s="196">
-        <f t="shared" ref="M279:M285" si="49">IF($C$4="Yes",AC358,AD358)</f>
+        <f t="shared" ref="M279:M285" si="43">IF($C$4="Yes",AC358,AD358)</f>
         <v>0</v>
       </c>
       <c r="N279" s="196"/>
       <c r="O279" s="196"/>
       <c r="P279" s="201"/>
       <c r="Q279" s="206" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="R279" s="206" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="S279" s="206" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="T279" s="199"/>
@@ -18363,22 +18432,22 @@
         <v>3</v>
       </c>
       <c r="M280" s="196">
-        <f t="shared" si="49"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="N280" s="196"/>
       <c r="O280" s="196"/>
       <c r="P280" s="201"/>
       <c r="Q280" s="206" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="R280" s="206" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="S280" s="206" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="U280" s="196"/>
@@ -18389,22 +18458,22 @@
         <v>4</v>
       </c>
       <c r="M281" s="196">
-        <f t="shared" si="49"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="N281" s="196"/>
       <c r="O281" s="196"/>
       <c r="P281" s="201"/>
       <c r="Q281" s="206" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="R281" s="206" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="S281" s="206" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="T281" s="196"/>
@@ -18416,22 +18485,22 @@
         <v>5</v>
       </c>
       <c r="M282" s="196">
-        <f t="shared" si="49"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="N282" s="196"/>
       <c r="O282" s="196"/>
       <c r="P282" s="201"/>
       <c r="Q282" s="206" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="R282" s="206" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="S282" s="206" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="T282" s="196"/>
@@ -18444,22 +18513,22 @@
         <v>6</v>
       </c>
       <c r="M283" s="196">
-        <f t="shared" si="49"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="N283" s="196"/>
       <c r="O283" s="196"/>
       <c r="P283" s="201"/>
       <c r="Q283" s="206" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="R283" s="206" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="S283" s="206" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="T283" s="196"/>
@@ -18472,22 +18541,22 @@
         <v>7</v>
       </c>
       <c r="M284" s="196">
-        <f t="shared" si="49"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="N284" s="196"/>
       <c r="O284" s="196"/>
       <c r="P284" s="201"/>
       <c r="Q284" s="206" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="R284" s="206" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="S284" s="206" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="T284" s="196"/>
@@ -18500,22 +18569,22 @@
         <v>8</v>
       </c>
       <c r="M285" s="196">
-        <f t="shared" si="49"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="N285" s="196"/>
       <c r="O285" s="196"/>
       <c r="P285" s="201"/>
       <c r="Q285" s="206" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="R285" s="206" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="S285" s="206" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="T285" s="196"/>
@@ -18541,7 +18610,7 @@
     <row r="287" spans="11:21" ht="18" x14ac:dyDescent="0.25">
       <c r="K287" s="196"/>
       <c r="P287" s="197" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q287" s="206">
         <f>MIN(Q278:Q285)</f>
@@ -18561,7 +18630,7 @@
     <row r="288" spans="11:21" ht="18" x14ac:dyDescent="0.25">
       <c r="K288" s="196"/>
       <c r="P288" s="197" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Q288" s="206">
         <f>MAX(Q278:Q285)</f>
@@ -18581,7 +18650,7 @@
     <row r="289" spans="11:21" ht="18" x14ac:dyDescent="0.25">
       <c r="K289" s="196"/>
       <c r="P289" s="197" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="Q289" s="206">
         <f>(Q288-Q287)/2</f>
@@ -18607,7 +18676,7 @@
       <c r="K291" s="196"/>
       <c r="L291" s="200"/>
       <c r="M291" s="196">
-        <f t="shared" ref="M291:M296" si="50">IF($C$4="Yes","",AD369)</f>
+        <f t="shared" ref="M291:M296" si="44">IF($C$4="Yes","",AD369)</f>
         <v>0</v>
       </c>
       <c r="T291" s="196"/>
@@ -18620,7 +18689,7 @@
         <v>1</v>
       </c>
       <c r="M292" s="196">
-        <f t="shared" si="50"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="N292" s="196"/>
@@ -18639,7 +18708,7 @@
         <v>2</v>
       </c>
       <c r="M293" s="196">
-        <f t="shared" si="50"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="P293" s="196"/>
@@ -18657,7 +18726,7 @@
         <v>3</v>
       </c>
       <c r="M294" s="196">
-        <f t="shared" si="50"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="N294" s="196"/>
@@ -18678,7 +18747,7 @@
         <v>4</v>
       </c>
       <c r="M295" s="196">
-        <f t="shared" si="50"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="Q295" s="206">
@@ -18697,7 +18766,7 @@
         <v>5</v>
       </c>
       <c r="M296" s="196">
-        <f t="shared" si="50"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="O296" s="197"/>
@@ -18740,7 +18809,7 @@
     <row r="300" spans="11:21" ht="18" x14ac:dyDescent="0.25">
       <c r="K300" s="196"/>
       <c r="P300" s="197" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="Q300" s="256">
         <f>HLOOKUP(MAX(Q286:S286),Q286:S289,4,FALSE)</f>
@@ -18754,7 +18823,7 @@
       <c r="L301" s="196"/>
       <c r="M301" s="196"/>
       <c r="P301" s="197" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q301" s="257">
         <f>C269</f>
@@ -18770,7 +18839,7 @@
       <c r="L302" s="196"/>
       <c r="M302" s="196"/>
       <c r="P302" s="197" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="Q302" s="203" t="str">
         <f>IF(Q300&lt;=Q301,"Pass","Fail")</f>
@@ -18796,7 +18865,7 @@
     <row r="304" spans="11:21" ht="18" x14ac:dyDescent="0.25">
       <c r="K304" s="196"/>
       <c r="L304" s="317" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M304" s="317"/>
       <c r="N304" s="317"/>
@@ -18836,8 +18905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:CX102"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="V53" sqref="V53"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A23" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18859,21 +18928,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:102" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A2" s="319" t="s">
+      <c r="A2" s="335" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="319"/>
-      <c r="C2" s="319"/>
-      <c r="D2" s="319"/>
-      <c r="E2" s="319"/>
-      <c r="F2" s="319"/>
-      <c r="G2" s="319"/>
-      <c r="H2" s="319"/>
-      <c r="I2" s="319"/>
-      <c r="J2" s="319"/>
-      <c r="K2" s="319"/>
-      <c r="L2" s="319"/>
-      <c r="M2" s="319"/>
+      <c r="B2" s="335"/>
+      <c r="C2" s="335"/>
+      <c r="D2" s="335"/>
+      <c r="E2" s="335"/>
+      <c r="F2" s="335"/>
+      <c r="G2" s="335"/>
+      <c r="H2" s="335"/>
+      <c r="I2" s="335"/>
+      <c r="J2" s="335"/>
+      <c r="K2" s="335"/>
+      <c r="L2" s="335"/>
+      <c r="M2" s="335"/>
       <c r="S2" s="64"/>
       <c r="T2" s="64"/>
       <c r="U2" s="64"/>
@@ -18960,21 +19029,21 @@
       <c r="CX2"/>
     </row>
     <row r="3" spans="1:102" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="320" t="s">
+      <c r="A3" s="336" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="320"/>
-      <c r="C3" s="320"/>
-      <c r="D3" s="320"/>
-      <c r="E3" s="320"/>
-      <c r="F3" s="320"/>
-      <c r="G3" s="320"/>
-      <c r="H3" s="320"/>
-      <c r="I3" s="320"/>
-      <c r="J3" s="320"/>
-      <c r="K3" s="320"/>
-      <c r="L3" s="320"/>
-      <c r="M3" s="320"/>
+      <c r="B3" s="336"/>
+      <c r="C3" s="336"/>
+      <c r="D3" s="336"/>
+      <c r="E3" s="336"/>
+      <c r="F3" s="336"/>
+      <c r="G3" s="336"/>
+      <c r="H3" s="336"/>
+      <c r="I3" s="336"/>
+      <c r="J3" s="336"/>
+      <c r="K3" s="336"/>
+      <c r="L3" s="336"/>
+      <c r="M3" s="336"/>
       <c r="S3" s="64"/>
       <c r="T3" s="64"/>
       <c r="U3" s="64"/>
@@ -19061,21 +19130,21 @@
       <c r="CX3"/>
     </row>
     <row r="4" spans="1:102" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="320" t="s">
+      <c r="A4" s="336" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="320"/>
-      <c r="C4" s="320"/>
-      <c r="D4" s="320"/>
-      <c r="E4" s="320"/>
-      <c r="F4" s="320"/>
-      <c r="G4" s="320"/>
-      <c r="H4" s="320"/>
-      <c r="I4" s="320"/>
-      <c r="J4" s="320"/>
-      <c r="K4" s="320"/>
-      <c r="L4" s="320"/>
-      <c r="M4" s="320"/>
+      <c r="B4" s="336"/>
+      <c r="C4" s="336"/>
+      <c r="D4" s="336"/>
+      <c r="E4" s="336"/>
+      <c r="F4" s="336"/>
+      <c r="G4" s="336"/>
+      <c r="H4" s="336"/>
+      <c r="I4" s="336"/>
+      <c r="J4" s="336"/>
+      <c r="K4" s="336"/>
+      <c r="L4" s="336"/>
+      <c r="M4" s="336"/>
       <c r="S4" s="64"/>
       <c r="T4" s="64"/>
       <c r="U4" s="64"/>
@@ -19347,22 +19416,22 @@
       <c r="CX6"/>
     </row>
     <row r="7" spans="1:102" ht="45.75" x14ac:dyDescent="0.65">
-      <c r="A7" s="321" t="str">
+      <c r="A7" s="337" t="str">
         <f>IF(R16=TRUE,"Certificate of Inspection","Certificate of Calibration")</f>
         <v>Certificate of Calibration</v>
       </c>
-      <c r="B7" s="321"/>
-      <c r="C7" s="321"/>
-      <c r="D7" s="321"/>
-      <c r="E7" s="321"/>
-      <c r="F7" s="321"/>
-      <c r="G7" s="321"/>
-      <c r="H7" s="321"/>
-      <c r="I7" s="321"/>
-      <c r="J7" s="321"/>
-      <c r="K7" s="321"/>
-      <c r="L7" s="321"/>
-      <c r="M7" s="321"/>
+      <c r="B7" s="337"/>
+      <c r="C7" s="337"/>
+      <c r="D7" s="337"/>
+      <c r="E7" s="337"/>
+      <c r="F7" s="337"/>
+      <c r="G7" s="337"/>
+      <c r="H7" s="337"/>
+      <c r="I7" s="337"/>
+      <c r="J7" s="337"/>
+      <c r="K7" s="337"/>
+      <c r="L7" s="337"/>
+      <c r="M7" s="337"/>
       <c r="O7" s="65"/>
       <c r="S7" s="64"/>
       <c r="T7" s="64"/>
@@ -19551,11 +19620,11 @@
     </row>
     <row r="9" spans="1:102" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9" s="68" t="s">
-        <v>253</v>
-      </c>
-      <c r="C9" s="75" t="str">
+        <v>251</v>
+      </c>
+      <c r="C9" s="75">
         <f>'The details'!D2</f>
-        <v>56561-039285</v>
+        <v>0</v>
       </c>
       <c r="M9" s="70" t="str">
         <f>CONCATENATE("Page 1 of ",'The details'!G16)</f>
@@ -19650,17 +19719,17 @@
       <c r="B10" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="318" t="str">
+      <c r="C10" s="332">
         <f>'The details'!D3</f>
-        <v xml:space="preserve">Vector Tooling Technologies </v>
-      </c>
-      <c r="D10" s="318"/>
-      <c r="E10" s="318"/>
-      <c r="F10" s="318"/>
-      <c r="G10" s="318"/>
-      <c r="H10" s="318"/>
-      <c r="I10" s="318"/>
-      <c r="J10" s="318"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="332"/>
+      <c r="E10" s="332"/>
+      <c r="F10" s="332"/>
+      <c r="G10" s="332"/>
+      <c r="H10" s="332"/>
+      <c r="I10" s="332"/>
+      <c r="J10" s="332"/>
       <c r="K10" s="69"/>
       <c r="M10" s="214" t="s">
         <v>118</v>
@@ -19754,17 +19823,17 @@
       <c r="B11" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="318" t="str">
+      <c r="C11" s="332">
         <f>'The details'!D4</f>
-        <v>22245 C Street Winfield, KS 67156</v>
-      </c>
-      <c r="D11" s="318"/>
-      <c r="E11" s="318"/>
-      <c r="F11" s="318"/>
-      <c r="G11" s="318"/>
-      <c r="H11" s="318"/>
-      <c r="I11" s="318"/>
-      <c r="J11" s="318"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="332"/>
+      <c r="E11" s="332"/>
+      <c r="F11" s="332"/>
+      <c r="G11" s="332"/>
+      <c r="H11" s="332"/>
+      <c r="I11" s="332"/>
+      <c r="J11" s="332"/>
       <c r="K11" s="69"/>
       <c r="M11" s="214" t="s">
         <v>120</v>
@@ -19966,8 +20035,9 @@
       <c r="K13" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="L13" s="75" t="s">
-        <v>124</v>
+      <c r="L13" s="75" t="str">
+        <f>'The details'!D11</f>
+        <v>PE, ML</v>
       </c>
       <c r="M13" s="69"/>
       <c r="P13" s="76"/>
@@ -20060,24 +20130,24 @@
     </row>
     <row r="14" spans="1:102" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B14" s="68" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C14" s="75">
         <f>'The details'!D7</f>
-        <v>752474</v>
+        <v>0</v>
       </c>
       <c r="E14" s="79"/>
       <c r="H14" s="69"/>
       <c r="I14" s="69"/>
       <c r="J14" s="69"/>
       <c r="K14" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="L14" s="322">
+        <v>124</v>
+      </c>
+      <c r="L14" s="330">
         <f ca="1">'The details'!D9</f>
         <v>45685</v>
       </c>
-      <c r="M14" s="323"/>
+      <c r="M14" s="331"/>
       <c r="P14" s="76"/>
       <c r="Q14" s="72"/>
       <c r="R14" s="76"/>
@@ -20168,7 +20238,7 @@
     </row>
     <row r="15" spans="1:102" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B15" s="68" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C15" s="75" t="str">
         <f>(IF('The details'!D5&lt;&gt;"",'The details'!D5,VLOOKUP('JGI Method Testing'!H2,'tracker specs'!A7:C25,3,FALSE)))</f>
@@ -20179,13 +20249,13 @@
       <c r="I15" s="69"/>
       <c r="J15" s="69"/>
       <c r="K15" s="68" t="s">
-        <v>127</v>
-      </c>
-      <c r="L15" s="322">
+        <v>126</v>
+      </c>
+      <c r="L15" s="330">
         <f ca="1">IF('The details'!D10="",L14+366,'The details'!D10)</f>
         <v>46050</v>
       </c>
-      <c r="M15" s="323"/>
+      <c r="M15" s="331"/>
       <c r="P15" s="76"/>
       <c r="Q15" s="72"/>
       <c r="R15" s="76"/>
@@ -20280,14 +20350,14 @@
       </c>
       <c r="C16" s="75">
         <f>'The details'!D8</f>
-        <v>752474</v>
+        <v>0</v>
       </c>
       <c r="E16" s="79"/>
       <c r="H16" s="69"/>
       <c r="I16" s="69"/>
       <c r="J16" s="69"/>
       <c r="K16" s="68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L16" s="271">
         <f>'The details'!D12</f>
@@ -20387,7 +20457,7 @@
     </row>
     <row r="17" spans="1:102" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B17" s="68" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C17" s="75" t="str">
         <f>'The details'!D14</f>
@@ -20401,7 +20471,7 @@
       <c r="I17" s="69"/>
       <c r="J17" s="69"/>
       <c r="K17" s="68" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L17" s="272">
         <f>'The details'!D13</f>
@@ -20499,7 +20569,7 @@
     </row>
     <row r="18" spans="1:102" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="185" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B18" s="185"/>
       <c r="C18" s="186"/>
@@ -20545,19 +20615,19 @@
       <c r="A19" s="69"/>
       <c r="B19" s="69"/>
       <c r="C19" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="D19" s="318" t="s">
-        <v>207</v>
-      </c>
-      <c r="E19" s="318"/>
-      <c r="F19" s="318"/>
-      <c r="G19" s="318"/>
-      <c r="H19" s="318"/>
-      <c r="I19" s="318"/>
-      <c r="J19" s="318"/>
-      <c r="K19" s="318"/>
-      <c r="L19" s="318"/>
+        <v>131</v>
+      </c>
+      <c r="D19" s="332" t="s">
+        <v>205</v>
+      </c>
+      <c r="E19" s="332"/>
+      <c r="F19" s="332"/>
+      <c r="G19" s="332"/>
+      <c r="H19" s="332"/>
+      <c r="I19" s="332"/>
+      <c r="J19" s="332"/>
+      <c r="K19" s="332"/>
+      <c r="L19" s="332"/>
       <c r="Q19" s="85"/>
       <c r="R19" s="72"/>
       <c r="S19" s="64"/>
@@ -20591,19 +20661,19 @@
       <c r="A20" s="69"/>
       <c r="B20" s="69"/>
       <c r="C20" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="D20" s="318" t="s">
-        <v>146</v>
-      </c>
-      <c r="E20" s="318"/>
-      <c r="F20" s="318"/>
-      <c r="G20" s="318"/>
-      <c r="H20" s="318"/>
-      <c r="I20" s="318"/>
-      <c r="J20" s="318"/>
-      <c r="K20" s="318"/>
-      <c r="L20" s="318"/>
+        <v>132</v>
+      </c>
+      <c r="D20" s="332" t="s">
+        <v>144</v>
+      </c>
+      <c r="E20" s="332"/>
+      <c r="F20" s="332"/>
+      <c r="G20" s="332"/>
+      <c r="H20" s="332"/>
+      <c r="I20" s="332"/>
+      <c r="J20" s="332"/>
+      <c r="K20" s="332"/>
+      <c r="L20" s="332"/>
       <c r="O20" s="86"/>
       <c r="R20" s="72"/>
       <c r="S20" s="64"/>
@@ -20635,7 +20705,7 @@
     </row>
     <row r="21" spans="1:102" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="185" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B21" s="185"/>
       <c r="C21" s="186"/>
@@ -20770,18 +20840,18 @@
       <c r="CX22" s="86"/>
     </row>
     <row r="23" spans="1:102" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B23" s="325" t="s">
-        <v>158</v>
-      </c>
-      <c r="C23" s="325"/>
-      <c r="D23" s="325"/>
-      <c r="E23" s="325"/>
-      <c r="F23" s="325"/>
-      <c r="G23" s="325"/>
-      <c r="H23" s="325"/>
-      <c r="I23" s="325"/>
-      <c r="J23" s="325"/>
-      <c r="K23" s="325"/>
+      <c r="B23" s="333" t="s">
+        <v>156</v>
+      </c>
+      <c r="C23" s="333"/>
+      <c r="D23" s="333"/>
+      <c r="E23" s="333"/>
+      <c r="F23" s="333"/>
+      <c r="G23" s="333"/>
+      <c r="H23" s="333"/>
+      <c r="I23" s="333"/>
+      <c r="J23" s="333"/>
+      <c r="K23" s="333"/>
       <c r="N23" s="86"/>
       <c r="O23" s="86"/>
       <c r="P23" s="86"/>
@@ -20873,29 +20943,29 @@
       <c r="CX23" s="86"/>
     </row>
     <row r="24" spans="1:102" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="325"/>
-      <c r="C24" s="325"/>
-      <c r="D24" s="325"/>
-      <c r="E24" s="325"/>
-      <c r="F24" s="325"/>
-      <c r="G24" s="325"/>
-      <c r="H24" s="325"/>
-      <c r="I24" s="325"/>
-      <c r="J24" s="325"/>
-      <c r="K24" s="325"/>
+      <c r="B24" s="333"/>
+      <c r="C24" s="333"/>
+      <c r="D24" s="333"/>
+      <c r="E24" s="333"/>
+      <c r="F24" s="333"/>
+      <c r="G24" s="333"/>
+      <c r="H24" s="333"/>
+      <c r="I24" s="333"/>
+      <c r="J24" s="333"/>
+      <c r="K24" s="333"/>
     </row>
     <row r="25" spans="1:102" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="189"/>
-      <c r="B25" s="325"/>
-      <c r="C25" s="325"/>
-      <c r="D25" s="325"/>
-      <c r="E25" s="325"/>
-      <c r="F25" s="325"/>
-      <c r="G25" s="325"/>
-      <c r="H25" s="325"/>
-      <c r="I25" s="325"/>
-      <c r="J25" s="325"/>
-      <c r="K25" s="325"/>
+      <c r="B25" s="333"/>
+      <c r="C25" s="333"/>
+      <c r="D25" s="333"/>
+      <c r="E25" s="333"/>
+      <c r="F25" s="333"/>
+      <c r="G25" s="333"/>
+      <c r="H25" s="333"/>
+      <c r="I25" s="333"/>
+      <c r="J25" s="333"/>
+      <c r="K25" s="333"/>
       <c r="L25" s="190"/>
       <c r="M25" s="191"/>
       <c r="R25" s="72"/>
@@ -20927,16 +20997,16 @@
       <c r="AR25" s="64"/>
     </row>
     <row r="26" spans="1:102" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="325"/>
-      <c r="C26" s="325"/>
-      <c r="D26" s="325"/>
-      <c r="E26" s="325"/>
-      <c r="F26" s="325"/>
-      <c r="G26" s="325"/>
-      <c r="H26" s="325"/>
-      <c r="I26" s="325"/>
-      <c r="J26" s="325"/>
-      <c r="K26" s="325"/>
+      <c r="B26" s="333"/>
+      <c r="C26" s="333"/>
+      <c r="D26" s="333"/>
+      <c r="E26" s="333"/>
+      <c r="F26" s="333"/>
+      <c r="G26" s="333"/>
+      <c r="H26" s="333"/>
+      <c r="I26" s="333"/>
+      <c r="J26" s="333"/>
+      <c r="K26" s="333"/>
       <c r="R26" s="76"/>
       <c r="S26" s="64"/>
       <c r="T26" s="64"/>
@@ -20966,25 +21036,23 @@
       <c r="AR26" s="64"/>
     </row>
     <row r="27" spans="1:102" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="93" t="s">
+      <c r="A27" s="93"/>
+      <c r="B27" s="334" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" s="334"/>
+      <c r="D27" s="334" t="s">
+        <v>274</v>
+      </c>
+      <c r="E27" s="334"/>
+      <c r="F27" s="334"/>
+      <c r="G27" s="334"/>
+      <c r="H27" s="334"/>
+      <c r="I27" s="334" t="s">
         <v>134</v>
       </c>
-      <c r="B27" s="328" t="s">
-        <v>135</v>
-      </c>
-      <c r="C27" s="328"/>
-      <c r="D27" s="328" t="s">
-        <v>276</v>
-      </c>
-      <c r="E27" s="328"/>
-      <c r="F27" s="328"/>
-      <c r="G27" s="328"/>
-      <c r="H27" s="328"/>
-      <c r="I27" s="328" t="s">
-        <v>136</v>
-      </c>
-      <c r="J27" s="328"/>
-      <c r="K27" s="328"/>
+      <c r="J27" s="334"/>
+      <c r="K27" s="334"/>
       <c r="L27" s="93"/>
       <c r="M27" s="93"/>
       <c r="O27" s="94"/>
@@ -21018,11 +21086,11 @@
     </row>
     <row r="28" spans="1:102" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="326" t="str">
+      <c r="B28" s="328" t="str">
         <f>IF(OR(E34&lt;&gt;"",E35&lt;&gt;"",E36&lt;&gt;""),"Final Readings","")</f>
         <v/>
       </c>
-      <c r="C28" s="326"/>
+      <c r="C28" s="328"/>
       <c r="D28" s="93"/>
       <c r="E28" s="93"/>
       <c r="F28" s="93"/>
@@ -21065,26 +21133,26 @@
     </row>
     <row r="29" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="327" t="s">
-        <v>212</v>
-      </c>
-      <c r="C29" s="327"/>
+      <c r="B29" s="324" t="s">
+        <v>210</v>
+      </c>
+      <c r="C29" s="324"/>
       <c r="D29" s="93"/>
-      <c r="E29" s="330">
+      <c r="E29" s="327">
         <f>'JGI Method Testing'!X4</f>
         <v>-90.54117689300999</v>
       </c>
-      <c r="F29" s="330"/>
-      <c r="G29" s="330"/>
+      <c r="F29" s="327"/>
+      <c r="G29" s="327"/>
       <c r="H29" s="146"/>
-      <c r="I29" s="330">
+      <c r="I29" s="327">
         <f>'JGI Method Testing'!W4</f>
         <v>-90.541176893010004</v>
       </c>
-      <c r="J29" s="331"/>
-      <c r="K29" s="331"/>
-      <c r="L29" s="324"/>
-      <c r="M29" s="324"/>
+      <c r="J29" s="329"/>
+      <c r="K29" s="329"/>
+      <c r="L29" s="319"/>
+      <c r="M29" s="319"/>
       <c r="P29" s="94"/>
       <c r="Q29" s="94"/>
       <c r="R29" s="111"/>
@@ -21117,28 +21185,28 @@
     </row>
     <row r="30" spans="1:102" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="327" t="s">
-        <v>191</v>
-      </c>
-      <c r="C30" s="327"/>
+      <c r="B30" s="324" t="s">
+        <v>189</v>
+      </c>
+      <c r="C30" s="324"/>
       <c r="D30" s="147"/>
-      <c r="E30" s="330">
+      <c r="E30" s="327">
         <f>'JGI Method Testing'!I59</f>
         <v>0</v>
       </c>
-      <c r="F30" s="330"/>
-      <c r="G30" s="330"/>
+      <c r="F30" s="327"/>
+      <c r="G30" s="327"/>
       <c r="H30" s="146"/>
-      <c r="I30" s="330">
+      <c r="I30" s="327">
         <f>AVERAGE('Datasheet, JGI Method'!G28:G35)</f>
         <v>0</v>
       </c>
-      <c r="J30" s="331"/>
-      <c r="K30" s="331"/>
-      <c r="O30" s="329"/>
-      <c r="P30" s="329"/>
-      <c r="Q30" s="329"/>
-      <c r="R30" s="329"/>
+      <c r="J30" s="329"/>
+      <c r="K30" s="329"/>
+      <c r="O30" s="320"/>
+      <c r="P30" s="320"/>
+      <c r="Q30" s="320"/>
+      <c r="R30" s="320"/>
       <c r="S30" s="113"/>
       <c r="T30" s="99" t="b">
         <v>0</v>
@@ -21173,24 +21241,24 @@
     </row>
     <row r="31" spans="1:102" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="327" t="s">
-        <v>192</v>
-      </c>
-      <c r="C31" s="327"/>
+      <c r="B31" s="324" t="s">
+        <v>190</v>
+      </c>
+      <c r="C31" s="324"/>
       <c r="D31" s="147"/>
-      <c r="E31" s="330">
-        <f>'JGI Method Testing'!H24</f>
+      <c r="E31" s="327">
+        <f>'JGI Method Testing'!H20</f>
         <v>-90.54117689300999</v>
       </c>
-      <c r="F31" s="330"/>
-      <c r="G31" s="330"/>
+      <c r="F31" s="327"/>
+      <c r="G31" s="327"/>
       <c r="H31" s="146"/>
-      <c r="I31" s="330">
+      <c r="I31" s="327">
         <f>E31</f>
         <v>-90.54117689300999</v>
       </c>
-      <c r="J31" s="331"/>
-      <c r="K31" s="331"/>
+      <c r="J31" s="329"/>
+      <c r="K31" s="329"/>
       <c r="O31" s="211"/>
       <c r="P31" s="211"/>
       <c r="Q31" s="211"/>
@@ -21226,8 +21294,8 @@
       <c r="A32" s="1"/>
       <c r="D32" s="125"/>
       <c r="H32" s="125"/>
-      <c r="L32" s="324"/>
-      <c r="M32" s="324"/>
+      <c r="L32" s="319"/>
+      <c r="M32" s="319"/>
       <c r="O32" s="114"/>
       <c r="P32" s="114"/>
       <c r="Q32" s="114"/>
@@ -21266,19 +21334,19 @@
     </row>
     <row r="33" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="326" t="str">
+      <c r="B33" s="328" t="str">
         <f>IF(OR(E34&lt;&gt;"",E35&lt;&gt;"",E36&lt;&gt;""),"Preliminary Readings","")</f>
         <v/>
       </c>
-      <c r="C33" s="326"/>
+      <c r="C33" s="328"/>
       <c r="F33" s="152"/>
       <c r="J33" s="152"/>
-      <c r="L33" s="324"/>
-      <c r="M33" s="324"/>
-      <c r="O33" s="329"/>
-      <c r="P33" s="329"/>
-      <c r="Q33" s="329"/>
-      <c r="R33" s="329"/>
+      <c r="L33" s="319"/>
+      <c r="M33" s="319"/>
+      <c r="O33" s="320"/>
+      <c r="P33" s="320"/>
+      <c r="Q33" s="320"/>
+      <c r="R33" s="320"/>
       <c r="S33" s="113"/>
       <c r="T33" s="80" t="b">
         <v>0</v>
@@ -21313,26 +21381,26 @@
     </row>
     <row r="34" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A34"/>
-      <c r="B34" s="327" t="str">
+      <c r="B34" s="324" t="str">
         <f>IF(E34&lt;&gt;"",B29,"")</f>
         <v/>
       </c>
-      <c r="C34" s="327"/>
+      <c r="C34" s="324"/>
       <c r="D34" s="125"/>
-      <c r="E34" s="330" t="str">
+      <c r="E34" s="327" t="str">
         <f>'JGI Method Testing'!AB35</f>
         <v/>
       </c>
-      <c r="F34" s="330"/>
-      <c r="G34" s="330"/>
-      <c r="I34" s="330" t="str">
+      <c r="F34" s="327"/>
+      <c r="G34" s="327"/>
+      <c r="I34" s="327" t="str">
         <f>'JGI Method Testing'!AA35</f>
         <v/>
       </c>
-      <c r="J34" s="330"/>
-      <c r="K34" s="330"/>
-      <c r="L34" s="324"/>
-      <c r="M34" s="324"/>
+      <c r="J34" s="327"/>
+      <c r="K34" s="327"/>
+      <c r="L34" s="319"/>
+      <c r="M34" s="319"/>
       <c r="O34" s="115"/>
       <c r="P34" s="115"/>
       <c r="Q34" s="115"/>
@@ -21371,30 +21439,30 @@
     </row>
     <row r="35" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="327" t="str">
+      <c r="B35" s="324" t="str">
         <f>IF(E35&lt;&gt;"",B30,"")</f>
         <v/>
       </c>
-      <c r="C35" s="327"/>
+      <c r="C35" s="324"/>
       <c r="D35" s="125"/>
-      <c r="E35" s="330" t="str">
+      <c r="E35" s="327" t="str">
         <f>'JGI Method Testing'!K59</f>
         <v/>
       </c>
-      <c r="F35" s="330"/>
-      <c r="G35" s="330"/>
-      <c r="I35" s="330" t="str">
+      <c r="F35" s="327"/>
+      <c r="G35" s="327"/>
+      <c r="I35" s="327" t="str">
         <f>'JGI Method Testing'!K58</f>
         <v/>
       </c>
-      <c r="J35" s="330"/>
-      <c r="K35" s="330"/>
-      <c r="L35" s="324"/>
-      <c r="M35" s="324"/>
-      <c r="O35" s="329"/>
-      <c r="P35" s="329"/>
-      <c r="Q35" s="329"/>
-      <c r="R35" s="329"/>
+      <c r="J35" s="327"/>
+      <c r="K35" s="327"/>
+      <c r="L35" s="319"/>
+      <c r="M35" s="319"/>
+      <c r="O35" s="320"/>
+      <c r="P35" s="320"/>
+      <c r="Q35" s="320"/>
+      <c r="R35" s="320"/>
       <c r="S35" s="113"/>
       <c r="T35" s="80" t="b">
         <v>0</v>
@@ -21487,20 +21555,20 @@
     </row>
     <row r="36" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="327" t="str">
+      <c r="B36" s="324" t="str">
         <f>IF(E36&lt;&gt;"",B31,"")</f>
         <v/>
       </c>
-      <c r="C36" s="327"/>
+      <c r="C36" s="324"/>
       <c r="D36" s="125"/>
-      <c r="E36" s="330"/>
-      <c r="F36" s="330"/>
-      <c r="G36" s="330"/>
-      <c r="I36" s="330"/>
-      <c r="J36" s="330"/>
-      <c r="K36" s="330"/>
-      <c r="L36" s="334"/>
-      <c r="M36" s="334"/>
+      <c r="E36" s="327"/>
+      <c r="F36" s="327"/>
+      <c r="G36" s="327"/>
+      <c r="I36" s="327"/>
+      <c r="J36" s="327"/>
+      <c r="K36" s="327"/>
+      <c r="L36" s="321"/>
+      <c r="M36" s="321"/>
       <c r="O36" s="114"/>
       <c r="P36" s="115"/>
       <c r="Q36" s="115"/>
@@ -21592,25 +21660,25 @@
     </row>
     <row r="37" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="324" t="str">
+      <c r="B37" s="319" t="str">
         <f>CONCATENATE("Uncertainty @ k=2: ",'The details'!D24," µin")</f>
         <v>Uncertainty @ k=2: 600 µin</v>
       </c>
-      <c r="C37" s="324"/>
-      <c r="D37" s="324"/>
-      <c r="E37" s="324"/>
-      <c r="F37" s="324"/>
-      <c r="G37" s="324"/>
-      <c r="H37" s="324"/>
-      <c r="I37" s="324"/>
-      <c r="J37" s="324"/>
-      <c r="K37" s="324"/>
+      <c r="C37" s="319"/>
+      <c r="D37" s="319"/>
+      <c r="E37" s="319"/>
+      <c r="F37" s="319"/>
+      <c r="G37" s="319"/>
+      <c r="H37" s="319"/>
+      <c r="I37" s="319"/>
+      <c r="J37" s="319"/>
+      <c r="K37" s="319"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
-      <c r="O37" s="329"/>
-      <c r="P37" s="329"/>
-      <c r="Q37" s="329"/>
-      <c r="R37" s="329"/>
+      <c r="O37" s="320"/>
+      <c r="P37" s="320"/>
+      <c r="Q37" s="320"/>
+      <c r="R37" s="320"/>
       <c r="S37" s="113"/>
       <c r="T37" s="64"/>
       <c r="U37" s="97"/>
@@ -21698,18 +21766,18 @@
     </row>
     <row r="38" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="324" t="s">
-        <v>147</v>
-      </c>
-      <c r="C38" s="324"/>
-      <c r="D38" s="324"/>
-      <c r="E38" s="324"/>
-      <c r="F38" s="324"/>
-      <c r="G38" s="324"/>
-      <c r="H38" s="324"/>
-      <c r="I38" s="324"/>
-      <c r="J38" s="324"/>
-      <c r="K38" s="324"/>
+      <c r="B38" s="319" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="319"/>
+      <c r="D38" s="319"/>
+      <c r="E38" s="319"/>
+      <c r="F38" s="319"/>
+      <c r="G38" s="319"/>
+      <c r="H38" s="319"/>
+      <c r="I38" s="319"/>
+      <c r="J38" s="319"/>
+      <c r="K38" s="319"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="O38" s="114"/>
@@ -21718,7 +21786,7 @@
       <c r="R38" s="115"/>
       <c r="S38" s="113"/>
       <c r="T38" s="64" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="U38" s="64"/>
       <c r="V38" s="64"/>
@@ -21812,13 +21880,13 @@
       <c r="F39" s="148"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
-      <c r="O39" s="329"/>
-      <c r="P39" s="329"/>
-      <c r="Q39" s="329"/>
-      <c r="R39" s="329"/>
+      <c r="O39" s="320"/>
+      <c r="P39" s="320"/>
+      <c r="Q39" s="320"/>
+      <c r="R39" s="320"/>
       <c r="S39" s="113"/>
       <c r="T39" s="64" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="U39" s="64"/>
       <c r="V39" s="64"/>
@@ -21904,22 +21972,22 @@
       <c r="CX39"/>
     </row>
     <row r="40" spans="1:102" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="332" t="str">
+      <c r="A40" s="325" t="str">
         <f>IF(R17=TRUE,U46,U47)</f>
         <v>The reported expanded uncertainty of measurement is stated as the standard uncertainty of measurement multiplied by the coverage factor k such that the coverage probability corresponds to approximately 95%. This estimate was performed in accordance with guidelines set forth in ANSI/NCSL Z540-2. The acceptance or rejection of the item(s) is based on the actual test values shown, without adjustment for measurement uncertainty. All testing performed using standards traceable to NIST or to intrinsic standards. This document shall not be reproduced except in full, without the written permission of Johnson Gage and Inspection. Tolerance source key: C = Customer; S = Specification; M = Manufacturer; R = JGI Recommended.</v>
       </c>
-      <c r="B40" s="332"/>
-      <c r="C40" s="332"/>
-      <c r="D40" s="332"/>
-      <c r="E40" s="332"/>
-      <c r="F40" s="332"/>
-      <c r="G40" s="332"/>
-      <c r="H40" s="332"/>
-      <c r="I40" s="332"/>
-      <c r="J40" s="332"/>
-      <c r="K40" s="332"/>
-      <c r="L40" s="332"/>
-      <c r="M40" s="332"/>
+      <c r="B40" s="325"/>
+      <c r="C40" s="325"/>
+      <c r="D40" s="325"/>
+      <c r="E40" s="325"/>
+      <c r="F40" s="325"/>
+      <c r="G40" s="325"/>
+      <c r="H40" s="325"/>
+      <c r="I40" s="325"/>
+      <c r="J40" s="325"/>
+      <c r="K40" s="325"/>
+      <c r="L40" s="325"/>
+      <c r="M40" s="325"/>
       <c r="Q40" s="102"/>
       <c r="S40" s="113"/>
       <c r="T40" s="64"/>
@@ -22007,19 +22075,19 @@
       <c r="CX40"/>
     </row>
     <row r="41" spans="1:102" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="332"/>
-      <c r="B41" s="332"/>
-      <c r="C41" s="332"/>
-      <c r="D41" s="332"/>
-      <c r="E41" s="332"/>
-      <c r="F41" s="332"/>
-      <c r="G41" s="332"/>
-      <c r="H41" s="332"/>
-      <c r="I41" s="332"/>
-      <c r="J41" s="332"/>
-      <c r="K41" s="332"/>
-      <c r="L41" s="332"/>
-      <c r="M41" s="332"/>
+      <c r="A41" s="325"/>
+      <c r="B41" s="325"/>
+      <c r="C41" s="325"/>
+      <c r="D41" s="325"/>
+      <c r="E41" s="325"/>
+      <c r="F41" s="325"/>
+      <c r="G41" s="325"/>
+      <c r="H41" s="325"/>
+      <c r="I41" s="325"/>
+      <c r="J41" s="325"/>
+      <c r="K41" s="325"/>
+      <c r="L41" s="325"/>
+      <c r="M41" s="325"/>
       <c r="Q41" s="102"/>
       <c r="S41" s="64"/>
       <c r="T41" s="64"/>
@@ -22107,19 +22175,19 @@
       <c r="CX41"/>
     </row>
     <row r="42" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="A42" s="332"/>
-      <c r="B42" s="332"/>
-      <c r="C42" s="332"/>
-      <c r="D42" s="332"/>
-      <c r="E42" s="332"/>
-      <c r="F42" s="332"/>
-      <c r="G42" s="332"/>
-      <c r="H42" s="332"/>
-      <c r="I42" s="332"/>
-      <c r="J42" s="332"/>
-      <c r="K42" s="332"/>
-      <c r="L42" s="332"/>
-      <c r="M42" s="332"/>
+      <c r="A42" s="325"/>
+      <c r="B42" s="325"/>
+      <c r="C42" s="325"/>
+      <c r="D42" s="325"/>
+      <c r="E42" s="325"/>
+      <c r="F42" s="325"/>
+      <c r="G42" s="325"/>
+      <c r="H42" s="325"/>
+      <c r="I42" s="325"/>
+      <c r="J42" s="325"/>
+      <c r="K42" s="325"/>
+      <c r="L42" s="325"/>
+      <c r="M42" s="325"/>
       <c r="Q42" s="102"/>
       <c r="S42" s="64"/>
       <c r="T42" s="64"/>
@@ -22207,19 +22275,19 @@
       <c r="CX42"/>
     </row>
     <row r="43" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="A43" s="332"/>
-      <c r="B43" s="332"/>
-      <c r="C43" s="332"/>
-      <c r="D43" s="332"/>
-      <c r="E43" s="332"/>
-      <c r="F43" s="332"/>
-      <c r="G43" s="332"/>
-      <c r="H43" s="332"/>
-      <c r="I43" s="332"/>
-      <c r="J43" s="332"/>
-      <c r="K43" s="332"/>
-      <c r="L43" s="332"/>
-      <c r="M43" s="332"/>
+      <c r="A43" s="325"/>
+      <c r="B43" s="325"/>
+      <c r="C43" s="325"/>
+      <c r="D43" s="325"/>
+      <c r="E43" s="325"/>
+      <c r="F43" s="325"/>
+      <c r="G43" s="325"/>
+      <c r="H43" s="325"/>
+      <c r="I43" s="325"/>
+      <c r="J43" s="325"/>
+      <c r="K43" s="325"/>
+      <c r="L43" s="325"/>
+      <c r="M43" s="325"/>
       <c r="Q43" s="102"/>
       <c r="S43" s="64"/>
       <c r="T43" s="64"/>
@@ -22308,7 +22376,7 @@
     </row>
     <row r="44" spans="1:102" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="185" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B44" s="185"/>
       <c r="C44" s="186"/>
@@ -22410,23 +22478,23 @@
     </row>
     <row r="45" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A45" s="151" t="s">
-        <v>257</v>
-      </c>
-      <c r="B45" s="333" t="str">
+        <v>255</v>
+      </c>
+      <c r="B45" s="326" t="str">
         <f>'The details'!D18</f>
         <v>This item was found in tolerance. No adjustments were performed.</v>
       </c>
-      <c r="C45" s="333"/>
-      <c r="D45" s="333"/>
-      <c r="E45" s="333"/>
-      <c r="F45" s="333"/>
-      <c r="G45" s="333"/>
-      <c r="H45" s="333"/>
-      <c r="I45" s="333"/>
-      <c r="J45" s="333"/>
-      <c r="K45" s="333"/>
-      <c r="L45" s="333"/>
-      <c r="M45" s="333"/>
+      <c r="C45" s="326"/>
+      <c r="D45" s="326"/>
+      <c r="E45" s="326"/>
+      <c r="F45" s="326"/>
+      <c r="G45" s="326"/>
+      <c r="H45" s="326"/>
+      <c r="I45" s="326"/>
+      <c r="J45" s="326"/>
+      <c r="K45" s="326"/>
+      <c r="L45" s="326"/>
+      <c r="M45" s="326"/>
       <c r="Q45" s="102"/>
       <c r="S45" s="64"/>
       <c r="T45" s="64"/>
@@ -22515,22 +22583,22 @@
     </row>
     <row r="46" spans="1:102" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="212"/>
-      <c r="B46" s="333"/>
-      <c r="C46" s="333"/>
-      <c r="D46" s="333"/>
-      <c r="E46" s="333"/>
-      <c r="F46" s="333"/>
-      <c r="G46" s="333"/>
-      <c r="H46" s="333"/>
-      <c r="I46" s="333"/>
-      <c r="J46" s="333"/>
-      <c r="K46" s="333"/>
-      <c r="L46" s="333"/>
-      <c r="M46" s="333"/>
+      <c r="B46" s="326"/>
+      <c r="C46" s="326"/>
+      <c r="D46" s="326"/>
+      <c r="E46" s="326"/>
+      <c r="F46" s="326"/>
+      <c r="G46" s="326"/>
+      <c r="H46" s="326"/>
+      <c r="I46" s="326"/>
+      <c r="J46" s="326"/>
+      <c r="K46" s="326"/>
+      <c r="L46" s="326"/>
+      <c r="M46" s="326"/>
       <c r="Q46" s="102"/>
       <c r="R46" s="102"/>
       <c r="S46" s="64" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T46" s="64"/>
       <c r="U46" s="64" t="str">
@@ -22620,26 +22688,26 @@
       <c r="CX46"/>
     </row>
     <row r="47" spans="1:102" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="333"/>
-      <c r="C47" s="333"/>
-      <c r="D47" s="333"/>
-      <c r="E47" s="333"/>
-      <c r="F47" s="333"/>
-      <c r="G47" s="333"/>
-      <c r="H47" s="333"/>
-      <c r="I47" s="333"/>
-      <c r="J47" s="333"/>
-      <c r="K47" s="333"/>
-      <c r="L47" s="333"/>
-      <c r="M47" s="333"/>
+      <c r="B47" s="326"/>
+      <c r="C47" s="326"/>
+      <c r="D47" s="326"/>
+      <c r="E47" s="326"/>
+      <c r="F47" s="326"/>
+      <c r="G47" s="326"/>
+      <c r="H47" s="326"/>
+      <c r="I47" s="326"/>
+      <c r="J47" s="326"/>
+      <c r="K47" s="326"/>
+      <c r="L47" s="326"/>
+      <c r="M47" s="326"/>
       <c r="Q47" s="102"/>
       <c r="R47" s="102"/>
       <c r="S47" s="64" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="T47" s="64"/>
       <c r="U47" s="64" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="V47" s="64"/>
       <c r="W47" s="118"/>
@@ -22725,7 +22793,7 @@
     </row>
     <row r="48" spans="1:102" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="221" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B48" s="213" t="str">
         <f>'The details'!D17</f>
@@ -22839,19 +22907,19 @@
       <c r="CX48"/>
     </row>
     <row r="49" spans="1:102" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="336"/>
-      <c r="B49" s="336"/>
-      <c r="C49" s="336"/>
-      <c r="D49" s="336"/>
-      <c r="E49" s="336"/>
-      <c r="F49" s="336"/>
-      <c r="G49" s="336"/>
-      <c r="H49" s="336"/>
-      <c r="I49" s="336"/>
-      <c r="J49" s="336"/>
-      <c r="K49" s="336"/>
-      <c r="L49" s="336"/>
-      <c r="M49" s="336"/>
+      <c r="A49" s="322"/>
+      <c r="B49" s="322"/>
+      <c r="C49" s="322"/>
+      <c r="D49" s="322"/>
+      <c r="E49" s="322"/>
+      <c r="F49" s="322"/>
+      <c r="G49" s="322"/>
+      <c r="H49" s="322"/>
+      <c r="I49" s="322"/>
+      <c r="J49" s="322"/>
+      <c r="K49" s="322"/>
+      <c r="L49" s="322"/>
+      <c r="M49" s="322"/>
       <c r="Q49" s="102"/>
       <c r="R49" s="102"/>
       <c r="T49" s="64"/>
@@ -22939,42 +23007,42 @@
       <c r="CX49"/>
     </row>
     <row r="50" spans="1:102" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="337" t="s">
-        <v>144</v>
-      </c>
-      <c r="B50" s="337"/>
-      <c r="C50" s="337"/>
-      <c r="D50" s="337"/>
-      <c r="E50" s="337"/>
-      <c r="F50" s="337"/>
-      <c r="G50" s="337"/>
-      <c r="H50" s="337"/>
-      <c r="I50" s="337"/>
-      <c r="J50" s="337"/>
-      <c r="K50" s="337"/>
-      <c r="L50" s="337"/>
-      <c r="M50" s="337"/>
+      <c r="A50" s="323" t="s">
+        <v>142</v>
+      </c>
+      <c r="B50" s="323"/>
+      <c r="C50" s="323"/>
+      <c r="D50" s="323"/>
+      <c r="E50" s="323"/>
+      <c r="F50" s="323"/>
+      <c r="G50" s="323"/>
+      <c r="H50" s="323"/>
+      <c r="I50" s="323"/>
+      <c r="J50" s="323"/>
+      <c r="K50" s="323"/>
+      <c r="L50" s="323"/>
+      <c r="M50" s="323"/>
       <c r="N50" s="103"/>
       <c r="P50" s="72" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q50" s="119" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="R50" s="102"/>
       <c r="T50" s="119" t="s">
         <v>60</v>
       </c>
       <c r="U50" s="119" t="s">
+        <v>152</v>
+      </c>
+      <c r="V50" s="119" t="s">
         <v>154</v>
-      </c>
-      <c r="V50" s="119" t="s">
-        <v>156</v>
       </c>
       <c r="W50" s="118"/>
       <c r="X50" s="64"/>
       <c r="Y50" s="116" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Z50" s="64"/>
       <c r="AA50" s="64"/>
@@ -23056,20 +23124,20 @@
     </row>
     <row r="51" spans="1:102" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="104"/>
-      <c r="B51" s="335" t="str">
+      <c r="B51" s="318" t="str">
         <f>IFERROR(VLOOKUP(1,$S$51:$Y$67,7,FALSE),"")</f>
         <v>Standard: Reference Length Bar, Serial No.: IRLS1 Certified: 06/01/2023 Due:06/01/2024 Traceability: 56561-045702</v>
       </c>
-      <c r="C51" s="335"/>
-      <c r="D51" s="335"/>
-      <c r="E51" s="335"/>
-      <c r="F51" s="335"/>
-      <c r="G51" s="335"/>
-      <c r="H51" s="335"/>
-      <c r="I51" s="335"/>
-      <c r="J51" s="335"/>
-      <c r="K51" s="335"/>
-      <c r="L51" s="335"/>
+      <c r="C51" s="318"/>
+      <c r="D51" s="318"/>
+      <c r="E51" s="318"/>
+      <c r="F51" s="318"/>
+      <c r="G51" s="318"/>
+      <c r="H51" s="318"/>
+      <c r="I51" s="318"/>
+      <c r="J51" s="318"/>
+      <c r="K51" s="318"/>
+      <c r="L51" s="318"/>
       <c r="M51" s="104"/>
       <c r="N51" s="121"/>
       <c r="O51" s="122" t="str">
@@ -23089,10 +23157,10 @@
         <v>1</v>
       </c>
       <c r="T51" s="119" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="U51" s="119" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="V51" s="119" t="str">
         <f>'The details'!D27</f>
@@ -23134,20 +23202,20 @@
     </row>
     <row r="52" spans="1:102" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="104"/>
-      <c r="B52" s="335" t="str">
+      <c r="B52" s="318" t="str">
         <f>IFERROR(VLOOKUP(2,$S$51:$Y$67,7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="C52" s="335"/>
-      <c r="D52" s="335"/>
-      <c r="E52" s="335"/>
-      <c r="F52" s="335"/>
-      <c r="G52" s="335"/>
-      <c r="H52" s="335"/>
-      <c r="I52" s="335"/>
-      <c r="J52" s="335"/>
-      <c r="K52" s="335"/>
-      <c r="L52" s="335"/>
+      <c r="C52" s="318"/>
+      <c r="D52" s="318"/>
+      <c r="E52" s="318"/>
+      <c r="F52" s="318"/>
+      <c r="G52" s="318"/>
+      <c r="H52" s="318"/>
+      <c r="I52" s="318"/>
+      <c r="J52" s="318"/>
+      <c r="K52" s="318"/>
+      <c r="L52" s="318"/>
       <c r="M52" s="104"/>
       <c r="N52" s="121"/>
       <c r="O52" s="122" t="str">
@@ -23165,10 +23233,10 @@
         <v/>
       </c>
       <c r="T52" s="119" t="s">
+        <v>153</v>
+      </c>
+      <c r="U52" s="119" t="s">
         <v>155</v>
-      </c>
-      <c r="U52" s="119" t="s">
-        <v>157</v>
       </c>
       <c r="V52" s="119">
         <v>209919</v>
@@ -23209,20 +23277,20 @@
     </row>
     <row r="53" spans="1:102" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="104"/>
-      <c r="B53" s="335" t="str">
+      <c r="B53" s="318" t="str">
         <f>IFERROR(VLOOKUP(3,$S$51:$Y$67,7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="C53" s="335"/>
-      <c r="D53" s="335"/>
-      <c r="E53" s="335"/>
-      <c r="F53" s="335"/>
-      <c r="G53" s="335"/>
-      <c r="H53" s="335"/>
-      <c r="I53" s="335"/>
-      <c r="J53" s="335"/>
-      <c r="K53" s="335"/>
-      <c r="L53" s="335"/>
+      <c r="C53" s="318"/>
+      <c r="D53" s="318"/>
+      <c r="E53" s="318"/>
+      <c r="F53" s="318"/>
+      <c r="G53" s="318"/>
+      <c r="H53" s="318"/>
+      <c r="I53" s="318"/>
+      <c r="J53" s="318"/>
+      <c r="K53" s="318"/>
+      <c r="L53" s="318"/>
       <c r="M53" s="104"/>
       <c r="N53" s="121"/>
       <c r="O53" s="122" t="str">
@@ -23274,20 +23342,20 @@
     </row>
     <row r="54" spans="1:102" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="104"/>
-      <c r="B54" s="335" t="str">
+      <c r="B54" s="318" t="str">
         <f>IFERROR(VLOOKUP(4,$S$51:$Y$67,7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="C54" s="335"/>
-      <c r="D54" s="335"/>
-      <c r="E54" s="335"/>
-      <c r="F54" s="335"/>
-      <c r="G54" s="335"/>
-      <c r="H54" s="335"/>
-      <c r="I54" s="335"/>
-      <c r="J54" s="335"/>
-      <c r="K54" s="335"/>
-      <c r="L54" s="335"/>
+      <c r="C54" s="318"/>
+      <c r="D54" s="318"/>
+      <c r="E54" s="318"/>
+      <c r="F54" s="318"/>
+      <c r="G54" s="318"/>
+      <c r="H54" s="318"/>
+      <c r="I54" s="318"/>
+      <c r="J54" s="318"/>
+      <c r="K54" s="318"/>
+      <c r="L54" s="318"/>
       <c r="M54" s="104"/>
       <c r="N54" s="121"/>
       <c r="O54" s="122" t="str">
@@ -23339,20 +23407,20 @@
     </row>
     <row r="55" spans="1:102" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="104"/>
-      <c r="B55" s="335" t="str">
+      <c r="B55" s="318" t="str">
         <f>IFERROR(VLOOKUP(5,$S$51:$Y$67,7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="C55" s="335"/>
-      <c r="D55" s="335"/>
-      <c r="E55" s="335"/>
-      <c r="F55" s="335"/>
-      <c r="G55" s="335"/>
-      <c r="H55" s="335"/>
-      <c r="I55" s="335"/>
-      <c r="J55" s="335"/>
-      <c r="K55" s="335"/>
-      <c r="L55" s="335"/>
+      <c r="C55" s="318"/>
+      <c r="D55" s="318"/>
+      <c r="E55" s="318"/>
+      <c r="F55" s="318"/>
+      <c r="G55" s="318"/>
+      <c r="H55" s="318"/>
+      <c r="I55" s="318"/>
+      <c r="J55" s="318"/>
+      <c r="K55" s="318"/>
+      <c r="L55" s="318"/>
       <c r="M55" s="104"/>
       <c r="N55" s="121"/>
       <c r="O55" s="122" t="str">
@@ -23403,20 +23471,20 @@
       <c r="AR55" s="64"/>
     </row>
     <row r="56" spans="1:102" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="335" t="str">
+      <c r="B56" s="318" t="str">
         <f>IFERROR(VLOOKUP(6,$S$51:$Y$67,7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="C56" s="335"/>
-      <c r="D56" s="335"/>
-      <c r="E56" s="335"/>
-      <c r="F56" s="335"/>
-      <c r="G56" s="335"/>
-      <c r="H56" s="335"/>
-      <c r="I56" s="335"/>
-      <c r="J56" s="335"/>
-      <c r="K56" s="335"/>
-      <c r="L56" s="335"/>
+      <c r="C56" s="318"/>
+      <c r="D56" s="318"/>
+      <c r="E56" s="318"/>
+      <c r="F56" s="318"/>
+      <c r="G56" s="318"/>
+      <c r="H56" s="318"/>
+      <c r="I56" s="318"/>
+      <c r="J56" s="318"/>
+      <c r="K56" s="318"/>
+      <c r="L56" s="318"/>
       <c r="N56" s="121"/>
       <c r="O56" s="122" t="str">
         <f t="shared" si="0"/>
@@ -23466,20 +23534,20 @@
       <c r="AR56" s="64"/>
     </row>
     <row r="57" spans="1:102" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="335" t="str">
+      <c r="B57" s="318" t="str">
         <f>IFERROR(VLOOKUP(7,$S$51:$Y$67,7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="C57" s="335"/>
-      <c r="D57" s="335"/>
-      <c r="E57" s="335"/>
-      <c r="F57" s="335"/>
-      <c r="G57" s="335"/>
-      <c r="H57" s="335"/>
-      <c r="I57" s="335"/>
-      <c r="J57" s="335"/>
-      <c r="K57" s="335"/>
-      <c r="L57" s="335"/>
+      <c r="C57" s="318"/>
+      <c r="D57" s="318"/>
+      <c r="E57" s="318"/>
+      <c r="F57" s="318"/>
+      <c r="G57" s="318"/>
+      <c r="H57" s="318"/>
+      <c r="I57" s="318"/>
+      <c r="J57" s="318"/>
+      <c r="K57" s="318"/>
+      <c r="L57" s="318"/>
       <c r="N57" s="121"/>
       <c r="O57" s="122" t="str">
         <f t="shared" si="0"/>
@@ -23529,20 +23597,20 @@
       <c r="AR57" s="64"/>
     </row>
     <row r="58" spans="1:102" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="335" t="str">
+      <c r="B58" s="318" t="str">
         <f>IFERROR(VLOOKUP(8,$S$51:$Y$67,7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="C58" s="335"/>
-      <c r="D58" s="335"/>
-      <c r="E58" s="335"/>
-      <c r="F58" s="335"/>
-      <c r="G58" s="335"/>
-      <c r="H58" s="335"/>
-      <c r="I58" s="335"/>
-      <c r="J58" s="335"/>
-      <c r="K58" s="335"/>
-      <c r="L58" s="335"/>
+      <c r="C58" s="318"/>
+      <c r="D58" s="318"/>
+      <c r="E58" s="318"/>
+      <c r="F58" s="318"/>
+      <c r="G58" s="318"/>
+      <c r="H58" s="318"/>
+      <c r="I58" s="318"/>
+      <c r="J58" s="318"/>
+      <c r="K58" s="318"/>
+      <c r="L58" s="318"/>
       <c r="N58" s="121"/>
       <c r="O58" s="122" t="str">
         <f t="shared" si="0"/>
@@ -23592,20 +23660,20 @@
       <c r="AR58" s="64"/>
     </row>
     <row r="59" spans="1:102" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="335" t="str">
+      <c r="B59" s="318" t="str">
         <f>IFERROR(VLOOKUP(9,$S$51:$Y$67,7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="C59" s="335"/>
-      <c r="D59" s="335"/>
-      <c r="E59" s="335"/>
-      <c r="F59" s="335"/>
-      <c r="G59" s="335"/>
-      <c r="H59" s="335"/>
-      <c r="I59" s="335"/>
-      <c r="J59" s="335"/>
-      <c r="K59" s="335"/>
-      <c r="L59" s="335"/>
+      <c r="C59" s="318"/>
+      <c r="D59" s="318"/>
+      <c r="E59" s="318"/>
+      <c r="F59" s="318"/>
+      <c r="G59" s="318"/>
+      <c r="H59" s="318"/>
+      <c r="I59" s="318"/>
+      <c r="J59" s="318"/>
+      <c r="K59" s="318"/>
+      <c r="L59" s="318"/>
       <c r="N59" s="121"/>
       <c r="O59" s="122" t="str">
         <f t="shared" si="0"/>
@@ -23655,20 +23723,20 @@
       <c r="AR59" s="64"/>
     </row>
     <row r="60" spans="1:102" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="335" t="str">
+      <c r="B60" s="318" t="str">
         <f>IFERROR(VLOOKUP(10,$S$51:$Y$67,7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="C60" s="335"/>
-      <c r="D60" s="335"/>
-      <c r="E60" s="335"/>
-      <c r="F60" s="335"/>
-      <c r="G60" s="335"/>
-      <c r="H60" s="335"/>
-      <c r="I60" s="335"/>
-      <c r="J60" s="335"/>
-      <c r="K60" s="335"/>
-      <c r="L60" s="335"/>
+      <c r="C60" s="318"/>
+      <c r="D60" s="318"/>
+      <c r="E60" s="318"/>
+      <c r="F60" s="318"/>
+      <c r="G60" s="318"/>
+      <c r="H60" s="318"/>
+      <c r="I60" s="318"/>
+      <c r="J60" s="318"/>
+      <c r="K60" s="318"/>
+      <c r="L60" s="318"/>
       <c r="N60" s="121"/>
       <c r="O60" s="122" t="str">
         <f t="shared" si="0"/>
@@ -23718,21 +23786,21 @@
       <c r="AR60" s="64"/>
     </row>
     <row r="61" spans="1:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="334" t="s">
-        <v>139</v>
-      </c>
-      <c r="B61" s="334"/>
-      <c r="C61" s="334"/>
-      <c r="D61" s="334"/>
-      <c r="E61" s="334"/>
-      <c r="F61" s="334"/>
-      <c r="G61" s="334"/>
-      <c r="H61" s="334"/>
-      <c r="I61" s="334"/>
-      <c r="J61" s="334"/>
-      <c r="K61" s="334"/>
-      <c r="L61" s="334"/>
-      <c r="M61" s="334"/>
+      <c r="A61" s="321" t="s">
+        <v>137</v>
+      </c>
+      <c r="B61" s="321"/>
+      <c r="C61" s="321"/>
+      <c r="D61" s="321"/>
+      <c r="E61" s="321"/>
+      <c r="F61" s="321"/>
+      <c r="G61" s="321"/>
+      <c r="H61" s="321"/>
+      <c r="I61" s="321"/>
+      <c r="J61" s="321"/>
+      <c r="K61" s="321"/>
+      <c r="L61" s="321"/>
+      <c r="M61" s="321"/>
       <c r="N61" s="121"/>
       <c r="O61" s="122" t="str">
         <f t="shared" si="0"/>
@@ -23790,7 +23858,7 @@
       <c r="F62" s="105"/>
       <c r="G62" s="105"/>
       <c r="H62" s="105" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J62" s="105"/>
       <c r="K62" s="105"/>
@@ -24161,6 +24229,52 @@
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="A7:M7"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="B23:K26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="O39:R39"/>
+    <mergeCell ref="A40:M43"/>
+    <mergeCell ref="B45:M47"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="L35:M35"/>
     <mergeCell ref="B60:L60"/>
     <mergeCell ref="B37:K37"/>
     <mergeCell ref="O37:R37"/>
@@ -24177,52 +24291,6 @@
     <mergeCell ref="B51:L51"/>
     <mergeCell ref="B52:L52"/>
     <mergeCell ref="B53:L53"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="O39:R39"/>
-    <mergeCell ref="A40:M43"/>
-    <mergeCell ref="B45:M47"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="D20:L20"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="B23:K26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="D19:L19"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A3:M3"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="A7:M7"/>
-    <mergeCell ref="C10:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="69" orientation="portrait" r:id="rId1"/>
@@ -24514,7 +24582,7 @@
   </sheetPr>
   <dimension ref="A1:AD181"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
@@ -24539,11 +24607,11 @@
   <sheetData>
     <row r="1" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="32" t="s">
-        <v>253</v>
-      </c>
-      <c r="C1" s="54" t="str">
+        <v>251</v>
+      </c>
+      <c r="C1" s="54">
         <f>'The details'!D2</f>
-        <v>56561-039285</v>
+        <v>0</v>
       </c>
       <c r="K1" s="32" t="str">
         <f>CONCATENATE("Page 2 of ",'The details'!G16)</f>
@@ -24568,7 +24636,7 @@
       </c>
       <c r="H3" s="54">
         <f>'The details'!D8</f>
-        <v>752474</v>
+        <v>0</v>
       </c>
       <c r="I3" s="27"/>
       <c r="N3" s="295" t="e">
@@ -25427,7 +25495,7 @@
       </c>
       <c r="F26" s="46"/>
       <c r="G26" s="274" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H26" s="274"/>
       <c r="I26" s="182"/>
@@ -25462,7 +25530,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D28" s="30" t="str">
         <f>'JGI Method Testing'!D25</f>
@@ -25493,7 +25561,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D29" s="30" t="str">
         <f>'JGI Method Testing'!D26</f>
@@ -25538,7 +25606,7 @@
         <v>3</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D30" s="30" t="str">
         <f>'JGI Method Testing'!D27</f>
@@ -25565,7 +25633,7 @@
         <v>4</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D31" s="30" t="str">
         <f>'JGI Method Testing'!D28</f>
@@ -25592,7 +25660,7 @@
         <v>5</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D32" s="30" t="str">
         <f>'JGI Method Testing'!D29</f>
@@ -25619,7 +25687,7 @@
         <v>6</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D33" s="30" t="str">
         <f>'JGI Method Testing'!D30</f>
@@ -25645,7 +25713,7 @@
         <v>7</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D34" s="30" t="str">
         <f>'JGI Method Testing'!D31</f>
@@ -25671,7 +25739,7 @@
         <v>8</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D35" s="30" t="str">
         <f>'JGI Method Testing'!D32</f>
@@ -25985,43 +26053,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="124" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="124" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" s="124" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="124" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F4" t="s">
+        <v>321</v>
+      </c>
+      <c r="G4" t="s">
+        <v>322</v>
+      </c>
+      <c r="H4" t="s">
         <v>323</v>
-      </c>
-      <c r="G4" t="s">
-        <v>324</v>
-      </c>
-      <c r="H4" t="s">
-        <v>325</v>
       </c>
       <c r="L4" s="270"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="124" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F5">
         <f>LARGE(A:A,1)</f>
@@ -26038,7 +26106,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G6" s="270">
         <f>G5/F5</f>
@@ -26052,34 +26120,34 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>317</v>
+      </c>
+      <c r="B8" s="124" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F8" t="s">
+        <v>287</v>
+      </c>
+      <c r="G8" t="s">
+        <v>288</v>
+      </c>
+      <c r="H8" t="s">
+        <v>318</v>
+      </c>
+      <c r="I8" t="s">
+        <v>179</v>
+      </c>
+      <c r="M8" s="267" t="s">
         <v>319</v>
-      </c>
-      <c r="B8" s="124" t="s">
-        <v>159</v>
-      </c>
-      <c r="C8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="F8" t="s">
-        <v>289</v>
-      </c>
-      <c r="G8" t="s">
-        <v>290</v>
-      </c>
-      <c r="H8" t="s">
-        <v>320</v>
-      </c>
-      <c r="I8" t="s">
-        <v>181</v>
-      </c>
-      <c r="M8" s="267" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -26090,25 +26158,25 @@
         <v>42796</v>
       </c>
       <c r="C9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E9" s="1">
         <v>3654</v>
       </c>
       <c r="F9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H9">
         <v>70.599999999999994</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -26119,19 +26187,19 @@
         <v>42829</v>
       </c>
       <c r="C10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E10" s="1">
         <v>4403</v>
       </c>
       <c r="F10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H10">
         <v>71.3</v>
@@ -26148,25 +26216,25 @@
         <v>42849</v>
       </c>
       <c r="C11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H11">
         <v>76.3</v>
       </c>
       <c r="M11" s="269" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -26177,19 +26245,19 @@
         <v>42857</v>
       </c>
       <c r="C12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H12">
         <v>76.3</v>
@@ -26206,25 +26274,25 @@
         <v>42905</v>
       </c>
       <c r="C13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E13" s="1">
         <v>750064</v>
       </c>
       <c r="F13" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H13">
         <v>71</v>
       </c>
       <c r="M13" s="269" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -26235,25 +26303,25 @@
         <v>42948</v>
       </c>
       <c r="C14" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E14" s="1">
         <v>60066</v>
       </c>
       <c r="F14" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H14">
         <v>71.599999999999994</v>
       </c>
       <c r="I14" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="M14" s="268">
         <v>750419</v>
@@ -26267,25 +26335,25 @@
         <v>42955</v>
       </c>
       <c r="C15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H15">
         <v>68.400000000000006</v>
       </c>
       <c r="M15" s="269" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -26296,25 +26364,25 @@
         <v>43020</v>
       </c>
       <c r="C16" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E16" s="1">
         <v>750787</v>
       </c>
       <c r="F16" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H16">
         <v>68</v>
       </c>
       <c r="M16" s="268" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -26325,25 +26393,25 @@
         <v>43032</v>
       </c>
       <c r="C17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F17" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H17">
         <v>68</v>
       </c>
       <c r="M17" s="269" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -26354,25 +26422,25 @@
         <v>43038</v>
       </c>
       <c r="C18" s="277" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D18" s="189" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E18" s="189">
         <v>70215</v>
       </c>
       <c r="F18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G18" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H18">
         <v>77</v>
       </c>
       <c r="M18" s="268" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -26383,28 +26451,28 @@
         <v>43040</v>
       </c>
       <c r="C19" s="277" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D19" s="189" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E19" s="189" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F19" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H19">
         <v>65</v>
       </c>
       <c r="I19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="M19" s="269" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -26415,25 +26483,25 @@
         <v>43047</v>
       </c>
       <c r="C20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E20" s="1">
         <v>4176</v>
       </c>
       <c r="F20" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H20">
         <v>70</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -26444,19 +26512,19 @@
         <v>43064</v>
       </c>
       <c r="C21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F21" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G21" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H21">
         <v>68.5</v>
@@ -26473,28 +26541,28 @@
         <v>43076</v>
       </c>
       <c r="C22" s="277" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D22" s="189" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E22" s="189">
         <v>750419</v>
       </c>
       <c r="F22" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G22" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H22">
         <v>69</v>
       </c>
       <c r="I22" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="M22" s="269" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -26505,19 +26573,19 @@
         <v>43164</v>
       </c>
       <c r="C23" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E23" s="1">
         <v>3654</v>
       </c>
       <c r="F23" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G23" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H23">
         <v>66</v>
@@ -26534,25 +26602,25 @@
         <v>43193</v>
       </c>
       <c r="C24" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E24" s="1">
         <v>4403</v>
       </c>
       <c r="F24" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H24">
         <v>66.7</v>
       </c>
       <c r="M24" s="269" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -26563,19 +26631,19 @@
         <v>43223</v>
       </c>
       <c r="C25" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E25" s="1">
         <v>751074</v>
       </c>
       <c r="F25" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H25">
         <v>72.5</v>
@@ -26592,25 +26660,25 @@
         <v>43223</v>
       </c>
       <c r="C26" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E26" s="1">
         <v>751078</v>
       </c>
       <c r="F26" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G26" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H26">
         <v>68.7</v>
       </c>
       <c r="M26" s="269" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -26621,19 +26689,19 @@
         <v>43237</v>
       </c>
       <c r="C27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F27" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G27" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H27">
         <v>69.8</v>
@@ -26650,28 +26718,28 @@
         <v>43322</v>
       </c>
       <c r="C28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F28" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G28" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H28">
         <v>70.400000000000006</v>
       </c>
       <c r="I28" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="M28" s="269" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -26682,19 +26750,19 @@
         <v>43333</v>
       </c>
       <c r="C29" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E29" s="1">
         <v>750245</v>
       </c>
       <c r="F29" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G29" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H29">
         <v>70.3</v>
@@ -26711,25 +26779,25 @@
         <v>43348</v>
       </c>
       <c r="C30" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E30" s="1">
         <v>751189</v>
       </c>
       <c r="F30" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H30">
         <v>74.8</v>
       </c>
       <c r="M30" s="269" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -26740,19 +26808,19 @@
         <v>43384</v>
       </c>
       <c r="C31" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E31" s="1">
         <v>750787</v>
       </c>
       <c r="F31" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G31" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H31">
         <v>69</v>
@@ -26769,25 +26837,25 @@
         <v>43396</v>
       </c>
       <c r="C32" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E32" s="1">
         <v>4176</v>
       </c>
       <c r="F32" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G32" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H32">
         <v>68.900000000000006</v>
       </c>
       <c r="M32" s="269" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -26798,19 +26866,19 @@
         <v>43396</v>
       </c>
       <c r="C33" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F33" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G33" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H33">
         <v>71.2</v>
@@ -26827,25 +26895,25 @@
         <v>43412</v>
       </c>
       <c r="C34" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F34" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G34" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H34">
         <v>66.2</v>
       </c>
       <c r="M34" s="269" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -26856,10 +26924,10 @@
         <v>43419</v>
       </c>
       <c r="C35" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E35" s="1">
         <v>60066</v>
@@ -26876,25 +26944,25 @@
         <v>43483</v>
       </c>
       <c r="C36" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E36" s="1">
         <v>3268</v>
       </c>
       <c r="F36" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G36" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H36">
         <v>60.2</v>
       </c>
       <c r="M36" s="269" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -26905,19 +26973,19 @@
         <v>43535</v>
       </c>
       <c r="C37" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E37" s="1">
         <v>2077</v>
       </c>
       <c r="F37" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G37" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H37">
         <v>68.5</v>
@@ -26934,25 +27002,25 @@
         <v>43556</v>
       </c>
       <c r="C38" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E38" s="1">
         <v>4403</v>
       </c>
       <c r="F38" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G38" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I38" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="M38" s="269" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -26963,25 +27031,25 @@
         <v>43556</v>
       </c>
       <c r="C39" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E39" s="1">
         <v>751074</v>
       </c>
       <c r="F39" t="s">
+        <v>305</v>
+      </c>
+      <c r="G39" t="s">
+        <v>164</v>
+      </c>
+      <c r="I39" t="s">
+        <v>362</v>
+      </c>
+      <c r="M39" s="268" t="s">
         <v>307</v>
-      </c>
-      <c r="G39" t="s">
-        <v>166</v>
-      </c>
-      <c r="I39" t="s">
-        <v>364</v>
-      </c>
-      <c r="M39" s="268" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -26992,22 +27060,22 @@
         <v>43571</v>
       </c>
       <c r="C40" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E40" s="1">
         <v>750937</v>
       </c>
       <c r="F40" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G40" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M40" s="269" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -27018,22 +27086,22 @@
         <v>43587</v>
       </c>
       <c r="C41" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E41" s="1">
         <v>3212</v>
       </c>
       <c r="F41" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G41" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M41" s="268" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -27044,22 +27112,22 @@
         <v>43595</v>
       </c>
       <c r="C42" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E42" s="1">
         <v>3900</v>
       </c>
       <c r="F42" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G42" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M42" s="269" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -27070,22 +27138,22 @@
         <v>43641</v>
       </c>
       <c r="C43" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E43" s="1">
         <v>70457</v>
       </c>
       <c r="F43" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G43" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M43" s="268" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -27096,22 +27164,22 @@
         <v>43641</v>
       </c>
       <c r="C44" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E44" s="1">
         <v>70459</v>
       </c>
       <c r="F44" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G44" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M44" s="269" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -27122,22 +27190,22 @@
         <v>43641</v>
       </c>
       <c r="C45" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E45" s="1">
         <v>3676</v>
       </c>
       <c r="F45" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M45" s="268" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -27148,22 +27216,22 @@
         <v>43644</v>
       </c>
       <c r="C46" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F46" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G46" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M46" s="269" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -27174,22 +27242,22 @@
         <v>43670</v>
       </c>
       <c r="C47" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F47" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G47" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M47" s="268" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -27200,22 +27268,22 @@
         <v>43697</v>
       </c>
       <c r="C48" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E48" s="1">
         <v>750245</v>
       </c>
       <c r="F48" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G48" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M48" s="269" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -27226,22 +27294,22 @@
         <v>43699</v>
       </c>
       <c r="C49" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F49" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G49" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -27252,19 +27320,19 @@
         <v>43711</v>
       </c>
       <c r="C50" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E50" s="1">
         <v>751189</v>
       </c>
       <c r="F50" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G50" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -27275,19 +27343,19 @@
         <v>43740</v>
       </c>
       <c r="C51" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E51" s="1">
         <v>2028</v>
       </c>
       <c r="F51" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G51" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -27298,19 +27366,19 @@
         <v>43748</v>
       </c>
       <c r="C52" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E52" s="1">
         <v>750787</v>
       </c>
       <c r="F52" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G52" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -27321,22 +27389,22 @@
         <v>43763</v>
       </c>
       <c r="C53" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E53" s="1">
         <v>4176</v>
       </c>
       <c r="F53" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G53" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I53" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -27347,22 +27415,22 @@
         <v>43763</v>
       </c>
       <c r="C54" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F54" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G54" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I54" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -27373,19 +27441,19 @@
         <v>43775</v>
       </c>
       <c r="C55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F55" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G55" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -27396,19 +27464,19 @@
         <v>43804</v>
       </c>
       <c r="C56" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E56" s="1">
         <v>750419</v>
       </c>
       <c r="F56" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G56" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -27419,19 +27487,19 @@
         <v>43836</v>
       </c>
       <c r="C57" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E57" s="1">
         <v>3268</v>
       </c>
       <c r="F57" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G57" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -27442,19 +27510,19 @@
         <v>43900</v>
       </c>
       <c r="C58" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E58" s="1">
         <v>2077</v>
       </c>
       <c r="F58" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G58" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -27567,50 +27635,50 @@
   <sheetData>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B13" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -27644,7 +27712,7 @@
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="142"/>
       <c r="C2" s="143" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D2" s="143"/>
       <c r="E2" s="143"/>
@@ -27658,11 +27726,11 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E3" s="129" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H3" s="130"/>
       <c r="I3" s="126" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J3" s="127"/>
       <c r="K3" s="127"/>
@@ -27679,10 +27747,10 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E5" s="136">
         <f>(I5*12)/39.3703</f>
@@ -27718,7 +27786,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E6" s="134"/>
       <c r="F6" s="1"/>
@@ -27735,10 +27803,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E7" s="134">
         <v>4.3999999999999997E-2</v>
@@ -27779,10 +27847,10 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E8" s="134">
         <v>3.2000000000000001E-2</v>
@@ -27822,10 +27890,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E9" s="134">
         <v>4.3999999999999997E-2</v>
@@ -27866,10 +27934,10 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E10" s="134">
         <v>2.8000000000000001E-2</v>
@@ -27910,10 +27978,10 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E11" s="134">
         <v>3.5000000000000003E-2</v>
@@ -27954,13 +28022,13 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E12" s="137">
         <f>((0.000005*2.3)+(0.0000035*E5)+0.000015+(0.00001*E5))*1000</f>
@@ -28005,10 +28073,10 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E13" s="134">
         <v>3.5999999999999997E-2</v>
@@ -28049,10 +28117,10 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E14" s="134">
         <v>0.06</v>
@@ -28094,13 +28162,13 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D15" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E15" s="134">
         <v>0.06</v>
@@ -28142,10 +28210,10 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C16" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E16" s="134">
         <f>E13</f>
@@ -28186,10 +28254,10 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C17" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E17" s="129">
         <v>4.5999999999999999E-2</v>
@@ -28379,10 +28447,10 @@
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E25" s="140"/>
       <c r="F25" s="8"/>
@@ -28411,27 +28479,27 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -33839,18 +33907,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MediaLengthInSeconds xmlns="a7c4c7f9-987c-475d-a26a-521e5d0f4dc5" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a7c4c7f9-987c-475d-a26a-521e5d0f4dc5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="1ed8a9e0-df63-4c43-b0d4-c670c11769ef" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D7106659C9D26643AA540CBD094E0397" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5018c6155e8e4379c85041cfa1560781">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a7c4c7f9-987c-475d-a26a-521e5d0f4dc5" xmlns:ns3="1ed8a9e0-df63-4c43-b0d4-c670c11769ef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e78bda9f13f2b71844c90a831e5f907d" ns2:_="" ns3:_="">
     <xsd:import namespace="a7c4c7f9-987c-475d-a26a-521e5d0f4dc5"/>
@@ -34079,6 +34135,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MediaLengthInSeconds xmlns="a7c4c7f9-987c-475d-a26a-521e5d0f4dc5" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a7c4c7f9-987c-475d-a26a-521e5d0f4dc5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="1ed8a9e0-df63-4c43-b0d4-c670c11769ef" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -34089,6 +34157,25 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FA62D1D-557A-46D3-ABE2-D60486862A9A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a7c4c7f9-987c-475d-a26a-521e5d0f4dc5"/>
+    <ds:schemaRef ds:uri="1ed8a9e0-df63-4c43-b0d4-c670c11769ef"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B058CC22-A791-4160-9C2A-F01FD789E611}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -34107,25 +34194,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{560C1487-0A5A-40F8-A284-99DC8D4B666E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a7c4c7f9-987c-475d-a26a-521e5d0f4dc5"/>
-    <ds:schemaRef ds:uri="1ed8a9e0-df63-4c43-b0d4-c670c11769ef"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97ACAA01-E60F-4C30-B544-74C78C6E783A}">
   <ds:schemaRefs>

--- a/Laser Tracker Worksheet.xlsx
+++ b/Laser Tracker Worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jgiquality.sharepoint.com/sites/JGI/Shared Documents/Kelly Kabler's OneDrive/Shared with Everyone/Dimensional Lab South/Peyton/Tools/Laser Trackers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="171" documentId="8_{6143330B-F9B8-48A7-BF28-B4BDDF4E9502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DDA2986-53EA-48F1-9ACA-5DBD72F0F178}"/>
+  <xr:revisionPtr revIDLastSave="126" documentId="8_{6143330B-F9B8-48A7-BF28-B4BDDF4E9502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B78B74B1-DF3F-4653-8C72-EBE938A9B0B7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="807" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="807" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="The details" sheetId="14" r:id="rId1"/>
@@ -37,7 +37,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId13"/>
+    <pivotCache cacheId="7" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="411">
   <si>
     <t>Test Position</t>
   </si>
@@ -1289,63 +1289,6 @@
   </si>
   <si>
     <t xml:space="preserve"> SMR's were tested using Laser Tracker S/N: ##### and JGI's Micrometers. </t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>P4</t>
-  </si>
-  <si>
-    <t>P6</t>
-  </si>
-  <si>
-    <t>P7</t>
-  </si>
-  <si>
-    <t>P8</t>
-  </si>
-  <si>
-    <t>P9</t>
-  </si>
-  <si>
-    <t>P10</t>
-  </si>
-  <si>
-    <t>P11</t>
-  </si>
-  <si>
-    <t>P12</t>
-  </si>
-  <si>
-    <t>P13</t>
-  </si>
-  <si>
-    <t>P14</t>
-  </si>
-  <si>
-    <t>P15</t>
-  </si>
-  <si>
-    <t>P16</t>
-  </si>
-  <si>
-    <t>P17</t>
-  </si>
-  <si>
-    <t>P18</t>
-  </si>
-  <si>
-    <t>P5</t>
-  </si>
-  <si>
-    <t>P19</t>
   </si>
 </sst>
 </file>
@@ -3628,7 +3571,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Imagy" spid="_x0000_s6034"/>
+                  <a14:cameraTool cellRange="Imagy" spid="_x0000_s5978"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5273,7 +5216,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5B96806F-6E78-4F15-A9C6-6121FC4A380B}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5B96806F-6E78-4F15-A9C6-6121FC4A380B}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="M8:M49" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -5840,8 +5783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81DCD86A-31B9-4E78-A320-BC2D0F7A2926}">
   <dimension ref="A2:R32"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6656,13 +6599,13 @@
   </sheetPr>
   <dimension ref="A1:AG182"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="28" customWidth="1"/>
+    <col min="1" max="1" width="2.109375" style="28" customWidth="1"/>
     <col min="2" max="2" width="15.44140625" style="30" customWidth="1"/>
     <col min="3" max="3" width="25.5546875" style="30" customWidth="1"/>
     <col min="4" max="4" width="17.109375" style="30" customWidth="1"/>
@@ -6688,7 +6631,7 @@
     <col min="29" max="33" width="9.109375" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:28" x14ac:dyDescent="0.3">
       <c r="G1" s="243"/>
       <c r="H1" s="246"/>
       <c r="I1" s="243"/>
@@ -6719,7 +6662,7 @@
       <c r="Z1" s="249"/>
       <c r="AA1" s="243"/>
     </row>
-    <row r="2" spans="1:28" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:28" ht="18" x14ac:dyDescent="0.3">
       <c r="C2" s="34" t="s">
         <v>380</v>
       </c>
@@ -6759,7 +6702,7 @@
       <c r="Z2" s="249"/>
       <c r="AA2" s="243"/>
     </row>
-    <row r="3" spans="1:28" ht="18" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:28" ht="18" x14ac:dyDescent="0.3">
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
       <c r="F3" s="34"/>
@@ -6806,7 +6749,7 @@
       <c r="Z3" s="249"/>
       <c r="AA3" s="243"/>
     </row>
-    <row r="4" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="318" t="s">
         <v>68</v>
       </c>
@@ -6863,7 +6806,7 @@
       <c r="Z4" s="249"/>
       <c r="AA4" s="243"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:28" x14ac:dyDescent="0.3">
       <c r="C5" s="30" t="s">
         <v>12</v>
       </c>
@@ -6907,7 +6850,7 @@
       <c r="Z5" s="249"/>
       <c r="AA5" s="243"/>
     </row>
-    <row r="6" spans="1:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="250" t="s">
         <v>0</v>
       </c>
@@ -6967,10 +6910,7 @@
       </c>
       <c r="X6" s="30"/>
     </row>
-    <row r="7" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
-        <v>411</v>
-      </c>
+    <row r="7" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="288">
         <v>1</v>
       </c>
@@ -7042,10 +6982,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
-        <v>416</v>
-      </c>
+    <row r="8" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="287">
         <v>2</v>
       </c>
@@ -7118,10 +7055,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
-        <v>420</v>
-      </c>
+    <row r="9" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="304">
         <v>3</v>
       </c>
@@ -7194,10 +7128,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
-        <v>422</v>
-      </c>
+    <row r="10" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="306">
         <v>4</v>
       </c>
@@ -7274,10 +7205,7 @@
       <c r="AA10" s="243"/>
       <c r="AB10" s="243"/>
     </row>
-    <row r="11" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
-        <v>412</v>
-      </c>
+    <row r="11" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="288">
         <v>5</v>
       </c>
@@ -7354,10 +7282,7 @@
       <c r="AA11" s="243"/>
       <c r="AB11" s="243"/>
     </row>
-    <row r="12" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
-        <v>417</v>
-      </c>
+    <row r="12" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="287">
         <v>6</v>
       </c>
@@ -7434,10 +7359,7 @@
       <c r="AA12" s="243"/>
       <c r="AB12" s="243"/>
     </row>
-    <row r="13" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="28" t="s">
-        <v>421</v>
-      </c>
+    <row r="13" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="304">
         <v>7</v>
       </c>
@@ -7514,10 +7436,7 @@
       <c r="AA13" s="243"/>
       <c r="AB13" s="243"/>
     </row>
-    <row r="14" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="28" t="s">
-        <v>423</v>
-      </c>
+    <row r="14" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="306">
         <v>8</v>
       </c>
@@ -7594,10 +7513,7 @@
       <c r="AA14" s="243"/>
       <c r="AB14" s="243"/>
     </row>
-    <row r="15" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="28" t="s">
-        <v>413</v>
-      </c>
+    <row r="15" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="288">
         <v>9</v>
       </c>
@@ -7674,10 +7590,7 @@
       <c r="AA15" s="243"/>
       <c r="AB15" s="243"/>
     </row>
-    <row r="16" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
-        <v>414</v>
-      </c>
+    <row r="16" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="288">
         <v>10</v>
       </c>
@@ -7754,10 +7667,7 @@
       <c r="AA16" s="243"/>
       <c r="AB16" s="243"/>
     </row>
-    <row r="17" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
-        <v>418</v>
-      </c>
+    <row r="17" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="287">
         <v>11</v>
       </c>
@@ -7834,10 +7744,7 @@
       <c r="AA17" s="243"/>
       <c r="AB17" s="243"/>
     </row>
-    <row r="18" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
-        <v>419</v>
-      </c>
+    <row r="18" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="287">
         <v>12</v>
       </c>
@@ -7914,10 +7821,7 @@
       <c r="AA18" s="243"/>
       <c r="AB18" s="243"/>
     </row>
-    <row r="19" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="28" t="s">
-        <v>428</v>
-      </c>
+    <row r="19" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" s="303">
         <v>13</v>
       </c>
@@ -7994,10 +7898,7 @@
       <c r="AA19" s="243"/>
       <c r="AB19" s="243"/>
     </row>
-    <row r="20" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
-        <v>415</v>
-      </c>
+    <row r="20" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B20" s="303">
         <v>14</v>
       </c>
@@ -8074,10 +7975,7 @@
       <c r="AA20" s="243"/>
       <c r="AB20" s="243"/>
     </row>
-    <row r="21" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
-        <v>425</v>
-      </c>
+    <row r="21" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B21" s="289">
         <v>15</v>
       </c>
@@ -8154,10 +8052,7 @@
       <c r="AA21" s="243"/>
       <c r="AB21" s="243"/>
     </row>
-    <row r="22" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="28" t="s">
-        <v>426</v>
-      </c>
+    <row r="22" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B22" s="289">
         <v>16</v>
       </c>
@@ -8234,10 +8129,7 @@
       <c r="AA22" s="243"/>
       <c r="AB22" s="243"/>
     </row>
-    <row r="23" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="28" t="s">
-        <v>429</v>
-      </c>
+    <row r="23" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B23" s="305">
         <v>17</v>
       </c>
@@ -8314,10 +8206,7 @@
       <c r="AA23" s="243"/>
       <c r="AB23" s="243"/>
     </row>
-    <row r="24" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="28" t="s">
-        <v>427</v>
-      </c>
+    <row r="24" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B24" s="305">
         <v>18</v>
       </c>
@@ -8394,10 +8283,7 @@
       <c r="AA24" s="243"/>
       <c r="AB24" s="243"/>
     </row>
-    <row r="25" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="28" t="s">
-        <v>412</v>
-      </c>
+    <row r="25" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="288">
         <v>19</v>
       </c>
@@ -8467,10 +8353,7 @@
       <c r="AA25" s="243"/>
       <c r="AB25" s="243"/>
     </row>
-    <row r="26" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="28" t="s">
-        <v>412</v>
-      </c>
+    <row r="26" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B26" s="288">
         <v>20</v>
       </c>
@@ -8540,10 +8423,7 @@
       <c r="AA26" s="243"/>
       <c r="AB26" s="243"/>
     </row>
-    <row r="27" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="28" t="s">
-        <v>412</v>
-      </c>
+    <row r="27" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B27" s="288">
         <v>21</v>
       </c>
@@ -8613,10 +8493,7 @@
       <c r="AA27" s="243"/>
       <c r="AB27" s="243"/>
     </row>
-    <row r="28" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="28" t="s">
-        <v>424</v>
-      </c>
+    <row r="28" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B28" s="20">
         <v>22</v>
       </c>
@@ -8686,10 +8563,7 @@
       <c r="AA28" s="243"/>
       <c r="AB28" s="243"/>
     </row>
-    <row r="29" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="28" t="s">
-        <v>424</v>
-      </c>
+    <row r="29" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="20">
         <v>23</v>
       </c>
@@ -8759,10 +8633,7 @@
       <c r="AA29" s="243"/>
       <c r="AB29" s="243"/>
     </row>
-    <row r="30" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="28" t="s">
-        <v>424</v>
-      </c>
+    <row r="30" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B30" s="20">
         <v>24</v>
       </c>
@@ -8832,10 +8703,7 @@
       <c r="AA30" s="243"/>
       <c r="AB30" s="243"/>
     </row>
-    <row r="31" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="28" t="s">
-        <v>416</v>
-      </c>
+    <row r="31" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B31" s="287">
         <v>25</v>
       </c>
@@ -8905,10 +8773,7 @@
       <c r="AA31" s="243"/>
       <c r="AB31" s="243"/>
     </row>
-    <row r="32" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="28" t="s">
-        <v>425</v>
-      </c>
+    <row r="32" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B32" s="289">
         <v>26</v>
       </c>
@@ -12533,8 +12398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AD304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18977,8 +18842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:CX101"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="I4" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="Y53" sqref="Y53"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31:K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21318,7 +21183,7 @@
       </c>
       <c r="C31" s="331"/>
       <c r="D31" s="147"/>
-      <c r="E31" s="335">
+      <c r="E31" s="334">
         <f>'JGI Method Testing'!H20</f>
         <v>-90.540608646808508</v>
       </c>
@@ -26061,7 +25926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2A85BF-48F5-4BDB-BB46-3270257AB39B}">
   <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
@@ -28535,7 +28400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:AB248"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A139" sqref="A139"/>
     </sheetView>
   </sheetViews>
@@ -33931,6 +33796,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <MediaLengthInSeconds xmlns="a7c4c7f9-987c-475d-a26a-521e5d0f4dc5" xsi:nil="true"/>
@@ -33942,7 +33816,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D7106659C9D26643AA540CBD094E0397" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5018c6155e8e4379c85041cfa1560781">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a7c4c7f9-987c-475d-a26a-521e5d0f4dc5" xmlns:ns3="1ed8a9e0-df63-4c43-b0d4-c670c11769ef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e78bda9f13f2b71844c90a831e5f907d" ns2:_="" ns3:_="">
     <xsd:import namespace="a7c4c7f9-987c-475d-a26a-521e5d0f4dc5"/>
@@ -34171,16 +34045,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB22CDDA-23C2-498B-9BE1-786ED8B274B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B0AB2FE-88F0-4E92-98AD-62F2E6F190DE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -34191,7 +34064,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F7526FD-8353-4080-9F0C-B340E5385CE5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -34208,12 +34081,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB22CDDA-23C2-498B-9BE1-786ED8B274B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Laser Tracker Worksheet.xlsx
+++ b/Laser Tracker Worksheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jgiquality-my.sharepoint.com/personal/jhall_jgiquality_com/Documents/Desktop/LaserTrackerRepo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jgiquality.sharepoint.com/sites/JGI/Shared Documents/Kelly Kabler's OneDrive/Shared with Everyone/Dimensional Lab South/Peyton/Tools/Laser Trackers/tmp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{B0F0406E-82E1-4670-BFD2-397D9DEB22B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AE6F328-E547-4477-BDD0-EA726A72F390}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{95EB0BDC-1490-44E9-80D6-070D4BDB15F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1A773FC-96F8-4166-AFD9-42BE30A8ED5A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="807" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2415" yWindow="1980" windowWidth="21600" windowHeight="11295" tabRatio="807" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="The details" sheetId="14" r:id="rId1"/>
@@ -37,7 +37,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="54" r:id="rId13"/>
+    <pivotCache cacheId="52" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -2927,13 +2927,62 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2945,55 +2994,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3628,7 +3628,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Imagy" spid="_x0000_s24590"/>
+                  <a14:cameraTool cellRange="Imagy" spid="_x0000_s24602"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4776,7 +4776,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Imagy" spid="_x0000_s24591"/>
+                  <a14:cameraTool cellRange="Imagy" spid="_x0000_s24603"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5338,7 +5338,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5B96806F-6E78-4F15-A9C6-6121FC4A380B}" name="PivotTable1" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5B96806F-6E78-4F15-A9C6-6121FC4A380B}" name="PivotTable1" cacheId="52" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="M8:M49" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -5905,8 +5905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81DCD86A-31B9-4E78-A320-BC2D0F7A2926}">
   <dimension ref="A2:R32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6385,7 +6385,7 @@
         <v>258</v>
       </c>
       <c r="D29" s="227">
-        <v>90.541700000000006</v>
+        <v>90.540166999999997</v>
       </c>
       <c r="E29" s="228" t="s">
         <v>4</v>
@@ -6394,13 +6394,13 @@
         <v>90.54128</v>
       </c>
       <c r="H29" s="227">
-        <v>90.541700000000006</v>
+        <v>90.540166999999997</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D30" s="233">
         <f>D29*25.4</f>
-        <v>2299.75918</v>
+        <v>2299.7202417999997</v>
       </c>
       <c r="E30" s="228" t="s">
         <v>59</v>
@@ -6411,7 +6411,7 @@
       </c>
       <c r="H30" s="228">
         <f>H29*25.4</f>
-        <v>2299.75918</v>
+        <v>2299.7202417999997</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
@@ -6654,7 +6654,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6724,8 +6724,8 @@
   </sheetPr>
   <dimension ref="A1:AG182"/>
   <sheetViews>
-    <sheetView topLeftCell="C17" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="B3" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6835,7 +6835,7 @@
       <c r="H3" s="246"/>
       <c r="I3" s="243">
         <f>G7*25.4</f>
-        <v>2299.7623996628522</v>
+        <v>2299.7234614083382</v>
       </c>
       <c r="J3" s="292" t="s">
         <v>284</v>
@@ -6881,11 +6881,11 @@
       <c r="C4" s="318"/>
       <c r="G4" s="289">
         <f>AVERAGE(G7:G24)</f>
-        <v>90.541826758380012</v>
+        <v>90.54029375623378</v>
       </c>
       <c r="H4" s="289">
         <f>AVERAGE(H7:H24)</f>
-        <v>-90.541826758380012</v>
+        <v>-90.54029375623378</v>
       </c>
       <c r="I4" s="289">
         <f>H4+G4</f>
@@ -6913,19 +6913,19 @@
       <c r="T4" s="242"/>
       <c r="U4" s="244">
         <f>MAX(U9:U18)</f>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="V4" s="244">
         <f>MIN(V9:V18)</f>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="W4" s="244">
         <f>AVERAGE(W7:W24)</f>
-        <v>-90.541826758380012</v>
+        <v>-90.54029375623378</v>
       </c>
       <c r="X4" s="243">
         <f>HLOOKUP(1,U3:V4,2,FALSE)</f>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="Y4" s="248"/>
       <c r="Z4" s="248"/>
@@ -6963,11 +6963,11 @@
       <c r="T5" s="242"/>
       <c r="U5" s="243">
         <f>ABS(U4)</f>
-        <v>90.541826758380012</v>
+        <v>90.540293756233794</v>
       </c>
       <c r="V5" s="243">
         <f>ABS(V4)</f>
-        <v>90.541826758380012</v>
+        <v>90.540293756233794</v>
       </c>
       <c r="W5" s="243"/>
       <c r="X5" s="243"/>
@@ -7054,11 +7054,11 @@
       </c>
       <c r="G7" s="9">
         <f>R7+P7</f>
-        <v>90.541826758380012</v>
+        <v>90.540293756233794</v>
       </c>
       <c r="H7" s="55">
         <f>IF(MAX(ABS(U7))&gt;MAX(ABS(V7)),U7,V7)</f>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="I7" s="17">
         <f>VLOOKUP($H$2,'tracker specs'!$A$7:$L$25,10,FALSE)</f>
@@ -7079,7 +7079,7 @@
       </c>
       <c r="P7" s="27">
         <f>IF(O7&lt;&gt;"",Q7*R7*(0.000001*S7),0)</f>
-        <v>1.2675838000000001E-4</v>
+        <v>1.2675623379999998E-4</v>
       </c>
       <c r="Q7" s="28">
         <f>IF(O7&lt;&gt;"",O7-68,"")</f>
@@ -7087,7 +7087,7 @@
       </c>
       <c r="R7" s="219">
         <f>'The details'!D29</f>
-        <v>90.541700000000006</v>
+        <v>90.540166999999997</v>
       </c>
       <c r="S7" s="220">
         <f>'The details'!D28</f>
@@ -7095,15 +7095,15 @@
       </c>
       <c r="U7" s="29">
         <f>IF(N7="",L7-G7,MAX(N7-G7,M7-G7,L7-G7))</f>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="V7" s="29">
         <f>IF(N7="",L7-G7,MIN(N7-G7,M7-G7,L7-G7))</f>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="W7" s="29">
         <f>IF(MAX(ABS(U7))&gt;MAX(ABS(V7)),U7,V7)</f>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="X7" s="285">
         <f>ROUND(J7/3.281,1)</f>
@@ -7129,11 +7129,11 @@
       </c>
       <c r="G8" s="9">
         <f>R8+P8</f>
-        <v>90.541826758380012</v>
+        <v>90.540293756233794</v>
       </c>
       <c r="H8" s="55">
         <f>IF(MAX(ABS(U8))&gt;MAX(ABS(V8)),U8,V8)</f>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="I8" s="17">
         <f>VLOOKUP($H$2,'tracker specs'!$A$7:$L$25,10,FALSE)</f>
@@ -7155,7 +7155,7 @@
       </c>
       <c r="P8" s="27">
         <f>IF(O8&lt;&gt;"",Q8*R8*(0.000001*S8),0)</f>
-        <v>1.2675838000000001E-4</v>
+        <v>1.2675623379999998E-4</v>
       </c>
       <c r="Q8" s="28">
         <f>IF(O8&lt;&gt;"",O8-68,"")</f>
@@ -7163,7 +7163,7 @@
       </c>
       <c r="R8" s="219">
         <f t="shared" ref="R8:S11" si="1">R7</f>
-        <v>90.541700000000006</v>
+        <v>90.540166999999997</v>
       </c>
       <c r="S8" s="220">
         <f t="shared" si="1"/>
@@ -7171,15 +7171,15 @@
       </c>
       <c r="U8" s="29">
         <f>IF(N8="",L8-G8,MAX(N8-G8,M8-G8,L8-G8))</f>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="V8" s="29">
         <f>IF(N8="",L8-G8,MIN(N8-G8,M8-G8,L8-G8))</f>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="W8" s="29">
         <f>IF(MAX(ABS(U8))&gt;MAX(ABS(V8)),U8,V8)</f>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="X8" s="285">
         <f>ROUND(J8/3.281,1)</f>
@@ -7205,11 +7205,11 @@
       </c>
       <c r="G9" s="9">
         <f>R9+P9</f>
-        <v>90.541826758380012</v>
+        <v>90.540293756233794</v>
       </c>
       <c r="H9" s="55">
         <f>IF(MAX(ABS(U9))&gt;MAX(ABS(V9)),U9,V9)</f>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="I9" s="17">
         <f>VLOOKUP($H$2,'tracker specs'!$A$7:$L$25,10,FALSE)</f>
@@ -7231,7 +7231,7 @@
       </c>
       <c r="P9" s="27">
         <f>IF(O9&lt;&gt;"",Q9*R9*(0.000001*S9),0)</f>
-        <v>1.2675838000000001E-4</v>
+        <v>1.2675623379999998E-4</v>
       </c>
       <c r="Q9" s="28">
         <f>IF(O9&lt;&gt;"",O9-68,"")</f>
@@ -7239,7 +7239,7 @@
       </c>
       <c r="R9" s="219">
         <f t="shared" si="1"/>
-        <v>90.541700000000006</v>
+        <v>90.540166999999997</v>
       </c>
       <c r="S9" s="220">
         <f t="shared" si="1"/>
@@ -7247,15 +7247,15 @@
       </c>
       <c r="U9" s="29">
         <f>IF(N9="",L9-G9,MAX(N9-G9,M9-G9,L9-G9))</f>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="V9" s="29">
         <f>IF(N9="",L9-G9,MIN(N9-G9,M9-G9,L9-G9))</f>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="W9" s="29">
         <f>IF(MAX(ABS(U9))&gt;MAX(ABS(V9)),U9,V9)</f>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="X9" s="285">
         <f>ROUND(J9/3.281,1)</f>
@@ -7281,11 +7281,11 @@
       </c>
       <c r="G10" s="9">
         <f>R10+P10</f>
-        <v>90.541826758380012</v>
+        <v>90.540293756233794</v>
       </c>
       <c r="H10" s="55">
         <f>IF(MAX(ABS(U10))&gt;MAX(ABS(V10)),U10,V10)</f>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="I10" s="17">
         <f>VLOOKUP($H$2,'tracker specs'!$A$7:$L$25,10,FALSE)</f>
@@ -7307,7 +7307,7 @@
       </c>
       <c r="P10" s="27">
         <f>IF(O10&lt;&gt;"",Q10*R10*(0.000001*S10),0)</f>
-        <v>1.2675838000000001E-4</v>
+        <v>1.2675623379999998E-4</v>
       </c>
       <c r="Q10" s="28">
         <f>IF(O10&lt;&gt;"",O10-68,"")</f>
@@ -7315,7 +7315,7 @@
       </c>
       <c r="R10" s="219">
         <f t="shared" si="1"/>
-        <v>90.541700000000006</v>
+        <v>90.540166999999997</v>
       </c>
       <c r="S10" s="220">
         <f t="shared" si="1"/>
@@ -7323,15 +7323,15 @@
       </c>
       <c r="U10" s="29">
         <f>IF(N10="",L10-G10,MAX(N10-G10,M10-G10,L10-G10))</f>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="V10" s="29">
         <f>IF(N10="",L10-G10,MIN(N10-G10,M10-G10,L10-G10))</f>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="W10" s="29">
         <f>IF(MAX(ABS(U10))&gt;MAX(ABS(V10)),U10,V10)</f>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="X10" s="285">
         <f>ROUND(J10/3.281,1)</f>
@@ -7361,11 +7361,11 @@
       </c>
       <c r="G11" s="9">
         <f>R11+P11</f>
-        <v>90.541826758380012</v>
+        <v>90.540293756233794</v>
       </c>
       <c r="H11" s="55">
         <f>IF(MAX(ABS(U11))&gt;MAX(ABS(V11)),U11,V11)</f>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="I11" s="17">
         <f>VLOOKUP($H$2,'tracker specs'!$A$7:$L$25,10,FALSE)</f>
@@ -7387,7 +7387,7 @@
       </c>
       <c r="P11" s="27">
         <f>IF(O11&lt;&gt;"",Q11*R11*(0.000001*S11),0)</f>
-        <v>1.2675838000000001E-4</v>
+        <v>1.2675623379999998E-4</v>
       </c>
       <c r="Q11" s="28">
         <f>IF(O11&lt;&gt;"",O11-68,"")</f>
@@ -7395,7 +7395,7 @@
       </c>
       <c r="R11" s="219">
         <f t="shared" si="1"/>
-        <v>90.541700000000006</v>
+        <v>90.540166999999997</v>
       </c>
       <c r="S11" s="220">
         <f t="shared" si="1"/>
@@ -7403,15 +7403,15 @@
       </c>
       <c r="U11" s="29">
         <f>IF(N11="",L11-G11,MAX(N11-G11,M11-G11,L11-G11))</f>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="V11" s="29">
         <f>IF(N11="",L11-G11,MIN(N11-G11,M11-G11,L11-G11))</f>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="W11" s="29">
         <f>IF(MAX(ABS(U11))&gt;MAX(ABS(V11)),U11,V11)</f>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="X11" s="285">
         <f>ROUND(J11/3.281,1)</f>
@@ -7441,11 +7441,11 @@
       </c>
       <c r="G12" s="9">
         <f t="shared" ref="G12:G24" si="3">R12+P12</f>
-        <v>90.541826758380012</v>
+        <v>90.540293756233794</v>
       </c>
       <c r="H12" s="55">
         <f t="shared" ref="H12:H24" si="4">IF(MAX(ABS(U12))&gt;MAX(ABS(V12)),U12,V12)</f>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="I12" s="17">
         <f>VLOOKUP($H$2,'tracker specs'!$A$7:$L$25,10,FALSE)</f>
@@ -7467,7 +7467,7 @@
       </c>
       <c r="P12" s="27">
         <f t="shared" ref="P12:P37" si="6">IF(O12&lt;&gt;"",Q12*R12*(0.000001*S12),0)</f>
-        <v>1.2675838000000001E-4</v>
+        <v>1.2675623379999998E-4</v>
       </c>
       <c r="Q12" s="28">
         <f t="shared" ref="Q12:Q37" si="7">IF(O12&lt;&gt;"",O12-68,"")</f>
@@ -7475,7 +7475,7 @@
       </c>
       <c r="R12" s="219">
         <f t="shared" ref="R12:R32" si="8">R11</f>
-        <v>90.541700000000006</v>
+        <v>90.540166999999997</v>
       </c>
       <c r="S12" s="220">
         <f t="shared" ref="S12:S32" si="9">S11</f>
@@ -7483,15 +7483,15 @@
       </c>
       <c r="U12" s="29">
         <f t="shared" ref="U12:U37" si="10">IF(N12="",L12-G12,MAX(N12-G12,M12-G12,L12-G12))</f>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="V12" s="29">
         <f t="shared" ref="V12:V37" si="11">IF(N12="",L12-G12,MIN(N12-G12,M12-G12,L12-G12))</f>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="W12" s="29">
         <f t="shared" ref="W12:W37" si="12">IF(MAX(ABS(U12))&gt;MAX(ABS(V12)),U12,V12)</f>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="X12" s="285">
         <f t="shared" ref="X12:X32" si="13">ROUND(J12/3.281,1)</f>
@@ -7521,11 +7521,11 @@
       </c>
       <c r="G13" s="9">
         <f t="shared" si="3"/>
-        <v>90.541826758380012</v>
+        <v>90.540293756233794</v>
       </c>
       <c r="H13" s="55">
         <f t="shared" si="4"/>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="I13" s="17">
         <f>VLOOKUP($H$2,'tracker specs'!$A$7:$L$25,10,FALSE)</f>
@@ -7547,7 +7547,7 @@
       </c>
       <c r="P13" s="27">
         <f t="shared" si="6"/>
-        <v>1.2675838000000001E-4</v>
+        <v>1.2675623379999998E-4</v>
       </c>
       <c r="Q13" s="28">
         <f t="shared" si="7"/>
@@ -7555,7 +7555,7 @@
       </c>
       <c r="R13" s="219">
         <f t="shared" si="8"/>
-        <v>90.541700000000006</v>
+        <v>90.540166999999997</v>
       </c>
       <c r="S13" s="220">
         <f t="shared" si="9"/>
@@ -7563,15 +7563,15 @@
       </c>
       <c r="U13" s="29">
         <f t="shared" si="10"/>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="V13" s="29">
         <f t="shared" si="11"/>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="W13" s="29">
         <f t="shared" si="12"/>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="X13" s="285">
         <f t="shared" si="13"/>
@@ -7601,11 +7601,11 @@
       </c>
       <c r="G14" s="9">
         <f t="shared" si="3"/>
-        <v>90.541826758380012</v>
+        <v>90.540293756233794</v>
       </c>
       <c r="H14" s="55">
         <f t="shared" si="4"/>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="I14" s="17">
         <f>VLOOKUP($H$2,'tracker specs'!$A$7:$L$25,10,FALSE)</f>
@@ -7627,7 +7627,7 @@
       </c>
       <c r="P14" s="27">
         <f t="shared" si="6"/>
-        <v>1.2675838000000001E-4</v>
+        <v>1.2675623379999998E-4</v>
       </c>
       <c r="Q14" s="28">
         <f t="shared" si="7"/>
@@ -7635,7 +7635,7 @@
       </c>
       <c r="R14" s="219">
         <f t="shared" si="8"/>
-        <v>90.541700000000006</v>
+        <v>90.540166999999997</v>
       </c>
       <c r="S14" s="220">
         <f t="shared" si="9"/>
@@ -7643,15 +7643,15 @@
       </c>
       <c r="U14" s="29">
         <f t="shared" si="10"/>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="V14" s="29">
         <f t="shared" si="11"/>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="W14" s="29">
         <f t="shared" si="12"/>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="X14" s="285">
         <f t="shared" si="13"/>
@@ -7681,11 +7681,11 @@
       </c>
       <c r="G15" s="9">
         <f t="shared" si="3"/>
-        <v>90.541826758380012</v>
+        <v>90.540293756233794</v>
       </c>
       <c r="H15" s="55">
         <f t="shared" si="4"/>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="I15" s="17">
         <f>VLOOKUP($H$2,'tracker specs'!$A$7:$L$25,10,FALSE)</f>
@@ -7707,7 +7707,7 @@
       </c>
       <c r="P15" s="27">
         <f t="shared" si="6"/>
-        <v>1.2675838000000001E-4</v>
+        <v>1.2675623379999998E-4</v>
       </c>
       <c r="Q15" s="28">
         <f t="shared" si="7"/>
@@ -7715,7 +7715,7 @@
       </c>
       <c r="R15" s="219">
         <f t="shared" si="8"/>
-        <v>90.541700000000006</v>
+        <v>90.540166999999997</v>
       </c>
       <c r="S15" s="220">
         <f t="shared" si="9"/>
@@ -7723,15 +7723,15 @@
       </c>
       <c r="U15" s="29">
         <f t="shared" si="10"/>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="V15" s="29">
         <f t="shared" si="11"/>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="W15" s="29">
         <f t="shared" si="12"/>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="X15" s="285">
         <f t="shared" si="13"/>
@@ -7761,11 +7761,11 @@
       </c>
       <c r="G16" s="9">
         <f t="shared" si="3"/>
-        <v>90.541826758380012</v>
+        <v>90.540293756233794</v>
       </c>
       <c r="H16" s="55">
         <f t="shared" si="4"/>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="I16" s="17">
         <f>VLOOKUP($H$2,'tracker specs'!$A$7:$L$25,10,FALSE)</f>
@@ -7787,7 +7787,7 @@
       </c>
       <c r="P16" s="27">
         <f t="shared" si="6"/>
-        <v>1.2675838000000001E-4</v>
+        <v>1.2675623379999998E-4</v>
       </c>
       <c r="Q16" s="28">
         <f t="shared" si="7"/>
@@ -7795,7 +7795,7 @@
       </c>
       <c r="R16" s="219">
         <f t="shared" si="8"/>
-        <v>90.541700000000006</v>
+        <v>90.540166999999997</v>
       </c>
       <c r="S16" s="220">
         <f t="shared" si="9"/>
@@ -7803,15 +7803,15 @@
       </c>
       <c r="U16" s="29">
         <f t="shared" si="10"/>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="V16" s="29">
         <f t="shared" si="11"/>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="W16" s="29">
         <f t="shared" si="12"/>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="X16" s="285">
         <f t="shared" si="13"/>
@@ -7841,11 +7841,11 @@
       </c>
       <c r="G17" s="9">
         <f t="shared" si="3"/>
-        <v>90.541826758380012</v>
+        <v>90.540293756233794</v>
       </c>
       <c r="H17" s="55">
         <f t="shared" si="4"/>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="I17" s="17">
         <f>VLOOKUP($H$2,'tracker specs'!$A$7:$L$25,10,FALSE)</f>
@@ -7867,7 +7867,7 @@
       </c>
       <c r="P17" s="27">
         <f t="shared" si="6"/>
-        <v>1.2675838000000001E-4</v>
+        <v>1.2675623379999998E-4</v>
       </c>
       <c r="Q17" s="28">
         <f t="shared" si="7"/>
@@ -7875,7 +7875,7 @@
       </c>
       <c r="R17" s="219">
         <f t="shared" si="8"/>
-        <v>90.541700000000006</v>
+        <v>90.540166999999997</v>
       </c>
       <c r="S17" s="220">
         <f t="shared" si="9"/>
@@ -7883,15 +7883,15 @@
       </c>
       <c r="U17" s="29">
         <f t="shared" si="10"/>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="V17" s="29">
         <f t="shared" si="11"/>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="W17" s="29">
         <f t="shared" si="12"/>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="X17" s="285">
         <f t="shared" si="13"/>
@@ -7921,11 +7921,11 @@
       </c>
       <c r="G18" s="9">
         <f t="shared" si="3"/>
-        <v>90.541826758380012</v>
+        <v>90.540293756233794</v>
       </c>
       <c r="H18" s="55">
         <f t="shared" si="4"/>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="I18" s="17">
         <f>VLOOKUP($H$2,'tracker specs'!$A$7:$L$25,10,FALSE)</f>
@@ -7947,7 +7947,7 @@
       </c>
       <c r="P18" s="27">
         <f t="shared" si="6"/>
-        <v>1.2675838000000001E-4</v>
+        <v>1.2675623379999998E-4</v>
       </c>
       <c r="Q18" s="28">
         <f t="shared" si="7"/>
@@ -7955,7 +7955,7 @@
       </c>
       <c r="R18" s="219">
         <f t="shared" si="8"/>
-        <v>90.541700000000006</v>
+        <v>90.540166999999997</v>
       </c>
       <c r="S18" s="220">
         <f t="shared" si="9"/>
@@ -7963,15 +7963,15 @@
       </c>
       <c r="U18" s="29">
         <f t="shared" si="10"/>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="V18" s="29">
         <f t="shared" si="11"/>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="W18" s="29">
         <f t="shared" si="12"/>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="X18" s="285">
         <f t="shared" si="13"/>
@@ -8001,11 +8001,11 @@
       </c>
       <c r="G19" s="9">
         <f t="shared" si="3"/>
-        <v>90.541826758380012</v>
+        <v>90.540293756233794</v>
       </c>
       <c r="H19" s="55">
         <f t="shared" si="4"/>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="I19" s="17">
         <f>VLOOKUP($H$2,'tracker specs'!$A$7:$M$25,13,FALSE)</f>
@@ -8027,7 +8027,7 @@
       </c>
       <c r="P19" s="27">
         <f t="shared" si="6"/>
-        <v>1.2675838000000001E-4</v>
+        <v>1.2675623379999998E-4</v>
       </c>
       <c r="Q19" s="28">
         <f t="shared" si="7"/>
@@ -8035,7 +8035,7 @@
       </c>
       <c r="R19" s="219">
         <f t="shared" si="8"/>
-        <v>90.541700000000006</v>
+        <v>90.540166999999997</v>
       </c>
       <c r="S19" s="220">
         <f t="shared" si="9"/>
@@ -8043,15 +8043,15 @@
       </c>
       <c r="U19" s="29">
         <f t="shared" si="10"/>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="V19" s="29">
         <f t="shared" si="11"/>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="W19" s="29">
         <f t="shared" si="12"/>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="X19" s="285">
         <f t="shared" si="13"/>
@@ -8081,11 +8081,11 @@
       </c>
       <c r="G20" s="9">
         <f t="shared" si="3"/>
-        <v>90.541826758380012</v>
+        <v>90.540293756233794</v>
       </c>
       <c r="H20" s="55">
         <f t="shared" si="4"/>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="I20" s="17">
         <f>VLOOKUP($H$2,'tracker specs'!$A$7:$L$25,10,FALSE)</f>
@@ -8107,7 +8107,7 @@
       </c>
       <c r="P20" s="27">
         <f t="shared" si="6"/>
-        <v>1.2675838000000001E-4</v>
+        <v>1.2675623379999998E-4</v>
       </c>
       <c r="Q20" s="28">
         <f t="shared" si="7"/>
@@ -8115,7 +8115,7 @@
       </c>
       <c r="R20" s="219">
         <f t="shared" si="8"/>
-        <v>90.541700000000006</v>
+        <v>90.540166999999997</v>
       </c>
       <c r="S20" s="220">
         <f t="shared" si="9"/>
@@ -8123,15 +8123,15 @@
       </c>
       <c r="U20" s="29">
         <f t="shared" si="10"/>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="V20" s="29">
         <f t="shared" si="11"/>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="W20" s="29">
         <f t="shared" si="12"/>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="X20" s="285">
         <f t="shared" si="13"/>
@@ -8161,11 +8161,11 @@
       </c>
       <c r="G21" s="9">
         <f t="shared" si="3"/>
-        <v>90.541826758380012</v>
+        <v>90.540293756233794</v>
       </c>
       <c r="H21" s="55">
         <f t="shared" si="4"/>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="I21" s="17">
         <f>VLOOKUP($H$2,'tracker specs'!$A$7:$L$25,11,FALSE)</f>
@@ -8187,7 +8187,7 @@
       </c>
       <c r="P21" s="27">
         <f t="shared" si="6"/>
-        <v>1.2675838000000001E-4</v>
+        <v>1.2675623379999998E-4</v>
       </c>
       <c r="Q21" s="28">
         <f t="shared" si="7"/>
@@ -8195,7 +8195,7 @@
       </c>
       <c r="R21" s="219">
         <f t="shared" si="8"/>
-        <v>90.541700000000006</v>
+        <v>90.540166999999997</v>
       </c>
       <c r="S21" s="220">
         <f t="shared" si="9"/>
@@ -8203,15 +8203,15 @@
       </c>
       <c r="U21" s="29">
         <f t="shared" si="10"/>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="V21" s="29">
         <f t="shared" si="11"/>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="W21" s="29">
         <f t="shared" si="12"/>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="X21" s="285">
         <f t="shared" si="13"/>
@@ -8241,11 +8241,11 @@
       </c>
       <c r="G22" s="9">
         <f t="shared" si="3"/>
-        <v>90.541826758380012</v>
+        <v>90.540293756233794</v>
       </c>
       <c r="H22" s="55">
         <f t="shared" si="4"/>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="I22" s="17">
         <f>VLOOKUP($H$2,'tracker specs'!$A$7:$L$25,11,FALSE)</f>
@@ -8267,7 +8267,7 @@
       </c>
       <c r="P22" s="27">
         <f t="shared" si="6"/>
-        <v>1.2675838000000001E-4</v>
+        <v>1.2675623379999998E-4</v>
       </c>
       <c r="Q22" s="28">
         <f t="shared" si="7"/>
@@ -8275,7 +8275,7 @@
       </c>
       <c r="R22" s="219">
         <f t="shared" si="8"/>
-        <v>90.541700000000006</v>
+        <v>90.540166999999997</v>
       </c>
       <c r="S22" s="220">
         <f t="shared" si="9"/>
@@ -8283,15 +8283,15 @@
       </c>
       <c r="U22" s="29">
         <f t="shared" si="10"/>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="V22" s="29">
         <f t="shared" si="11"/>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="W22" s="29">
         <f t="shared" si="12"/>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="X22" s="285">
         <f t="shared" si="13"/>
@@ -8321,11 +8321,11 @@
       </c>
       <c r="G23" s="9">
         <f t="shared" si="3"/>
-        <v>90.541826758380012</v>
+        <v>90.540293756233794</v>
       </c>
       <c r="H23" s="55">
         <f t="shared" si="4"/>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="I23" s="17">
         <f>VLOOKUP($H$2,'tracker specs'!$A$7:$L$25,12,FALSE)</f>
@@ -8347,7 +8347,7 @@
       </c>
       <c r="P23" s="27">
         <f t="shared" si="6"/>
-        <v>1.2675838000000001E-4</v>
+        <v>1.2675623379999998E-4</v>
       </c>
       <c r="Q23" s="28">
         <f t="shared" si="7"/>
@@ -8355,7 +8355,7 @@
       </c>
       <c r="R23" s="219">
         <f t="shared" si="8"/>
-        <v>90.541700000000006</v>
+        <v>90.540166999999997</v>
       </c>
       <c r="S23" s="220">
         <f t="shared" si="9"/>
@@ -8363,15 +8363,15 @@
       </c>
       <c r="U23" s="29">
         <f t="shared" si="10"/>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="V23" s="29">
         <f t="shared" si="11"/>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="W23" s="29">
         <f t="shared" si="12"/>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="X23" s="285">
         <f t="shared" si="13"/>
@@ -8401,11 +8401,11 @@
       </c>
       <c r="G24" s="9">
         <f t="shared" si="3"/>
-        <v>90.541826758380012</v>
+        <v>90.540293756233794</v>
       </c>
       <c r="H24" s="55">
         <f t="shared" si="4"/>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="I24" s="17">
         <f>VLOOKUP($H$2,'tracker specs'!$A$7:$L$25,12,FALSE)</f>
@@ -8427,7 +8427,7 @@
       </c>
       <c r="P24" s="27">
         <f t="shared" si="6"/>
-        <v>1.2675838000000001E-4</v>
+        <v>1.2675623379999998E-4</v>
       </c>
       <c r="Q24" s="28">
         <f t="shared" si="7"/>
@@ -8435,7 +8435,7 @@
       </c>
       <c r="R24" s="219">
         <f t="shared" si="8"/>
-        <v>90.541700000000006</v>
+        <v>90.540166999999997</v>
       </c>
       <c r="S24" s="220">
         <f t="shared" si="9"/>
@@ -8443,15 +8443,15 @@
       </c>
       <c r="U24" s="29">
         <f t="shared" si="10"/>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="V24" s="29">
         <f t="shared" si="11"/>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="W24" s="29">
         <f t="shared" si="12"/>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="X24" s="285">
         <f t="shared" si="13"/>
@@ -8508,7 +8508,7 @@
       </c>
       <c r="R25" s="219">
         <f t="shared" si="8"/>
-        <v>90.541700000000006</v>
+        <v>90.540166999999997</v>
       </c>
       <c r="S25" s="220">
         <f t="shared" si="9"/>
@@ -8581,7 +8581,7 @@
       </c>
       <c r="R26" s="219">
         <f t="shared" si="8"/>
-        <v>90.541700000000006</v>
+        <v>90.540166999999997</v>
       </c>
       <c r="S26" s="220">
         <f t="shared" si="9"/>
@@ -8654,7 +8654,7 @@
       </c>
       <c r="R27" s="219">
         <f t="shared" si="8"/>
-        <v>90.541700000000006</v>
+        <v>90.540166999999997</v>
       </c>
       <c r="S27" s="220">
         <f t="shared" si="9"/>
@@ -8727,7 +8727,7 @@
       </c>
       <c r="R28" s="219">
         <f t="shared" si="8"/>
-        <v>90.541700000000006</v>
+        <v>90.540166999999997</v>
       </c>
       <c r="S28" s="220">
         <f t="shared" si="9"/>
@@ -8800,7 +8800,7 @@
       </c>
       <c r="R29" s="219">
         <f t="shared" si="8"/>
-        <v>90.541700000000006</v>
+        <v>90.540166999999997</v>
       </c>
       <c r="S29" s="220">
         <f t="shared" si="9"/>
@@ -8873,7 +8873,7 @@
       </c>
       <c r="R30" s="219">
         <f t="shared" si="8"/>
-        <v>90.541700000000006</v>
+        <v>90.540166999999997</v>
       </c>
       <c r="S30" s="220">
         <f t="shared" si="9"/>
@@ -8946,7 +8946,7 @@
       </c>
       <c r="R31" s="219">
         <f t="shared" si="8"/>
-        <v>90.541700000000006</v>
+        <v>90.540166999999997</v>
       </c>
       <c r="S31" s="220">
         <f t="shared" si="9"/>
@@ -9019,7 +9019,7 @@
       </c>
       <c r="R32" s="219">
         <f t="shared" si="8"/>
-        <v>90.541700000000006</v>
+        <v>90.540166999999997</v>
       </c>
       <c r="S32" s="220">
         <f t="shared" si="9"/>
@@ -9072,7 +9072,7 @@
       </c>
       <c r="R33" s="219">
         <f>R24</f>
-        <v>90.541700000000006</v>
+        <v>90.540166999999997</v>
       </c>
       <c r="S33" s="220">
         <f>S24</f>
@@ -9110,11 +9110,11 @@
       </c>
       <c r="G34" s="9">
         <f>R34+P34</f>
-        <v>90.541700000000006</v>
+        <v>90.540166999999997</v>
       </c>
       <c r="H34" s="223">
         <f>IF(MAX(ABS(U34))&gt;MAX(ABS(V34)),U34,V34)</f>
-        <v>-90.541700000000006</v>
+        <v>-90.540166999999997</v>
       </c>
       <c r="I34" s="17">
         <f>VLOOKUP($H$2,'tracker specs'!$A$7:$L$25,10,FALSE)</f>
@@ -9141,7 +9141,7 @@
       </c>
       <c r="R34" s="219">
         <f t="shared" ref="R34:S37" si="16">R33</f>
-        <v>90.541700000000006</v>
+        <v>90.540166999999997</v>
       </c>
       <c r="S34" s="220">
         <f t="shared" si="16"/>
@@ -9149,15 +9149,15 @@
       </c>
       <c r="U34" s="29">
         <f t="shared" si="10"/>
-        <v>-90.541700000000006</v>
+        <v>-90.540166999999997</v>
       </c>
       <c r="V34" s="29">
         <f t="shared" si="11"/>
-        <v>-90.541700000000006</v>
+        <v>-90.540166999999997</v>
       </c>
       <c r="W34" s="29">
         <f t="shared" si="12"/>
-        <v>-90.541700000000006</v>
+        <v>-90.540166999999997</v>
       </c>
       <c r="X34" s="285">
         <f>ROUND(J34/3.281,1)</f>
@@ -9192,11 +9192,11 @@
       </c>
       <c r="G35" s="9">
         <f>R35+P35</f>
-        <v>90.541700000000006</v>
+        <v>90.540166999999997</v>
       </c>
       <c r="H35" s="223">
         <f>IF(MAX(ABS(U35))&gt;MAX(ABS(V35)),U35,V35)</f>
-        <v>-90.541700000000006</v>
+        <v>-90.540166999999997</v>
       </c>
       <c r="I35" s="17">
         <f>VLOOKUP($H$2,'tracker specs'!$A$7:$L$25,10,FALSE)</f>
@@ -9223,7 +9223,7 @@
       </c>
       <c r="R35" s="219">
         <f t="shared" si="16"/>
-        <v>90.541700000000006</v>
+        <v>90.540166999999997</v>
       </c>
       <c r="S35" s="220">
         <f t="shared" si="16"/>
@@ -9231,15 +9231,15 @@
       </c>
       <c r="U35" s="29">
         <f t="shared" si="10"/>
-        <v>-90.541700000000006</v>
+        <v>-90.540166999999997</v>
       </c>
       <c r="V35" s="29">
         <f t="shared" si="11"/>
-        <v>-90.541700000000006</v>
+        <v>-90.540166999999997</v>
       </c>
       <c r="W35" s="29">
         <f t="shared" si="12"/>
-        <v>-90.541700000000006</v>
+        <v>-90.540166999999997</v>
       </c>
       <c r="X35" s="285">
         <f>ROUND(J35/3.281,1)</f>
@@ -9247,11 +9247,11 @@
       </c>
       <c r="Y35" s="244">
         <f>MAX(U34:U37)</f>
-        <v>-90.541700000000006</v>
+        <v>-90.540166999999997</v>
       </c>
       <c r="Z35" s="244">
         <f>MIN(W34:W37)</f>
-        <v>-90.541700000000006</v>
+        <v>-90.540166999999997</v>
       </c>
       <c r="AA35" s="244" t="str">
         <f>IF(L34&lt;&gt;"",AVERAGE(W34:W37),"")</f>
@@ -9276,11 +9276,11 @@
       </c>
       <c r="G36" s="9">
         <f>R36+P36</f>
-        <v>90.541700000000006</v>
+        <v>90.540166999999997</v>
       </c>
       <c r="H36" s="223">
         <f>IF(MAX(ABS(U36))&gt;MAX(ABS(V36)),U36,V36)</f>
-        <v>-90.541700000000006</v>
+        <v>-90.540166999999997</v>
       </c>
       <c r="I36" s="17">
         <f>VLOOKUP($H$2,'tracker specs'!$A$7:$L$25,10,FALSE)</f>
@@ -9307,7 +9307,7 @@
       </c>
       <c r="R36" s="219">
         <f t="shared" si="16"/>
-        <v>90.541700000000006</v>
+        <v>90.540166999999997</v>
       </c>
       <c r="S36" s="220">
         <f t="shared" si="16"/>
@@ -9315,15 +9315,15 @@
       </c>
       <c r="U36" s="29">
         <f t="shared" si="10"/>
-        <v>-90.541700000000006</v>
+        <v>-90.540166999999997</v>
       </c>
       <c r="V36" s="29">
         <f t="shared" si="11"/>
-        <v>-90.541700000000006</v>
+        <v>-90.540166999999997</v>
       </c>
       <c r="W36" s="29">
         <f t="shared" si="12"/>
-        <v>-90.541700000000006</v>
+        <v>-90.540166999999997</v>
       </c>
       <c r="X36" s="285">
         <f>ROUND(J36/3.281,1)</f>
@@ -9331,11 +9331,11 @@
       </c>
       <c r="Y36" s="243">
         <f>ABS(Y35)</f>
-        <v>90.541700000000006</v>
+        <v>90.540166999999997</v>
       </c>
       <c r="Z36" s="243">
         <f>ABS(Z35)</f>
-        <v>90.541700000000006</v>
+        <v>90.540166999999997</v>
       </c>
       <c r="AA36" s="243"/>
       <c r="AB36" s="243"/>
@@ -9354,11 +9354,11 @@
       </c>
       <c r="G37" s="9">
         <f>R37+P37</f>
-        <v>90.541700000000006</v>
+        <v>90.540166999999997</v>
       </c>
       <c r="H37" s="223">
         <f>IF(MAX(ABS(U37))&gt;MAX(ABS(V37)),U37,V37)</f>
-        <v>-90.541700000000006</v>
+        <v>-90.540166999999997</v>
       </c>
       <c r="I37" s="17">
         <f>VLOOKUP($H$2,'tracker specs'!$A$7:$L$25,10,FALSE)</f>
@@ -9385,7 +9385,7 @@
       </c>
       <c r="R37" s="219">
         <f t="shared" si="16"/>
-        <v>90.541700000000006</v>
+        <v>90.540166999999997</v>
       </c>
       <c r="S37" s="220">
         <f t="shared" si="16"/>
@@ -9393,15 +9393,15 @@
       </c>
       <c r="U37" s="29">
         <f t="shared" si="10"/>
-        <v>-90.541700000000006</v>
+        <v>-90.540166999999997</v>
       </c>
       <c r="V37" s="29">
         <f t="shared" si="11"/>
-        <v>-90.541700000000006</v>
+        <v>-90.540166999999997</v>
       </c>
       <c r="W37" s="29">
         <f t="shared" si="12"/>
-        <v>-90.541700000000006</v>
+        <v>-90.540166999999997</v>
       </c>
       <c r="X37" s="285">
         <f>ROUND(J37/3.281,1)</f>
@@ -19084,21 +19084,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:102" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A2" s="339" t="s">
+      <c r="A2" s="323" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="339"/>
-      <c r="C2" s="339"/>
-      <c r="D2" s="339"/>
-      <c r="E2" s="339"/>
-      <c r="F2" s="339"/>
-      <c r="G2" s="339"/>
-      <c r="H2" s="339"/>
-      <c r="I2" s="339"/>
-      <c r="J2" s="339"/>
-      <c r="K2" s="339"/>
-      <c r="L2" s="339"/>
-      <c r="M2" s="339"/>
+      <c r="B2" s="323"/>
+      <c r="C2" s="323"/>
+      <c r="D2" s="323"/>
+      <c r="E2" s="323"/>
+      <c r="F2" s="323"/>
+      <c r="G2" s="323"/>
+      <c r="H2" s="323"/>
+      <c r="I2" s="323"/>
+      <c r="J2" s="323"/>
+      <c r="K2" s="323"/>
+      <c r="L2" s="323"/>
+      <c r="M2" s="323"/>
       <c r="S2" s="64"/>
       <c r="T2" s="64"/>
       <c r="U2" s="64"/>
@@ -19185,21 +19185,21 @@
       <c r="CX2"/>
     </row>
     <row r="3" spans="1:102" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="340" t="s">
+      <c r="A3" s="324" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="340"/>
-      <c r="C3" s="340"/>
-      <c r="D3" s="340"/>
-      <c r="E3" s="340"/>
-      <c r="F3" s="340"/>
-      <c r="G3" s="340"/>
-      <c r="H3" s="340"/>
-      <c r="I3" s="340"/>
-      <c r="J3" s="340"/>
-      <c r="K3" s="340"/>
-      <c r="L3" s="340"/>
-      <c r="M3" s="340"/>
+      <c r="B3" s="324"/>
+      <c r="C3" s="324"/>
+      <c r="D3" s="324"/>
+      <c r="E3" s="324"/>
+      <c r="F3" s="324"/>
+      <c r="G3" s="324"/>
+      <c r="H3" s="324"/>
+      <c r="I3" s="324"/>
+      <c r="J3" s="324"/>
+      <c r="K3" s="324"/>
+      <c r="L3" s="324"/>
+      <c r="M3" s="324"/>
       <c r="S3" s="64"/>
       <c r="T3" s="64"/>
       <c r="U3" s="64"/>
@@ -19286,21 +19286,21 @@
       <c r="CX3"/>
     </row>
     <row r="4" spans="1:102" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="340" t="s">
+      <c r="A4" s="324" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="340"/>
-      <c r="C4" s="340"/>
-      <c r="D4" s="340"/>
-      <c r="E4" s="340"/>
-      <c r="F4" s="340"/>
-      <c r="G4" s="340"/>
-      <c r="H4" s="340"/>
-      <c r="I4" s="340"/>
-      <c r="J4" s="340"/>
-      <c r="K4" s="340"/>
-      <c r="L4" s="340"/>
-      <c r="M4" s="340"/>
+      <c r="B4" s="324"/>
+      <c r="C4" s="324"/>
+      <c r="D4" s="324"/>
+      <c r="E4" s="324"/>
+      <c r="F4" s="324"/>
+      <c r="G4" s="324"/>
+      <c r="H4" s="324"/>
+      <c r="I4" s="324"/>
+      <c r="J4" s="324"/>
+      <c r="K4" s="324"/>
+      <c r="L4" s="324"/>
+      <c r="M4" s="324"/>
       <c r="S4" s="64"/>
       <c r="T4" s="64"/>
       <c r="U4" s="64"/>
@@ -19572,22 +19572,22 @@
       <c r="CX6"/>
     </row>
     <row r="7" spans="1:102" ht="45.75" x14ac:dyDescent="0.65">
-      <c r="A7" s="341" t="str">
+      <c r="A7" s="325" t="str">
         <f>IF(R16=TRUE,"Certificate of Inspection","Certificate of Calibration")</f>
         <v>Certificate of Calibration</v>
       </c>
-      <c r="B7" s="341"/>
-      <c r="C7" s="341"/>
-      <c r="D7" s="341"/>
-      <c r="E7" s="341"/>
-      <c r="F7" s="341"/>
-      <c r="G7" s="341"/>
-      <c r="H7" s="341"/>
-      <c r="I7" s="341"/>
-      <c r="J7" s="341"/>
-      <c r="K7" s="341"/>
-      <c r="L7" s="341"/>
-      <c r="M7" s="341"/>
+      <c r="B7" s="325"/>
+      <c r="C7" s="325"/>
+      <c r="D7" s="325"/>
+      <c r="E7" s="325"/>
+      <c r="F7" s="325"/>
+      <c r="G7" s="325"/>
+      <c r="H7" s="325"/>
+      <c r="I7" s="325"/>
+      <c r="J7" s="325"/>
+      <c r="K7" s="325"/>
+      <c r="L7" s="325"/>
+      <c r="M7" s="325"/>
       <c r="O7" s="65"/>
       <c r="S7" s="64"/>
       <c r="T7" s="64"/>
@@ -19875,17 +19875,17 @@
       <c r="B10" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="336">
+      <c r="C10" s="322">
         <f>'The details'!D3</f>
         <v>0</v>
       </c>
-      <c r="D10" s="336"/>
-      <c r="E10" s="336"/>
-      <c r="F10" s="336"/>
-      <c r="G10" s="336"/>
-      <c r="H10" s="336"/>
-      <c r="I10" s="336"/>
-      <c r="J10" s="336"/>
+      <c r="D10" s="322"/>
+      <c r="E10" s="322"/>
+      <c r="F10" s="322"/>
+      <c r="G10" s="322"/>
+      <c r="H10" s="322"/>
+      <c r="I10" s="322"/>
+      <c r="J10" s="322"/>
       <c r="K10" s="69"/>
       <c r="M10" s="214" t="s">
         <v>118</v>
@@ -19979,17 +19979,17 @@
       <c r="B11" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="336">
+      <c r="C11" s="322">
         <f>'The details'!D4</f>
         <v>0</v>
       </c>
-      <c r="D11" s="336"/>
-      <c r="E11" s="336"/>
-      <c r="F11" s="336"/>
-      <c r="G11" s="336"/>
-      <c r="H11" s="336"/>
-      <c r="I11" s="336"/>
-      <c r="J11" s="336"/>
+      <c r="D11" s="322"/>
+      <c r="E11" s="322"/>
+      <c r="F11" s="322"/>
+      <c r="G11" s="322"/>
+      <c r="H11" s="322"/>
+      <c r="I11" s="322"/>
+      <c r="J11" s="322"/>
       <c r="K11" s="69"/>
       <c r="M11" s="214" t="s">
         <v>120</v>
@@ -20299,11 +20299,11 @@
       <c r="K14" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="L14" s="334">
+      <c r="L14" s="326">
         <f>'The details'!D9</f>
         <v>0</v>
       </c>
-      <c r="M14" s="335"/>
+      <c r="M14" s="327"/>
       <c r="P14" s="76"/>
       <c r="Q14" s="72"/>
       <c r="R14" s="76"/>
@@ -20407,11 +20407,11 @@
       <c r="K15" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="L15" s="334">
+      <c r="L15" s="326">
         <f>IF('The details'!D10="",L14+366,'The details'!D10)</f>
         <v>366</v>
       </c>
-      <c r="M15" s="335"/>
+      <c r="M15" s="327"/>
       <c r="P15" s="76"/>
       <c r="Q15" s="72"/>
       <c r="R15" s="76"/>
@@ -20773,17 +20773,17 @@
       <c r="C19" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="D19" s="336" t="s">
+      <c r="D19" s="322" t="s">
         <v>204</v>
       </c>
-      <c r="E19" s="336"/>
-      <c r="F19" s="336"/>
-      <c r="G19" s="336"/>
-      <c r="H19" s="336"/>
-      <c r="I19" s="336"/>
-      <c r="J19" s="336"/>
-      <c r="K19" s="336"/>
-      <c r="L19" s="336"/>
+      <c r="E19" s="322"/>
+      <c r="F19" s="322"/>
+      <c r="G19" s="322"/>
+      <c r="H19" s="322"/>
+      <c r="I19" s="322"/>
+      <c r="J19" s="322"/>
+      <c r="K19" s="322"/>
+      <c r="L19" s="322"/>
       <c r="Q19" s="85"/>
       <c r="R19" s="72"/>
       <c r="S19" s="64"/>
@@ -20819,17 +20819,17 @@
       <c r="C20" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="336" t="s">
+      <c r="D20" s="322" t="s">
         <v>144</v>
       </c>
-      <c r="E20" s="336"/>
-      <c r="F20" s="336"/>
-      <c r="G20" s="336"/>
-      <c r="H20" s="336"/>
-      <c r="I20" s="336"/>
-      <c r="J20" s="336"/>
-      <c r="K20" s="336"/>
-      <c r="L20" s="336"/>
+      <c r="E20" s="322"/>
+      <c r="F20" s="322"/>
+      <c r="G20" s="322"/>
+      <c r="H20" s="322"/>
+      <c r="I20" s="322"/>
+      <c r="J20" s="322"/>
+      <c r="K20" s="322"/>
+      <c r="L20" s="322"/>
       <c r="O20" s="86"/>
       <c r="R20" s="72"/>
       <c r="S20" s="64"/>
@@ -20996,18 +20996,18 @@
       <c r="CX22" s="86"/>
     </row>
     <row r="23" spans="1:102" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B23" s="337" t="s">
+      <c r="B23" s="329" t="s">
         <v>155</v>
       </c>
-      <c r="C23" s="337"/>
-      <c r="D23" s="337"/>
-      <c r="E23" s="337"/>
-      <c r="F23" s="337"/>
-      <c r="G23" s="337"/>
-      <c r="H23" s="337"/>
-      <c r="I23" s="337"/>
-      <c r="J23" s="337"/>
-      <c r="K23" s="337"/>
+      <c r="C23" s="329"/>
+      <c r="D23" s="329"/>
+      <c r="E23" s="329"/>
+      <c r="F23" s="329"/>
+      <c r="G23" s="329"/>
+      <c r="H23" s="329"/>
+      <c r="I23" s="329"/>
+      <c r="J23" s="329"/>
+      <c r="K23" s="329"/>
       <c r="N23" s="86"/>
       <c r="O23" s="86"/>
       <c r="P23" s="86"/>
@@ -21099,29 +21099,29 @@
       <c r="CX23" s="86"/>
     </row>
     <row r="24" spans="1:102" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="337"/>
-      <c r="C24" s="337"/>
-      <c r="D24" s="337"/>
-      <c r="E24" s="337"/>
-      <c r="F24" s="337"/>
-      <c r="G24" s="337"/>
-      <c r="H24" s="337"/>
-      <c r="I24" s="337"/>
-      <c r="J24" s="337"/>
-      <c r="K24" s="337"/>
+      <c r="B24" s="329"/>
+      <c r="C24" s="329"/>
+      <c r="D24" s="329"/>
+      <c r="E24" s="329"/>
+      <c r="F24" s="329"/>
+      <c r="G24" s="329"/>
+      <c r="H24" s="329"/>
+      <c r="I24" s="329"/>
+      <c r="J24" s="329"/>
+      <c r="K24" s="329"/>
     </row>
     <row r="25" spans="1:102" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="189"/>
-      <c r="B25" s="337"/>
-      <c r="C25" s="337"/>
-      <c r="D25" s="337"/>
-      <c r="E25" s="337"/>
-      <c r="F25" s="337"/>
-      <c r="G25" s="337"/>
-      <c r="H25" s="337"/>
-      <c r="I25" s="337"/>
-      <c r="J25" s="337"/>
-      <c r="K25" s="337"/>
+      <c r="B25" s="329"/>
+      <c r="C25" s="329"/>
+      <c r="D25" s="329"/>
+      <c r="E25" s="329"/>
+      <c r="F25" s="329"/>
+      <c r="G25" s="329"/>
+      <c r="H25" s="329"/>
+      <c r="I25" s="329"/>
+      <c r="J25" s="329"/>
+      <c r="K25" s="329"/>
       <c r="L25" s="190"/>
       <c r="M25" s="191"/>
       <c r="R25" s="72"/>
@@ -21153,16 +21153,16 @@
       <c r="AR25" s="64"/>
     </row>
     <row r="26" spans="1:102" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="337"/>
-      <c r="C26" s="337"/>
-      <c r="D26" s="337"/>
-      <c r="E26" s="337"/>
-      <c r="F26" s="337"/>
-      <c r="G26" s="337"/>
-      <c r="H26" s="337"/>
-      <c r="I26" s="337"/>
-      <c r="J26" s="337"/>
-      <c r="K26" s="337"/>
+      <c r="B26" s="329"/>
+      <c r="C26" s="329"/>
+      <c r="D26" s="329"/>
+      <c r="E26" s="329"/>
+      <c r="F26" s="329"/>
+      <c r="G26" s="329"/>
+      <c r="H26" s="329"/>
+      <c r="I26" s="329"/>
+      <c r="J26" s="329"/>
+      <c r="K26" s="329"/>
       <c r="R26" s="76"/>
       <c r="S26" s="64"/>
       <c r="T26" s="64"/>
@@ -21193,22 +21193,22 @@
     </row>
     <row r="27" spans="1:102" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="93"/>
-      <c r="B27" s="338" t="s">
+      <c r="B27" s="332" t="s">
         <v>133</v>
       </c>
-      <c r="C27" s="338"/>
-      <c r="D27" s="338" t="s">
+      <c r="C27" s="332"/>
+      <c r="D27" s="332" t="s">
         <v>273</v>
       </c>
-      <c r="E27" s="338"/>
-      <c r="F27" s="338"/>
-      <c r="G27" s="338"/>
-      <c r="H27" s="338"/>
-      <c r="I27" s="338" t="s">
+      <c r="E27" s="332"/>
+      <c r="F27" s="332"/>
+      <c r="G27" s="332"/>
+      <c r="H27" s="332"/>
+      <c r="I27" s="332" t="s">
         <v>134</v>
       </c>
-      <c r="J27" s="338"/>
-      <c r="K27" s="338"/>
+      <c r="J27" s="332"/>
+      <c r="K27" s="332"/>
       <c r="L27" s="93"/>
       <c r="M27" s="93"/>
       <c r="O27" s="94"/>
@@ -21242,11 +21242,11 @@
     </row>
     <row r="28" spans="1:102" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="332" t="str">
+      <c r="B28" s="330" t="str">
         <f>IF(OR(E34&lt;&gt;"",E35&lt;&gt;"",E36&lt;&gt;""),"Final Readings","")</f>
         <v/>
       </c>
-      <c r="C28" s="332"/>
+      <c r="C28" s="330"/>
       <c r="D28" s="93"/>
       <c r="E28" s="93"/>
       <c r="F28" s="93"/>
@@ -21289,26 +21289,26 @@
     </row>
     <row r="29" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="328" t="s">
+      <c r="B29" s="331" t="s">
         <v>209</v>
       </c>
-      <c r="C29" s="328"/>
+      <c r="C29" s="331"/>
       <c r="D29" s="93"/>
-      <c r="E29" s="331">
+      <c r="E29" s="334">
         <f>'JGI Method Testing'!X4</f>
-        <v>-90.541826758380012</v>
-      </c>
-      <c r="F29" s="331"/>
-      <c r="G29" s="331"/>
+        <v>-90.540293756233794</v>
+      </c>
+      <c r="F29" s="334"/>
+      <c r="G29" s="334"/>
       <c r="H29" s="146"/>
-      <c r="I29" s="331">
+      <c r="I29" s="334">
         <f>'JGI Method Testing'!W4</f>
-        <v>-90.541826758380012</v>
-      </c>
-      <c r="J29" s="333"/>
-      <c r="K29" s="333"/>
-      <c r="L29" s="322"/>
-      <c r="M29" s="322"/>
+        <v>-90.54029375623378</v>
+      </c>
+      <c r="J29" s="335"/>
+      <c r="K29" s="335"/>
+      <c r="L29" s="328"/>
+      <c r="M29" s="328"/>
       <c r="P29" s="94"/>
       <c r="Q29" s="94"/>
       <c r="R29" s="111"/>
@@ -21341,28 +21341,28 @@
     </row>
     <row r="30" spans="1:102" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="328" t="s">
+      <c r="B30" s="331" t="s">
         <v>188</v>
       </c>
-      <c r="C30" s="328"/>
+      <c r="C30" s="331"/>
       <c r="D30" s="147"/>
-      <c r="E30" s="331">
+      <c r="E30" s="334">
         <f>'JGI Method Testing'!I59</f>
         <v>0</v>
       </c>
-      <c r="F30" s="331"/>
-      <c r="G30" s="331"/>
+      <c r="F30" s="334"/>
+      <c r="G30" s="334"/>
       <c r="H30" s="146"/>
-      <c r="I30" s="331">
+      <c r="I30" s="334">
         <f>AVERAGE('Datasheet, JGI Method'!G28:G35)</f>
         <v>0</v>
       </c>
-      <c r="J30" s="333"/>
-      <c r="K30" s="333"/>
-      <c r="O30" s="323"/>
-      <c r="P30" s="323"/>
-      <c r="Q30" s="323"/>
-      <c r="R30" s="323"/>
+      <c r="J30" s="335"/>
+      <c r="K30" s="335"/>
+      <c r="O30" s="333"/>
+      <c r="P30" s="333"/>
+      <c r="Q30" s="333"/>
+      <c r="R30" s="333"/>
       <c r="S30" s="113"/>
       <c r="T30" s="99" t="b">
         <v>0</v>
@@ -21397,24 +21397,24 @@
     </row>
     <row r="31" spans="1:102" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="328" t="s">
+      <c r="B31" s="331" t="s">
         <v>189</v>
       </c>
-      <c r="C31" s="328"/>
+      <c r="C31" s="331"/>
       <c r="D31" s="147"/>
-      <c r="E31" s="333">
+      <c r="E31" s="335">
         <f>'JGI Method Testing'!H20</f>
-        <v>-90.541826758380012</v>
-      </c>
-      <c r="F31" s="331"/>
-      <c r="G31" s="331"/>
+        <v>-90.540293756233794</v>
+      </c>
+      <c r="F31" s="334"/>
+      <c r="G31" s="334"/>
       <c r="H31" s="146"/>
-      <c r="I31" s="331">
+      <c r="I31" s="334">
         <f>E31</f>
-        <v>-90.541826758380012</v>
-      </c>
-      <c r="J31" s="333"/>
-      <c r="K31" s="333"/>
+        <v>-90.540293756233794</v>
+      </c>
+      <c r="J31" s="335"/>
+      <c r="K31" s="335"/>
       <c r="O31" s="211"/>
       <c r="P31" s="211"/>
       <c r="Q31" s="211"/>
@@ -21450,8 +21450,8 @@
       <c r="A32" s="1"/>
       <c r="D32" s="125"/>
       <c r="H32" s="125"/>
-      <c r="L32" s="322"/>
-      <c r="M32" s="322"/>
+      <c r="L32" s="328"/>
+      <c r="M32" s="328"/>
       <c r="O32" s="114"/>
       <c r="P32" s="114"/>
       <c r="Q32" s="114"/>
@@ -21490,19 +21490,19 @@
     </row>
     <row r="33" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="332" t="str">
+      <c r="B33" s="330" t="str">
         <f>IF(OR(E34&lt;&gt;"",E35&lt;&gt;"",E36&lt;&gt;""),"Preliminary Readings","")</f>
         <v/>
       </c>
-      <c r="C33" s="332"/>
+      <c r="C33" s="330"/>
       <c r="F33" s="152"/>
       <c r="J33" s="152"/>
-      <c r="L33" s="322"/>
-      <c r="M33" s="322"/>
-      <c r="O33" s="323"/>
-      <c r="P33" s="323"/>
-      <c r="Q33" s="323"/>
-      <c r="R33" s="323"/>
+      <c r="L33" s="328"/>
+      <c r="M33" s="328"/>
+      <c r="O33" s="333"/>
+      <c r="P33" s="333"/>
+      <c r="Q33" s="333"/>
+      <c r="R33" s="333"/>
       <c r="S33" s="113"/>
       <c r="T33" s="80" t="b">
         <v>0</v>
@@ -21537,26 +21537,26 @@
     </row>
     <row r="34" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A34"/>
-      <c r="B34" s="328" t="str">
+      <c r="B34" s="331" t="str">
         <f>IF(E34&lt;&gt;"",B29,"")</f>
         <v/>
       </c>
-      <c r="C34" s="328"/>
+      <c r="C34" s="331"/>
       <c r="D34" s="125"/>
-      <c r="E34" s="331" t="str">
+      <c r="E34" s="334" t="str">
         <f>'JGI Method Testing'!AB35</f>
         <v/>
       </c>
-      <c r="F34" s="331"/>
-      <c r="G34" s="331"/>
-      <c r="I34" s="331" t="str">
+      <c r="F34" s="334"/>
+      <c r="G34" s="334"/>
+      <c r="I34" s="334" t="str">
         <f>'JGI Method Testing'!AA35</f>
         <v/>
       </c>
-      <c r="J34" s="331"/>
-      <c r="K34" s="331"/>
-      <c r="L34" s="322"/>
-      <c r="M34" s="322"/>
+      <c r="J34" s="334"/>
+      <c r="K34" s="334"/>
+      <c r="L34" s="328"/>
+      <c r="M34" s="328"/>
       <c r="O34" s="115"/>
       <c r="P34" s="115"/>
       <c r="Q34" s="115"/>
@@ -21595,30 +21595,30 @@
     </row>
     <row r="35" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="328" t="str">
+      <c r="B35" s="331" t="str">
         <f>IF(E35&lt;&gt;"",B30,"")</f>
         <v/>
       </c>
-      <c r="C35" s="328"/>
+      <c r="C35" s="331"/>
       <c r="D35" s="125"/>
-      <c r="E35" s="331" t="str">
+      <c r="E35" s="334" t="str">
         <f>'JGI Method Testing'!K59</f>
         <v/>
       </c>
-      <c r="F35" s="331"/>
-      <c r="G35" s="331"/>
-      <c r="I35" s="331" t="str">
+      <c r="F35" s="334"/>
+      <c r="G35" s="334"/>
+      <c r="I35" s="334" t="str">
         <f>'JGI Method Testing'!K58</f>
         <v/>
       </c>
-      <c r="J35" s="331"/>
-      <c r="K35" s="331"/>
-      <c r="L35" s="322"/>
-      <c r="M35" s="322"/>
-      <c r="O35" s="323"/>
-      <c r="P35" s="323"/>
-      <c r="Q35" s="323"/>
-      <c r="R35" s="323"/>
+      <c r="J35" s="334"/>
+      <c r="K35" s="334"/>
+      <c r="L35" s="328"/>
+      <c r="M35" s="328"/>
+      <c r="O35" s="333"/>
+      <c r="P35" s="333"/>
+      <c r="Q35" s="333"/>
+      <c r="R35" s="333"/>
       <c r="S35" s="113"/>
       <c r="T35" s="80" t="b">
         <v>0</v>
@@ -21711,20 +21711,20 @@
     </row>
     <row r="36" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="328" t="str">
+      <c r="B36" s="331" t="str">
         <f>IF(E36&lt;&gt;"",B31,"")</f>
         <v/>
       </c>
-      <c r="C36" s="328"/>
+      <c r="C36" s="331"/>
       <c r="D36" s="125"/>
-      <c r="E36" s="331"/>
-      <c r="F36" s="331"/>
-      <c r="G36" s="331"/>
-      <c r="I36" s="331"/>
-      <c r="J36" s="331"/>
-      <c r="K36" s="331"/>
-      <c r="L36" s="324"/>
-      <c r="M36" s="324"/>
+      <c r="E36" s="334"/>
+      <c r="F36" s="334"/>
+      <c r="G36" s="334"/>
+      <c r="I36" s="334"/>
+      <c r="J36" s="334"/>
+      <c r="K36" s="334"/>
+      <c r="L36" s="338"/>
+      <c r="M36" s="338"/>
       <c r="O36" s="114"/>
       <c r="P36" s="115"/>
       <c r="Q36" s="115"/>
@@ -21816,25 +21816,25 @@
     </row>
     <row r="37" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="322" t="str">
+      <c r="B37" s="328" t="str">
         <f>CONCATENATE("Uncertainty @ k=2: ",'The details'!D24," µin")</f>
         <v>Uncertainty @ k=2: 600 µin</v>
       </c>
-      <c r="C37" s="322"/>
-      <c r="D37" s="322"/>
-      <c r="E37" s="322"/>
-      <c r="F37" s="322"/>
-      <c r="G37" s="322"/>
-      <c r="H37" s="322"/>
-      <c r="I37" s="322"/>
-      <c r="J37" s="322"/>
-      <c r="K37" s="322"/>
+      <c r="C37" s="328"/>
+      <c r="D37" s="328"/>
+      <c r="E37" s="328"/>
+      <c r="F37" s="328"/>
+      <c r="G37" s="328"/>
+      <c r="H37" s="328"/>
+      <c r="I37" s="328"/>
+      <c r="J37" s="328"/>
+      <c r="K37" s="328"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
-      <c r="O37" s="323"/>
-      <c r="P37" s="323"/>
-      <c r="Q37" s="323"/>
-      <c r="R37" s="323"/>
+      <c r="O37" s="333"/>
+      <c r="P37" s="333"/>
+      <c r="Q37" s="333"/>
+      <c r="R37" s="333"/>
       <c r="S37" s="113"/>
       <c r="T37" s="64"/>
       <c r="U37" s="97"/>
@@ -21922,18 +21922,18 @@
     </row>
     <row r="38" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="322" t="s">
+      <c r="B38" s="328" t="s">
         <v>145</v>
       </c>
-      <c r="C38" s="322"/>
-      <c r="D38" s="322"/>
-      <c r="E38" s="322"/>
-      <c r="F38" s="322"/>
-      <c r="G38" s="322"/>
-      <c r="H38" s="322"/>
-      <c r="I38" s="322"/>
-      <c r="J38" s="322"/>
-      <c r="K38" s="322"/>
+      <c r="C38" s="328"/>
+      <c r="D38" s="328"/>
+      <c r="E38" s="328"/>
+      <c r="F38" s="328"/>
+      <c r="G38" s="328"/>
+      <c r="H38" s="328"/>
+      <c r="I38" s="328"/>
+      <c r="J38" s="328"/>
+      <c r="K38" s="328"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="O38" s="114"/>
@@ -22036,10 +22036,10 @@
       <c r="F39" s="148"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
-      <c r="O39" s="323"/>
-      <c r="P39" s="323"/>
-      <c r="Q39" s="323"/>
-      <c r="R39" s="323"/>
+      <c r="O39" s="333"/>
+      <c r="P39" s="333"/>
+      <c r="Q39" s="333"/>
+      <c r="R39" s="333"/>
       <c r="S39" s="113"/>
       <c r="T39" s="64" t="s">
         <v>136</v>
@@ -22128,22 +22128,22 @@
       <c r="CX39"/>
     </row>
     <row r="40" spans="1:102" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="329" t="str">
+      <c r="A40" s="336" t="str">
         <f>IF(R17=TRUE,U46,U47)</f>
         <v>The reported expanded uncertainty of measurement is stated as the standard uncertainty of measurement multiplied by the coverage factor k such that the coverage probability corresponds to approximately 95%. This estimate was performed in accordance with guidelines set forth in ANSI/NCSL Z540-2. The acceptance or rejection of the item(s) is based on the actual test values shown, without adjustment for measurement uncertainty. All testing performed using standards traceable to NIST or to intrinsic standards. This document shall not be reproduced except in full, without the written permission of Johnson Gage and Inspection. Tolerance source key: C = Customer; S = Specification; M = Manufacturer; R = JGI Recommended.</v>
       </c>
-      <c r="B40" s="329"/>
-      <c r="C40" s="329"/>
-      <c r="D40" s="329"/>
-      <c r="E40" s="329"/>
-      <c r="F40" s="329"/>
-      <c r="G40" s="329"/>
-      <c r="H40" s="329"/>
-      <c r="I40" s="329"/>
-      <c r="J40" s="329"/>
-      <c r="K40" s="329"/>
-      <c r="L40" s="329"/>
-      <c r="M40" s="329"/>
+      <c r="B40" s="336"/>
+      <c r="C40" s="336"/>
+      <c r="D40" s="336"/>
+      <c r="E40" s="336"/>
+      <c r="F40" s="336"/>
+      <c r="G40" s="336"/>
+      <c r="H40" s="336"/>
+      <c r="I40" s="336"/>
+      <c r="J40" s="336"/>
+      <c r="K40" s="336"/>
+      <c r="L40" s="336"/>
+      <c r="M40" s="336"/>
       <c r="Q40" s="102"/>
       <c r="S40" s="113"/>
       <c r="T40" s="64"/>
@@ -22231,19 +22231,19 @@
       <c r="CX40"/>
     </row>
     <row r="41" spans="1:102" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="329"/>
-      <c r="B41" s="329"/>
-      <c r="C41" s="329"/>
-      <c r="D41" s="329"/>
-      <c r="E41" s="329"/>
-      <c r="F41" s="329"/>
-      <c r="G41" s="329"/>
-      <c r="H41" s="329"/>
-      <c r="I41" s="329"/>
-      <c r="J41" s="329"/>
-      <c r="K41" s="329"/>
-      <c r="L41" s="329"/>
-      <c r="M41" s="329"/>
+      <c r="A41" s="336"/>
+      <c r="B41" s="336"/>
+      <c r="C41" s="336"/>
+      <c r="D41" s="336"/>
+      <c r="E41" s="336"/>
+      <c r="F41" s="336"/>
+      <c r="G41" s="336"/>
+      <c r="H41" s="336"/>
+      <c r="I41" s="336"/>
+      <c r="J41" s="336"/>
+      <c r="K41" s="336"/>
+      <c r="L41" s="336"/>
+      <c r="M41" s="336"/>
       <c r="Q41" s="102"/>
       <c r="S41" s="64"/>
       <c r="T41" s="64"/>
@@ -22331,19 +22331,19 @@
       <c r="CX41"/>
     </row>
     <row r="42" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="A42" s="329"/>
-      <c r="B42" s="329"/>
-      <c r="C42" s="329"/>
-      <c r="D42" s="329"/>
-      <c r="E42" s="329"/>
-      <c r="F42" s="329"/>
-      <c r="G42" s="329"/>
-      <c r="H42" s="329"/>
-      <c r="I42" s="329"/>
-      <c r="J42" s="329"/>
-      <c r="K42" s="329"/>
-      <c r="L42" s="329"/>
-      <c r="M42" s="329"/>
+      <c r="A42" s="336"/>
+      <c r="B42" s="336"/>
+      <c r="C42" s="336"/>
+      <c r="D42" s="336"/>
+      <c r="E42" s="336"/>
+      <c r="F42" s="336"/>
+      <c r="G42" s="336"/>
+      <c r="H42" s="336"/>
+      <c r="I42" s="336"/>
+      <c r="J42" s="336"/>
+      <c r="K42" s="336"/>
+      <c r="L42" s="336"/>
+      <c r="M42" s="336"/>
       <c r="Q42" s="102"/>
       <c r="S42" s="64"/>
       <c r="T42" s="64"/>
@@ -22431,19 +22431,19 @@
       <c r="CX42"/>
     </row>
     <row r="43" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="A43" s="329"/>
-      <c r="B43" s="329"/>
-      <c r="C43" s="329"/>
-      <c r="D43" s="329"/>
-      <c r="E43" s="329"/>
-      <c r="F43" s="329"/>
-      <c r="G43" s="329"/>
-      <c r="H43" s="329"/>
-      <c r="I43" s="329"/>
-      <c r="J43" s="329"/>
-      <c r="K43" s="329"/>
-      <c r="L43" s="329"/>
-      <c r="M43" s="329"/>
+      <c r="A43" s="336"/>
+      <c r="B43" s="336"/>
+      <c r="C43" s="336"/>
+      <c r="D43" s="336"/>
+      <c r="E43" s="336"/>
+      <c r="F43" s="336"/>
+      <c r="G43" s="336"/>
+      <c r="H43" s="336"/>
+      <c r="I43" s="336"/>
+      <c r="J43" s="336"/>
+      <c r="K43" s="336"/>
+      <c r="L43" s="336"/>
+      <c r="M43" s="336"/>
       <c r="Q43" s="102"/>
       <c r="S43" s="64"/>
       <c r="T43" s="64"/>
@@ -22636,21 +22636,21 @@
       <c r="A45" s="151" t="s">
         <v>254</v>
       </c>
-      <c r="B45" s="330" t="str">
+      <c r="B45" s="337" t="str">
         <f>'The details'!D18</f>
         <v>This item was found in tolerance. No adjustments were performed.</v>
       </c>
-      <c r="C45" s="330"/>
-      <c r="D45" s="330"/>
-      <c r="E45" s="330"/>
-      <c r="F45" s="330"/>
-      <c r="G45" s="330"/>
-      <c r="H45" s="330"/>
-      <c r="I45" s="330"/>
-      <c r="J45" s="330"/>
-      <c r="K45" s="330"/>
-      <c r="L45" s="330"/>
-      <c r="M45" s="330"/>
+      <c r="C45" s="337"/>
+      <c r="D45" s="337"/>
+      <c r="E45" s="337"/>
+      <c r="F45" s="337"/>
+      <c r="G45" s="337"/>
+      <c r="H45" s="337"/>
+      <c r="I45" s="337"/>
+      <c r="J45" s="337"/>
+      <c r="K45" s="337"/>
+      <c r="L45" s="337"/>
+      <c r="M45" s="337"/>
       <c r="Q45" s="102"/>
       <c r="S45" s="64"/>
       <c r="T45" s="64"/>
@@ -22739,18 +22739,18 @@
     </row>
     <row r="46" spans="1:102" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="212"/>
-      <c r="B46" s="330"/>
-      <c r="C46" s="330"/>
-      <c r="D46" s="330"/>
-      <c r="E46" s="330"/>
-      <c r="F46" s="330"/>
-      <c r="G46" s="330"/>
-      <c r="H46" s="330"/>
-      <c r="I46" s="330"/>
-      <c r="J46" s="330"/>
-      <c r="K46" s="330"/>
-      <c r="L46" s="330"/>
-      <c r="M46" s="330"/>
+      <c r="B46" s="337"/>
+      <c r="C46" s="337"/>
+      <c r="D46" s="337"/>
+      <c r="E46" s="337"/>
+      <c r="F46" s="337"/>
+      <c r="G46" s="337"/>
+      <c r="H46" s="337"/>
+      <c r="I46" s="337"/>
+      <c r="J46" s="337"/>
+      <c r="K46" s="337"/>
+      <c r="L46" s="337"/>
+      <c r="M46" s="337"/>
       <c r="Q46" s="102"/>
       <c r="R46" s="102"/>
       <c r="S46" s="64" t="s">
@@ -22844,18 +22844,18 @@
       <c r="CX46"/>
     </row>
     <row r="47" spans="1:102" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="330"/>
-      <c r="C47" s="330"/>
-      <c r="D47" s="330"/>
-      <c r="E47" s="330"/>
-      <c r="F47" s="330"/>
-      <c r="G47" s="330"/>
-      <c r="H47" s="330"/>
-      <c r="I47" s="330"/>
-      <c r="J47" s="330"/>
-      <c r="K47" s="330"/>
-      <c r="L47" s="330"/>
-      <c r="M47" s="330"/>
+      <c r="B47" s="337"/>
+      <c r="C47" s="337"/>
+      <c r="D47" s="337"/>
+      <c r="E47" s="337"/>
+      <c r="F47" s="337"/>
+      <c r="G47" s="337"/>
+      <c r="H47" s="337"/>
+      <c r="I47" s="337"/>
+      <c r="J47" s="337"/>
+      <c r="K47" s="337"/>
+      <c r="L47" s="337"/>
+      <c r="M47" s="337"/>
       <c r="Q47" s="102"/>
       <c r="R47" s="102"/>
       <c r="S47" s="64" t="s">
@@ -23063,19 +23063,19 @@
       <c r="CX48"/>
     </row>
     <row r="49" spans="1:102" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="326"/>
-      <c r="B49" s="326"/>
-      <c r="C49" s="326"/>
-      <c r="D49" s="326"/>
-      <c r="E49" s="326"/>
-      <c r="F49" s="326"/>
-      <c r="G49" s="326"/>
-      <c r="H49" s="326"/>
-      <c r="I49" s="326"/>
-      <c r="J49" s="326"/>
-      <c r="K49" s="326"/>
-      <c r="L49" s="326"/>
-      <c r="M49" s="326"/>
+      <c r="A49" s="340"/>
+      <c r="B49" s="340"/>
+      <c r="C49" s="340"/>
+      <c r="D49" s="340"/>
+      <c r="E49" s="340"/>
+      <c r="F49" s="340"/>
+      <c r="G49" s="340"/>
+      <c r="H49" s="340"/>
+      <c r="I49" s="340"/>
+      <c r="J49" s="340"/>
+      <c r="K49" s="340"/>
+      <c r="L49" s="340"/>
+      <c r="M49" s="340"/>
       <c r="Q49" s="102"/>
       <c r="R49" s="102"/>
       <c r="T49" s="64"/>
@@ -23163,21 +23163,21 @@
       <c r="CX49"/>
     </row>
     <row r="50" spans="1:102" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="327" t="s">
+      <c r="A50" s="341" t="s">
         <v>142</v>
       </c>
-      <c r="B50" s="327"/>
-      <c r="C50" s="327"/>
-      <c r="D50" s="327"/>
-      <c r="E50" s="327"/>
-      <c r="F50" s="327"/>
-      <c r="G50" s="327"/>
-      <c r="H50" s="327"/>
-      <c r="I50" s="327"/>
-      <c r="J50" s="327"/>
-      <c r="K50" s="327"/>
-      <c r="L50" s="327"/>
-      <c r="M50" s="327"/>
+      <c r="B50" s="341"/>
+      <c r="C50" s="341"/>
+      <c r="D50" s="341"/>
+      <c r="E50" s="341"/>
+      <c r="F50" s="341"/>
+      <c r="G50" s="341"/>
+      <c r="H50" s="341"/>
+      <c r="I50" s="341"/>
+      <c r="J50" s="341"/>
+      <c r="K50" s="341"/>
+      <c r="L50" s="341"/>
+      <c r="M50" s="341"/>
       <c r="N50" s="103"/>
       <c r="P50" s="72" t="s">
         <v>149</v>
@@ -23280,20 +23280,20 @@
     </row>
     <row r="51" spans="1:102" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="104"/>
-      <c r="B51" s="325" t="str">
+      <c r="B51" s="339" t="str">
         <f>IFERROR(VLOOKUP(1,$S$51:$Y$66,7,FALSE),"")</f>
         <v>Standard: Reference Length Bar, Serial No.: IRLS1 Certified: 06/05/2024 Due:06/05/2025 Traceability: 56561-059582</v>
       </c>
-      <c r="C51" s="325"/>
-      <c r="D51" s="325"/>
-      <c r="E51" s="325"/>
-      <c r="F51" s="325"/>
-      <c r="G51" s="325"/>
-      <c r="H51" s="325"/>
-      <c r="I51" s="325"/>
-      <c r="J51" s="325"/>
-      <c r="K51" s="325"/>
-      <c r="L51" s="325"/>
+      <c r="C51" s="339"/>
+      <c r="D51" s="339"/>
+      <c r="E51" s="339"/>
+      <c r="F51" s="339"/>
+      <c r="G51" s="339"/>
+      <c r="H51" s="339"/>
+      <c r="I51" s="339"/>
+      <c r="J51" s="339"/>
+      <c r="K51" s="339"/>
+      <c r="L51" s="339"/>
       <c r="M51" s="104"/>
       <c r="N51" s="121"/>
       <c r="O51" s="122" t="str">
@@ -23358,20 +23358,20 @@
     </row>
     <row r="52" spans="1:102" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="104"/>
-      <c r="B52" s="325" t="str">
+      <c r="B52" s="339" t="str">
         <f>IFERROR(VLOOKUP(2,$S$51:$Y$66,7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="C52" s="325"/>
-      <c r="D52" s="325"/>
-      <c r="E52" s="325"/>
-      <c r="F52" s="325"/>
-      <c r="G52" s="325"/>
-      <c r="H52" s="325"/>
-      <c r="I52" s="325"/>
-      <c r="J52" s="325"/>
-      <c r="K52" s="325"/>
-      <c r="L52" s="325"/>
+      <c r="C52" s="339"/>
+      <c r="D52" s="339"/>
+      <c r="E52" s="339"/>
+      <c r="F52" s="339"/>
+      <c r="G52" s="339"/>
+      <c r="H52" s="339"/>
+      <c r="I52" s="339"/>
+      <c r="J52" s="339"/>
+      <c r="K52" s="339"/>
+      <c r="L52" s="339"/>
       <c r="M52" s="104"/>
       <c r="N52" s="121"/>
       <c r="O52" s="122" t="str">
@@ -23433,20 +23433,20 @@
     </row>
     <row r="53" spans="1:102" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="104"/>
-      <c r="B53" s="325" t="str">
+      <c r="B53" s="339" t="str">
         <f>IFERROR(VLOOKUP(3,$S$51:$Y$66,7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="C53" s="325"/>
-      <c r="D53" s="325"/>
-      <c r="E53" s="325"/>
-      <c r="F53" s="325"/>
-      <c r="G53" s="325"/>
-      <c r="H53" s="325"/>
-      <c r="I53" s="325"/>
-      <c r="J53" s="325"/>
-      <c r="K53" s="325"/>
-      <c r="L53" s="325"/>
+      <c r="C53" s="339"/>
+      <c r="D53" s="339"/>
+      <c r="E53" s="339"/>
+      <c r="F53" s="339"/>
+      <c r="G53" s="339"/>
+      <c r="H53" s="339"/>
+      <c r="I53" s="339"/>
+      <c r="J53" s="339"/>
+      <c r="K53" s="339"/>
+      <c r="L53" s="339"/>
       <c r="M53" s="104"/>
       <c r="N53" s="121"/>
       <c r="O53" s="122" t="str">
@@ -23508,20 +23508,20 @@
     </row>
     <row r="54" spans="1:102" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="104"/>
-      <c r="B54" s="325" t="str">
+      <c r="B54" s="339" t="str">
         <f>IFERROR(VLOOKUP(4,$S$51:$Y$66,7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="C54" s="325"/>
-      <c r="D54" s="325"/>
-      <c r="E54" s="325"/>
-      <c r="F54" s="325"/>
-      <c r="G54" s="325"/>
-      <c r="H54" s="325"/>
-      <c r="I54" s="325"/>
-      <c r="J54" s="325"/>
-      <c r="K54" s="325"/>
-      <c r="L54" s="325"/>
+      <c r="C54" s="339"/>
+      <c r="D54" s="339"/>
+      <c r="E54" s="339"/>
+      <c r="F54" s="339"/>
+      <c r="G54" s="339"/>
+      <c r="H54" s="339"/>
+      <c r="I54" s="339"/>
+      <c r="J54" s="339"/>
+      <c r="K54" s="339"/>
+      <c r="L54" s="339"/>
       <c r="M54" s="104"/>
       <c r="N54" s="121"/>
       <c r="O54" s="122" t="str">
@@ -23583,20 +23583,20 @@
     </row>
     <row r="55" spans="1:102" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="104"/>
-      <c r="B55" s="325" t="str">
+      <c r="B55" s="339" t="str">
         <f>IFERROR(VLOOKUP(5,$S$51:$Y$66,7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="C55" s="325"/>
-      <c r="D55" s="325"/>
-      <c r="E55" s="325"/>
-      <c r="F55" s="325"/>
-      <c r="G55" s="325"/>
-      <c r="H55" s="325"/>
-      <c r="I55" s="325"/>
-      <c r="J55" s="325"/>
-      <c r="K55" s="325"/>
-      <c r="L55" s="325"/>
+      <c r="C55" s="339"/>
+      <c r="D55" s="339"/>
+      <c r="E55" s="339"/>
+      <c r="F55" s="339"/>
+      <c r="G55" s="339"/>
+      <c r="H55" s="339"/>
+      <c r="I55" s="339"/>
+      <c r="J55" s="339"/>
+      <c r="K55" s="339"/>
+      <c r="L55" s="339"/>
       <c r="M55" s="104"/>
       <c r="N55" s="121"/>
       <c r="O55" s="122" t="str">
@@ -23647,20 +23647,20 @@
       <c r="AR55" s="64"/>
     </row>
     <row r="56" spans="1:102" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="325" t="str">
+      <c r="B56" s="339" t="str">
         <f>IFERROR(VLOOKUP(6,$S$51:$Y$66,7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="C56" s="325"/>
-      <c r="D56" s="325"/>
-      <c r="E56" s="325"/>
-      <c r="F56" s="325"/>
-      <c r="G56" s="325"/>
-      <c r="H56" s="325"/>
-      <c r="I56" s="325"/>
-      <c r="J56" s="325"/>
-      <c r="K56" s="325"/>
-      <c r="L56" s="325"/>
+      <c r="C56" s="339"/>
+      <c r="D56" s="339"/>
+      <c r="E56" s="339"/>
+      <c r="F56" s="339"/>
+      <c r="G56" s="339"/>
+      <c r="H56" s="339"/>
+      <c r="I56" s="339"/>
+      <c r="J56" s="339"/>
+      <c r="K56" s="339"/>
+      <c r="L56" s="339"/>
       <c r="N56" s="121"/>
       <c r="O56" s="122" t="str">
         <f t="shared" si="0"/>
@@ -23710,20 +23710,20 @@
       <c r="AR56" s="64"/>
     </row>
     <row r="57" spans="1:102" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="325" t="str">
+      <c r="B57" s="339" t="str">
         <f>IFERROR(VLOOKUP(7,$S$51:$Y$66,7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="C57" s="325"/>
-      <c r="D57" s="325"/>
-      <c r="E57" s="325"/>
-      <c r="F57" s="325"/>
-      <c r="G57" s="325"/>
-      <c r="H57" s="325"/>
-      <c r="I57" s="325"/>
-      <c r="J57" s="325"/>
-      <c r="K57" s="325"/>
-      <c r="L57" s="325"/>
+      <c r="C57" s="339"/>
+      <c r="D57" s="339"/>
+      <c r="E57" s="339"/>
+      <c r="F57" s="339"/>
+      <c r="G57" s="339"/>
+      <c r="H57" s="339"/>
+      <c r="I57" s="339"/>
+      <c r="J57" s="339"/>
+      <c r="K57" s="339"/>
+      <c r="L57" s="339"/>
       <c r="N57" s="121"/>
       <c r="O57" s="122" t="str">
         <f t="shared" si="0"/>
@@ -23773,20 +23773,20 @@
       <c r="AR57" s="64"/>
     </row>
     <row r="58" spans="1:102" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="325" t="str">
+      <c r="B58" s="339" t="str">
         <f>IFERROR(VLOOKUP(8,$S$51:$Y$66,7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="C58" s="325"/>
-      <c r="D58" s="325"/>
-      <c r="E58" s="325"/>
-      <c r="F58" s="325"/>
-      <c r="G58" s="325"/>
-      <c r="H58" s="325"/>
-      <c r="I58" s="325"/>
-      <c r="J58" s="325"/>
-      <c r="K58" s="325"/>
-      <c r="L58" s="325"/>
+      <c r="C58" s="339"/>
+      <c r="D58" s="339"/>
+      <c r="E58" s="339"/>
+      <c r="F58" s="339"/>
+      <c r="G58" s="339"/>
+      <c r="H58" s="339"/>
+      <c r="I58" s="339"/>
+      <c r="J58" s="339"/>
+      <c r="K58" s="339"/>
+      <c r="L58" s="339"/>
       <c r="N58" s="121"/>
       <c r="O58" s="122" t="str">
         <f t="shared" si="0"/>
@@ -23836,20 +23836,20 @@
       <c r="AR58" s="64"/>
     </row>
     <row r="59" spans="1:102" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="325" t="str">
+      <c r="B59" s="339" t="str">
         <f>IFERROR(VLOOKUP(9,$S$51:$Y$66,7,FALSE),"")</f>
         <v/>
       </c>
-      <c r="C59" s="325"/>
-      <c r="D59" s="325"/>
-      <c r="E59" s="325"/>
-      <c r="F59" s="325"/>
-      <c r="G59" s="325"/>
-      <c r="H59" s="325"/>
-      <c r="I59" s="325"/>
-      <c r="J59" s="325"/>
-      <c r="K59" s="325"/>
-      <c r="L59" s="325"/>
+      <c r="C59" s="339"/>
+      <c r="D59" s="339"/>
+      <c r="E59" s="339"/>
+      <c r="F59" s="339"/>
+      <c r="G59" s="339"/>
+      <c r="H59" s="339"/>
+      <c r="I59" s="339"/>
+      <c r="J59" s="339"/>
+      <c r="K59" s="339"/>
+      <c r="L59" s="339"/>
       <c r="N59" s="121"/>
       <c r="O59" s="122" t="str">
         <f t="shared" si="0"/>
@@ -23899,21 +23899,21 @@
       <c r="AR59" s="64"/>
     </row>
     <row r="60" spans="1:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="324" t="s">
+      <c r="A60" s="338" t="s">
         <v>137</v>
       </c>
-      <c r="B60" s="324"/>
-      <c r="C60" s="324"/>
-      <c r="D60" s="324"/>
-      <c r="E60" s="324"/>
-      <c r="F60" s="324"/>
-      <c r="G60" s="324"/>
-      <c r="H60" s="324"/>
-      <c r="I60" s="324"/>
-      <c r="J60" s="324"/>
-      <c r="K60" s="324"/>
-      <c r="L60" s="324"/>
-      <c r="M60" s="324"/>
+      <c r="B60" s="338"/>
+      <c r="C60" s="338"/>
+      <c r="D60" s="338"/>
+      <c r="E60" s="338"/>
+      <c r="F60" s="338"/>
+      <c r="G60" s="338"/>
+      <c r="H60" s="338"/>
+      <c r="I60" s="338"/>
+      <c r="J60" s="338"/>
+      <c r="K60" s="338"/>
+      <c r="L60" s="338"/>
+      <c r="M60" s="338"/>
       <c r="N60" s="121"/>
       <c r="O60" s="122" t="str">
         <f t="shared" si="0"/>
@@ -24342,36 +24342,21 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A3:M3"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="A7:M7"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="D20:L20"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="B23:K26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="D19:L19"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="B37:K37"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="B38:K38"/>
+    <mergeCell ref="A60:M60"/>
+    <mergeCell ref="B54:L54"/>
+    <mergeCell ref="B55:L55"/>
+    <mergeCell ref="B56:L56"/>
+    <mergeCell ref="B57:L57"/>
+    <mergeCell ref="B58:L58"/>
+    <mergeCell ref="B59:L59"/>
+    <mergeCell ref="A49:M49"/>
+    <mergeCell ref="A50:M50"/>
+    <mergeCell ref="B51:L51"/>
+    <mergeCell ref="B52:L52"/>
+    <mergeCell ref="B53:L53"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="O39:R39"/>
@@ -24388,21 +24373,36 @@
     <mergeCell ref="I35:K35"/>
     <mergeCell ref="I36:K36"/>
     <mergeCell ref="L35:M35"/>
-    <mergeCell ref="B37:K37"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="B38:K38"/>
-    <mergeCell ref="A60:M60"/>
-    <mergeCell ref="B54:L54"/>
-    <mergeCell ref="B55:L55"/>
-    <mergeCell ref="B56:L56"/>
-    <mergeCell ref="B57:L57"/>
-    <mergeCell ref="B58:L58"/>
-    <mergeCell ref="B59:L59"/>
-    <mergeCell ref="A49:M49"/>
-    <mergeCell ref="A50:M50"/>
-    <mergeCell ref="B51:L51"/>
-    <mergeCell ref="B52:L52"/>
-    <mergeCell ref="B53:L53"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="B23:K26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="A7:M7"/>
+    <mergeCell ref="C10:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="69" orientation="portrait" r:id="rId1"/>
@@ -24844,7 +24844,7 @@
       <c r="F7" s="46"/>
       <c r="G7" s="50">
         <f>'JGI Method Testing'!G7</f>
-        <v>90.541826758380012</v>
+        <v>90.540293756233794</v>
       </c>
       <c r="H7" s="47">
         <f>'JGI Method Testing'!O7</f>
@@ -24852,7 +24852,7 @@
       </c>
       <c r="I7" s="49">
         <f>'JGI Method Testing'!H7</f>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="J7" s="48">
         <f>'JGI Method Testing'!I7</f>
@@ -24864,7 +24864,7 @@
       </c>
       <c r="N7" s="294">
         <f t="shared" ref="N7:N23" si="0">ABS(I7)</f>
-        <v>90.541826758380012</v>
+        <v>90.540293756233794</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -24886,7 +24886,7 @@
       <c r="F8" s="46"/>
       <c r="G8" s="50">
         <f>'JGI Method Testing'!G8</f>
-        <v>90.541826758380012</v>
+        <v>90.540293756233794</v>
       </c>
       <c r="H8" s="47">
         <f>'JGI Method Testing'!O8</f>
@@ -24894,7 +24894,7 @@
       </c>
       <c r="I8" s="49">
         <f>'JGI Method Testing'!H8</f>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="J8" s="48">
         <f>'JGI Method Testing'!I8</f>
@@ -24906,7 +24906,7 @@
       </c>
       <c r="N8" s="294">
         <f t="shared" si="0"/>
-        <v>90.541826758380012</v>
+        <v>90.540293756233794</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -24928,7 +24928,7 @@
       <c r="F9" s="46"/>
       <c r="G9" s="50">
         <f>'JGI Method Testing'!G9</f>
-        <v>90.541826758380012</v>
+        <v>90.540293756233794</v>
       </c>
       <c r="H9" s="47">
         <f>'JGI Method Testing'!O9</f>
@@ -24936,7 +24936,7 @@
       </c>
       <c r="I9" s="49">
         <f>'JGI Method Testing'!H9</f>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="J9" s="48">
         <f>'JGI Method Testing'!I9</f>
@@ -24948,7 +24948,7 @@
       </c>
       <c r="N9" s="294">
         <f t="shared" si="0"/>
-        <v>90.541826758380012</v>
+        <v>90.540293756233794</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -24970,7 +24970,7 @@
       <c r="F10" s="46"/>
       <c r="G10" s="50">
         <f>'JGI Method Testing'!G10</f>
-        <v>90.541826758380012</v>
+        <v>90.540293756233794</v>
       </c>
       <c r="H10" s="47">
         <f>'JGI Method Testing'!O10</f>
@@ -24978,7 +24978,7 @@
       </c>
       <c r="I10" s="49">
         <f>'JGI Method Testing'!H10</f>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="J10" s="48">
         <f>'JGI Method Testing'!I10</f>
@@ -24990,7 +24990,7 @@
       </c>
       <c r="N10" s="294">
         <f t="shared" si="0"/>
-        <v>90.541826758380012</v>
+        <v>90.540293756233794</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -25012,7 +25012,7 @@
       <c r="F11" s="46"/>
       <c r="G11" s="50">
         <f>'JGI Method Testing'!G11</f>
-        <v>90.541826758380012</v>
+        <v>90.540293756233794</v>
       </c>
       <c r="H11" s="47">
         <f>'JGI Method Testing'!O11</f>
@@ -25020,7 +25020,7 @@
       </c>
       <c r="I11" s="49">
         <f>'JGI Method Testing'!H11</f>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="J11" s="48">
         <f>'JGI Method Testing'!I11</f>
@@ -25032,7 +25032,7 @@
       </c>
       <c r="N11" s="294">
         <f t="shared" si="0"/>
-        <v>90.541826758380012</v>
+        <v>90.540293756233794</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -25054,7 +25054,7 @@
       <c r="F12" s="46"/>
       <c r="G12" s="50">
         <f>'JGI Method Testing'!G12</f>
-        <v>90.541826758380012</v>
+        <v>90.540293756233794</v>
       </c>
       <c r="H12" s="47">
         <f>'JGI Method Testing'!O12</f>
@@ -25062,7 +25062,7 @@
       </c>
       <c r="I12" s="49">
         <f>'JGI Method Testing'!H12</f>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="J12" s="48">
         <f>'JGI Method Testing'!I12</f>
@@ -25074,7 +25074,7 @@
       </c>
       <c r="N12" s="294">
         <f t="shared" si="0"/>
-        <v>90.541826758380012</v>
+        <v>90.540293756233794</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -25096,7 +25096,7 @@
       <c r="F13" s="46"/>
       <c r="G13" s="50">
         <f>'JGI Method Testing'!G13</f>
-        <v>90.541826758380012</v>
+        <v>90.540293756233794</v>
       </c>
       <c r="H13" s="47">
         <f>'JGI Method Testing'!O13</f>
@@ -25104,7 +25104,7 @@
       </c>
       <c r="I13" s="49">
         <f>'JGI Method Testing'!H13</f>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="J13" s="48">
         <f>'JGI Method Testing'!I13</f>
@@ -25116,7 +25116,7 @@
       </c>
       <c r="N13" s="294">
         <f t="shared" si="0"/>
-        <v>90.541826758380012</v>
+        <v>90.540293756233794</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -25138,7 +25138,7 @@
       <c r="F14" s="46"/>
       <c r="G14" s="50">
         <f>'JGI Method Testing'!G14</f>
-        <v>90.541826758380012</v>
+        <v>90.540293756233794</v>
       </c>
       <c r="H14" s="47">
         <f>'JGI Method Testing'!O14</f>
@@ -25146,7 +25146,7 @@
       </c>
       <c r="I14" s="49">
         <f>'JGI Method Testing'!H14</f>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="J14" s="48">
         <f>'JGI Method Testing'!I14</f>
@@ -25158,7 +25158,7 @@
       </c>
       <c r="N14" s="294">
         <f t="shared" si="0"/>
-        <v>90.541826758380012</v>
+        <v>90.540293756233794</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -25180,7 +25180,7 @@
       <c r="F15" s="46"/>
       <c r="G15" s="50">
         <f>'JGI Method Testing'!G15</f>
-        <v>90.541826758380012</v>
+        <v>90.540293756233794</v>
       </c>
       <c r="H15" s="47">
         <f>'JGI Method Testing'!O15</f>
@@ -25188,7 +25188,7 @@
       </c>
       <c r="I15" s="49">
         <f>'JGI Method Testing'!H15</f>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="J15" s="48">
         <f>'JGI Method Testing'!I15</f>
@@ -25200,7 +25200,7 @@
       </c>
       <c r="N15" s="294">
         <f t="shared" si="0"/>
-        <v>90.541826758380012</v>
+        <v>90.540293756233794</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -25222,7 +25222,7 @@
       <c r="F16" s="46"/>
       <c r="G16" s="50">
         <f>'JGI Method Testing'!G16</f>
-        <v>90.541826758380012</v>
+        <v>90.540293756233794</v>
       </c>
       <c r="H16" s="47">
         <f>'JGI Method Testing'!O16</f>
@@ -25230,7 +25230,7 @@
       </c>
       <c r="I16" s="49">
         <f>'JGI Method Testing'!H16</f>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="J16" s="48">
         <f>'JGI Method Testing'!I16</f>
@@ -25242,7 +25242,7 @@
       </c>
       <c r="N16" s="294">
         <f t="shared" si="0"/>
-        <v>90.541826758380012</v>
+        <v>90.540293756233794</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
@@ -25264,7 +25264,7 @@
       <c r="F17" s="46"/>
       <c r="G17" s="50">
         <f>'JGI Method Testing'!G17</f>
-        <v>90.541826758380012</v>
+        <v>90.540293756233794</v>
       </c>
       <c r="H17" s="47">
         <f>'JGI Method Testing'!O17</f>
@@ -25272,7 +25272,7 @@
       </c>
       <c r="I17" s="49">
         <f>'JGI Method Testing'!H17</f>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="J17" s="48">
         <f>'JGI Method Testing'!I17</f>
@@ -25284,7 +25284,7 @@
       </c>
       <c r="N17" s="294">
         <f t="shared" si="0"/>
-        <v>90.541826758380012</v>
+        <v>90.540293756233794</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
@@ -25306,7 +25306,7 @@
       <c r="F18" s="46"/>
       <c r="G18" s="50">
         <f>'JGI Method Testing'!G18</f>
-        <v>90.541826758380012</v>
+        <v>90.540293756233794</v>
       </c>
       <c r="H18" s="47">
         <f>'JGI Method Testing'!O18</f>
@@ -25314,7 +25314,7 @@
       </c>
       <c r="I18" s="49">
         <f>'JGI Method Testing'!H18</f>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="J18" s="48">
         <f>'JGI Method Testing'!I18</f>
@@ -25326,7 +25326,7 @@
       </c>
       <c r="N18" s="294">
         <f t="shared" si="0"/>
-        <v>90.541826758380012</v>
+        <v>90.540293756233794</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
@@ -25348,7 +25348,7 @@
       <c r="F19" s="46"/>
       <c r="G19" s="50">
         <f>'JGI Method Testing'!G19</f>
-        <v>90.541826758380012</v>
+        <v>90.540293756233794</v>
       </c>
       <c r="H19" s="47">
         <f>'JGI Method Testing'!O19</f>
@@ -25356,7 +25356,7 @@
       </c>
       <c r="I19" s="49">
         <f>'JGI Method Testing'!H19</f>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="J19" s="48">
         <f>'JGI Method Testing'!I19</f>
@@ -25368,7 +25368,7 @@
       </c>
       <c r="N19" s="294">
         <f t="shared" si="0"/>
-        <v>90.541826758380012</v>
+        <v>90.540293756233794</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
@@ -25390,7 +25390,7 @@
       <c r="F20" s="46"/>
       <c r="G20" s="50">
         <f>'JGI Method Testing'!G20</f>
-        <v>90.541826758380012</v>
+        <v>90.540293756233794</v>
       </c>
       <c r="H20" s="47">
         <f>'JGI Method Testing'!O20</f>
@@ -25398,7 +25398,7 @@
       </c>
       <c r="I20" s="49">
         <f>'JGI Method Testing'!H20</f>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="J20" s="48">
         <f>'JGI Method Testing'!I20</f>
@@ -25410,7 +25410,7 @@
       </c>
       <c r="N20" s="294">
         <f t="shared" si="0"/>
-        <v>90.541826758380012</v>
+        <v>90.540293756233794</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
@@ -25432,7 +25432,7 @@
       <c r="F21" s="46"/>
       <c r="G21" s="50">
         <f>'JGI Method Testing'!G21</f>
-        <v>90.541826758380012</v>
+        <v>90.540293756233794</v>
       </c>
       <c r="H21" s="47">
         <f>'JGI Method Testing'!O21</f>
@@ -25440,7 +25440,7 @@
       </c>
       <c r="I21" s="49">
         <f>'JGI Method Testing'!H21</f>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="J21" s="48">
         <f>'JGI Method Testing'!I21</f>
@@ -25452,7 +25452,7 @@
       </c>
       <c r="N21" s="294">
         <f t="shared" si="0"/>
-        <v>90.541826758380012</v>
+        <v>90.540293756233794</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
@@ -25474,7 +25474,7 @@
       <c r="F22" s="46"/>
       <c r="G22" s="50">
         <f>'JGI Method Testing'!G22</f>
-        <v>90.541826758380012</v>
+        <v>90.540293756233794</v>
       </c>
       <c r="H22" s="47">
         <f>'JGI Method Testing'!O22</f>
@@ -25482,7 +25482,7 @@
       </c>
       <c r="I22" s="49">
         <f>'JGI Method Testing'!H22</f>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="J22" s="48">
         <f>'JGI Method Testing'!I22</f>
@@ -25494,7 +25494,7 @@
       </c>
       <c r="N22" s="294">
         <f t="shared" si="0"/>
-        <v>90.541826758380012</v>
+        <v>90.540293756233794</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
@@ -25516,7 +25516,7 @@
       <c r="F23" s="46"/>
       <c r="G23" s="50">
         <f>'JGI Method Testing'!G23</f>
-        <v>90.541826758380012</v>
+        <v>90.540293756233794</v>
       </c>
       <c r="H23" s="47">
         <f>'JGI Method Testing'!O23</f>
@@ -25524,7 +25524,7 @@
       </c>
       <c r="I23" s="49">
         <f>'JGI Method Testing'!H23</f>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="J23" s="48">
         <f>'JGI Method Testing'!I23</f>
@@ -25536,7 +25536,7 @@
       </c>
       <c r="N23" s="294">
         <f t="shared" si="0"/>
-        <v>90.541826758380012</v>
+        <v>90.540293756233794</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
@@ -25557,7 +25557,7 @@
       </c>
       <c r="G24" s="50">
         <f>'JGI Method Testing'!G24</f>
-        <v>90.541826758380012</v>
+        <v>90.540293756233794</v>
       </c>
       <c r="H24" s="47">
         <f>'JGI Method Testing'!O24</f>
@@ -25565,7 +25565,7 @@
       </c>
       <c r="I24" s="49">
         <f>'JGI Method Testing'!H24</f>
-        <v>-90.541826758380012</v>
+        <v>-90.540293756233794</v>
       </c>
       <c r="J24" s="48">
         <f>'JGI Method Testing'!I24</f>
@@ -26145,8 +26145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2A85BF-48F5-4BDB-BB46-3270257AB39B}">
   <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27641,6 +27641,7 @@
       <c r="A59">
         <v>51</v>
       </c>
+      <c r="J59" s="124"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
@@ -34027,15 +34028,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D7106659C9D26643AA540CBD094E0397" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5018c6155e8e4379c85041cfa1560781">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a7c4c7f9-987c-475d-a26a-521e5d0f4dc5" xmlns:ns3="1ed8a9e0-df63-4c43-b0d4-c670c11769ef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e78bda9f13f2b71844c90a831e5f907d" ns2:_="" ns3:_="">
     <xsd:import namespace="a7c4c7f9-987c-475d-a26a-521e5d0f4dc5"/>
@@ -34264,6 +34256,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B0AB2FE-88F0-4E92-98AD-62F2E6F190DE}">
   <ds:schemaRefs>
@@ -34276,14 +34277,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB22CDDA-23C2-498B-9BE1-786ED8B274B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F7526FD-8353-4080-9F0C-B340E5385CE5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -34300,4 +34293,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB22CDDA-23C2-498B-9BE1-786ED8B274B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>